--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>FirstName</t>
   </si>
@@ -752,6 +752,366 @@
   </si>
   <si>
     <t>95826</t>
+  </si>
+  <si>
+    <t>Examtaker67234</t>
+  </si>
+  <si>
+    <t>Automation67234</t>
+  </si>
+  <si>
+    <t>examtakerautomation67234@gmail.com</t>
+  </si>
+  <si>
+    <t>67234</t>
+  </si>
+  <si>
+    <t>Examtaker67780</t>
+  </si>
+  <si>
+    <t>Automation67780</t>
+  </si>
+  <si>
+    <t>examtakerautomation67780@gmail.com</t>
+  </si>
+  <si>
+    <t>67780</t>
+  </si>
+  <si>
+    <t>Examtaker99976</t>
+  </si>
+  <si>
+    <t>Automation99976</t>
+  </si>
+  <si>
+    <t>examtakerautomation99976@gmail.com</t>
+  </si>
+  <si>
+    <t>99976</t>
+  </si>
+  <si>
+    <t>Examtaker96782</t>
+  </si>
+  <si>
+    <t>Automation96782</t>
+  </si>
+  <si>
+    <t>examtakerautomation96782@gmail.com</t>
+  </si>
+  <si>
+    <t>96782</t>
+  </si>
+  <si>
+    <t>Examtaker23971</t>
+  </si>
+  <si>
+    <t>Automation23971</t>
+  </si>
+  <si>
+    <t>examtakerautomation23971@gmail.com</t>
+  </si>
+  <si>
+    <t>23971</t>
+  </si>
+  <si>
+    <t>Examtaker44871</t>
+  </si>
+  <si>
+    <t>Automation44871</t>
+  </si>
+  <si>
+    <t>examtakerautomation44871@gmail.com</t>
+  </si>
+  <si>
+    <t>44871</t>
+  </si>
+  <si>
+    <t>Examtaker91744</t>
+  </si>
+  <si>
+    <t>Automation91744</t>
+  </si>
+  <si>
+    <t>examtakerautomation91744@gmail.com</t>
+  </si>
+  <si>
+    <t>91744</t>
+  </si>
+  <si>
+    <t>Examtaker83268</t>
+  </si>
+  <si>
+    <t>Automation83268</t>
+  </si>
+  <si>
+    <t>examtakerautomation83268@gmail.com</t>
+  </si>
+  <si>
+    <t>83268</t>
+  </si>
+  <si>
+    <t>Examtaker19536</t>
+  </si>
+  <si>
+    <t>Automation19536</t>
+  </si>
+  <si>
+    <t>examtakerautomation19536@gmail.com</t>
+  </si>
+  <si>
+    <t>19536</t>
+  </si>
+  <si>
+    <t>Examtaker45715</t>
+  </si>
+  <si>
+    <t>Automation45715</t>
+  </si>
+  <si>
+    <t>examtakerautomation45715@gmail.com</t>
+  </si>
+  <si>
+    <t>45715</t>
+  </si>
+  <si>
+    <t>Examtaker01631</t>
+  </si>
+  <si>
+    <t>Automation01631</t>
+  </si>
+  <si>
+    <t>examtakerautomation01631@gmail.com</t>
+  </si>
+  <si>
+    <t>01631</t>
+  </si>
+  <si>
+    <t>Examtaker91177</t>
+  </si>
+  <si>
+    <t>Automation91177</t>
+  </si>
+  <si>
+    <t>examtakerautomation91177@gmail.com</t>
+  </si>
+  <si>
+    <t>91177</t>
+  </si>
+  <si>
+    <t>Examtaker19514</t>
+  </si>
+  <si>
+    <t>Automation19514</t>
+  </si>
+  <si>
+    <t>examtakerautomation19514@gmail.com</t>
+  </si>
+  <si>
+    <t>19514</t>
+  </si>
+  <si>
+    <t>Examtaker25968</t>
+  </si>
+  <si>
+    <t>Automation25968</t>
+  </si>
+  <si>
+    <t>examtakerautomation25968@gmail.com</t>
+  </si>
+  <si>
+    <t>25968</t>
+  </si>
+  <si>
+    <t>Examtaker66463</t>
+  </si>
+  <si>
+    <t>Automation66463</t>
+  </si>
+  <si>
+    <t>examtakerautomation66463@gmail.com</t>
+  </si>
+  <si>
+    <t>66463</t>
+  </si>
+  <si>
+    <t>Examtaker49863</t>
+  </si>
+  <si>
+    <t>Automation49863</t>
+  </si>
+  <si>
+    <t>examtakerautomation49863@gmail.com</t>
+  </si>
+  <si>
+    <t>49863</t>
+  </si>
+  <si>
+    <t>Examtaker62120</t>
+  </si>
+  <si>
+    <t>Automation62120</t>
+  </si>
+  <si>
+    <t>examtakerautomation62120@gmail.com</t>
+  </si>
+  <si>
+    <t>62120</t>
+  </si>
+  <si>
+    <t>Examtaker89069</t>
+  </si>
+  <si>
+    <t>Automation89069</t>
+  </si>
+  <si>
+    <t>examtakerautomation89069@gmail.com</t>
+  </si>
+  <si>
+    <t>89069</t>
+  </si>
+  <si>
+    <t>Examtaker24311</t>
+  </si>
+  <si>
+    <t>Automation24311</t>
+  </si>
+  <si>
+    <t>examtakerautomation24311@gmail.com</t>
+  </si>
+  <si>
+    <t>24311</t>
+  </si>
+  <si>
+    <t>Examtaker57572</t>
+  </si>
+  <si>
+    <t>Automation57572</t>
+  </si>
+  <si>
+    <t>examtakerautomation57572@gmail.com</t>
+  </si>
+  <si>
+    <t>57572</t>
+  </si>
+  <si>
+    <t>Examtaker47847</t>
+  </si>
+  <si>
+    <t>Automation47847</t>
+  </si>
+  <si>
+    <t>examtakerautomation47847@gmail.com</t>
+  </si>
+  <si>
+    <t>47847</t>
+  </si>
+  <si>
+    <t>Examtaker38505</t>
+  </si>
+  <si>
+    <t>Automation38505</t>
+  </si>
+  <si>
+    <t>examtakerautomation38505@gmail.com</t>
+  </si>
+  <si>
+    <t>38505</t>
+  </si>
+  <si>
+    <t>Examtaker27293</t>
+  </si>
+  <si>
+    <t>Automation27293</t>
+  </si>
+  <si>
+    <t>examtakerautomation27293@gmail.com</t>
+  </si>
+  <si>
+    <t>27293</t>
+  </si>
+  <si>
+    <t>Examtaker59284</t>
+  </si>
+  <si>
+    <t>Automation59284</t>
+  </si>
+  <si>
+    <t>examtakerautomation59284@gmail.com</t>
+  </si>
+  <si>
+    <t>59284</t>
+  </si>
+  <si>
+    <t>Examtaker12605</t>
+  </si>
+  <si>
+    <t>Automation12605</t>
+  </si>
+  <si>
+    <t>examtakerautomation12605@gmail.com</t>
+  </si>
+  <si>
+    <t>12605</t>
+  </si>
+  <si>
+    <t>Examtaker43609</t>
+  </si>
+  <si>
+    <t>Automation43609</t>
+  </si>
+  <si>
+    <t>examtakerautomation43609@gmail.com</t>
+  </si>
+  <si>
+    <t>43609</t>
+  </si>
+  <si>
+    <t>Examtaker30736</t>
+  </si>
+  <si>
+    <t>Automation30736</t>
+  </si>
+  <si>
+    <t>examtakerautomation30736@gmail.com</t>
+  </si>
+  <si>
+    <t>30736</t>
+  </si>
+  <si>
+    <t>Examtaker71699</t>
+  </si>
+  <si>
+    <t>Automation71699</t>
+  </si>
+  <si>
+    <t>examtakerautomation71699@gmail.com</t>
+  </si>
+  <si>
+    <t>71699</t>
+  </si>
+  <si>
+    <t>Examtaker20065</t>
+  </si>
+  <si>
+    <t>Automation20065</t>
+  </si>
+  <si>
+    <t>examtakerautomation20065@gmail.com</t>
+  </si>
+  <si>
+    <t>20065</t>
+  </si>
+  <si>
+    <t>Examtaker28138</t>
+  </si>
+  <si>
+    <t>Automation28138</t>
+  </si>
+  <si>
+    <t>examtakerautomation28138@gmail.com</t>
+  </si>
+  <si>
+    <t>28138</t>
   </si>
 </sst>
 </file>
@@ -1162,422 +1522,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>FirstName</t>
   </si>
@@ -1112,6 +1112,366 @@
   </si>
   <si>
     <t>28138</t>
+  </si>
+  <si>
+    <t>Examtaker14301</t>
+  </si>
+  <si>
+    <t>Automation14301</t>
+  </si>
+  <si>
+    <t>examtakerautomation14301@gmail.com</t>
+  </si>
+  <si>
+    <t>14301</t>
+  </si>
+  <si>
+    <t>Examtaker33594</t>
+  </si>
+  <si>
+    <t>Automation33594</t>
+  </si>
+  <si>
+    <t>examtakerautomation33594@gmail.com</t>
+  </si>
+  <si>
+    <t>33594</t>
+  </si>
+  <si>
+    <t>Examtaker90878</t>
+  </si>
+  <si>
+    <t>Automation90878</t>
+  </si>
+  <si>
+    <t>examtakerautomation90878@gmail.com</t>
+  </si>
+  <si>
+    <t>90878</t>
+  </si>
+  <si>
+    <t>Examtaker55870</t>
+  </si>
+  <si>
+    <t>Automation55870</t>
+  </si>
+  <si>
+    <t>examtakerautomation55870@gmail.com</t>
+  </si>
+  <si>
+    <t>55870</t>
+  </si>
+  <si>
+    <t>Examtaker60396</t>
+  </si>
+  <si>
+    <t>Automation60396</t>
+  </si>
+  <si>
+    <t>examtakerautomation60396@gmail.com</t>
+  </si>
+  <si>
+    <t>60396</t>
+  </si>
+  <si>
+    <t>Examtaker75712</t>
+  </si>
+  <si>
+    <t>Automation75712</t>
+  </si>
+  <si>
+    <t>examtakerautomation75712@gmail.com</t>
+  </si>
+  <si>
+    <t>75712</t>
+  </si>
+  <si>
+    <t>Examtaker92863</t>
+  </si>
+  <si>
+    <t>Automation92863</t>
+  </si>
+  <si>
+    <t>examtakerautomation92863@gmail.com</t>
+  </si>
+  <si>
+    <t>92863</t>
+  </si>
+  <si>
+    <t>Examtaker54675</t>
+  </si>
+  <si>
+    <t>Automation54675</t>
+  </si>
+  <si>
+    <t>examtakerautomation54675@gmail.com</t>
+  </si>
+  <si>
+    <t>54675</t>
+  </si>
+  <si>
+    <t>Examtaker74526</t>
+  </si>
+  <si>
+    <t>Automation74526</t>
+  </si>
+  <si>
+    <t>examtakerautomation74526@gmail.com</t>
+  </si>
+  <si>
+    <t>74526</t>
+  </si>
+  <si>
+    <t>Examtaker65907</t>
+  </si>
+  <si>
+    <t>Automation65907</t>
+  </si>
+  <si>
+    <t>examtakerautomation65907@gmail.com</t>
+  </si>
+  <si>
+    <t>65907</t>
+  </si>
+  <si>
+    <t>Examtaker40646</t>
+  </si>
+  <si>
+    <t>Automation40646</t>
+  </si>
+  <si>
+    <t>examtakerautomation40646@gmail.com</t>
+  </si>
+  <si>
+    <t>40646</t>
+  </si>
+  <si>
+    <t>Examtaker34537</t>
+  </si>
+  <si>
+    <t>Automation34537</t>
+  </si>
+  <si>
+    <t>examtakerautomation34537@gmail.com</t>
+  </si>
+  <si>
+    <t>34537</t>
+  </si>
+  <si>
+    <t>Examtaker41965</t>
+  </si>
+  <si>
+    <t>Automation41965</t>
+  </si>
+  <si>
+    <t>examtakerautomation41965@gmail.com</t>
+  </si>
+  <si>
+    <t>41965</t>
+  </si>
+  <si>
+    <t>Examtaker95673</t>
+  </si>
+  <si>
+    <t>Automation95673</t>
+  </si>
+  <si>
+    <t>examtakerautomation95673@gmail.com</t>
+  </si>
+  <si>
+    <t>95673</t>
+  </si>
+  <si>
+    <t>Examtaker43730</t>
+  </si>
+  <si>
+    <t>Automation43730</t>
+  </si>
+  <si>
+    <t>examtakerautomation43730@gmail.com</t>
+  </si>
+  <si>
+    <t>43730</t>
+  </si>
+  <si>
+    <t>Examtaker99912</t>
+  </si>
+  <si>
+    <t>Automation99912</t>
+  </si>
+  <si>
+    <t>examtakerautomation99912@gmail.com</t>
+  </si>
+  <si>
+    <t>99912</t>
+  </si>
+  <si>
+    <t>Examtaker31001</t>
+  </si>
+  <si>
+    <t>Automation31001</t>
+  </si>
+  <si>
+    <t>examtakerautomation31001@gmail.com</t>
+  </si>
+  <si>
+    <t>31001</t>
+  </si>
+  <si>
+    <t>Examtaker38723</t>
+  </si>
+  <si>
+    <t>Automation38723</t>
+  </si>
+  <si>
+    <t>examtakerautomation38723@gmail.com</t>
+  </si>
+  <si>
+    <t>38723</t>
+  </si>
+  <si>
+    <t>Examtaker30939</t>
+  </si>
+  <si>
+    <t>Automation30939</t>
+  </si>
+  <si>
+    <t>examtakerautomation30939@gmail.com</t>
+  </si>
+  <si>
+    <t>30939</t>
+  </si>
+  <si>
+    <t>Examtaker97646</t>
+  </si>
+  <si>
+    <t>Automation97646</t>
+  </si>
+  <si>
+    <t>examtakerautomation97646@gmail.com</t>
+  </si>
+  <si>
+    <t>97646</t>
+  </si>
+  <si>
+    <t>Examtaker11135</t>
+  </si>
+  <si>
+    <t>Automation11135</t>
+  </si>
+  <si>
+    <t>examtakerautomation11135@gmail.com</t>
+  </si>
+  <si>
+    <t>11135</t>
+  </si>
+  <si>
+    <t>Examtaker44337</t>
+  </si>
+  <si>
+    <t>Automation44337</t>
+  </si>
+  <si>
+    <t>examtakerautomation44337@gmail.com</t>
+  </si>
+  <si>
+    <t>44337</t>
+  </si>
+  <si>
+    <t>Examtaker98912</t>
+  </si>
+  <si>
+    <t>Automation98912</t>
+  </si>
+  <si>
+    <t>examtakerautomation98912@gmail.com</t>
+  </si>
+  <si>
+    <t>98912</t>
+  </si>
+  <si>
+    <t>Examtaker28571</t>
+  </si>
+  <si>
+    <t>Automation28571</t>
+  </si>
+  <si>
+    <t>examtakerautomation28571@gmail.com</t>
+  </si>
+  <si>
+    <t>28571</t>
+  </si>
+  <si>
+    <t>Examtaker28338</t>
+  </si>
+  <si>
+    <t>Automation28338</t>
+  </si>
+  <si>
+    <t>examtakerautomation28338@gmail.com</t>
+  </si>
+  <si>
+    <t>28338</t>
+  </si>
+  <si>
+    <t>Examtaker65991</t>
+  </si>
+  <si>
+    <t>Automation65991</t>
+  </si>
+  <si>
+    <t>examtakerautomation65991@gmail.com</t>
+  </si>
+  <si>
+    <t>65991</t>
+  </si>
+  <si>
+    <t>Examtaker33199</t>
+  </si>
+  <si>
+    <t>Automation33199</t>
+  </si>
+  <si>
+    <t>examtakerautomation33199@gmail.com</t>
+  </si>
+  <si>
+    <t>33199</t>
+  </si>
+  <si>
+    <t>Examtaker79128</t>
+  </si>
+  <si>
+    <t>Automation79128</t>
+  </si>
+  <si>
+    <t>examtakerautomation79128@gmail.com</t>
+  </si>
+  <si>
+    <t>79128</t>
+  </si>
+  <si>
+    <t>Examtaker74825</t>
+  </si>
+  <si>
+    <t>Automation74825</t>
+  </si>
+  <si>
+    <t>examtakerautomation74825@gmail.com</t>
+  </si>
+  <si>
+    <t>74825</t>
+  </si>
+  <si>
+    <t>Examtaker84552</t>
+  </si>
+  <si>
+    <t>Automation84552</t>
+  </si>
+  <si>
+    <t>examtakerautomation84552@gmail.com</t>
+  </si>
+  <si>
+    <t>84552</t>
   </si>
 </sst>
 </file>
@@ -1522,422 +1882,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>438</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>444</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>332</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>454</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
-        <v>345</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="C27" t="s">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C31" t="s">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="842">
   <si>
     <t>FirstName</t>
   </si>
@@ -1472,6 +1472,1074 @@
   </si>
   <si>
     <t>84552</t>
+  </si>
+  <si>
+    <t>Examtaker10190</t>
+  </si>
+  <si>
+    <t>Automation10190</t>
+  </si>
+  <si>
+    <t>examtakerautomation10190@gmail.com</t>
+  </si>
+  <si>
+    <t>10190</t>
+  </si>
+  <si>
+    <t>Examtaker64906</t>
+  </si>
+  <si>
+    <t>Automation64906</t>
+  </si>
+  <si>
+    <t>examtakerautomation64906@gmail.com</t>
+  </si>
+  <si>
+    <t>64906</t>
+  </si>
+  <si>
+    <t>Examtaker70756</t>
+  </si>
+  <si>
+    <t>Automation70756</t>
+  </si>
+  <si>
+    <t>examtakerautomation70756@gmail.com</t>
+  </si>
+  <si>
+    <t>70756</t>
+  </si>
+  <si>
+    <t>Examtaker84434</t>
+  </si>
+  <si>
+    <t>Automation84434</t>
+  </si>
+  <si>
+    <t>examtakerautomation84434@gmail.com</t>
+  </si>
+  <si>
+    <t>84434</t>
+  </si>
+  <si>
+    <t>Examtaker44748</t>
+  </si>
+  <si>
+    <t>Automation44748</t>
+  </si>
+  <si>
+    <t>examtakerautomation44748@gmail.com</t>
+  </si>
+  <si>
+    <t>44748</t>
+  </si>
+  <si>
+    <t>Examtaker01592</t>
+  </si>
+  <si>
+    <t>Automation01592</t>
+  </si>
+  <si>
+    <t>examtakerautomation01592@gmail.com</t>
+  </si>
+  <si>
+    <t>01592</t>
+  </si>
+  <si>
+    <t>Examtaker41259</t>
+  </si>
+  <si>
+    <t>Automation41259</t>
+  </si>
+  <si>
+    <t>examtakerautomation41259@gmail.com</t>
+  </si>
+  <si>
+    <t>41259</t>
+  </si>
+  <si>
+    <t>Examtaker36254</t>
+  </si>
+  <si>
+    <t>Automation36254</t>
+  </si>
+  <si>
+    <t>examtakerautomation36254@gmail.com</t>
+  </si>
+  <si>
+    <t>36254</t>
+  </si>
+  <si>
+    <t>Examtaker69636</t>
+  </si>
+  <si>
+    <t>Automation69636</t>
+  </si>
+  <si>
+    <t>examtakerautomation69636@gmail.com</t>
+  </si>
+  <si>
+    <t>69636</t>
+  </si>
+  <si>
+    <t>Examtaker72361</t>
+  </si>
+  <si>
+    <t>Automation72361</t>
+  </si>
+  <si>
+    <t>examtakerautomation72361@gmail.com</t>
+  </si>
+  <si>
+    <t>72361</t>
+  </si>
+  <si>
+    <t>Examtaker46951</t>
+  </si>
+  <si>
+    <t>Automation46951</t>
+  </si>
+  <si>
+    <t>examtakerautomation46951@gmail.com</t>
+  </si>
+  <si>
+    <t>46951</t>
+  </si>
+  <si>
+    <t>Examtaker24437</t>
+  </si>
+  <si>
+    <t>Automation24437</t>
+  </si>
+  <si>
+    <t>examtakerautomation24437@gmail.com</t>
+  </si>
+  <si>
+    <t>24437</t>
+  </si>
+  <si>
+    <t>Examtaker13499</t>
+  </si>
+  <si>
+    <t>Automation13499</t>
+  </si>
+  <si>
+    <t>examtakerautomation13499@gmail.com</t>
+  </si>
+  <si>
+    <t>13499</t>
+  </si>
+  <si>
+    <t>Examtaker68394</t>
+  </si>
+  <si>
+    <t>Automation68394</t>
+  </si>
+  <si>
+    <t>examtakerautomation68394@gmail.com</t>
+  </si>
+  <si>
+    <t>68394</t>
+  </si>
+  <si>
+    <t>Examtaker83072</t>
+  </si>
+  <si>
+    <t>Automation83072</t>
+  </si>
+  <si>
+    <t>examtakerautomation83072@gmail.com</t>
+  </si>
+  <si>
+    <t>83072</t>
+  </si>
+  <si>
+    <t>Examtaker37290</t>
+  </si>
+  <si>
+    <t>Automation37290</t>
+  </si>
+  <si>
+    <t>examtakerautomation37290@gmail.com</t>
+  </si>
+  <si>
+    <t>37290</t>
+  </si>
+  <si>
+    <t>Examtaker62428</t>
+  </si>
+  <si>
+    <t>Automation62428</t>
+  </si>
+  <si>
+    <t>examtakerautomation62428@gmail.com</t>
+  </si>
+  <si>
+    <t>62428</t>
+  </si>
+  <si>
+    <t>Examtaker68370</t>
+  </si>
+  <si>
+    <t>Automation68370</t>
+  </si>
+  <si>
+    <t>examtakerautomation68370@gmail.com</t>
+  </si>
+  <si>
+    <t>68370</t>
+  </si>
+  <si>
+    <t>Examtaker02562</t>
+  </si>
+  <si>
+    <t>Automation02562</t>
+  </si>
+  <si>
+    <t>examtakerautomation02562@gmail.com</t>
+  </si>
+  <si>
+    <t>02562</t>
+  </si>
+  <si>
+    <t>Examtaker01815</t>
+  </si>
+  <si>
+    <t>Automation01815</t>
+  </si>
+  <si>
+    <t>examtakerautomation01815@gmail.com</t>
+  </si>
+  <si>
+    <t>01815</t>
+  </si>
+  <si>
+    <t>Examtaker90577</t>
+  </si>
+  <si>
+    <t>Automation90577</t>
+  </si>
+  <si>
+    <t>examtakerautomation90577@gmail.com</t>
+  </si>
+  <si>
+    <t>90577</t>
+  </si>
+  <si>
+    <t>Examtaker18743</t>
+  </si>
+  <si>
+    <t>Automation18743</t>
+  </si>
+  <si>
+    <t>examtakerautomation18743@gmail.com</t>
+  </si>
+  <si>
+    <t>18743</t>
+  </si>
+  <si>
+    <t>Examtaker24678</t>
+  </si>
+  <si>
+    <t>Automation24678</t>
+  </si>
+  <si>
+    <t>examtakerautomation24678@gmail.com</t>
+  </si>
+  <si>
+    <t>24678</t>
+  </si>
+  <si>
+    <t>Examtaker53109</t>
+  </si>
+  <si>
+    <t>Automation53109</t>
+  </si>
+  <si>
+    <t>examtakerautomation53109@gmail.com</t>
+  </si>
+  <si>
+    <t>53109</t>
+  </si>
+  <si>
+    <t>Examtaker88759</t>
+  </si>
+  <si>
+    <t>Automation88759</t>
+  </si>
+  <si>
+    <t>examtakerautomation88759@gmail.com</t>
+  </si>
+  <si>
+    <t>88759</t>
+  </si>
+  <si>
+    <t>Examtaker05652</t>
+  </si>
+  <si>
+    <t>Automation05652</t>
+  </si>
+  <si>
+    <t>examtakerautomation05652@gmail.com</t>
+  </si>
+  <si>
+    <t>05652</t>
+  </si>
+  <si>
+    <t>Examtaker92808</t>
+  </si>
+  <si>
+    <t>Automation92808</t>
+  </si>
+  <si>
+    <t>examtakerautomation92808@gmail.com</t>
+  </si>
+  <si>
+    <t>92808</t>
+  </si>
+  <si>
+    <t>Examtaker22019</t>
+  </si>
+  <si>
+    <t>Automation22019</t>
+  </si>
+  <si>
+    <t>examtakerautomation22019@gmail.com</t>
+  </si>
+  <si>
+    <t>22019</t>
+  </si>
+  <si>
+    <t>Examtaker11050</t>
+  </si>
+  <si>
+    <t>Automation11050</t>
+  </si>
+  <si>
+    <t>examtakerautomation11050@gmail.com</t>
+  </si>
+  <si>
+    <t>11050</t>
+  </si>
+  <si>
+    <t>Examtaker33162</t>
+  </si>
+  <si>
+    <t>Automation33162</t>
+  </si>
+  <si>
+    <t>examtakerautomation33162@gmail.com</t>
+  </si>
+  <si>
+    <t>33162</t>
+  </si>
+  <si>
+    <t>Examtaker88101</t>
+  </si>
+  <si>
+    <t>Automation88101</t>
+  </si>
+  <si>
+    <t>examtakerautomation88101@gmail.com</t>
+  </si>
+  <si>
+    <t>88101</t>
+  </si>
+  <si>
+    <t>Examtaker84623</t>
+  </si>
+  <si>
+    <t>Automation84623</t>
+  </si>
+  <si>
+    <t>examtakerautomation84623@gmail.com</t>
+  </si>
+  <si>
+    <t>84623</t>
+  </si>
+  <si>
+    <t>Examtaker23926</t>
+  </si>
+  <si>
+    <t>Automation23926</t>
+  </si>
+  <si>
+    <t>examtakerautomation23926@gmail.com</t>
+  </si>
+  <si>
+    <t>23926</t>
+  </si>
+  <si>
+    <t>Examtaker62670</t>
+  </si>
+  <si>
+    <t>Automation62670</t>
+  </si>
+  <si>
+    <t>examtakerautomation62670@gmail.com</t>
+  </si>
+  <si>
+    <t>62670</t>
+  </si>
+  <si>
+    <t>Examtaker17530</t>
+  </si>
+  <si>
+    <t>Automation17530</t>
+  </si>
+  <si>
+    <t>examtakerautomation17530@gmail.com</t>
+  </si>
+  <si>
+    <t>17530</t>
+  </si>
+  <si>
+    <t>Examtaker75898</t>
+  </si>
+  <si>
+    <t>Automation75898</t>
+  </si>
+  <si>
+    <t>examtakerautomation75898@gmail.com</t>
+  </si>
+  <si>
+    <t>75898</t>
+  </si>
+  <si>
+    <t>Examtaker34845</t>
+  </si>
+  <si>
+    <t>Automation34845</t>
+  </si>
+  <si>
+    <t>examtakerautomation34845@gmail.com</t>
+  </si>
+  <si>
+    <t>34845</t>
+  </si>
+  <si>
+    <t>Examtaker59413</t>
+  </si>
+  <si>
+    <t>Automation59413</t>
+  </si>
+  <si>
+    <t>examtakerautomation59413@gmail.com</t>
+  </si>
+  <si>
+    <t>59413</t>
+  </si>
+  <si>
+    <t>Examtaker06727</t>
+  </si>
+  <si>
+    <t>Automation06727</t>
+  </si>
+  <si>
+    <t>examtakerautomation06727@gmail.com</t>
+  </si>
+  <si>
+    <t>06727</t>
+  </si>
+  <si>
+    <t>Examtaker36586</t>
+  </si>
+  <si>
+    <t>Automation36586</t>
+  </si>
+  <si>
+    <t>examtakerautomation36586@gmail.com</t>
+  </si>
+  <si>
+    <t>36586</t>
+  </si>
+  <si>
+    <t>Examtaker59056</t>
+  </si>
+  <si>
+    <t>Automation59056</t>
+  </si>
+  <si>
+    <t>examtakerautomation59056@gmail.com</t>
+  </si>
+  <si>
+    <t>59056</t>
+  </si>
+  <si>
+    <t>Examtaker25389</t>
+  </si>
+  <si>
+    <t>Automation25389</t>
+  </si>
+  <si>
+    <t>examtakerautomation25389@gmail.com</t>
+  </si>
+  <si>
+    <t>25389</t>
+  </si>
+  <si>
+    <t>Examtaker59437</t>
+  </si>
+  <si>
+    <t>Automation59437</t>
+  </si>
+  <si>
+    <t>examtakerautomation59437@gmail.com</t>
+  </si>
+  <si>
+    <t>59437</t>
+  </si>
+  <si>
+    <t>Examtaker08516</t>
+  </si>
+  <si>
+    <t>Automation08516</t>
+  </si>
+  <si>
+    <t>examtakerautomation08516@gmail.com</t>
+  </si>
+  <si>
+    <t>08516</t>
+  </si>
+  <si>
+    <t>Examtaker34222</t>
+  </si>
+  <si>
+    <t>Automation34222</t>
+  </si>
+  <si>
+    <t>examtakerautomation34222@gmail.com</t>
+  </si>
+  <si>
+    <t>34222</t>
+  </si>
+  <si>
+    <t>Examtaker96075</t>
+  </si>
+  <si>
+    <t>Automation96075</t>
+  </si>
+  <si>
+    <t>examtakerautomation96075@gmail.com</t>
+  </si>
+  <si>
+    <t>96075</t>
+  </si>
+  <si>
+    <t>Examtaker37296</t>
+  </si>
+  <si>
+    <t>Automation37296</t>
+  </si>
+  <si>
+    <t>examtakerautomation37296@gmail.com</t>
+  </si>
+  <si>
+    <t>37296</t>
+  </si>
+  <si>
+    <t>Examtaker54012</t>
+  </si>
+  <si>
+    <t>Automation54012</t>
+  </si>
+  <si>
+    <t>examtakerautomation54012@gmail.com</t>
+  </si>
+  <si>
+    <t>54012</t>
+  </si>
+  <si>
+    <t>Examtaker74925</t>
+  </si>
+  <si>
+    <t>Automation74925</t>
+  </si>
+  <si>
+    <t>examtakerautomation74925@gmail.com</t>
+  </si>
+  <si>
+    <t>74925</t>
+  </si>
+  <si>
+    <t>Examtaker39173</t>
+  </si>
+  <si>
+    <t>Automation39173</t>
+  </si>
+  <si>
+    <t>examtakerautomation39173@gmail.com</t>
+  </si>
+  <si>
+    <t>39173</t>
+  </si>
+  <si>
+    <t>Examtaker55089</t>
+  </si>
+  <si>
+    <t>Automation55089</t>
+  </si>
+  <si>
+    <t>examtakerautomation55089@gmail.com</t>
+  </si>
+  <si>
+    <t>55089</t>
+  </si>
+  <si>
+    <t>Examtaker39463</t>
+  </si>
+  <si>
+    <t>Automation39463</t>
+  </si>
+  <si>
+    <t>examtakerautomation39463@gmail.com</t>
+  </si>
+  <si>
+    <t>39463</t>
+  </si>
+  <si>
+    <t>Examtaker70498</t>
+  </si>
+  <si>
+    <t>Automation70498</t>
+  </si>
+  <si>
+    <t>examtakerautomation70498@gmail.com</t>
+  </si>
+  <si>
+    <t>70498</t>
+  </si>
+  <si>
+    <t>Examtaker29608</t>
+  </si>
+  <si>
+    <t>Automation29608</t>
+  </si>
+  <si>
+    <t>examtakerautomation29608@gmail.com</t>
+  </si>
+  <si>
+    <t>29608</t>
+  </si>
+  <si>
+    <t>Examtaker64428</t>
+  </si>
+  <si>
+    <t>Automation64428</t>
+  </si>
+  <si>
+    <t>examtakerautomation64428@gmail.com</t>
+  </si>
+  <si>
+    <t>64428</t>
+  </si>
+  <si>
+    <t>Examtaker59435</t>
+  </si>
+  <si>
+    <t>Automation59435</t>
+  </si>
+  <si>
+    <t>examtakerautomation59435@gmail.com</t>
+  </si>
+  <si>
+    <t>59435</t>
+  </si>
+  <si>
+    <t>Examtaker49232</t>
+  </si>
+  <si>
+    <t>Automation49232</t>
+  </si>
+  <si>
+    <t>examtakerautomation49232@gmail.com</t>
+  </si>
+  <si>
+    <t>49232</t>
+  </si>
+  <si>
+    <t>Examtaker22102</t>
+  </si>
+  <si>
+    <t>Automation22102</t>
+  </si>
+  <si>
+    <t>examtakerautomation22102@gmail.com</t>
+  </si>
+  <si>
+    <t>22102</t>
+  </si>
+  <si>
+    <t>Examtaker02255</t>
+  </si>
+  <si>
+    <t>Automation02255</t>
+  </si>
+  <si>
+    <t>examtakerautomation02255@gmail.com</t>
+  </si>
+  <si>
+    <t>02255</t>
+  </si>
+  <si>
+    <t>Examtaker07026</t>
+  </si>
+  <si>
+    <t>Automation07026</t>
+  </si>
+  <si>
+    <t>examtakerautomation07026@gmail.com</t>
+  </si>
+  <si>
+    <t>07026</t>
+  </si>
+  <si>
+    <t>Examtaker64456</t>
+  </si>
+  <si>
+    <t>Automation64456</t>
+  </si>
+  <si>
+    <t>examtakerautomation64456@gmail.com</t>
+  </si>
+  <si>
+    <t>64456</t>
+  </si>
+  <si>
+    <t>Examtaker82801</t>
+  </si>
+  <si>
+    <t>Automation82801</t>
+  </si>
+  <si>
+    <t>examtakerautomation82801@gmail.com</t>
+  </si>
+  <si>
+    <t>82801</t>
+  </si>
+  <si>
+    <t>Examtaker34620</t>
+  </si>
+  <si>
+    <t>Automation34620</t>
+  </si>
+  <si>
+    <t>examtakerautomation34620@gmail.com</t>
+  </si>
+  <si>
+    <t>34620</t>
+  </si>
+  <si>
+    <t>Examtaker83292</t>
+  </si>
+  <si>
+    <t>Automation83292</t>
+  </si>
+  <si>
+    <t>examtakerautomation83292@gmail.com</t>
+  </si>
+  <si>
+    <t>83292</t>
+  </si>
+  <si>
+    <t>Examtaker10183</t>
+  </si>
+  <si>
+    <t>Automation10183</t>
+  </si>
+  <si>
+    <t>examtakerautomation10183@gmail.com</t>
+  </si>
+  <si>
+    <t>10183</t>
+  </si>
+  <si>
+    <t>Examtaker38117</t>
+  </si>
+  <si>
+    <t>Automation38117</t>
+  </si>
+  <si>
+    <t>examtakerautomation38117@gmail.com</t>
+  </si>
+  <si>
+    <t>38117</t>
+  </si>
+  <si>
+    <t>Examtaker82060</t>
+  </si>
+  <si>
+    <t>Automation82060</t>
+  </si>
+  <si>
+    <t>examtakerautomation82060@gmail.com</t>
+  </si>
+  <si>
+    <t>82060</t>
+  </si>
+  <si>
+    <t>Examtaker37957</t>
+  </si>
+  <si>
+    <t>Automation37957</t>
+  </si>
+  <si>
+    <t>examtakerautomation37957@gmail.com</t>
+  </si>
+  <si>
+    <t>37957</t>
+  </si>
+  <si>
+    <t>Examtaker34397</t>
+  </si>
+  <si>
+    <t>Automation34397</t>
+  </si>
+  <si>
+    <t>examtakerautomation34397@gmail.com</t>
+  </si>
+  <si>
+    <t>34397</t>
+  </si>
+  <si>
+    <t>Examtaker48716</t>
+  </si>
+  <si>
+    <t>Automation48716</t>
+  </si>
+  <si>
+    <t>examtakerautomation48716@gmail.com</t>
+  </si>
+  <si>
+    <t>48716</t>
+  </si>
+  <si>
+    <t>Examtaker43456</t>
+  </si>
+  <si>
+    <t>Automation43456</t>
+  </si>
+  <si>
+    <t>examtakerautomation43456@gmail.com</t>
+  </si>
+  <si>
+    <t>43456</t>
+  </si>
+  <si>
+    <t>Examtaker64794</t>
+  </si>
+  <si>
+    <t>Automation64794</t>
+  </si>
+  <si>
+    <t>examtakerautomation64794@gmail.com</t>
+  </si>
+  <si>
+    <t>64794</t>
+  </si>
+  <si>
+    <t>Examtaker71815</t>
+  </si>
+  <si>
+    <t>Automation71815</t>
+  </si>
+  <si>
+    <t>examtakerautomation71815@gmail.com</t>
+  </si>
+  <si>
+    <t>71815</t>
+  </si>
+  <si>
+    <t>Examtaker78382</t>
+  </si>
+  <si>
+    <t>Automation78382</t>
+  </si>
+  <si>
+    <t>examtakerautomation78382@gmail.com</t>
+  </si>
+  <si>
+    <t>78382</t>
+  </si>
+  <si>
+    <t>Examtaker58482</t>
+  </si>
+  <si>
+    <t>Automation58482</t>
+  </si>
+  <si>
+    <t>examtakerautomation58482@gmail.com</t>
+  </si>
+  <si>
+    <t>58482</t>
+  </si>
+  <si>
+    <t>Examtaker25638</t>
+  </si>
+  <si>
+    <t>Automation25638</t>
+  </si>
+  <si>
+    <t>examtakerautomation25638@gmail.com</t>
+  </si>
+  <si>
+    <t>25638</t>
+  </si>
+  <si>
+    <t>Examtaker78905</t>
+  </si>
+  <si>
+    <t>Automation78905</t>
+  </si>
+  <si>
+    <t>examtakerautomation78905@gmail.com</t>
+  </si>
+  <si>
+    <t>78905</t>
+  </si>
+  <si>
+    <t>Examtaker64998</t>
+  </si>
+  <si>
+    <t>Automation64998</t>
+  </si>
+  <si>
+    <t>examtakerautomation64998@gmail.com</t>
+  </si>
+  <si>
+    <t>64998</t>
+  </si>
+  <si>
+    <t>Examtaker44476</t>
+  </si>
+  <si>
+    <t>Automation44476</t>
+  </si>
+  <si>
+    <t>examtakerautomation44476@gmail.com</t>
+  </si>
+  <si>
+    <t>44476</t>
+  </si>
+  <si>
+    <t>Examtaker70328</t>
+  </si>
+  <si>
+    <t>Automation70328</t>
+  </si>
+  <si>
+    <t>examtakerautomation70328@gmail.com</t>
+  </si>
+  <si>
+    <t>70328</t>
+  </si>
+  <si>
+    <t>Examtaker99507</t>
+  </si>
+  <si>
+    <t>Automation99507</t>
+  </si>
+  <si>
+    <t>examtakerautomation99507@gmail.com</t>
+  </si>
+  <si>
+    <t>99507</t>
+  </si>
+  <si>
+    <t>Examtaker15330</t>
+  </si>
+  <si>
+    <t>Automation15330</t>
+  </si>
+  <si>
+    <t>examtakerautomation15330@gmail.com</t>
+  </si>
+  <si>
+    <t>15330</t>
+  </si>
+  <si>
+    <t>Examtaker71661</t>
+  </si>
+  <si>
+    <t>Automation71661</t>
+  </si>
+  <si>
+    <t>examtakerautomation71661@gmail.com</t>
+  </si>
+  <si>
+    <t>71661</t>
+  </si>
+  <si>
+    <t>Examtaker81748</t>
+  </si>
+  <si>
+    <t>Automation81748</t>
+  </si>
+  <si>
+    <t>examtakerautomation81748@gmail.com</t>
+  </si>
+  <si>
+    <t>81748</t>
+  </si>
+  <si>
+    <t>Examtaker82293</t>
+  </si>
+  <si>
+    <t>Automation82293</t>
+  </si>
+  <si>
+    <t>examtakerautomation82293@gmail.com</t>
+  </si>
+  <si>
+    <t>82293</t>
+  </si>
+  <si>
+    <t>Examtaker38206</t>
+  </si>
+  <si>
+    <t>Automation38206</t>
+  </si>
+  <si>
+    <t>examtakerautomation38206@gmail.com</t>
+  </si>
+  <si>
+    <t>38206</t>
+  </si>
+  <si>
+    <t>Examtaker12394</t>
+  </si>
+  <si>
+    <t>Automation12394</t>
+  </si>
+  <si>
+    <t>examtakerautomation12394@gmail.com</t>
+  </si>
+  <si>
+    <t>12394</t>
+  </si>
+  <si>
+    <t>Examtaker29696</t>
+  </si>
+  <si>
+    <t>Automation29696</t>
+  </si>
+  <si>
+    <t>examtakerautomation29696@gmail.com</t>
+  </si>
+  <si>
+    <t>29696</t>
+  </si>
+  <si>
+    <t>Examtaker12278</t>
+  </si>
+  <si>
+    <t>Automation12278</t>
+  </si>
+  <si>
+    <t>examtakerautomation12278@gmail.com</t>
+  </si>
+  <si>
+    <t>12278</t>
   </si>
 </sst>
 </file>
@@ -1882,422 +2950,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>722</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>723</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>724</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>727</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>728</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>730</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>731</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>732</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>734</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>735</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>736</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>739</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>740</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>742</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>743</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>744</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>746</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>747</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>748</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>750</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>751</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>752</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>758</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>759</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>760</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>762</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>764</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>766</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>767</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>768</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>771</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>772</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>419</v>
+        <v>775</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>776</v>
       </c>
       <c r="D15" t="s">
-        <v>421</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>778</v>
       </c>
       <c r="B16" t="s">
-        <v>423</v>
+        <v>779</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>780</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>782</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>783</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>784</v>
       </c>
       <c r="D17" t="s">
-        <v>429</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>786</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>787</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>788</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>791</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>792</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>794</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="C20" t="s">
-        <v>440</v>
+        <v>796</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>798</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>799</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>802</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>803</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>804</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>806</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>807</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
+        <v>808</v>
       </c>
       <c r="D23" t="s">
-        <v>453</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>810</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>811</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>812</v>
       </c>
       <c r="D24" t="s">
-        <v>457</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>814</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>815</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>816</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>462</v>
+        <v>818</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>819</v>
       </c>
       <c r="C26" t="s">
-        <v>464</v>
+        <v>820</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>466</v>
+        <v>822</v>
       </c>
       <c r="B27" t="s">
-        <v>467</v>
+        <v>823</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>824</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>826</v>
       </c>
       <c r="B28" t="s">
-        <v>471</v>
+        <v>827</v>
       </c>
       <c r="C28" t="s">
-        <v>472</v>
+        <v>828</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>474</v>
+        <v>830</v>
       </c>
       <c r="B29" t="s">
-        <v>475</v>
+        <v>831</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>832</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>833</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>834</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>835</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>836</v>
       </c>
       <c r="D30" t="s">
-        <v>481</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>482</v>
+        <v>838</v>
       </c>
       <c r="B31" t="s">
-        <v>483</v>
+        <v>839</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>840</v>
       </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="962">
   <si>
     <t>FirstName</t>
   </si>
@@ -2540,6 +2540,366 @@
   </si>
   <si>
     <t>12278</t>
+  </si>
+  <si>
+    <t>Examtaker34245</t>
+  </si>
+  <si>
+    <t>Automation34245</t>
+  </si>
+  <si>
+    <t>examtakerautomation34245@gmail.com</t>
+  </si>
+  <si>
+    <t>34245</t>
+  </si>
+  <si>
+    <t>Examtaker67841</t>
+  </si>
+  <si>
+    <t>Automation67841</t>
+  </si>
+  <si>
+    <t>examtakerautomation67841@gmail.com</t>
+  </si>
+  <si>
+    <t>67841</t>
+  </si>
+  <si>
+    <t>Examtaker78837</t>
+  </si>
+  <si>
+    <t>Automation78837</t>
+  </si>
+  <si>
+    <t>examtakerautomation78837@gmail.com</t>
+  </si>
+  <si>
+    <t>78837</t>
+  </si>
+  <si>
+    <t>Examtaker18080</t>
+  </si>
+  <si>
+    <t>Automation18080</t>
+  </si>
+  <si>
+    <t>examtakerautomation18080@gmail.com</t>
+  </si>
+  <si>
+    <t>18080</t>
+  </si>
+  <si>
+    <t>Examtaker58765</t>
+  </si>
+  <si>
+    <t>Automation58765</t>
+  </si>
+  <si>
+    <t>examtakerautomation58765@gmail.com</t>
+  </si>
+  <si>
+    <t>58765</t>
+  </si>
+  <si>
+    <t>Examtaker33514</t>
+  </si>
+  <si>
+    <t>Automation33514</t>
+  </si>
+  <si>
+    <t>examtakerautomation33514@gmail.com</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>Examtaker38291</t>
+  </si>
+  <si>
+    <t>Automation38291</t>
+  </si>
+  <si>
+    <t>examtakerautomation38291@gmail.com</t>
+  </si>
+  <si>
+    <t>38291</t>
+  </si>
+  <si>
+    <t>Examtaker60430</t>
+  </si>
+  <si>
+    <t>Automation60430</t>
+  </si>
+  <si>
+    <t>examtakerautomation60430@gmail.com</t>
+  </si>
+  <si>
+    <t>60430</t>
+  </si>
+  <si>
+    <t>Examtaker02610</t>
+  </si>
+  <si>
+    <t>Automation02610</t>
+  </si>
+  <si>
+    <t>examtakerautomation02610@gmail.com</t>
+  </si>
+  <si>
+    <t>02610</t>
+  </si>
+  <si>
+    <t>Examtaker95821</t>
+  </si>
+  <si>
+    <t>Automation95821</t>
+  </si>
+  <si>
+    <t>examtakerautomation95821@gmail.com</t>
+  </si>
+  <si>
+    <t>95821</t>
+  </si>
+  <si>
+    <t>Examtaker81159</t>
+  </si>
+  <si>
+    <t>Automation81159</t>
+  </si>
+  <si>
+    <t>examtakerautomation81159@gmail.com</t>
+  </si>
+  <si>
+    <t>81159</t>
+  </si>
+  <si>
+    <t>Examtaker98224</t>
+  </si>
+  <si>
+    <t>Automation98224</t>
+  </si>
+  <si>
+    <t>examtakerautomation98224@gmail.com</t>
+  </si>
+  <si>
+    <t>98224</t>
+  </si>
+  <si>
+    <t>Examtaker56331</t>
+  </si>
+  <si>
+    <t>Automation56331</t>
+  </si>
+  <si>
+    <t>examtakerautomation56331@gmail.com</t>
+  </si>
+  <si>
+    <t>56331</t>
+  </si>
+  <si>
+    <t>Examtaker91917</t>
+  </si>
+  <si>
+    <t>Automation91917</t>
+  </si>
+  <si>
+    <t>examtakerautomation91917@gmail.com</t>
+  </si>
+  <si>
+    <t>91917</t>
+  </si>
+  <si>
+    <t>Examtaker35284</t>
+  </si>
+  <si>
+    <t>Automation35284</t>
+  </si>
+  <si>
+    <t>examtakerautomation35284@gmail.com</t>
+  </si>
+  <si>
+    <t>35284</t>
+  </si>
+  <si>
+    <t>Examtaker52060</t>
+  </si>
+  <si>
+    <t>Automation52060</t>
+  </si>
+  <si>
+    <t>examtakerautomation52060@gmail.com</t>
+  </si>
+  <si>
+    <t>52060</t>
+  </si>
+  <si>
+    <t>Examtaker71912</t>
+  </si>
+  <si>
+    <t>Automation71912</t>
+  </si>
+  <si>
+    <t>examtakerautomation71912@gmail.com</t>
+  </si>
+  <si>
+    <t>71912</t>
+  </si>
+  <si>
+    <t>Examtaker75613</t>
+  </si>
+  <si>
+    <t>Automation75613</t>
+  </si>
+  <si>
+    <t>examtakerautomation75613@gmail.com</t>
+  </si>
+  <si>
+    <t>75613</t>
+  </si>
+  <si>
+    <t>Examtaker63210</t>
+  </si>
+  <si>
+    <t>Automation63210</t>
+  </si>
+  <si>
+    <t>examtakerautomation63210@gmail.com</t>
+  </si>
+  <si>
+    <t>63210</t>
+  </si>
+  <si>
+    <t>Examtaker83857</t>
+  </si>
+  <si>
+    <t>Automation83857</t>
+  </si>
+  <si>
+    <t>examtakerautomation83857@gmail.com</t>
+  </si>
+  <si>
+    <t>83857</t>
+  </si>
+  <si>
+    <t>Examtaker54033</t>
+  </si>
+  <si>
+    <t>Automation54033</t>
+  </si>
+  <si>
+    <t>examtakerautomation54033@gmail.com</t>
+  </si>
+  <si>
+    <t>54033</t>
+  </si>
+  <si>
+    <t>Examtaker97377</t>
+  </si>
+  <si>
+    <t>Automation97377</t>
+  </si>
+  <si>
+    <t>examtakerautomation97377@gmail.com</t>
+  </si>
+  <si>
+    <t>97377</t>
+  </si>
+  <si>
+    <t>Examtaker08744</t>
+  </si>
+  <si>
+    <t>Automation08744</t>
+  </si>
+  <si>
+    <t>examtakerautomation08744@gmail.com</t>
+  </si>
+  <si>
+    <t>08744</t>
+  </si>
+  <si>
+    <t>Examtaker84660</t>
+  </si>
+  <si>
+    <t>Automation84660</t>
+  </si>
+  <si>
+    <t>examtakerautomation84660@gmail.com</t>
+  </si>
+  <si>
+    <t>84660</t>
+  </si>
+  <si>
+    <t>Examtaker30569</t>
+  </si>
+  <si>
+    <t>Automation30569</t>
+  </si>
+  <si>
+    <t>examtakerautomation30569@gmail.com</t>
+  </si>
+  <si>
+    <t>30569</t>
+  </si>
+  <si>
+    <t>Examtaker00354</t>
+  </si>
+  <si>
+    <t>Automation00354</t>
+  </si>
+  <si>
+    <t>examtakerautomation00354@gmail.com</t>
+  </si>
+  <si>
+    <t>00354</t>
+  </si>
+  <si>
+    <t>Examtaker95822</t>
+  </si>
+  <si>
+    <t>Automation95822</t>
+  </si>
+  <si>
+    <t>examtakerautomation95822@gmail.com</t>
+  </si>
+  <si>
+    <t>95822</t>
+  </si>
+  <si>
+    <t>Examtaker36463</t>
+  </si>
+  <si>
+    <t>Automation36463</t>
+  </si>
+  <si>
+    <t>examtakerautomation36463@gmail.com</t>
+  </si>
+  <si>
+    <t>36463</t>
+  </si>
+  <si>
+    <t>Examtaker57591</t>
+  </si>
+  <si>
+    <t>Automation57591</t>
+  </si>
+  <si>
+    <t>examtakerautomation57591@gmail.com</t>
+  </si>
+  <si>
+    <t>57591</t>
+  </si>
+  <si>
+    <t>Examtaker27719</t>
+  </si>
+  <si>
+    <t>Automation27719</t>
+  </si>
+  <si>
+    <t>examtakerautomation27719@gmail.com</t>
+  </si>
+  <si>
+    <t>27719</t>
   </si>
 </sst>
 </file>
@@ -2950,422 +3310,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>843</v>
       </c>
       <c r="C2" t="s">
-        <v>724</v>
+        <v>844</v>
       </c>
       <c r="D2" t="s">
-        <v>725</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>846</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>847</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>848</v>
       </c>
       <c r="D3" t="s">
-        <v>729</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="B4" t="s">
-        <v>731</v>
+        <v>851</v>
       </c>
       <c r="C4" t="s">
-        <v>732</v>
+        <v>852</v>
       </c>
       <c r="D4" t="s">
-        <v>733</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>734</v>
+        <v>854</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>855</v>
       </c>
       <c r="C5" t="s">
-        <v>736</v>
+        <v>856</v>
       </c>
       <c r="D5" t="s">
-        <v>737</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>738</v>
+        <v>858</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>859</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>860</v>
       </c>
       <c r="D6" t="s">
-        <v>741</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>862</v>
       </c>
       <c r="B7" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
       <c r="C7" t="s">
-        <v>744</v>
+        <v>864</v>
       </c>
       <c r="D7" t="s">
-        <v>745</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>746</v>
+        <v>866</v>
       </c>
       <c r="B8" t="s">
-        <v>747</v>
+        <v>867</v>
       </c>
       <c r="C8" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="D8" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>871</v>
       </c>
       <c r="C9" t="s">
-        <v>752</v>
+        <v>872</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>874</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>875</v>
       </c>
       <c r="C10" t="s">
-        <v>756</v>
+        <v>876</v>
       </c>
       <c r="D10" t="s">
-        <v>757</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>758</v>
+        <v>878</v>
       </c>
       <c r="B11" t="s">
-        <v>759</v>
+        <v>879</v>
       </c>
       <c r="C11" t="s">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="D11" t="s">
-        <v>761</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>762</v>
+        <v>882</v>
       </c>
       <c r="B12" t="s">
-        <v>763</v>
+        <v>883</v>
       </c>
       <c r="C12" t="s">
-        <v>764</v>
+        <v>884</v>
       </c>
       <c r="D12" t="s">
-        <v>765</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>886</v>
       </c>
       <c r="B13" t="s">
-        <v>767</v>
+        <v>887</v>
       </c>
       <c r="C13" t="s">
-        <v>768</v>
+        <v>888</v>
       </c>
       <c r="D13" t="s">
-        <v>769</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>890</v>
       </c>
       <c r="B14" t="s">
-        <v>771</v>
+        <v>891</v>
       </c>
       <c r="C14" t="s">
-        <v>772</v>
+        <v>892</v>
       </c>
       <c r="D14" t="s">
-        <v>773</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>774</v>
+        <v>894</v>
       </c>
       <c r="B15" t="s">
-        <v>775</v>
+        <v>895</v>
       </c>
       <c r="C15" t="s">
-        <v>776</v>
+        <v>896</v>
       </c>
       <c r="D15" t="s">
-        <v>777</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>778</v>
+        <v>898</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>899</v>
       </c>
       <c r="C16" t="s">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="D16" t="s">
-        <v>781</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
       <c r="B17" t="s">
-        <v>783</v>
+        <v>903</v>
       </c>
       <c r="C17" t="s">
-        <v>784</v>
+        <v>904</v>
       </c>
       <c r="D17" t="s">
-        <v>785</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>786</v>
+        <v>906</v>
       </c>
       <c r="B18" t="s">
-        <v>787</v>
+        <v>907</v>
       </c>
       <c r="C18" t="s">
-        <v>788</v>
+        <v>908</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>790</v>
+        <v>910</v>
       </c>
       <c r="B19" t="s">
-        <v>791</v>
+        <v>911</v>
       </c>
       <c r="C19" t="s">
-        <v>792</v>
+        <v>912</v>
       </c>
       <c r="D19" t="s">
-        <v>793</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>794</v>
+        <v>914</v>
       </c>
       <c r="B20" t="s">
-        <v>795</v>
+        <v>915</v>
       </c>
       <c r="C20" t="s">
-        <v>796</v>
+        <v>916</v>
       </c>
       <c r="D20" t="s">
-        <v>797</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>798</v>
+        <v>918</v>
       </c>
       <c r="B21" t="s">
-        <v>799</v>
+        <v>919</v>
       </c>
       <c r="C21" t="s">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="D21" t="s">
-        <v>801</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>802</v>
+        <v>922</v>
       </c>
       <c r="B22" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
       <c r="C22" t="s">
-        <v>804</v>
+        <v>924</v>
       </c>
       <c r="D22" t="s">
-        <v>805</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>806</v>
+        <v>926</v>
       </c>
       <c r="B23" t="s">
-        <v>807</v>
+        <v>927</v>
       </c>
       <c r="C23" t="s">
-        <v>808</v>
+        <v>928</v>
       </c>
       <c r="D23" t="s">
-        <v>809</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>810</v>
+        <v>930</v>
       </c>
       <c r="B24" t="s">
-        <v>811</v>
+        <v>931</v>
       </c>
       <c r="C24" t="s">
-        <v>812</v>
+        <v>932</v>
       </c>
       <c r="D24" t="s">
-        <v>813</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="B25" t="s">
-        <v>815</v>
+        <v>935</v>
       </c>
       <c r="C25" t="s">
-        <v>816</v>
+        <v>936</v>
       </c>
       <c r="D25" t="s">
-        <v>817</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>818</v>
+        <v>938</v>
       </c>
       <c r="B26" t="s">
-        <v>819</v>
+        <v>939</v>
       </c>
       <c r="C26" t="s">
-        <v>820</v>
+        <v>940</v>
       </c>
       <c r="D26" t="s">
-        <v>821</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>822</v>
+        <v>942</v>
       </c>
       <c r="B27" t="s">
-        <v>823</v>
+        <v>943</v>
       </c>
       <c r="C27" t="s">
-        <v>824</v>
+        <v>944</v>
       </c>
       <c r="D27" t="s">
-        <v>825</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>826</v>
+        <v>946</v>
       </c>
       <c r="B28" t="s">
-        <v>827</v>
+        <v>947</v>
       </c>
       <c r="C28" t="s">
-        <v>828</v>
+        <v>948</v>
       </c>
       <c r="D28" t="s">
-        <v>829</v>
+        <v>949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="B29" t="s">
-        <v>831</v>
+        <v>951</v>
       </c>
       <c r="C29" t="s">
-        <v>832</v>
+        <v>952</v>
       </c>
       <c r="D29" t="s">
-        <v>833</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>834</v>
+        <v>954</v>
       </c>
       <c r="B30" t="s">
-        <v>835</v>
+        <v>955</v>
       </c>
       <c r="C30" t="s">
-        <v>836</v>
+        <v>956</v>
       </c>
       <c r="D30" t="s">
-        <v>837</v>
+        <v>957</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>838</v>
+        <v>958</v>
       </c>
       <c r="B31" t="s">
-        <v>839</v>
+        <v>959</v>
       </c>
       <c r="C31" t="s">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="D31" t="s">
-        <v>841</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1082">
   <si>
     <t>FirstName</t>
   </si>
@@ -2900,6 +2900,366 @@
   </si>
   <si>
     <t>27719</t>
+  </si>
+  <si>
+    <t>Examtaker92394</t>
+  </si>
+  <si>
+    <t>Automation92394</t>
+  </si>
+  <si>
+    <t>examtakerautomation92394@gmail.com</t>
+  </si>
+  <si>
+    <t>92394</t>
+  </si>
+  <si>
+    <t>Examtaker36953</t>
+  </si>
+  <si>
+    <t>Automation36953</t>
+  </si>
+  <si>
+    <t>examtakerautomation36953@gmail.com</t>
+  </si>
+  <si>
+    <t>36953</t>
+  </si>
+  <si>
+    <t>Examtaker43647</t>
+  </si>
+  <si>
+    <t>Automation43647</t>
+  </si>
+  <si>
+    <t>examtakerautomation43647@gmail.com</t>
+  </si>
+  <si>
+    <t>43647</t>
+  </si>
+  <si>
+    <t>Examtaker96931</t>
+  </si>
+  <si>
+    <t>Automation96931</t>
+  </si>
+  <si>
+    <t>examtakerautomation96931@gmail.com</t>
+  </si>
+  <si>
+    <t>96931</t>
+  </si>
+  <si>
+    <t>Examtaker48321</t>
+  </si>
+  <si>
+    <t>Automation48321</t>
+  </si>
+  <si>
+    <t>examtakerautomation48321@gmail.com</t>
+  </si>
+  <si>
+    <t>48321</t>
+  </si>
+  <si>
+    <t>Examtaker61143</t>
+  </si>
+  <si>
+    <t>Automation61143</t>
+  </si>
+  <si>
+    <t>examtakerautomation61143@gmail.com</t>
+  </si>
+  <si>
+    <t>61143</t>
+  </si>
+  <si>
+    <t>Examtaker92765</t>
+  </si>
+  <si>
+    <t>Automation92765</t>
+  </si>
+  <si>
+    <t>examtakerautomation92765@gmail.com</t>
+  </si>
+  <si>
+    <t>92765</t>
+  </si>
+  <si>
+    <t>Examtaker26065</t>
+  </si>
+  <si>
+    <t>Automation26065</t>
+  </si>
+  <si>
+    <t>examtakerautomation26065@gmail.com</t>
+  </si>
+  <si>
+    <t>26065</t>
+  </si>
+  <si>
+    <t>Examtaker57548</t>
+  </si>
+  <si>
+    <t>Automation57548</t>
+  </si>
+  <si>
+    <t>examtakerautomation57548@gmail.com</t>
+  </si>
+  <si>
+    <t>57548</t>
+  </si>
+  <si>
+    <t>Examtaker69898</t>
+  </si>
+  <si>
+    <t>Automation69898</t>
+  </si>
+  <si>
+    <t>examtakerautomation69898@gmail.com</t>
+  </si>
+  <si>
+    <t>69898</t>
+  </si>
+  <si>
+    <t>Examtaker52587</t>
+  </si>
+  <si>
+    <t>Automation52587</t>
+  </si>
+  <si>
+    <t>examtakerautomation52587@gmail.com</t>
+  </si>
+  <si>
+    <t>52587</t>
+  </si>
+  <si>
+    <t>Examtaker20387</t>
+  </si>
+  <si>
+    <t>Automation20387</t>
+  </si>
+  <si>
+    <t>examtakerautomation20387@gmail.com</t>
+  </si>
+  <si>
+    <t>20387</t>
+  </si>
+  <si>
+    <t>Examtaker09102</t>
+  </si>
+  <si>
+    <t>Automation09102</t>
+  </si>
+  <si>
+    <t>examtakerautomation09102@gmail.com</t>
+  </si>
+  <si>
+    <t>09102</t>
+  </si>
+  <si>
+    <t>Examtaker14715</t>
+  </si>
+  <si>
+    <t>Automation14715</t>
+  </si>
+  <si>
+    <t>examtakerautomation14715@gmail.com</t>
+  </si>
+  <si>
+    <t>14715</t>
+  </si>
+  <si>
+    <t>Examtaker44165</t>
+  </si>
+  <si>
+    <t>Automation44165</t>
+  </si>
+  <si>
+    <t>examtakerautomation44165@gmail.com</t>
+  </si>
+  <si>
+    <t>44165</t>
+  </si>
+  <si>
+    <t>Examtaker03747</t>
+  </si>
+  <si>
+    <t>Automation03747</t>
+  </si>
+  <si>
+    <t>examtakerautomation03747@gmail.com</t>
+  </si>
+  <si>
+    <t>03747</t>
+  </si>
+  <si>
+    <t>Examtaker16576</t>
+  </si>
+  <si>
+    <t>Automation16576</t>
+  </si>
+  <si>
+    <t>examtakerautomation16576@gmail.com</t>
+  </si>
+  <si>
+    <t>16576</t>
+  </si>
+  <si>
+    <t>Examtaker56410</t>
+  </si>
+  <si>
+    <t>Automation56410</t>
+  </si>
+  <si>
+    <t>examtakerautomation56410@gmail.com</t>
+  </si>
+  <si>
+    <t>56410</t>
+  </si>
+  <si>
+    <t>Examtaker10541</t>
+  </si>
+  <si>
+    <t>Automation10541</t>
+  </si>
+  <si>
+    <t>examtakerautomation10541@gmail.com</t>
+  </si>
+  <si>
+    <t>10541</t>
+  </si>
+  <si>
+    <t>Examtaker97774</t>
+  </si>
+  <si>
+    <t>Automation97774</t>
+  </si>
+  <si>
+    <t>examtakerautomation97774@gmail.com</t>
+  </si>
+  <si>
+    <t>97774</t>
+  </si>
+  <si>
+    <t>Examtaker98595</t>
+  </si>
+  <si>
+    <t>Automation98595</t>
+  </si>
+  <si>
+    <t>examtakerautomation98595@gmail.com</t>
+  </si>
+  <si>
+    <t>98595</t>
+  </si>
+  <si>
+    <t>Examtaker17066</t>
+  </si>
+  <si>
+    <t>Automation17066</t>
+  </si>
+  <si>
+    <t>examtakerautomation17066@gmail.com</t>
+  </si>
+  <si>
+    <t>17066</t>
+  </si>
+  <si>
+    <t>Examtaker71032</t>
+  </si>
+  <si>
+    <t>Automation71032</t>
+  </si>
+  <si>
+    <t>examtakerautomation71032@gmail.com</t>
+  </si>
+  <si>
+    <t>71032</t>
+  </si>
+  <si>
+    <t>Examtaker89794</t>
+  </si>
+  <si>
+    <t>Automation89794</t>
+  </si>
+  <si>
+    <t>examtakerautomation89794@gmail.com</t>
+  </si>
+  <si>
+    <t>89794</t>
+  </si>
+  <si>
+    <t>Examtaker96597</t>
+  </si>
+  <si>
+    <t>Automation96597</t>
+  </si>
+  <si>
+    <t>examtakerautomation96597@gmail.com</t>
+  </si>
+  <si>
+    <t>96597</t>
+  </si>
+  <si>
+    <t>Examtaker98955</t>
+  </si>
+  <si>
+    <t>Automation98955</t>
+  </si>
+  <si>
+    <t>examtakerautomation98955@gmail.com</t>
+  </si>
+  <si>
+    <t>98955</t>
+  </si>
+  <si>
+    <t>Examtaker98006</t>
+  </si>
+  <si>
+    <t>Automation98006</t>
+  </si>
+  <si>
+    <t>examtakerautomation98006@gmail.com</t>
+  </si>
+  <si>
+    <t>98006</t>
+  </si>
+  <si>
+    <t>Examtaker38363</t>
+  </si>
+  <si>
+    <t>Automation38363</t>
+  </si>
+  <si>
+    <t>examtakerautomation38363@gmail.com</t>
+  </si>
+  <si>
+    <t>38363</t>
+  </si>
+  <si>
+    <t>Examtaker68327</t>
+  </si>
+  <si>
+    <t>Automation68327</t>
+  </si>
+  <si>
+    <t>examtakerautomation68327@gmail.com</t>
+  </si>
+  <si>
+    <t>68327</t>
+  </si>
+  <si>
+    <t>Examtaker51038</t>
+  </si>
+  <si>
+    <t>Automation51038</t>
+  </si>
+  <si>
+    <t>examtakerautomation51038@gmail.com</t>
+  </si>
+  <si>
+    <t>51038</t>
   </si>
 </sst>
 </file>
@@ -3310,422 +3670,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>962</v>
       </c>
       <c r="B2" t="s">
-        <v>843</v>
+        <v>963</v>
       </c>
       <c r="C2" t="s">
-        <v>844</v>
+        <v>964</v>
       </c>
       <c r="D2" t="s">
-        <v>845</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>846</v>
+        <v>966</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>967</v>
       </c>
       <c r="C3" t="s">
-        <v>848</v>
+        <v>968</v>
       </c>
       <c r="D3" t="s">
-        <v>849</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>850</v>
+        <v>970</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>971</v>
       </c>
       <c r="C4" t="s">
-        <v>852</v>
+        <v>972</v>
       </c>
       <c r="D4" t="s">
-        <v>853</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>974</v>
       </c>
       <c r="B5" t="s">
-        <v>855</v>
+        <v>975</v>
       </c>
       <c r="C5" t="s">
-        <v>856</v>
+        <v>976</v>
       </c>
       <c r="D5" t="s">
-        <v>857</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>978</v>
       </c>
       <c r="B6" t="s">
-        <v>859</v>
+        <v>979</v>
       </c>
       <c r="C6" t="s">
-        <v>860</v>
+        <v>980</v>
       </c>
       <c r="D6" t="s">
-        <v>861</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>862</v>
+        <v>982</v>
       </c>
       <c r="B7" t="s">
-        <v>863</v>
+        <v>983</v>
       </c>
       <c r="C7" t="s">
-        <v>864</v>
+        <v>984</v>
       </c>
       <c r="D7" t="s">
-        <v>865</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>866</v>
+        <v>986</v>
       </c>
       <c r="B8" t="s">
-        <v>867</v>
+        <v>987</v>
       </c>
       <c r="C8" t="s">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="D8" t="s">
-        <v>869</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="B9" t="s">
-        <v>871</v>
+        <v>991</v>
       </c>
       <c r="C9" t="s">
-        <v>872</v>
+        <v>992</v>
       </c>
       <c r="D9" t="s">
-        <v>873</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>994</v>
       </c>
       <c r="B10" t="s">
-        <v>875</v>
+        <v>995</v>
       </c>
       <c r="C10" t="s">
-        <v>876</v>
+        <v>996</v>
       </c>
       <c r="D10" t="s">
-        <v>877</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>878</v>
+        <v>998</v>
       </c>
       <c r="B11" t="s">
-        <v>879</v>
+        <v>999</v>
       </c>
       <c r="C11" t="s">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>882</v>
+        <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>883</v>
+        <v>1003</v>
       </c>
       <c r="C12" t="s">
-        <v>884</v>
+        <v>1004</v>
       </c>
       <c r="D12" t="s">
-        <v>885</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>886</v>
+        <v>1006</v>
       </c>
       <c r="B13" t="s">
-        <v>887</v>
+        <v>1007</v>
       </c>
       <c r="C13" t="s">
-        <v>888</v>
+        <v>1008</v>
       </c>
       <c r="D13" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>890</v>
+        <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>891</v>
+        <v>1011</v>
       </c>
       <c r="C14" t="s">
-        <v>892</v>
+        <v>1012</v>
       </c>
       <c r="D14" t="s">
-        <v>893</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>894</v>
+        <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>895</v>
+        <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>896</v>
+        <v>1016</v>
       </c>
       <c r="D15" t="s">
-        <v>897</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>898</v>
+        <v>1018</v>
       </c>
       <c r="B16" t="s">
-        <v>899</v>
+        <v>1019</v>
       </c>
       <c r="C16" t="s">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="s">
-        <v>901</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>902</v>
+        <v>1022</v>
       </c>
       <c r="B17" t="s">
-        <v>903</v>
+        <v>1023</v>
       </c>
       <c r="C17" t="s">
-        <v>904</v>
+        <v>1024</v>
       </c>
       <c r="D17" t="s">
-        <v>905</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>906</v>
+        <v>1026</v>
       </c>
       <c r="B18" t="s">
-        <v>907</v>
+        <v>1027</v>
       </c>
       <c r="C18" t="s">
-        <v>908</v>
+        <v>1028</v>
       </c>
       <c r="D18" t="s">
-        <v>909</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>910</v>
+        <v>1030</v>
       </c>
       <c r="B19" t="s">
-        <v>911</v>
+        <v>1031</v>
       </c>
       <c r="C19" t="s">
-        <v>912</v>
+        <v>1032</v>
       </c>
       <c r="D19" t="s">
-        <v>913</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>914</v>
+        <v>1034</v>
       </c>
       <c r="B20" t="s">
-        <v>915</v>
+        <v>1035</v>
       </c>
       <c r="C20" t="s">
-        <v>916</v>
+        <v>1036</v>
       </c>
       <c r="D20" t="s">
-        <v>917</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>918</v>
+        <v>1038</v>
       </c>
       <c r="B21" t="s">
-        <v>919</v>
+        <v>1039</v>
       </c>
       <c r="C21" t="s">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>922</v>
+        <v>1042</v>
       </c>
       <c r="B22" t="s">
-        <v>923</v>
+        <v>1043</v>
       </c>
       <c r="C22" t="s">
-        <v>924</v>
+        <v>1044</v>
       </c>
       <c r="D22" t="s">
-        <v>925</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>926</v>
+        <v>1046</v>
       </c>
       <c r="B23" t="s">
-        <v>927</v>
+        <v>1047</v>
       </c>
       <c r="C23" t="s">
-        <v>928</v>
+        <v>1048</v>
       </c>
       <c r="D23" t="s">
-        <v>929</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>930</v>
+        <v>1050</v>
       </c>
       <c r="B24" t="s">
-        <v>931</v>
+        <v>1051</v>
       </c>
       <c r="C24" t="s">
-        <v>932</v>
+        <v>1052</v>
       </c>
       <c r="D24" t="s">
-        <v>933</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>934</v>
+        <v>1054</v>
       </c>
       <c r="B25" t="s">
-        <v>935</v>
+        <v>1055</v>
       </c>
       <c r="C25" t="s">
-        <v>936</v>
+        <v>1056</v>
       </c>
       <c r="D25" t="s">
-        <v>937</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>938</v>
+        <v>1058</v>
       </c>
       <c r="B26" t="s">
-        <v>939</v>
+        <v>1059</v>
       </c>
       <c r="C26" t="s">
-        <v>940</v>
+        <v>1060</v>
       </c>
       <c r="D26" t="s">
-        <v>941</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>942</v>
+        <v>1062</v>
       </c>
       <c r="B27" t="s">
-        <v>943</v>
+        <v>1063</v>
       </c>
       <c r="C27" t="s">
-        <v>944</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
-        <v>945</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>946</v>
+        <v>1066</v>
       </c>
       <c r="B28" t="s">
-        <v>947</v>
+        <v>1067</v>
       </c>
       <c r="C28" t="s">
-        <v>948</v>
+        <v>1068</v>
       </c>
       <c r="D28" t="s">
-        <v>949</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>1070</v>
       </c>
       <c r="B29" t="s">
-        <v>951</v>
+        <v>1071</v>
       </c>
       <c r="C29" t="s">
-        <v>952</v>
+        <v>1072</v>
       </c>
       <c r="D29" t="s">
-        <v>953</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>954</v>
+        <v>1074</v>
       </c>
       <c r="B30" t="s">
-        <v>955</v>
+        <v>1075</v>
       </c>
       <c r="C30" t="s">
-        <v>956</v>
+        <v>1076</v>
       </c>
       <c r="D30" t="s">
-        <v>957</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>958</v>
+        <v>1078</v>
       </c>
       <c r="B31" t="s">
-        <v>959</v>
+        <v>1079</v>
       </c>
       <c r="C31" t="s">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="D31" t="s">
-        <v>961</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1441">
   <si>
     <t>FirstName</t>
   </si>
@@ -3260,6 +3260,1083 @@
   </si>
   <si>
     <t>51038</t>
+  </si>
+  <si>
+    <t>Examtaker21906</t>
+  </si>
+  <si>
+    <t>Examtaker82840</t>
+  </si>
+  <si>
+    <t>Examtaker02378</t>
+  </si>
+  <si>
+    <t>Examtaker63487</t>
+  </si>
+  <si>
+    <t>Automation63487</t>
+  </si>
+  <si>
+    <t>examtakerautomation63487@gmail.com</t>
+  </si>
+  <si>
+    <t>63487</t>
+  </si>
+  <si>
+    <t>Examtaker98228</t>
+  </si>
+  <si>
+    <t>Automation98228</t>
+  </si>
+  <si>
+    <t>examtakerautomation98228@gmail.com</t>
+  </si>
+  <si>
+    <t>98228</t>
+  </si>
+  <si>
+    <t>Examtaker79075</t>
+  </si>
+  <si>
+    <t>Automation79075</t>
+  </si>
+  <si>
+    <t>examtakerautomation79075@gmail.com</t>
+  </si>
+  <si>
+    <t>79075</t>
+  </si>
+  <si>
+    <t>Examtaker66646</t>
+  </si>
+  <si>
+    <t>Automation66646</t>
+  </si>
+  <si>
+    <t>examtakerautomation66646@gmail.com</t>
+  </si>
+  <si>
+    <t>66646</t>
+  </si>
+  <si>
+    <t>Examtaker10145</t>
+  </si>
+  <si>
+    <t>Automation10145</t>
+  </si>
+  <si>
+    <t>examtakerautomation10145@gmail.com</t>
+  </si>
+  <si>
+    <t>10145</t>
+  </si>
+  <si>
+    <t>Examtaker83051</t>
+  </si>
+  <si>
+    <t>Automation83051</t>
+  </si>
+  <si>
+    <t>examtakerautomation83051@gmail.com</t>
+  </si>
+  <si>
+    <t>83051</t>
+  </si>
+  <si>
+    <t>Examtaker82646</t>
+  </si>
+  <si>
+    <t>Automation82646</t>
+  </si>
+  <si>
+    <t>examtakerautomation82646@gmail.com</t>
+  </si>
+  <si>
+    <t>82646</t>
+  </si>
+  <si>
+    <t>Examtaker60573</t>
+  </si>
+  <si>
+    <t>Automation60573</t>
+  </si>
+  <si>
+    <t>examtakerautomation60573@gmail.com</t>
+  </si>
+  <si>
+    <t>60573</t>
+  </si>
+  <si>
+    <t>Examtaker02913</t>
+  </si>
+  <si>
+    <t>Automation02913</t>
+  </si>
+  <si>
+    <t>examtakerautomation02913@gmail.com</t>
+  </si>
+  <si>
+    <t>02913</t>
+  </si>
+  <si>
+    <t>Examtaker90668</t>
+  </si>
+  <si>
+    <t>Automation90668</t>
+  </si>
+  <si>
+    <t>examtakerautomation90668@gmail.com</t>
+  </si>
+  <si>
+    <t>90668</t>
+  </si>
+  <si>
+    <t>Examtaker50157</t>
+  </si>
+  <si>
+    <t>Automation50157</t>
+  </si>
+  <si>
+    <t>examtakerautomation50157@gmail.com</t>
+  </si>
+  <si>
+    <t>50157</t>
+  </si>
+  <si>
+    <t>Examtaker77878</t>
+  </si>
+  <si>
+    <t>Automation77878</t>
+  </si>
+  <si>
+    <t>examtakerautomation77878@gmail.com</t>
+  </si>
+  <si>
+    <t>77878</t>
+  </si>
+  <si>
+    <t>Examtaker22863</t>
+  </si>
+  <si>
+    <t>Automation22863</t>
+  </si>
+  <si>
+    <t>examtakerautomation22863@gmail.com</t>
+  </si>
+  <si>
+    <t>22863</t>
+  </si>
+  <si>
+    <t>Examtaker01911</t>
+  </si>
+  <si>
+    <t>Automation01911</t>
+  </si>
+  <si>
+    <t>examtakerautomation01911@gmail.com</t>
+  </si>
+  <si>
+    <t>01911</t>
+  </si>
+  <si>
+    <t>Examtaker38910</t>
+  </si>
+  <si>
+    <t>Automation38910</t>
+  </si>
+  <si>
+    <t>examtakerautomation38910@gmail.com</t>
+  </si>
+  <si>
+    <t>38910</t>
+  </si>
+  <si>
+    <t>Examtaker01637</t>
+  </si>
+  <si>
+    <t>Automation01637</t>
+  </si>
+  <si>
+    <t>examtakerautomation01637@gmail.com</t>
+  </si>
+  <si>
+    <t>01637</t>
+  </si>
+  <si>
+    <t>Examtaker09331</t>
+  </si>
+  <si>
+    <t>Automation09331</t>
+  </si>
+  <si>
+    <t>examtakerautomation09331@gmail.com</t>
+  </si>
+  <si>
+    <t>09331</t>
+  </si>
+  <si>
+    <t>Examtaker90636</t>
+  </si>
+  <si>
+    <t>Automation90636</t>
+  </si>
+  <si>
+    <t>examtakerautomation90636@gmail.com</t>
+  </si>
+  <si>
+    <t>90636</t>
+  </si>
+  <si>
+    <t>Examtaker56124</t>
+  </si>
+  <si>
+    <t>Automation56124</t>
+  </si>
+  <si>
+    <t>examtakerautomation56124@gmail.com</t>
+  </si>
+  <si>
+    <t>56124</t>
+  </si>
+  <si>
+    <t>Examtaker53029</t>
+  </si>
+  <si>
+    <t>Automation53029</t>
+  </si>
+  <si>
+    <t>examtakerautomation53029@gmail.com</t>
+  </si>
+  <si>
+    <t>53029</t>
+  </si>
+  <si>
+    <t>Examtaker69869</t>
+  </si>
+  <si>
+    <t>Automation69869</t>
+  </si>
+  <si>
+    <t>examtakerautomation69869@gmail.com</t>
+  </si>
+  <si>
+    <t>69869</t>
+  </si>
+  <si>
+    <t>Examtaker68359</t>
+  </si>
+  <si>
+    <t>Automation68359</t>
+  </si>
+  <si>
+    <t>examtakerautomation68359@gmail.com</t>
+  </si>
+  <si>
+    <t>68359</t>
+  </si>
+  <si>
+    <t>Examtaker97501</t>
+  </si>
+  <si>
+    <t>Automation97501</t>
+  </si>
+  <si>
+    <t>examtakerautomation97501@gmail.com</t>
+  </si>
+  <si>
+    <t>97501</t>
+  </si>
+  <si>
+    <t>Examtaker35529</t>
+  </si>
+  <si>
+    <t>Automation35529</t>
+  </si>
+  <si>
+    <t>examtakerautomation35529@gmail.com</t>
+  </si>
+  <si>
+    <t>35529</t>
+  </si>
+  <si>
+    <t>Examtaker12438</t>
+  </si>
+  <si>
+    <t>Automation12438</t>
+  </si>
+  <si>
+    <t>examtakerautomation12438@gmail.com</t>
+  </si>
+  <si>
+    <t>12438</t>
+  </si>
+  <si>
+    <t>Examtaker06268</t>
+  </si>
+  <si>
+    <t>Automation06268</t>
+  </si>
+  <si>
+    <t>examtakerautomation06268@gmail.com</t>
+  </si>
+  <si>
+    <t>06268</t>
+  </si>
+  <si>
+    <t>Examtaker39247</t>
+  </si>
+  <si>
+    <t>Automation39247</t>
+  </si>
+  <si>
+    <t>examtakerautomation39247@gmail.com</t>
+  </si>
+  <si>
+    <t>39247</t>
+  </si>
+  <si>
+    <t>Examtaker12642</t>
+  </si>
+  <si>
+    <t>Automation12642</t>
+  </si>
+  <si>
+    <t>examtakerautomation12642@gmail.com</t>
+  </si>
+  <si>
+    <t>12642</t>
+  </si>
+  <si>
+    <t>Examtaker09728</t>
+  </si>
+  <si>
+    <t>Automation09728</t>
+  </si>
+  <si>
+    <t>examtakerautomation09728@gmail.com</t>
+  </si>
+  <si>
+    <t>09728</t>
+  </si>
+  <si>
+    <t>Examtaker94866</t>
+  </si>
+  <si>
+    <t>Automation94866</t>
+  </si>
+  <si>
+    <t>examtakerautomation94866@gmail.com</t>
+  </si>
+  <si>
+    <t>94866</t>
+  </si>
+  <si>
+    <t>Examtaker14252</t>
+  </si>
+  <si>
+    <t>Automation14252</t>
+  </si>
+  <si>
+    <t>examtakerautomation14252@gmail.com</t>
+  </si>
+  <si>
+    <t>14252</t>
+  </si>
+  <si>
+    <t>Examtaker74461</t>
+  </si>
+  <si>
+    <t>Automation74461</t>
+  </si>
+  <si>
+    <t>examtakerautomation74461@gmail.com</t>
+  </si>
+  <si>
+    <t>74461</t>
+  </si>
+  <si>
+    <t>Examtaker67507</t>
+  </si>
+  <si>
+    <t>Automation67507</t>
+  </si>
+  <si>
+    <t>examtakerautomation67507@gmail.com</t>
+  </si>
+  <si>
+    <t>67507</t>
+  </si>
+  <si>
+    <t>Examtaker21718</t>
+  </si>
+  <si>
+    <t>Automation21718</t>
+  </si>
+  <si>
+    <t>examtakerautomation21718@gmail.com</t>
+  </si>
+  <si>
+    <t>21718</t>
+  </si>
+  <si>
+    <t>Examtaker21965</t>
+  </si>
+  <si>
+    <t>Automation21965</t>
+  </si>
+  <si>
+    <t>examtakerautomation21965@gmail.com</t>
+  </si>
+  <si>
+    <t>21965</t>
+  </si>
+  <si>
+    <t>Examtaker07615</t>
+  </si>
+  <si>
+    <t>Automation07615</t>
+  </si>
+  <si>
+    <t>examtakerautomation07615@gmail.com</t>
+  </si>
+  <si>
+    <t>07615</t>
+  </si>
+  <si>
+    <t>Examtaker34913</t>
+  </si>
+  <si>
+    <t>Automation34913</t>
+  </si>
+  <si>
+    <t>examtakerautomation34913@gmail.com</t>
+  </si>
+  <si>
+    <t>34913</t>
+  </si>
+  <si>
+    <t>Examtaker15280</t>
+  </si>
+  <si>
+    <t>Automation15280</t>
+  </si>
+  <si>
+    <t>examtakerautomation15280@gmail.com</t>
+  </si>
+  <si>
+    <t>15280</t>
+  </si>
+  <si>
+    <t>Examtaker09474</t>
+  </si>
+  <si>
+    <t>Automation09474</t>
+  </si>
+  <si>
+    <t>examtakerautomation09474@gmail.com</t>
+  </si>
+  <si>
+    <t>09474</t>
+  </si>
+  <si>
+    <t>Examtaker35110</t>
+  </si>
+  <si>
+    <t>Automation35110</t>
+  </si>
+  <si>
+    <t>examtakerautomation35110@gmail.com</t>
+  </si>
+  <si>
+    <t>35110</t>
+  </si>
+  <si>
+    <t>Examtaker03555</t>
+  </si>
+  <si>
+    <t>Automation03555</t>
+  </si>
+  <si>
+    <t>examtakerautomation03555@gmail.com</t>
+  </si>
+  <si>
+    <t>03555</t>
+  </si>
+  <si>
+    <t>Examtaker02413</t>
+  </si>
+  <si>
+    <t>Automation02413</t>
+  </si>
+  <si>
+    <t>examtakerautomation02413@gmail.com</t>
+  </si>
+  <si>
+    <t>02413</t>
+  </si>
+  <si>
+    <t>Examtaker36708</t>
+  </si>
+  <si>
+    <t>Automation36708</t>
+  </si>
+  <si>
+    <t>examtakerautomation36708@gmail.com</t>
+  </si>
+  <si>
+    <t>36708</t>
+  </si>
+  <si>
+    <t>Examtaker69039</t>
+  </si>
+  <si>
+    <t>Automation69039</t>
+  </si>
+  <si>
+    <t>examtakerautomation69039@gmail.com</t>
+  </si>
+  <si>
+    <t>69039</t>
+  </si>
+  <si>
+    <t>Examtaker20032</t>
+  </si>
+  <si>
+    <t>Automation20032</t>
+  </si>
+  <si>
+    <t>examtakerautomation20032@gmail.com</t>
+  </si>
+  <si>
+    <t>20032</t>
+  </si>
+  <si>
+    <t>Examtaker11198</t>
+  </si>
+  <si>
+    <t>Automation11198</t>
+  </si>
+  <si>
+    <t>examtakerautomation11198@gmail.com</t>
+  </si>
+  <si>
+    <t>11198</t>
+  </si>
+  <si>
+    <t>Examtaker70748</t>
+  </si>
+  <si>
+    <t>Automation70748</t>
+  </si>
+  <si>
+    <t>examtakerautomation70748@gmail.com</t>
+  </si>
+  <si>
+    <t>70748</t>
+  </si>
+  <si>
+    <t>Examtaker10578</t>
+  </si>
+  <si>
+    <t>Automation10578</t>
+  </si>
+  <si>
+    <t>examtakerautomation10578@gmail.com</t>
+  </si>
+  <si>
+    <t>10578</t>
+  </si>
+  <si>
+    <t>Examtaker19916</t>
+  </si>
+  <si>
+    <t>Automation19916</t>
+  </si>
+  <si>
+    <t>examtakerautomation19916@gmail.com</t>
+  </si>
+  <si>
+    <t>19916</t>
+  </si>
+  <si>
+    <t>Examtaker81430</t>
+  </si>
+  <si>
+    <t>Automation81430</t>
+  </si>
+  <si>
+    <t>examtakerautomation81430@gmail.com</t>
+  </si>
+  <si>
+    <t>81430</t>
+  </si>
+  <si>
+    <t>Examtaker79434</t>
+  </si>
+  <si>
+    <t>Automation79434</t>
+  </si>
+  <si>
+    <t>examtakerautomation79434@gmail.com</t>
+  </si>
+  <si>
+    <t>79434</t>
+  </si>
+  <si>
+    <t>Examtaker33862</t>
+  </si>
+  <si>
+    <t>Automation33862</t>
+  </si>
+  <si>
+    <t>examtakerautomation33862@gmail.com</t>
+  </si>
+  <si>
+    <t>33862</t>
+  </si>
+  <si>
+    <t>Examtaker53783</t>
+  </si>
+  <si>
+    <t>Automation53783</t>
+  </si>
+  <si>
+    <t>examtakerautomation53783@gmail.com</t>
+  </si>
+  <si>
+    <t>53783</t>
+  </si>
+  <si>
+    <t>Examtaker38205</t>
+  </si>
+  <si>
+    <t>Automation38205</t>
+  </si>
+  <si>
+    <t>examtakerautomation38205@gmail.com</t>
+  </si>
+  <si>
+    <t>38205</t>
+  </si>
+  <si>
+    <t>Examtaker70794</t>
+  </si>
+  <si>
+    <t>Automation70794</t>
+  </si>
+  <si>
+    <t>examtakerautomation70794@gmail.com</t>
+  </si>
+  <si>
+    <t>70794</t>
+  </si>
+  <si>
+    <t>Examtaker27402</t>
+  </si>
+  <si>
+    <t>Automation27402</t>
+  </si>
+  <si>
+    <t>examtakerautomation27402@gmail.com</t>
+  </si>
+  <si>
+    <t>27402</t>
+  </si>
+  <si>
+    <t>Examtaker63653</t>
+  </si>
+  <si>
+    <t>Automation63653</t>
+  </si>
+  <si>
+    <t>examtakerautomation63653@gmail.com</t>
+  </si>
+  <si>
+    <t>63653</t>
+  </si>
+  <si>
+    <t>Examtaker98373</t>
+  </si>
+  <si>
+    <t>Automation98373</t>
+  </si>
+  <si>
+    <t>examtakerautomation98373@gmail.com</t>
+  </si>
+  <si>
+    <t>98373</t>
+  </si>
+  <si>
+    <t>Examtaker75655</t>
+  </si>
+  <si>
+    <t>Automation75655</t>
+  </si>
+  <si>
+    <t>examtakerautomation75655@gmail.com</t>
+  </si>
+  <si>
+    <t>75655</t>
+  </si>
+  <si>
+    <t>Examtaker36975</t>
+  </si>
+  <si>
+    <t>Automation36975</t>
+  </si>
+  <si>
+    <t>examtakerautomation36975@gmail.com</t>
+  </si>
+  <si>
+    <t>36975</t>
+  </si>
+  <si>
+    <t>Examtaker87075</t>
+  </si>
+  <si>
+    <t>Automation87075</t>
+  </si>
+  <si>
+    <t>examtakerautomation87075@gmail.com</t>
+  </si>
+  <si>
+    <t>87075</t>
+  </si>
+  <si>
+    <t>Examtaker88589</t>
+  </si>
+  <si>
+    <t>Automation88589</t>
+  </si>
+  <si>
+    <t>examtakerautomation88589@gmail.com</t>
+  </si>
+  <si>
+    <t>88589</t>
+  </si>
+  <si>
+    <t>Examtaker97968</t>
+  </si>
+  <si>
+    <t>Automation97968</t>
+  </si>
+  <si>
+    <t>examtakerautomation97968@gmail.com</t>
+  </si>
+  <si>
+    <t>97968</t>
+  </si>
+  <si>
+    <t>Examtaker23616</t>
+  </si>
+  <si>
+    <t>Automation23616</t>
+  </si>
+  <si>
+    <t>examtakerautomation23616@gmail.com</t>
+  </si>
+  <si>
+    <t>23616</t>
+  </si>
+  <si>
+    <t>Examtaker60103</t>
+  </si>
+  <si>
+    <t>Automation60103</t>
+  </si>
+  <si>
+    <t>examtakerautomation60103@gmail.com</t>
+  </si>
+  <si>
+    <t>60103</t>
+  </si>
+  <si>
+    <t>Examtaker09957</t>
+  </si>
+  <si>
+    <t>Automation09957</t>
+  </si>
+  <si>
+    <t>examtakerautomation09957@gmail.com</t>
+  </si>
+  <si>
+    <t>09957</t>
+  </si>
+  <si>
+    <t>Examtaker89770</t>
+  </si>
+  <si>
+    <t>Automation89770</t>
+  </si>
+  <si>
+    <t>examtakerautomation89770@gmail.com</t>
+  </si>
+  <si>
+    <t>89770</t>
+  </si>
+  <si>
+    <t>Examtaker70682</t>
+  </si>
+  <si>
+    <t>Automation70682</t>
+  </si>
+  <si>
+    <t>examtakerautomation70682@gmail.com</t>
+  </si>
+  <si>
+    <t>70682</t>
+  </si>
+  <si>
+    <t>Examtaker02612</t>
+  </si>
+  <si>
+    <t>Automation02612</t>
+  </si>
+  <si>
+    <t>examtakerautomation02612@gmail.com</t>
+  </si>
+  <si>
+    <t>02612</t>
+  </si>
+  <si>
+    <t>Examtaker20557</t>
+  </si>
+  <si>
+    <t>Automation20557</t>
+  </si>
+  <si>
+    <t>examtakerautomation20557@gmail.com</t>
+  </si>
+  <si>
+    <t>20557</t>
+  </si>
+  <si>
+    <t>Examtaker56205</t>
+  </si>
+  <si>
+    <t>Automation56205</t>
+  </si>
+  <si>
+    <t>examtakerautomation56205@gmail.com</t>
+  </si>
+  <si>
+    <t>56205</t>
+  </si>
+  <si>
+    <t>Examtaker52451</t>
+  </si>
+  <si>
+    <t>Automation52451</t>
+  </si>
+  <si>
+    <t>examtakerautomation52451@gmail.com</t>
+  </si>
+  <si>
+    <t>52451</t>
+  </si>
+  <si>
+    <t>Examtaker41192</t>
+  </si>
+  <si>
+    <t>Automation41192</t>
+  </si>
+  <si>
+    <t>examtakerautomation41192@gmail.com</t>
+  </si>
+  <si>
+    <t>41192</t>
+  </si>
+  <si>
+    <t>Examtaker13430</t>
+  </si>
+  <si>
+    <t>Automation13430</t>
+  </si>
+  <si>
+    <t>examtakerautomation13430@gmail.com</t>
+  </si>
+  <si>
+    <t>13430</t>
+  </si>
+  <si>
+    <t>Examtaker61178</t>
+  </si>
+  <si>
+    <t>Automation61178</t>
+  </si>
+  <si>
+    <t>examtakerautomation61178@gmail.com</t>
+  </si>
+  <si>
+    <t>61178</t>
+  </si>
+  <si>
+    <t>Examtaker90479</t>
+  </si>
+  <si>
+    <t>Automation90479</t>
+  </si>
+  <si>
+    <t>examtakerautomation90479@gmail.com</t>
+  </si>
+  <si>
+    <t>90479</t>
+  </si>
+  <si>
+    <t>Examtaker25172</t>
+  </si>
+  <si>
+    <t>Automation25172</t>
+  </si>
+  <si>
+    <t>examtakerautomation25172@gmail.com</t>
+  </si>
+  <si>
+    <t>25172</t>
+  </si>
+  <si>
+    <t>Examtaker28409</t>
+  </si>
+  <si>
+    <t>Automation28409</t>
+  </si>
+  <si>
+    <t>examtakerautomation28409@gmail.com</t>
+  </si>
+  <si>
+    <t>28409</t>
+  </si>
+  <si>
+    <t>Examtaker07018</t>
+  </si>
+  <si>
+    <t>Automation07018</t>
+  </si>
+  <si>
+    <t>examtakerautomation07018@gmail.com</t>
+  </si>
+  <si>
+    <t>07018</t>
+  </si>
+  <si>
+    <t>Examtaker74637</t>
+  </si>
+  <si>
+    <t>Automation74637</t>
+  </si>
+  <si>
+    <t>examtakerautomation74637@gmail.com</t>
+  </si>
+  <si>
+    <t>74637</t>
+  </si>
+  <si>
+    <t>Examtaker39893</t>
+  </si>
+  <si>
+    <t>Automation39893</t>
+  </si>
+  <si>
+    <t>examtakerautomation39893@gmail.com</t>
+  </si>
+  <si>
+    <t>39893</t>
+  </si>
+  <si>
+    <t>Examtaker83242</t>
+  </si>
+  <si>
+    <t>Automation83242</t>
+  </si>
+  <si>
+    <t>examtakerautomation83242@gmail.com</t>
+  </si>
+  <si>
+    <t>83242</t>
+  </si>
+  <si>
+    <t>Examtaker98177</t>
+  </si>
+  <si>
+    <t>Automation98177</t>
+  </si>
+  <si>
+    <t>examtakerautomation98177@gmail.com</t>
+  </si>
+  <si>
+    <t>98177</t>
+  </si>
+  <si>
+    <t>Examtaker86202</t>
+  </si>
+  <si>
+    <t>Automation86202</t>
+  </si>
+  <si>
+    <t>examtakerautomation86202@gmail.com</t>
+  </si>
+  <si>
+    <t>86202</t>
+  </si>
+  <si>
+    <t>Examtaker61715</t>
+  </si>
+  <si>
+    <t>Automation61715</t>
+  </si>
+  <si>
+    <t>examtakerautomation61715@gmail.com</t>
+  </si>
+  <si>
+    <t>61715</t>
+  </si>
+  <si>
+    <t>Examtaker24527</t>
+  </si>
+  <si>
+    <t>Automation24527</t>
+  </si>
+  <si>
+    <t>examtakerautomation24527@gmail.com</t>
+  </si>
+  <si>
+    <t>24527</t>
+  </si>
+  <si>
+    <t>Examtaker80682</t>
+  </si>
+  <si>
+    <t>Automation80682</t>
+  </si>
+  <si>
+    <t>examtakerautomation80682@gmail.com</t>
+  </si>
+  <si>
+    <t>80682</t>
+  </si>
+  <si>
+    <t>Examtaker18699</t>
+  </si>
+  <si>
+    <t>Automation18699</t>
+  </si>
+  <si>
+    <t>examtakerautomation18699@gmail.com</t>
+  </si>
+  <si>
+    <t>18699</t>
+  </si>
+  <si>
+    <t>Examtaker73670</t>
+  </si>
+  <si>
+    <t>Automation73670</t>
+  </si>
+  <si>
+    <t>examtakerautomation73670@gmail.com</t>
+  </si>
+  <si>
+    <t>73670</t>
   </si>
 </sst>
 </file>
@@ -3669,423 +4746,423 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D2" t="s">
-        <v>965</v>
+      <c r="A2" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1322</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>1323</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>1324</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>966</v>
-      </c>
-      <c r="B3" t="s">
-        <v>967</v>
-      </c>
-      <c r="C3" t="s">
-        <v>968</v>
-      </c>
-      <c r="D3" t="s">
-        <v>969</v>
+      <c r="A3" t="s" s="0">
+        <v>1325</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1326</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1327</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>1328</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>970</v>
-      </c>
-      <c r="B4" t="s">
-        <v>971</v>
-      </c>
-      <c r="C4" t="s">
-        <v>972</v>
-      </c>
-      <c r="D4" t="s">
-        <v>973</v>
+      <c r="A4" t="s" s="0">
+        <v>1329</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1330</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>1332</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>974</v>
-      </c>
-      <c r="B5" t="s">
-        <v>975</v>
-      </c>
-      <c r="C5" t="s">
-        <v>976</v>
-      </c>
-      <c r="D5" t="s">
-        <v>977</v>
+      <c r="A5" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>1336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>978</v>
-      </c>
-      <c r="B6" t="s">
-        <v>979</v>
-      </c>
-      <c r="C6" t="s">
-        <v>980</v>
-      </c>
-      <c r="D6" t="s">
-        <v>981</v>
+      <c r="A6" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1338</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>1339</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>1340</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>982</v>
-      </c>
-      <c r="B7" t="s">
-        <v>983</v>
-      </c>
-      <c r="C7" t="s">
-        <v>984</v>
-      </c>
-      <c r="D7" t="s">
-        <v>985</v>
+      <c r="A7" t="s" s="0">
+        <v>1341</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>1343</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>1344</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>986</v>
-      </c>
-      <c r="B8" t="s">
-        <v>987</v>
-      </c>
-      <c r="C8" t="s">
-        <v>988</v>
-      </c>
-      <c r="D8" t="s">
-        <v>989</v>
+      <c r="A8" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>1348</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>990</v>
-      </c>
-      <c r="B9" t="s">
-        <v>991</v>
-      </c>
-      <c r="C9" t="s">
-        <v>992</v>
-      </c>
-      <c r="D9" t="s">
-        <v>993</v>
+      <c r="A9" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>1352</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>994</v>
-      </c>
-      <c r="B10" t="s">
-        <v>995</v>
-      </c>
-      <c r="C10" t="s">
-        <v>996</v>
-      </c>
-      <c r="D10" t="s">
-        <v>997</v>
+      <c r="A10" t="s" s="0">
+        <v>1353</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>1356</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>998</v>
-      </c>
-      <c r="B11" t="s">
-        <v>999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1001</v>
+      <c r="A11" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>1359</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>1360</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1005</v>
+      <c r="A12" t="s" s="0">
+        <v>1361</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1362</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>1363</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>1364</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1009</v>
+      <c r="A13" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1366</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>1367</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>1368</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1013</v>
+      <c r="A14" t="s" s="0">
+        <v>1369</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1370</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>1372</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1017</v>
+      <c r="A15" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>1376</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1021</v>
+      <c r="A16" t="s" s="0">
+        <v>1377</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>1379</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>1380</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1025</v>
+      <c r="A17" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>1384</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1029</v>
+      <c r="A18" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1386</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>1388</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1033</v>
+      <c r="A19" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>1391</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>1392</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1037</v>
+      <c r="A20" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1394</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>1395</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>1396</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1041</v>
+      <c r="A21" t="s" s="0">
+        <v>1397</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>1400</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1045</v>
+      <c r="A22" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>1402</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>1404</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1049</v>
+      <c r="A23" t="s" s="0">
+        <v>1405</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>1408</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1053</v>
+      <c r="A24" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>1411</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>1412</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1057</v>
+      <c r="A25" t="s" s="0">
+        <v>1413</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>1415</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>1416</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1061</v>
+      <c r="A26" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>1420</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1065</v>
+      <c r="A27" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>1424</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1069</v>
+      <c r="A28" t="s" s="0">
+        <v>1425</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>1428</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1073</v>
+      <c r="A29" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>1432</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1077</v>
+      <c r="A30" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>1436</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1081</v>
+      <c r="A31" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1438</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>1440</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1801">
   <si>
     <t>FirstName</t>
   </si>
@@ -4337,6 +4337,1086 @@
   </si>
   <si>
     <t>73670</t>
+  </si>
+  <si>
+    <t>Examtaker81163</t>
+  </si>
+  <si>
+    <t>Automation81163</t>
+  </si>
+  <si>
+    <t>examtakerautomation81163@gmail.com</t>
+  </si>
+  <si>
+    <t>81163</t>
+  </si>
+  <si>
+    <t>Examtaker05099</t>
+  </si>
+  <si>
+    <t>Automation05099</t>
+  </si>
+  <si>
+    <t>examtakerautomation05099@gmail.com</t>
+  </si>
+  <si>
+    <t>05099</t>
+  </si>
+  <si>
+    <t>Examtaker23889</t>
+  </si>
+  <si>
+    <t>Automation23889</t>
+  </si>
+  <si>
+    <t>examtakerautomation23889@gmail.com</t>
+  </si>
+  <si>
+    <t>23889</t>
+  </si>
+  <si>
+    <t>Examtaker22555</t>
+  </si>
+  <si>
+    <t>Automation22555</t>
+  </si>
+  <si>
+    <t>examtakerautomation22555@gmail.com</t>
+  </si>
+  <si>
+    <t>22555</t>
+  </si>
+  <si>
+    <t>Examtaker23527</t>
+  </si>
+  <si>
+    <t>Automation23527</t>
+  </si>
+  <si>
+    <t>examtakerautomation23527@gmail.com</t>
+  </si>
+  <si>
+    <t>23527</t>
+  </si>
+  <si>
+    <t>Examtaker67249</t>
+  </si>
+  <si>
+    <t>Automation67249</t>
+  </si>
+  <si>
+    <t>examtakerautomation67249@gmail.com</t>
+  </si>
+  <si>
+    <t>67249</t>
+  </si>
+  <si>
+    <t>Examtaker14408</t>
+  </si>
+  <si>
+    <t>Automation14408</t>
+  </si>
+  <si>
+    <t>examtakerautomation14408@gmail.com</t>
+  </si>
+  <si>
+    <t>14408</t>
+  </si>
+  <si>
+    <t>Examtaker44288</t>
+  </si>
+  <si>
+    <t>Automation44288</t>
+  </si>
+  <si>
+    <t>examtakerautomation44288@gmail.com</t>
+  </si>
+  <si>
+    <t>44288</t>
+  </si>
+  <si>
+    <t>Examtaker77783</t>
+  </si>
+  <si>
+    <t>Automation77783</t>
+  </si>
+  <si>
+    <t>examtakerautomation77783@gmail.com</t>
+  </si>
+  <si>
+    <t>77783</t>
+  </si>
+  <si>
+    <t>Examtaker40625</t>
+  </si>
+  <si>
+    <t>Automation40625</t>
+  </si>
+  <si>
+    <t>examtakerautomation40625@gmail.com</t>
+  </si>
+  <si>
+    <t>40625</t>
+  </si>
+  <si>
+    <t>Examtaker10257</t>
+  </si>
+  <si>
+    <t>Automation10257</t>
+  </si>
+  <si>
+    <t>examtakerautomation10257@gmail.com</t>
+  </si>
+  <si>
+    <t>10257</t>
+  </si>
+  <si>
+    <t>Examtaker67871</t>
+  </si>
+  <si>
+    <t>Automation67871</t>
+  </si>
+  <si>
+    <t>examtakerautomation67871@gmail.com</t>
+  </si>
+  <si>
+    <t>67871</t>
+  </si>
+  <si>
+    <t>Examtaker89911</t>
+  </si>
+  <si>
+    <t>Automation89911</t>
+  </si>
+  <si>
+    <t>examtakerautomation89911@gmail.com</t>
+  </si>
+  <si>
+    <t>89911</t>
+  </si>
+  <si>
+    <t>Examtaker54422</t>
+  </si>
+  <si>
+    <t>Automation54422</t>
+  </si>
+  <si>
+    <t>examtakerautomation54422@gmail.com</t>
+  </si>
+  <si>
+    <t>54422</t>
+  </si>
+  <si>
+    <t>Examtaker68914</t>
+  </si>
+  <si>
+    <t>Automation68914</t>
+  </si>
+  <si>
+    <t>examtakerautomation68914@gmail.com</t>
+  </si>
+  <si>
+    <t>68914</t>
+  </si>
+  <si>
+    <t>Examtaker61098</t>
+  </si>
+  <si>
+    <t>Automation61098</t>
+  </si>
+  <si>
+    <t>examtakerautomation61098@gmail.com</t>
+  </si>
+  <si>
+    <t>61098</t>
+  </si>
+  <si>
+    <t>Examtaker56776</t>
+  </si>
+  <si>
+    <t>Automation56776</t>
+  </si>
+  <si>
+    <t>examtakerautomation56776@gmail.com</t>
+  </si>
+  <si>
+    <t>56776</t>
+  </si>
+  <si>
+    <t>Examtaker39157</t>
+  </si>
+  <si>
+    <t>Automation39157</t>
+  </si>
+  <si>
+    <t>examtakerautomation39157@gmail.com</t>
+  </si>
+  <si>
+    <t>39157</t>
+  </si>
+  <si>
+    <t>Examtaker38899</t>
+  </si>
+  <si>
+    <t>Automation38899</t>
+  </si>
+  <si>
+    <t>examtakerautomation38899@gmail.com</t>
+  </si>
+  <si>
+    <t>38899</t>
+  </si>
+  <si>
+    <t>Examtaker04858</t>
+  </si>
+  <si>
+    <t>Automation04858</t>
+  </si>
+  <si>
+    <t>examtakerautomation04858@gmail.com</t>
+  </si>
+  <si>
+    <t>04858</t>
+  </si>
+  <si>
+    <t>Examtaker55367</t>
+  </si>
+  <si>
+    <t>Automation55367</t>
+  </si>
+  <si>
+    <t>examtakerautomation55367@gmail.com</t>
+  </si>
+  <si>
+    <t>55367</t>
+  </si>
+  <si>
+    <t>Examtaker77039</t>
+  </si>
+  <si>
+    <t>Automation77039</t>
+  </si>
+  <si>
+    <t>examtakerautomation77039@gmail.com</t>
+  </si>
+  <si>
+    <t>77039</t>
+  </si>
+  <si>
+    <t>Examtaker98180</t>
+  </si>
+  <si>
+    <t>Automation98180</t>
+  </si>
+  <si>
+    <t>examtakerautomation98180@gmail.com</t>
+  </si>
+  <si>
+    <t>98180</t>
+  </si>
+  <si>
+    <t>Examtaker91526</t>
+  </si>
+  <si>
+    <t>Automation91526</t>
+  </si>
+  <si>
+    <t>examtakerautomation91526@gmail.com</t>
+  </si>
+  <si>
+    <t>91526</t>
+  </si>
+  <si>
+    <t>Examtaker41547</t>
+  </si>
+  <si>
+    <t>Automation41547</t>
+  </si>
+  <si>
+    <t>examtakerautomation41547@gmail.com</t>
+  </si>
+  <si>
+    <t>41547</t>
+  </si>
+  <si>
+    <t>Examtaker35294</t>
+  </si>
+  <si>
+    <t>Automation35294</t>
+  </si>
+  <si>
+    <t>examtakerautomation35294@gmail.com</t>
+  </si>
+  <si>
+    <t>35294</t>
+  </si>
+  <si>
+    <t>Examtaker92343</t>
+  </si>
+  <si>
+    <t>Automation92343</t>
+  </si>
+  <si>
+    <t>examtakerautomation92343@gmail.com</t>
+  </si>
+  <si>
+    <t>92343</t>
+  </si>
+  <si>
+    <t>Examtaker37708</t>
+  </si>
+  <si>
+    <t>Automation37708</t>
+  </si>
+  <si>
+    <t>examtakerautomation37708@gmail.com</t>
+  </si>
+  <si>
+    <t>37708</t>
+  </si>
+  <si>
+    <t>Examtaker02757</t>
+  </si>
+  <si>
+    <t>Automation02757</t>
+  </si>
+  <si>
+    <t>examtakerautomation02757@gmail.com</t>
+  </si>
+  <si>
+    <t>02757</t>
+  </si>
+  <si>
+    <t>Examtaker82139</t>
+  </si>
+  <si>
+    <t>Automation82139</t>
+  </si>
+  <si>
+    <t>examtakerautomation82139@gmail.com</t>
+  </si>
+  <si>
+    <t>82139</t>
+  </si>
+  <si>
+    <t>Examtaker47377</t>
+  </si>
+  <si>
+    <t>Automation47377</t>
+  </si>
+  <si>
+    <t>examtakerautomation47377@gmail.com</t>
+  </si>
+  <si>
+    <t>47377</t>
+  </si>
+  <si>
+    <t>Examtaker73745</t>
+  </si>
+  <si>
+    <t>Automation73745</t>
+  </si>
+  <si>
+    <t>examtakerautomation73745@gmail.com</t>
+  </si>
+  <si>
+    <t>73745</t>
+  </si>
+  <si>
+    <t>Examtaker77952</t>
+  </si>
+  <si>
+    <t>Automation77952</t>
+  </si>
+  <si>
+    <t>examtakerautomation77952@gmail.com</t>
+  </si>
+  <si>
+    <t>77952</t>
+  </si>
+  <si>
+    <t>Examtaker35226</t>
+  </si>
+  <si>
+    <t>Automation35226</t>
+  </si>
+  <si>
+    <t>examtakerautomation35226@gmail.com</t>
+  </si>
+  <si>
+    <t>35226</t>
+  </si>
+  <si>
+    <t>Examtaker17706</t>
+  </si>
+  <si>
+    <t>Automation17706</t>
+  </si>
+  <si>
+    <t>examtakerautomation17706@gmail.com</t>
+  </si>
+  <si>
+    <t>17706</t>
+  </si>
+  <si>
+    <t>Examtaker39171</t>
+  </si>
+  <si>
+    <t>Automation39171</t>
+  </si>
+  <si>
+    <t>examtakerautomation39171@gmail.com</t>
+  </si>
+  <si>
+    <t>39171</t>
+  </si>
+  <si>
+    <t>Examtaker42782</t>
+  </si>
+  <si>
+    <t>Automation42782</t>
+  </si>
+  <si>
+    <t>examtakerautomation42782@gmail.com</t>
+  </si>
+  <si>
+    <t>42782</t>
+  </si>
+  <si>
+    <t>Examtaker98826</t>
+  </si>
+  <si>
+    <t>Automation98826</t>
+  </si>
+  <si>
+    <t>examtakerautomation98826@gmail.com</t>
+  </si>
+  <si>
+    <t>98826</t>
+  </si>
+  <si>
+    <t>Examtaker45876</t>
+  </si>
+  <si>
+    <t>Automation45876</t>
+  </si>
+  <si>
+    <t>examtakerautomation45876@gmail.com</t>
+  </si>
+  <si>
+    <t>45876</t>
+  </si>
+  <si>
+    <t>Examtaker15822</t>
+  </si>
+  <si>
+    <t>Automation15822</t>
+  </si>
+  <si>
+    <t>examtakerautomation15822@gmail.com</t>
+  </si>
+  <si>
+    <t>15822</t>
+  </si>
+  <si>
+    <t>Examtaker55774</t>
+  </si>
+  <si>
+    <t>Automation55774</t>
+  </si>
+  <si>
+    <t>examtakerautomation55774@gmail.com</t>
+  </si>
+  <si>
+    <t>55774</t>
+  </si>
+  <si>
+    <t>Examtaker49237</t>
+  </si>
+  <si>
+    <t>Automation49237</t>
+  </si>
+  <si>
+    <t>examtakerautomation49237@gmail.com</t>
+  </si>
+  <si>
+    <t>49237</t>
+  </si>
+  <si>
+    <t>Examtaker83570</t>
+  </si>
+  <si>
+    <t>Automation83570</t>
+  </si>
+  <si>
+    <t>examtakerautomation83570@gmail.com</t>
+  </si>
+  <si>
+    <t>83570</t>
+  </si>
+  <si>
+    <t>Examtaker14601</t>
+  </si>
+  <si>
+    <t>Automation14601</t>
+  </si>
+  <si>
+    <t>examtakerautomation14601@gmail.com</t>
+  </si>
+  <si>
+    <t>14601</t>
+  </si>
+  <si>
+    <t>Examtaker93496</t>
+  </si>
+  <si>
+    <t>Automation93496</t>
+  </si>
+  <si>
+    <t>examtakerautomation93496@gmail.com</t>
+  </si>
+  <si>
+    <t>93496</t>
+  </si>
+  <si>
+    <t>Examtaker67885</t>
+  </si>
+  <si>
+    <t>Automation67885</t>
+  </si>
+  <si>
+    <t>examtakerautomation67885@gmail.com</t>
+  </si>
+  <si>
+    <t>67885</t>
+  </si>
+  <si>
+    <t>Examtaker51631</t>
+  </si>
+  <si>
+    <t>Automation51631</t>
+  </si>
+  <si>
+    <t>examtakerautomation51631@gmail.com</t>
+  </si>
+  <si>
+    <t>51631</t>
+  </si>
+  <si>
+    <t>Examtaker00762</t>
+  </si>
+  <si>
+    <t>Automation00762</t>
+  </si>
+  <si>
+    <t>examtakerautomation00762@gmail.com</t>
+  </si>
+  <si>
+    <t>00762</t>
+  </si>
+  <si>
+    <t>Examtaker79743</t>
+  </si>
+  <si>
+    <t>Automation79743</t>
+  </si>
+  <si>
+    <t>examtakerautomation79743@gmail.com</t>
+  </si>
+  <si>
+    <t>79743</t>
+  </si>
+  <si>
+    <t>Examtaker88400</t>
+  </si>
+  <si>
+    <t>Automation88400</t>
+  </si>
+  <si>
+    <t>examtakerautomation88400@gmail.com</t>
+  </si>
+  <si>
+    <t>88400</t>
+  </si>
+  <si>
+    <t>Examtaker53551</t>
+  </si>
+  <si>
+    <t>Automation53551</t>
+  </si>
+  <si>
+    <t>examtakerautomation53551@gmail.com</t>
+  </si>
+  <si>
+    <t>53551</t>
+  </si>
+  <si>
+    <t>Examtaker14664</t>
+  </si>
+  <si>
+    <t>Automation14664</t>
+  </si>
+  <si>
+    <t>examtakerautomation14664@gmail.com</t>
+  </si>
+  <si>
+    <t>14664</t>
+  </si>
+  <si>
+    <t>Examtaker43773</t>
+  </si>
+  <si>
+    <t>Automation43773</t>
+  </si>
+  <si>
+    <t>examtakerautomation43773@gmail.com</t>
+  </si>
+  <si>
+    <t>43773</t>
+  </si>
+  <si>
+    <t>Examtaker96895</t>
+  </si>
+  <si>
+    <t>Automation96895</t>
+  </si>
+  <si>
+    <t>examtakerautomation96895@gmail.com</t>
+  </si>
+  <si>
+    <t>96895</t>
+  </si>
+  <si>
+    <t>Examtaker94001</t>
+  </si>
+  <si>
+    <t>Automation94001</t>
+  </si>
+  <si>
+    <t>examtakerautomation94001@gmail.com</t>
+  </si>
+  <si>
+    <t>94001</t>
+  </si>
+  <si>
+    <t>Examtaker76479</t>
+  </si>
+  <si>
+    <t>Automation76479</t>
+  </si>
+  <si>
+    <t>examtakerautomation76479@gmail.com</t>
+  </si>
+  <si>
+    <t>76479</t>
+  </si>
+  <si>
+    <t>Examtaker03549</t>
+  </si>
+  <si>
+    <t>Automation03549</t>
+  </si>
+  <si>
+    <t>examtakerautomation03549@gmail.com</t>
+  </si>
+  <si>
+    <t>03549</t>
+  </si>
+  <si>
+    <t>Examtaker08693</t>
+  </si>
+  <si>
+    <t>Automation08693</t>
+  </si>
+  <si>
+    <t>examtakerautomation08693@gmail.com</t>
+  </si>
+  <si>
+    <t>08693</t>
+  </si>
+  <si>
+    <t>Examtaker46314</t>
+  </si>
+  <si>
+    <t>Automation46314</t>
+  </si>
+  <si>
+    <t>examtakerautomation46314@gmail.com</t>
+  </si>
+  <si>
+    <t>46314</t>
+  </si>
+  <si>
+    <t>Examtaker34447</t>
+  </si>
+  <si>
+    <t>Automation34447</t>
+  </si>
+  <si>
+    <t>examtakerautomation34447@gmail.com</t>
+  </si>
+  <si>
+    <t>34447</t>
+  </si>
+  <si>
+    <t>Examtaker83601</t>
+  </si>
+  <si>
+    <t>Automation83601</t>
+  </si>
+  <si>
+    <t>examtakerautomation83601@gmail.com</t>
+  </si>
+  <si>
+    <t>83601</t>
+  </si>
+  <si>
+    <t>Examtaker58683</t>
+  </si>
+  <si>
+    <t>Automation58683</t>
+  </si>
+  <si>
+    <t>examtakerautomation58683@gmail.com</t>
+  </si>
+  <si>
+    <t>58683</t>
+  </si>
+  <si>
+    <t>Examtaker78987</t>
+  </si>
+  <si>
+    <t>Automation78987</t>
+  </si>
+  <si>
+    <t>examtakerautomation78987@gmail.com</t>
+  </si>
+  <si>
+    <t>78987</t>
+  </si>
+  <si>
+    <t>Examtaker91971</t>
+  </si>
+  <si>
+    <t>Automation91971</t>
+  </si>
+  <si>
+    <t>examtakerautomation91971@gmail.com</t>
+  </si>
+  <si>
+    <t>91971</t>
+  </si>
+  <si>
+    <t>Examtaker00811</t>
+  </si>
+  <si>
+    <t>Automation00811</t>
+  </si>
+  <si>
+    <t>examtakerautomation00811@gmail.com</t>
+  </si>
+  <si>
+    <t>00811</t>
+  </si>
+  <si>
+    <t>Examtaker22935</t>
+  </si>
+  <si>
+    <t>Automation22935</t>
+  </si>
+  <si>
+    <t>examtakerautomation22935@gmail.com</t>
+  </si>
+  <si>
+    <t>22935</t>
+  </si>
+  <si>
+    <t>Examtaker36181</t>
+  </si>
+  <si>
+    <t>Automation36181</t>
+  </si>
+  <si>
+    <t>examtakerautomation36181@gmail.com</t>
+  </si>
+  <si>
+    <t>36181</t>
+  </si>
+  <si>
+    <t>Examtaker68528</t>
+  </si>
+  <si>
+    <t>Automation68528</t>
+  </si>
+  <si>
+    <t>examtakerautomation68528@gmail.com</t>
+  </si>
+  <si>
+    <t>68528</t>
+  </si>
+  <si>
+    <t>Examtaker96891</t>
+  </si>
+  <si>
+    <t>Automation96891</t>
+  </si>
+  <si>
+    <t>examtakerautomation96891@gmail.com</t>
+  </si>
+  <si>
+    <t>96891</t>
+  </si>
+  <si>
+    <t>Examtaker74115</t>
+  </si>
+  <si>
+    <t>Automation74115</t>
+  </si>
+  <si>
+    <t>examtakerautomation74115@gmail.com</t>
+  </si>
+  <si>
+    <t>74115</t>
+  </si>
+  <si>
+    <t>Examtaker96714</t>
+  </si>
+  <si>
+    <t>Automation96714</t>
+  </si>
+  <si>
+    <t>examtakerautomation96714@gmail.com</t>
+  </si>
+  <si>
+    <t>96714</t>
+  </si>
+  <si>
+    <t>Examtaker51759</t>
+  </si>
+  <si>
+    <t>Automation51759</t>
+  </si>
+  <si>
+    <t>examtakerautomation51759@gmail.com</t>
+  </si>
+  <si>
+    <t>51759</t>
+  </si>
+  <si>
+    <t>Examtaker27064</t>
+  </si>
+  <si>
+    <t>Automation27064</t>
+  </si>
+  <si>
+    <t>examtakerautomation27064@gmail.com</t>
+  </si>
+  <si>
+    <t>27064</t>
+  </si>
+  <si>
+    <t>Examtaker55142</t>
+  </si>
+  <si>
+    <t>Automation55142</t>
+  </si>
+  <si>
+    <t>examtakerautomation55142@gmail.com</t>
+  </si>
+  <si>
+    <t>55142</t>
+  </si>
+  <si>
+    <t>Examtaker17010</t>
+  </si>
+  <si>
+    <t>Automation17010</t>
+  </si>
+  <si>
+    <t>examtakerautomation17010@gmail.com</t>
+  </si>
+  <si>
+    <t>17010</t>
+  </si>
+  <si>
+    <t>Examtaker12537</t>
+  </si>
+  <si>
+    <t>Automation12537</t>
+  </si>
+  <si>
+    <t>examtakerautomation12537@gmail.com</t>
+  </si>
+  <si>
+    <t>12537</t>
+  </si>
+  <si>
+    <t>Examtaker86933</t>
+  </si>
+  <si>
+    <t>Automation86933</t>
+  </si>
+  <si>
+    <t>examtakerautomation86933@gmail.com</t>
+  </si>
+  <si>
+    <t>86933</t>
+  </si>
+  <si>
+    <t>Examtaker50615</t>
+  </si>
+  <si>
+    <t>Automation50615</t>
+  </si>
+  <si>
+    <t>examtakerautomation50615@gmail.com</t>
+  </si>
+  <si>
+    <t>50615</t>
+  </si>
+  <si>
+    <t>Examtaker73776</t>
+  </si>
+  <si>
+    <t>Automation73776</t>
+  </si>
+  <si>
+    <t>examtakerautomation73776@gmail.com</t>
+  </si>
+  <si>
+    <t>73776</t>
+  </si>
+  <si>
+    <t>Examtaker83717</t>
+  </si>
+  <si>
+    <t>Automation83717</t>
+  </si>
+  <si>
+    <t>examtakerautomation83717@gmail.com</t>
+  </si>
+  <si>
+    <t>83717</t>
+  </si>
+  <si>
+    <t>Examtaker75527</t>
+  </si>
+  <si>
+    <t>Automation75527</t>
+  </si>
+  <si>
+    <t>examtakerautomation75527@gmail.com</t>
+  </si>
+  <si>
+    <t>75527</t>
+  </si>
+  <si>
+    <t>Examtaker51117</t>
+  </si>
+  <si>
+    <t>Automation51117</t>
+  </si>
+  <si>
+    <t>examtakerautomation51117@gmail.com</t>
+  </si>
+  <si>
+    <t>51117</t>
+  </si>
+  <si>
+    <t>Examtaker37166</t>
+  </si>
+  <si>
+    <t>Automation37166</t>
+  </si>
+  <si>
+    <t>examtakerautomation37166@gmail.com</t>
+  </si>
+  <si>
+    <t>37166</t>
+  </si>
+  <si>
+    <t>Examtaker96112</t>
+  </si>
+  <si>
+    <t>Automation96112</t>
+  </si>
+  <si>
+    <t>examtakerautomation96112@gmail.com</t>
+  </si>
+  <si>
+    <t>96112</t>
+  </si>
+  <si>
+    <t>Examtaker68694</t>
+  </si>
+  <si>
+    <t>Automation68694</t>
+  </si>
+  <si>
+    <t>examtakerautomation68694@gmail.com</t>
+  </si>
+  <si>
+    <t>68694</t>
+  </si>
+  <si>
+    <t>Examtaker76448</t>
+  </si>
+  <si>
+    <t>Automation76448</t>
+  </si>
+  <si>
+    <t>examtakerautomation76448@gmail.com</t>
+  </si>
+  <si>
+    <t>76448</t>
+  </si>
+  <si>
+    <t>Examtaker86862</t>
+  </si>
+  <si>
+    <t>Automation86862</t>
+  </si>
+  <si>
+    <t>examtakerautomation86862@gmail.com</t>
+  </si>
+  <si>
+    <t>86862</t>
+  </si>
+  <si>
+    <t>Examtaker71207</t>
+  </si>
+  <si>
+    <t>Automation71207</t>
+  </si>
+  <si>
+    <t>examtakerautomation71207@gmail.com</t>
+  </si>
+  <si>
+    <t>71207</t>
+  </si>
+  <si>
+    <t>Examtaker61366</t>
+  </si>
+  <si>
+    <t>Automation61366</t>
+  </si>
+  <si>
+    <t>examtakerautomation61366@gmail.com</t>
+  </si>
+  <si>
+    <t>61366</t>
+  </si>
+  <si>
+    <t>Examtaker84348</t>
+  </si>
+  <si>
+    <t>Automation84348</t>
+  </si>
+  <si>
+    <t>examtakerautomation84348@gmail.com</t>
+  </si>
+  <si>
+    <t>84348</t>
   </si>
 </sst>
 </file>
@@ -4747,422 +5827,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1321</v>
+        <v>1681</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1322</v>
+        <v>1682</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1323</v>
+        <v>1683</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1324</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1325</v>
+        <v>1685</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1326</v>
+        <v>1686</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1327</v>
+        <v>1687</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1328</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1329</v>
+        <v>1689</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1330</v>
+        <v>1690</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1331</v>
+        <v>1691</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1332</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1333</v>
+        <v>1693</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1334</v>
+        <v>1694</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1335</v>
+        <v>1695</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1336</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1337</v>
+        <v>1697</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1338</v>
+        <v>1698</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1339</v>
+        <v>1699</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1340</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1341</v>
+        <v>1701</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1342</v>
+        <v>1702</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1343</v>
+        <v>1703</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1344</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1345</v>
+        <v>1705</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1346</v>
+        <v>1706</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1347</v>
+        <v>1707</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1348</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1349</v>
+        <v>1709</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1350</v>
+        <v>1710</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1351</v>
+        <v>1711</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1352</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1353</v>
+        <v>1713</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1354</v>
+        <v>1714</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1355</v>
+        <v>1715</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1356</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1357</v>
+        <v>1717</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1358</v>
+        <v>1718</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1359</v>
+        <v>1719</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1360</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1361</v>
+        <v>1721</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1362</v>
+        <v>1722</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1363</v>
+        <v>1723</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1364</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1365</v>
+        <v>1725</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1366</v>
+        <v>1726</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1367</v>
+        <v>1727</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1368</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1369</v>
+        <v>1729</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1370</v>
+        <v>1730</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1371</v>
+        <v>1731</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1372</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1373</v>
+        <v>1733</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1374</v>
+        <v>1734</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1375</v>
+        <v>1735</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1376</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1377</v>
+        <v>1737</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1378</v>
+        <v>1738</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1379</v>
+        <v>1739</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1380</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1381</v>
+        <v>1741</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1382</v>
+        <v>1742</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1383</v>
+        <v>1743</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1384</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1385</v>
+        <v>1745</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1386</v>
+        <v>1746</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1387</v>
+        <v>1747</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1388</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1389</v>
+        <v>1749</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1390</v>
+        <v>1750</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1391</v>
+        <v>1751</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1392</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1393</v>
+        <v>1753</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1394</v>
+        <v>1754</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1395</v>
+        <v>1755</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1396</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1397</v>
+        <v>1757</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1398</v>
+        <v>1758</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1399</v>
+        <v>1759</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1400</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1401</v>
+        <v>1761</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1402</v>
+        <v>1762</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1403</v>
+        <v>1763</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1404</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1405</v>
+        <v>1765</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1406</v>
+        <v>1766</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1407</v>
+        <v>1767</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1408</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1409</v>
+        <v>1769</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1410</v>
+        <v>1770</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1411</v>
+        <v>1771</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>1412</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1413</v>
+        <v>1773</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>1414</v>
+        <v>1774</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1415</v>
+        <v>1775</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>1416</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1417</v>
+        <v>1777</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1418</v>
+        <v>1778</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1419</v>
+        <v>1779</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>1420</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1421</v>
+        <v>1781</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1422</v>
+        <v>1782</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1423</v>
+        <v>1783</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>1424</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1425</v>
+        <v>1785</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1426</v>
+        <v>1786</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1427</v>
+        <v>1787</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>1428</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1429</v>
+        <v>1789</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1430</v>
+        <v>1790</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1431</v>
+        <v>1791</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>1432</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1433</v>
+        <v>1793</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1434</v>
+        <v>1794</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1435</v>
+        <v>1795</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>1436</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1437</v>
+        <v>1797</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>1438</v>
+        <v>1798</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1439</v>
+        <v>1799</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>1440</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1913">
   <si>
     <t>FirstName</t>
   </si>
@@ -5417,6 +5417,342 @@
   </si>
   <si>
     <t>84348</t>
+  </si>
+  <si>
+    <t>Examtaker01856</t>
+  </si>
+  <si>
+    <t>Automation01856</t>
+  </si>
+  <si>
+    <t>examtakerautomation01856@gmail.com</t>
+  </si>
+  <si>
+    <t>01856</t>
+  </si>
+  <si>
+    <t>Examtaker40903</t>
+  </si>
+  <si>
+    <t>Automation40903</t>
+  </si>
+  <si>
+    <t>examtakerautomation40903@gmail.com</t>
+  </si>
+  <si>
+    <t>40903</t>
+  </si>
+  <si>
+    <t>Examtaker33438</t>
+  </si>
+  <si>
+    <t>Automation33438</t>
+  </si>
+  <si>
+    <t>examtakerautomation33438@gmail.com</t>
+  </si>
+  <si>
+    <t>33438</t>
+  </si>
+  <si>
+    <t>Examtaker08778</t>
+  </si>
+  <si>
+    <t>Automation08778</t>
+  </si>
+  <si>
+    <t>examtakerautomation08778@gmail.com</t>
+  </si>
+  <si>
+    <t>08778</t>
+  </si>
+  <si>
+    <t>Examtaker72558</t>
+  </si>
+  <si>
+    <t>Automation72558</t>
+  </si>
+  <si>
+    <t>examtakerautomation72558@gmail.com</t>
+  </si>
+  <si>
+    <t>72558</t>
+  </si>
+  <si>
+    <t>Examtaker56820</t>
+  </si>
+  <si>
+    <t>Automation56820</t>
+  </si>
+  <si>
+    <t>examtakerautomation56820@gmail.com</t>
+  </si>
+  <si>
+    <t>56820</t>
+  </si>
+  <si>
+    <t>Examtaker88230</t>
+  </si>
+  <si>
+    <t>Automation88230</t>
+  </si>
+  <si>
+    <t>examtakerautomation88230@gmail.com</t>
+  </si>
+  <si>
+    <t>88230</t>
+  </si>
+  <si>
+    <t>Examtaker06363</t>
+  </si>
+  <si>
+    <t>Automation06363</t>
+  </si>
+  <si>
+    <t>examtakerautomation06363@gmail.com</t>
+  </si>
+  <si>
+    <t>06363</t>
+  </si>
+  <si>
+    <t>Examtaker08120</t>
+  </si>
+  <si>
+    <t>Automation08120</t>
+  </si>
+  <si>
+    <t>examtakerautomation08120@gmail.com</t>
+  </si>
+  <si>
+    <t>08120</t>
+  </si>
+  <si>
+    <t>Examtaker10738</t>
+  </si>
+  <si>
+    <t>Automation10738</t>
+  </si>
+  <si>
+    <t>examtakerautomation10738@gmail.com</t>
+  </si>
+  <si>
+    <t>10738</t>
+  </si>
+  <si>
+    <t>Examtaker53387</t>
+  </si>
+  <si>
+    <t>Automation53387</t>
+  </si>
+  <si>
+    <t>examtakerautomation53387@gmail.com</t>
+  </si>
+  <si>
+    <t>53387</t>
+  </si>
+  <si>
+    <t>Examtaker25625</t>
+  </si>
+  <si>
+    <t>Automation25625</t>
+  </si>
+  <si>
+    <t>examtakerautomation25625@gmail.com</t>
+  </si>
+  <si>
+    <t>25625</t>
+  </si>
+  <si>
+    <t>Examtaker40015</t>
+  </si>
+  <si>
+    <t>Automation40015</t>
+  </si>
+  <si>
+    <t>examtakerautomation40015@gmail.com</t>
+  </si>
+  <si>
+    <t>40015</t>
+  </si>
+  <si>
+    <t>Examtaker08894</t>
+  </si>
+  <si>
+    <t>Automation08894</t>
+  </si>
+  <si>
+    <t>examtakerautomation08894@gmail.com</t>
+  </si>
+  <si>
+    <t>08894</t>
+  </si>
+  <si>
+    <t>Examtaker72749</t>
+  </si>
+  <si>
+    <t>Automation72749</t>
+  </si>
+  <si>
+    <t>examtakerautomation72749@gmail.com</t>
+  </si>
+  <si>
+    <t>72749</t>
+  </si>
+  <si>
+    <t>Examtaker32032</t>
+  </si>
+  <si>
+    <t>Automation32032</t>
+  </si>
+  <si>
+    <t>examtakerautomation32032@gmail.com</t>
+  </si>
+  <si>
+    <t>32032</t>
+  </si>
+  <si>
+    <t>Examtaker80965</t>
+  </si>
+  <si>
+    <t>Automation80965</t>
+  </si>
+  <si>
+    <t>examtakerautomation80965@gmail.com</t>
+  </si>
+  <si>
+    <t>80965</t>
+  </si>
+  <si>
+    <t>Examtaker28331</t>
+  </si>
+  <si>
+    <t>Automation28331</t>
+  </si>
+  <si>
+    <t>examtakerautomation28331@gmail.com</t>
+  </si>
+  <si>
+    <t>28331</t>
+  </si>
+  <si>
+    <t>Examtaker58313</t>
+  </si>
+  <si>
+    <t>Automation58313</t>
+  </si>
+  <si>
+    <t>examtakerautomation58313@gmail.com</t>
+  </si>
+  <si>
+    <t>58313</t>
+  </si>
+  <si>
+    <t>Examtaker87719</t>
+  </si>
+  <si>
+    <t>Automation87719</t>
+  </si>
+  <si>
+    <t>examtakerautomation87719@gmail.com</t>
+  </si>
+  <si>
+    <t>87719</t>
+  </si>
+  <si>
+    <t>Examtaker45505</t>
+  </si>
+  <si>
+    <t>Automation45505</t>
+  </si>
+  <si>
+    <t>examtakerautomation45505@gmail.com</t>
+  </si>
+  <si>
+    <t>45505</t>
+  </si>
+  <si>
+    <t>Examtaker59055</t>
+  </si>
+  <si>
+    <t>Automation59055</t>
+  </si>
+  <si>
+    <t>examtakerautomation59055@gmail.com</t>
+  </si>
+  <si>
+    <t>59055</t>
+  </si>
+  <si>
+    <t>Examtaker04288</t>
+  </si>
+  <si>
+    <t>Automation04288</t>
+  </si>
+  <si>
+    <t>examtakerautomation04288@gmail.com</t>
+  </si>
+  <si>
+    <t>04288</t>
+  </si>
+  <si>
+    <t>Examtaker50762</t>
+  </si>
+  <si>
+    <t>Automation50762</t>
+  </si>
+  <si>
+    <t>examtakerautomation50762@gmail.com</t>
+  </si>
+  <si>
+    <t>50762</t>
+  </si>
+  <si>
+    <t>Examtaker25695</t>
+  </si>
+  <si>
+    <t>Automation25695</t>
+  </si>
+  <si>
+    <t>examtakerautomation25695@gmail.com</t>
+  </si>
+  <si>
+    <t>25695</t>
+  </si>
+  <si>
+    <t>Examtaker33938</t>
+  </si>
+  <si>
+    <t>Automation33938</t>
+  </si>
+  <si>
+    <t>examtakerautomation33938@gmail.com</t>
+  </si>
+  <si>
+    <t>33938</t>
+  </si>
+  <si>
+    <t>Examtaker11095</t>
+  </si>
+  <si>
+    <t>Automation11095</t>
+  </si>
+  <si>
+    <t>examtakerautomation11095@gmail.com</t>
+  </si>
+  <si>
+    <t>11095</t>
+  </si>
+  <si>
+    <t>Examtaker94337</t>
+  </si>
+  <si>
+    <t>Automation94337</t>
+  </si>
+  <si>
+    <t>examtakerautomation94337@gmail.com</t>
+  </si>
+  <si>
+    <t>94337</t>
   </si>
 </sst>
 </file>
@@ -5827,422 +6163,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1681</v>
+        <v>1801</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1682</v>
+        <v>1802</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1683</v>
+        <v>1803</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1684</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1686</v>
+        <v>1806</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1687</v>
+        <v>1807</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1688</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1689</v>
+        <v>1809</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1690</v>
+        <v>1810</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1691</v>
+        <v>1811</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1692</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1693</v>
+        <v>1813</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1694</v>
+        <v>1814</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1695</v>
+        <v>1815</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1696</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1697</v>
+        <v>1817</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1698</v>
+        <v>1818</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1699</v>
+        <v>1819</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1700</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1701</v>
+        <v>1821</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1702</v>
+        <v>1822</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1703</v>
+        <v>1823</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1704</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1705</v>
+        <v>1825</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1706</v>
+        <v>1826</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1707</v>
+        <v>1827</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1708</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1709</v>
+        <v>1829</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1710</v>
+        <v>1830</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1711</v>
+        <v>1831</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1712</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1713</v>
+        <v>1833</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1714</v>
+        <v>1834</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1715</v>
+        <v>1835</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1716</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1717</v>
+        <v>1837</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1718</v>
+        <v>1838</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1719</v>
+        <v>1839</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1720</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1721</v>
+        <v>1841</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1722</v>
+        <v>1842</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1723</v>
+        <v>1843</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1724</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1725</v>
+        <v>1845</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1726</v>
+        <v>1846</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1727</v>
+        <v>1847</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1728</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1729</v>
+        <v>1849</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1730</v>
+        <v>1850</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1731</v>
+        <v>1851</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1732</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1733</v>
+        <v>1853</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1734</v>
+        <v>1854</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1735</v>
+        <v>1855</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1736</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1737</v>
+        <v>1857</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1738</v>
+        <v>1858</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1739</v>
+        <v>1859</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1740</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1741</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1742</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1743</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1744</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1745</v>
+        <v>1861</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1746</v>
+        <v>1862</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1747</v>
+        <v>1863</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1748</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1749</v>
+        <v>1865</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1750</v>
+        <v>1866</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1751</v>
+        <v>1867</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1752</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1753</v>
+        <v>1649</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1754</v>
+        <v>1650</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1755</v>
+        <v>1651</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1756</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1757</v>
+        <v>1869</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1758</v>
+        <v>1870</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1759</v>
+        <v>1871</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1760</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1761</v>
+        <v>1873</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1762</v>
+        <v>1874</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1763</v>
+        <v>1875</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1764</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1765</v>
+        <v>1877</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1766</v>
+        <v>1878</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1767</v>
+        <v>1879</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1768</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1769</v>
+        <v>1881</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1770</v>
+        <v>1882</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1771</v>
+        <v>1883</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>1772</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1773</v>
+        <v>1885</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>1774</v>
+        <v>1886</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1775</v>
+        <v>1887</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>1776</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1777</v>
+        <v>1889</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1778</v>
+        <v>1890</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1779</v>
+        <v>1891</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>1780</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1781</v>
+        <v>1893</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1782</v>
+        <v>1894</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1783</v>
+        <v>1895</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>1784</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1785</v>
+        <v>1897</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1786</v>
+        <v>1898</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1787</v>
+        <v>1899</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>1788</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1789</v>
+        <v>1901</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1790</v>
+        <v>1902</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1791</v>
+        <v>1903</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>1792</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1793</v>
+        <v>1905</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1794</v>
+        <v>1906</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1795</v>
+        <v>1907</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>1796</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1797</v>
+        <v>1909</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>1798</v>
+        <v>1910</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1799</v>
+        <v>1911</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>1800</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="2029">
   <si>
     <t>FirstName</t>
   </si>
@@ -5753,6 +5753,354 @@
   </si>
   <si>
     <t>94337</t>
+  </si>
+  <si>
+    <t>Examtaker88035</t>
+  </si>
+  <si>
+    <t>Automation88035</t>
+  </si>
+  <si>
+    <t>examtakerautomation88035@gmail.com</t>
+  </si>
+  <si>
+    <t>88035</t>
+  </si>
+  <si>
+    <t>Examtaker27984</t>
+  </si>
+  <si>
+    <t>Automation27984</t>
+  </si>
+  <si>
+    <t>examtakerautomation27984@gmail.com</t>
+  </si>
+  <si>
+    <t>27984</t>
+  </si>
+  <si>
+    <t>Examtaker57213</t>
+  </si>
+  <si>
+    <t>Automation57213</t>
+  </si>
+  <si>
+    <t>examtakerautomation57213@gmail.com</t>
+  </si>
+  <si>
+    <t>57213</t>
+  </si>
+  <si>
+    <t>Examtaker26584</t>
+  </si>
+  <si>
+    <t>Automation26584</t>
+  </si>
+  <si>
+    <t>examtakerautomation26584@gmail.com</t>
+  </si>
+  <si>
+    <t>26584</t>
+  </si>
+  <si>
+    <t>Examtaker94369</t>
+  </si>
+  <si>
+    <t>Automation94369</t>
+  </si>
+  <si>
+    <t>examtakerautomation94369@gmail.com</t>
+  </si>
+  <si>
+    <t>94369</t>
+  </si>
+  <si>
+    <t>Examtaker89625</t>
+  </si>
+  <si>
+    <t>Automation89625</t>
+  </si>
+  <si>
+    <t>examtakerautomation89625@gmail.com</t>
+  </si>
+  <si>
+    <t>89625</t>
+  </si>
+  <si>
+    <t>Examtaker33250</t>
+  </si>
+  <si>
+    <t>Automation33250</t>
+  </si>
+  <si>
+    <t>examtakerautomation33250@gmail.com</t>
+  </si>
+  <si>
+    <t>33250</t>
+  </si>
+  <si>
+    <t>Examtaker38968</t>
+  </si>
+  <si>
+    <t>Automation38968</t>
+  </si>
+  <si>
+    <t>examtakerautomation38968@gmail.com</t>
+  </si>
+  <si>
+    <t>38968</t>
+  </si>
+  <si>
+    <t>Examtaker38491</t>
+  </si>
+  <si>
+    <t>Automation38491</t>
+  </si>
+  <si>
+    <t>examtakerautomation38491@gmail.com</t>
+  </si>
+  <si>
+    <t>38491</t>
+  </si>
+  <si>
+    <t>Examtaker58003</t>
+  </si>
+  <si>
+    <t>Automation58003</t>
+  </si>
+  <si>
+    <t>examtakerautomation58003@gmail.com</t>
+  </si>
+  <si>
+    <t>58003</t>
+  </si>
+  <si>
+    <t>Examtaker56258</t>
+  </si>
+  <si>
+    <t>Automation56258</t>
+  </si>
+  <si>
+    <t>examtakerautomation56258@gmail.com</t>
+  </si>
+  <si>
+    <t>56258</t>
+  </si>
+  <si>
+    <t>Examtaker78489</t>
+  </si>
+  <si>
+    <t>Automation78489</t>
+  </si>
+  <si>
+    <t>examtakerautomation78489@gmail.com</t>
+  </si>
+  <si>
+    <t>78489</t>
+  </si>
+  <si>
+    <t>Examtaker14491</t>
+  </si>
+  <si>
+    <t>Automation14491</t>
+  </si>
+  <si>
+    <t>examtakerautomation14491@gmail.com</t>
+  </si>
+  <si>
+    <t>14491</t>
+  </si>
+  <si>
+    <t>Examtaker19871</t>
+  </si>
+  <si>
+    <t>Automation19871</t>
+  </si>
+  <si>
+    <t>examtakerautomation19871@gmail.com</t>
+  </si>
+  <si>
+    <t>19871</t>
+  </si>
+  <si>
+    <t>Examtaker01758</t>
+  </si>
+  <si>
+    <t>Automation01758</t>
+  </si>
+  <si>
+    <t>examtakerautomation01758@gmail.com</t>
+  </si>
+  <si>
+    <t>01758</t>
+  </si>
+  <si>
+    <t>Examtaker70967</t>
+  </si>
+  <si>
+    <t>Automation70967</t>
+  </si>
+  <si>
+    <t>examtakerautomation70967@gmail.com</t>
+  </si>
+  <si>
+    <t>70967</t>
+  </si>
+  <si>
+    <t>Examtaker62877</t>
+  </si>
+  <si>
+    <t>Automation62877</t>
+  </si>
+  <si>
+    <t>examtakerautomation62877@gmail.com</t>
+  </si>
+  <si>
+    <t>62877</t>
+  </si>
+  <si>
+    <t>Examtaker75178</t>
+  </si>
+  <si>
+    <t>Automation75178</t>
+  </si>
+  <si>
+    <t>examtakerautomation75178@gmail.com</t>
+  </si>
+  <si>
+    <t>75178</t>
+  </si>
+  <si>
+    <t>Examtaker38484</t>
+  </si>
+  <si>
+    <t>Automation38484</t>
+  </si>
+  <si>
+    <t>examtakerautomation38484@gmail.com</t>
+  </si>
+  <si>
+    <t>38484</t>
+  </si>
+  <si>
+    <t>Examtaker75108</t>
+  </si>
+  <si>
+    <t>Automation75108</t>
+  </si>
+  <si>
+    <t>examtakerautomation75108@gmail.com</t>
+  </si>
+  <si>
+    <t>75108</t>
+  </si>
+  <si>
+    <t>Examtaker24960</t>
+  </si>
+  <si>
+    <t>Automation24960</t>
+  </si>
+  <si>
+    <t>examtakerautomation24960@gmail.com</t>
+  </si>
+  <si>
+    <t>24960</t>
+  </si>
+  <si>
+    <t>Examtaker25008</t>
+  </si>
+  <si>
+    <t>Automation25008</t>
+  </si>
+  <si>
+    <t>examtakerautomation25008@gmail.com</t>
+  </si>
+  <si>
+    <t>25008</t>
+  </si>
+  <si>
+    <t>Examtaker90681</t>
+  </si>
+  <si>
+    <t>Automation90681</t>
+  </si>
+  <si>
+    <t>examtakerautomation90681@gmail.com</t>
+  </si>
+  <si>
+    <t>90681</t>
+  </si>
+  <si>
+    <t>Examtaker51315</t>
+  </si>
+  <si>
+    <t>Automation51315</t>
+  </si>
+  <si>
+    <t>examtakerautomation51315@gmail.com</t>
+  </si>
+  <si>
+    <t>51315</t>
+  </si>
+  <si>
+    <t>Examtaker85282</t>
+  </si>
+  <si>
+    <t>Automation85282</t>
+  </si>
+  <si>
+    <t>examtakerautomation85282@gmail.com</t>
+  </si>
+  <si>
+    <t>85282</t>
+  </si>
+  <si>
+    <t>Examtaker74443</t>
+  </si>
+  <si>
+    <t>Automation74443</t>
+  </si>
+  <si>
+    <t>examtakerautomation74443@gmail.com</t>
+  </si>
+  <si>
+    <t>74443</t>
+  </si>
+  <si>
+    <t>Examtaker60543</t>
+  </si>
+  <si>
+    <t>Automation60543</t>
+  </si>
+  <si>
+    <t>examtakerautomation60543@gmail.com</t>
+  </si>
+  <si>
+    <t>60543</t>
+  </si>
+  <si>
+    <t>Examtaker43560</t>
+  </si>
+  <si>
+    <t>Automation43560</t>
+  </si>
+  <si>
+    <t>examtakerautomation43560@gmail.com</t>
+  </si>
+  <si>
+    <t>43560</t>
+  </si>
+  <si>
+    <t>Examtaker19954</t>
+  </si>
+  <si>
+    <t>Automation19954</t>
+  </si>
+  <si>
+    <t>examtakerautomation19954@gmail.com</t>
+  </si>
+  <si>
+    <t>19954</t>
   </si>
 </sst>
 </file>
@@ -6163,422 +6511,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1801</v>
+        <v>1913</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1802</v>
+        <v>1914</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1803</v>
+        <v>1915</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1804</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1805</v>
+        <v>1917</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1806</v>
+        <v>1918</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1807</v>
+        <v>1919</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1808</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1809</v>
+        <v>1921</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1810</v>
+        <v>1922</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1811</v>
+        <v>1923</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1812</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1813</v>
+        <v>1925</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1814</v>
+        <v>1926</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1815</v>
+        <v>1927</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1816</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1817</v>
+        <v>1929</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1818</v>
+        <v>1930</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1819</v>
+        <v>1931</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1820</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1821</v>
+        <v>1933</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1822</v>
+        <v>1934</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1823</v>
+        <v>1935</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1824</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1825</v>
+        <v>1937</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1826</v>
+        <v>1938</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1827</v>
+        <v>1939</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1828</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1829</v>
+        <v>1941</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1830</v>
+        <v>1942</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1831</v>
+        <v>1943</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1832</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1833</v>
+        <v>1945</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1834</v>
+        <v>1946</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1835</v>
+        <v>1947</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1836</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1837</v>
+        <v>1849</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1838</v>
+        <v>1850</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1839</v>
+        <v>1851</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1840</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1841</v>
+        <v>1949</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1842</v>
+        <v>1950</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1843</v>
+        <v>1951</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1844</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1845</v>
+        <v>1953</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1846</v>
+        <v>1954</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1847</v>
+        <v>1955</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1848</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1849</v>
+        <v>1957</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1850</v>
+        <v>1958</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1851</v>
+        <v>1959</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1852</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1853</v>
+        <v>1961</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1854</v>
+        <v>1962</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1855</v>
+        <v>1963</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1856</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1857</v>
+        <v>1965</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1858</v>
+        <v>1966</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1859</v>
+        <v>1967</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1860</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>290</v>
+        <v>1969</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>291</v>
+        <v>1970</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>292</v>
+        <v>1971</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>293</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1861</v>
+        <v>1973</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1862</v>
+        <v>1974</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1863</v>
+        <v>1975</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1864</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1865</v>
+        <v>1977</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1866</v>
+        <v>1978</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1867</v>
+        <v>1979</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1868</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1649</v>
+        <v>1981</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1650</v>
+        <v>1982</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1651</v>
+        <v>1983</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1652</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1869</v>
+        <v>1985</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1870</v>
+        <v>1986</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1871</v>
+        <v>1987</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1872</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1873</v>
+        <v>1989</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1874</v>
+        <v>1990</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1875</v>
+        <v>1991</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1876</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1877</v>
+        <v>1993</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1878</v>
+        <v>1994</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1879</v>
+        <v>1995</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1880</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1881</v>
+        <v>1997</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1882</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1883</v>
+        <v>1999</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>1884</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1885</v>
+        <v>2001</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>1886</v>
+        <v>2002</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1887</v>
+        <v>2003</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>1888</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1889</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1890</v>
+        <v>2006</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1891</v>
+        <v>2007</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>1892</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1893</v>
+        <v>2009</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1894</v>
+        <v>2010</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1895</v>
+        <v>2011</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>1896</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1897</v>
+        <v>2013</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1898</v>
+        <v>2014</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1899</v>
+        <v>2015</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>1900</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1901</v>
+        <v>2017</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1902</v>
+        <v>2018</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1903</v>
+        <v>2019</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>1904</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1905</v>
+        <v>2021</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1906</v>
+        <v>2022</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1907</v>
+        <v>2023</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>1908</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1909</v>
+        <v>2025</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>1910</v>
+        <v>2026</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1911</v>
+        <v>2027</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>1912</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="2865">
   <si>
     <t>FirstName</t>
   </si>
@@ -6101,6 +6101,2514 @@
   </si>
   <si>
     <t>19954</t>
+  </si>
+  <si>
+    <t>Examtaker28358</t>
+  </si>
+  <si>
+    <t>Automation28358</t>
+  </si>
+  <si>
+    <t>examtakerautomation28358@gmail.com</t>
+  </si>
+  <si>
+    <t>28358</t>
+  </si>
+  <si>
+    <t>Examtaker49123</t>
+  </si>
+  <si>
+    <t>Automation49123</t>
+  </si>
+  <si>
+    <t>examtakerautomation49123@gmail.com</t>
+  </si>
+  <si>
+    <t>49123</t>
+  </si>
+  <si>
+    <t>Examtaker19817</t>
+  </si>
+  <si>
+    <t>Automation19817</t>
+  </si>
+  <si>
+    <t>examtakerautomation19817@gmail.com</t>
+  </si>
+  <si>
+    <t>19817</t>
+  </si>
+  <si>
+    <t>Examtaker66140</t>
+  </si>
+  <si>
+    <t>Automation66140</t>
+  </si>
+  <si>
+    <t>examtakerautomation66140@gmail.com</t>
+  </si>
+  <si>
+    <t>66140</t>
+  </si>
+  <si>
+    <t>Examtaker42318</t>
+  </si>
+  <si>
+    <t>Automation42318</t>
+  </si>
+  <si>
+    <t>examtakerautomation42318@gmail.com</t>
+  </si>
+  <si>
+    <t>42318</t>
+  </si>
+  <si>
+    <t>Examtaker44118</t>
+  </si>
+  <si>
+    <t>Automation44118</t>
+  </si>
+  <si>
+    <t>examtakerautomation44118@gmail.com</t>
+  </si>
+  <si>
+    <t>44118</t>
+  </si>
+  <si>
+    <t>Examtaker41289</t>
+  </si>
+  <si>
+    <t>Automation41289</t>
+  </si>
+  <si>
+    <t>examtakerautomation41289@gmail.com</t>
+  </si>
+  <si>
+    <t>41289</t>
+  </si>
+  <si>
+    <t>Examtaker15537</t>
+  </si>
+  <si>
+    <t>Automation15537</t>
+  </si>
+  <si>
+    <t>examtakerautomation15537@gmail.com</t>
+  </si>
+  <si>
+    <t>15537</t>
+  </si>
+  <si>
+    <t>Examtaker97054</t>
+  </si>
+  <si>
+    <t>Automation97054</t>
+  </si>
+  <si>
+    <t>examtakerautomation97054@gmail.com</t>
+  </si>
+  <si>
+    <t>97054</t>
+  </si>
+  <si>
+    <t>Examtaker65551</t>
+  </si>
+  <si>
+    <t>Automation65551</t>
+  </si>
+  <si>
+    <t>examtakerautomation65551@gmail.com</t>
+  </si>
+  <si>
+    <t>65551</t>
+  </si>
+  <si>
+    <t>Examtaker76250</t>
+  </si>
+  <si>
+    <t>Automation76250</t>
+  </si>
+  <si>
+    <t>examtakerautomation76250@gmail.com</t>
+  </si>
+  <si>
+    <t>76250</t>
+  </si>
+  <si>
+    <t>Examtaker43259</t>
+  </si>
+  <si>
+    <t>Automation43259</t>
+  </si>
+  <si>
+    <t>examtakerautomation43259@gmail.com</t>
+  </si>
+  <si>
+    <t>43259</t>
+  </si>
+  <si>
+    <t>Examtaker14052</t>
+  </si>
+  <si>
+    <t>Automation14052</t>
+  </si>
+  <si>
+    <t>examtakerautomation14052@gmail.com</t>
+  </si>
+  <si>
+    <t>14052</t>
+  </si>
+  <si>
+    <t>Examtaker44232</t>
+  </si>
+  <si>
+    <t>Automation44232</t>
+  </si>
+  <si>
+    <t>examtakerautomation44232@gmail.com</t>
+  </si>
+  <si>
+    <t>44232</t>
+  </si>
+  <si>
+    <t>Examtaker06016</t>
+  </si>
+  <si>
+    <t>Automation06016</t>
+  </si>
+  <si>
+    <t>examtakerautomation06016@gmail.com</t>
+  </si>
+  <si>
+    <t>06016</t>
+  </si>
+  <si>
+    <t>Examtaker82886</t>
+  </si>
+  <si>
+    <t>Automation82886</t>
+  </si>
+  <si>
+    <t>examtakerautomation82886@gmail.com</t>
+  </si>
+  <si>
+    <t>82886</t>
+  </si>
+  <si>
+    <t>Examtaker38472</t>
+  </si>
+  <si>
+    <t>Automation38472</t>
+  </si>
+  <si>
+    <t>examtakerautomation38472@gmail.com</t>
+  </si>
+  <si>
+    <t>38472</t>
+  </si>
+  <si>
+    <t>Examtaker39602</t>
+  </si>
+  <si>
+    <t>Automation39602</t>
+  </si>
+  <si>
+    <t>examtakerautomation39602@gmail.com</t>
+  </si>
+  <si>
+    <t>39602</t>
+  </si>
+  <si>
+    <t>Examtaker16889</t>
+  </si>
+  <si>
+    <t>Automation16889</t>
+  </si>
+  <si>
+    <t>examtakerautomation16889@gmail.com</t>
+  </si>
+  <si>
+    <t>16889</t>
+  </si>
+  <si>
+    <t>Examtaker02118</t>
+  </si>
+  <si>
+    <t>Automation02118</t>
+  </si>
+  <si>
+    <t>examtakerautomation02118@gmail.com</t>
+  </si>
+  <si>
+    <t>02118</t>
+  </si>
+  <si>
+    <t>Examtaker81919</t>
+  </si>
+  <si>
+    <t>Automation81919</t>
+  </si>
+  <si>
+    <t>examtakerautomation81919@gmail.com</t>
+  </si>
+  <si>
+    <t>81919</t>
+  </si>
+  <si>
+    <t>Examtaker73636</t>
+  </si>
+  <si>
+    <t>Automation73636</t>
+  </si>
+  <si>
+    <t>examtakerautomation73636@gmail.com</t>
+  </si>
+  <si>
+    <t>73636</t>
+  </si>
+  <si>
+    <t>Examtaker21898</t>
+  </si>
+  <si>
+    <t>Automation21898</t>
+  </si>
+  <si>
+    <t>examtakerautomation21898@gmail.com</t>
+  </si>
+  <si>
+    <t>21898</t>
+  </si>
+  <si>
+    <t>Examtaker36795</t>
+  </si>
+  <si>
+    <t>Automation36795</t>
+  </si>
+  <si>
+    <t>examtakerautomation36795@gmail.com</t>
+  </si>
+  <si>
+    <t>36795</t>
+  </si>
+  <si>
+    <t>Examtaker26177</t>
+  </si>
+  <si>
+    <t>Automation26177</t>
+  </si>
+  <si>
+    <t>examtakerautomation26177@gmail.com</t>
+  </si>
+  <si>
+    <t>26177</t>
+  </si>
+  <si>
+    <t>Examtaker08853</t>
+  </si>
+  <si>
+    <t>Automation08853</t>
+  </si>
+  <si>
+    <t>examtakerautomation08853@gmail.com</t>
+  </si>
+  <si>
+    <t>08853</t>
+  </si>
+  <si>
+    <t>Examtaker65252</t>
+  </si>
+  <si>
+    <t>Automation65252</t>
+  </si>
+  <si>
+    <t>examtakerautomation65252@gmail.com</t>
+  </si>
+  <si>
+    <t>65252</t>
+  </si>
+  <si>
+    <t>Examtaker09866</t>
+  </si>
+  <si>
+    <t>Automation09866</t>
+  </si>
+  <si>
+    <t>examtakerautomation09866@gmail.com</t>
+  </si>
+  <si>
+    <t>09866</t>
+  </si>
+  <si>
+    <t>Examtaker90484</t>
+  </si>
+  <si>
+    <t>Automation90484</t>
+  </si>
+  <si>
+    <t>examtakerautomation90484@gmail.com</t>
+  </si>
+  <si>
+    <t>90484</t>
+  </si>
+  <si>
+    <t>Examtaker29004</t>
+  </si>
+  <si>
+    <t>Automation29004</t>
+  </si>
+  <si>
+    <t>examtakerautomation29004@gmail.com</t>
+  </si>
+  <si>
+    <t>29004</t>
+  </si>
+  <si>
+    <t>Examtaker00908</t>
+  </si>
+  <si>
+    <t>Automation00908</t>
+  </si>
+  <si>
+    <t>examtakerautomation00908@gmail.com</t>
+  </si>
+  <si>
+    <t>00908</t>
+  </si>
+  <si>
+    <t>Examtaker59713</t>
+  </si>
+  <si>
+    <t>Automation59713</t>
+  </si>
+  <si>
+    <t>examtakerautomation59713@gmail.com</t>
+  </si>
+  <si>
+    <t>59713</t>
+  </si>
+  <si>
+    <t>Examtaker80468</t>
+  </si>
+  <si>
+    <t>Automation80468</t>
+  </si>
+  <si>
+    <t>examtakerautomation80468@gmail.com</t>
+  </si>
+  <si>
+    <t>80468</t>
+  </si>
+  <si>
+    <t>Examtaker24503</t>
+  </si>
+  <si>
+    <t>Automation24503</t>
+  </si>
+  <si>
+    <t>examtakerautomation24503@gmail.com</t>
+  </si>
+  <si>
+    <t>24503</t>
+  </si>
+  <si>
+    <t>Examtaker15440</t>
+  </si>
+  <si>
+    <t>Automation15440</t>
+  </si>
+  <si>
+    <t>examtakerautomation15440@gmail.com</t>
+  </si>
+  <si>
+    <t>15440</t>
+  </si>
+  <si>
+    <t>Examtaker52235</t>
+  </si>
+  <si>
+    <t>Automation52235</t>
+  </si>
+  <si>
+    <t>examtakerautomation52235@gmail.com</t>
+  </si>
+  <si>
+    <t>52235</t>
+  </si>
+  <si>
+    <t>Examtaker68045</t>
+  </si>
+  <si>
+    <t>Automation68045</t>
+  </si>
+  <si>
+    <t>examtakerautomation68045@gmail.com</t>
+  </si>
+  <si>
+    <t>68045</t>
+  </si>
+  <si>
+    <t>Examtaker65278</t>
+  </si>
+  <si>
+    <t>Automation65278</t>
+  </si>
+  <si>
+    <t>examtakerautomation65278@gmail.com</t>
+  </si>
+  <si>
+    <t>65278</t>
+  </si>
+  <si>
+    <t>Examtaker56509</t>
+  </si>
+  <si>
+    <t>Automation56509</t>
+  </si>
+  <si>
+    <t>examtakerautomation56509@gmail.com</t>
+  </si>
+  <si>
+    <t>56509</t>
+  </si>
+  <si>
+    <t>Examtaker32295</t>
+  </si>
+  <si>
+    <t>Automation32295</t>
+  </si>
+  <si>
+    <t>examtakerautomation32295@gmail.com</t>
+  </si>
+  <si>
+    <t>32295</t>
+  </si>
+  <si>
+    <t>Examtaker68371</t>
+  </si>
+  <si>
+    <t>Automation68371</t>
+  </si>
+  <si>
+    <t>examtakerautomation68371@gmail.com</t>
+  </si>
+  <si>
+    <t>68371</t>
+  </si>
+  <si>
+    <t>Examtaker09288</t>
+  </si>
+  <si>
+    <t>Automation09288</t>
+  </si>
+  <si>
+    <t>examtakerautomation09288@gmail.com</t>
+  </si>
+  <si>
+    <t>09288</t>
+  </si>
+  <si>
+    <t>Examtaker32110</t>
+  </si>
+  <si>
+    <t>Automation32110</t>
+  </si>
+  <si>
+    <t>examtakerautomation32110@gmail.com</t>
+  </si>
+  <si>
+    <t>32110</t>
+  </si>
+  <si>
+    <t>Examtaker40654</t>
+  </si>
+  <si>
+    <t>Automation40654</t>
+  </si>
+  <si>
+    <t>examtakerautomation40654@gmail.com</t>
+  </si>
+  <si>
+    <t>40654</t>
+  </si>
+  <si>
+    <t>Examtaker77242</t>
+  </si>
+  <si>
+    <t>Automation77242</t>
+  </si>
+  <si>
+    <t>examtakerautomation77242@gmail.com</t>
+  </si>
+  <si>
+    <t>77242</t>
+  </si>
+  <si>
+    <t>Examtaker47199</t>
+  </si>
+  <si>
+    <t>Automation47199</t>
+  </si>
+  <si>
+    <t>examtakerautomation47199@gmail.com</t>
+  </si>
+  <si>
+    <t>47199</t>
+  </si>
+  <si>
+    <t>Examtaker02043</t>
+  </si>
+  <si>
+    <t>Automation02043</t>
+  </si>
+  <si>
+    <t>examtakerautomation02043@gmail.com</t>
+  </si>
+  <si>
+    <t>02043</t>
+  </si>
+  <si>
+    <t>Examtaker07588</t>
+  </si>
+  <si>
+    <t>Automation07588</t>
+  </si>
+  <si>
+    <t>examtakerautomation07588@gmail.com</t>
+  </si>
+  <si>
+    <t>07588</t>
+  </si>
+  <si>
+    <t>Examtaker95378</t>
+  </si>
+  <si>
+    <t>Automation95378</t>
+  </si>
+  <si>
+    <t>examtakerautomation95378@gmail.com</t>
+  </si>
+  <si>
+    <t>95378</t>
+  </si>
+  <si>
+    <t>Examtaker25181</t>
+  </si>
+  <si>
+    <t>Automation25181</t>
+  </si>
+  <si>
+    <t>examtakerautomation25181@gmail.com</t>
+  </si>
+  <si>
+    <t>25181</t>
+  </si>
+  <si>
+    <t>Examtaker58339</t>
+  </si>
+  <si>
+    <t>Automation58339</t>
+  </si>
+  <si>
+    <t>examtakerautomation58339@gmail.com</t>
+  </si>
+  <si>
+    <t>58339</t>
+  </si>
+  <si>
+    <t>Examtaker10681</t>
+  </si>
+  <si>
+    <t>Automation10681</t>
+  </si>
+  <si>
+    <t>examtakerautomation10681@gmail.com</t>
+  </si>
+  <si>
+    <t>10681</t>
+  </si>
+  <si>
+    <t>Examtaker37332</t>
+  </si>
+  <si>
+    <t>Automation37332</t>
+  </si>
+  <si>
+    <t>examtakerautomation37332@gmail.com</t>
+  </si>
+  <si>
+    <t>37332</t>
+  </si>
+  <si>
+    <t>Examtaker34553</t>
+  </si>
+  <si>
+    <t>Automation34553</t>
+  </si>
+  <si>
+    <t>examtakerautomation34553@gmail.com</t>
+  </si>
+  <si>
+    <t>34553</t>
+  </si>
+  <si>
+    <t>Examtaker08358</t>
+  </si>
+  <si>
+    <t>Automation08358</t>
+  </si>
+  <si>
+    <t>examtakerautomation08358@gmail.com</t>
+  </si>
+  <si>
+    <t>08358</t>
+  </si>
+  <si>
+    <t>Examtaker54543</t>
+  </si>
+  <si>
+    <t>Automation54543</t>
+  </si>
+  <si>
+    <t>examtakerautomation54543@gmail.com</t>
+  </si>
+  <si>
+    <t>54543</t>
+  </si>
+  <si>
+    <t>Examtaker24395</t>
+  </si>
+  <si>
+    <t>Automation24395</t>
+  </si>
+  <si>
+    <t>examtakerautomation24395@gmail.com</t>
+  </si>
+  <si>
+    <t>24395</t>
+  </si>
+  <si>
+    <t>Examtaker56579</t>
+  </si>
+  <si>
+    <t>Automation56579</t>
+  </si>
+  <si>
+    <t>examtakerautomation56579@gmail.com</t>
+  </si>
+  <si>
+    <t>56579</t>
+  </si>
+  <si>
+    <t>Examtaker54991</t>
+  </si>
+  <si>
+    <t>Automation54991</t>
+  </si>
+  <si>
+    <t>examtakerautomation54991@gmail.com</t>
+  </si>
+  <si>
+    <t>54991</t>
+  </si>
+  <si>
+    <t>Examtaker72083</t>
+  </si>
+  <si>
+    <t>Automation72083</t>
+  </si>
+  <si>
+    <t>examtakerautomation72083@gmail.com</t>
+  </si>
+  <si>
+    <t>72083</t>
+  </si>
+  <si>
+    <t>Examtaker56330</t>
+  </si>
+  <si>
+    <t>Automation56330</t>
+  </si>
+  <si>
+    <t>examtakerautomation56330@gmail.com</t>
+  </si>
+  <si>
+    <t>56330</t>
+  </si>
+  <si>
+    <t>Examtaker41956</t>
+  </si>
+  <si>
+    <t>Automation41956</t>
+  </si>
+  <si>
+    <t>examtakerautomation41956@gmail.com</t>
+  </si>
+  <si>
+    <t>41956</t>
+  </si>
+  <si>
+    <t>Examtaker59110</t>
+  </si>
+  <si>
+    <t>Automation59110</t>
+  </si>
+  <si>
+    <t>examtakerautomation59110@gmail.com</t>
+  </si>
+  <si>
+    <t>59110</t>
+  </si>
+  <si>
+    <t>Examtaker83915</t>
+  </si>
+  <si>
+    <t>Automation83915</t>
+  </si>
+  <si>
+    <t>examtakerautomation83915@gmail.com</t>
+  </si>
+  <si>
+    <t>83915</t>
+  </si>
+  <si>
+    <t>Examtaker91558</t>
+  </si>
+  <si>
+    <t>Automation91558</t>
+  </si>
+  <si>
+    <t>examtakerautomation91558@gmail.com</t>
+  </si>
+  <si>
+    <t>91558</t>
+  </si>
+  <si>
+    <t>Examtaker98259</t>
+  </si>
+  <si>
+    <t>Automation98259</t>
+  </si>
+  <si>
+    <t>examtakerautomation98259@gmail.com</t>
+  </si>
+  <si>
+    <t>98259</t>
+  </si>
+  <si>
+    <t>Examtaker53742</t>
+  </si>
+  <si>
+    <t>Automation53742</t>
+  </si>
+  <si>
+    <t>examtakerautomation53742@gmail.com</t>
+  </si>
+  <si>
+    <t>53742</t>
+  </si>
+  <si>
+    <t>Examtaker26654</t>
+  </si>
+  <si>
+    <t>Automation26654</t>
+  </si>
+  <si>
+    <t>examtakerautomation26654@gmail.com</t>
+  </si>
+  <si>
+    <t>26654</t>
+  </si>
+  <si>
+    <t>Examtaker94278</t>
+  </si>
+  <si>
+    <t>Automation94278</t>
+  </si>
+  <si>
+    <t>examtakerautomation94278@gmail.com</t>
+  </si>
+  <si>
+    <t>94278</t>
+  </si>
+  <si>
+    <t>Examtaker63371</t>
+  </si>
+  <si>
+    <t>Automation63371</t>
+  </si>
+  <si>
+    <t>examtakerautomation63371@gmail.com</t>
+  </si>
+  <si>
+    <t>63371</t>
+  </si>
+  <si>
+    <t>Examtaker68675</t>
+  </si>
+  <si>
+    <t>Automation68675</t>
+  </si>
+  <si>
+    <t>examtakerautomation68675@gmail.com</t>
+  </si>
+  <si>
+    <t>68675</t>
+  </si>
+  <si>
+    <t>Examtaker70604</t>
+  </si>
+  <si>
+    <t>Automation70604</t>
+  </si>
+  <si>
+    <t>examtakerautomation70604@gmail.com</t>
+  </si>
+  <si>
+    <t>70604</t>
+  </si>
+  <si>
+    <t>Examtaker04515</t>
+  </si>
+  <si>
+    <t>Automation04515</t>
+  </si>
+  <si>
+    <t>examtakerautomation04515@gmail.com</t>
+  </si>
+  <si>
+    <t>04515</t>
+  </si>
+  <si>
+    <t>Examtaker45939</t>
+  </si>
+  <si>
+    <t>Automation45939</t>
+  </si>
+  <si>
+    <t>examtakerautomation45939@gmail.com</t>
+  </si>
+  <si>
+    <t>45939</t>
+  </si>
+  <si>
+    <t>Examtaker29835</t>
+  </si>
+  <si>
+    <t>Automation29835</t>
+  </si>
+  <si>
+    <t>examtakerautomation29835@gmail.com</t>
+  </si>
+  <si>
+    <t>29835</t>
+  </si>
+  <si>
+    <t>Examtaker78384</t>
+  </si>
+  <si>
+    <t>Automation78384</t>
+  </si>
+  <si>
+    <t>examtakerautomation78384@gmail.com</t>
+  </si>
+  <si>
+    <t>78384</t>
+  </si>
+  <si>
+    <t>Examtaker85175</t>
+  </si>
+  <si>
+    <t>Automation85175</t>
+  </si>
+  <si>
+    <t>examtakerautomation85175@gmail.com</t>
+  </si>
+  <si>
+    <t>85175</t>
+  </si>
+  <si>
+    <t>Examtaker94789</t>
+  </si>
+  <si>
+    <t>Automation94789</t>
+  </si>
+  <si>
+    <t>examtakerautomation94789@gmail.com</t>
+  </si>
+  <si>
+    <t>94789</t>
+  </si>
+  <si>
+    <t>Examtaker90012</t>
+  </si>
+  <si>
+    <t>Automation90012</t>
+  </si>
+  <si>
+    <t>examtakerautomation90012@gmail.com</t>
+  </si>
+  <si>
+    <t>90012</t>
+  </si>
+  <si>
+    <t>Examtaker87602</t>
+  </si>
+  <si>
+    <t>Automation87602</t>
+  </si>
+  <si>
+    <t>examtakerautomation87602@gmail.com</t>
+  </si>
+  <si>
+    <t>87602</t>
+  </si>
+  <si>
+    <t>Examtaker31010</t>
+  </si>
+  <si>
+    <t>Automation31010</t>
+  </si>
+  <si>
+    <t>examtakerautomation31010@gmail.com</t>
+  </si>
+  <si>
+    <t>31010</t>
+  </si>
+  <si>
+    <t>Examtaker09514</t>
+  </si>
+  <si>
+    <t>Automation09514</t>
+  </si>
+  <si>
+    <t>examtakerautomation09514@gmail.com</t>
+  </si>
+  <si>
+    <t>09514</t>
+  </si>
+  <si>
+    <t>Examtaker42185</t>
+  </si>
+  <si>
+    <t>Automation42185</t>
+  </si>
+  <si>
+    <t>examtakerautomation42185@gmail.com</t>
+  </si>
+  <si>
+    <t>42185</t>
+  </si>
+  <si>
+    <t>Examtaker36984</t>
+  </si>
+  <si>
+    <t>Automation36984</t>
+  </si>
+  <si>
+    <t>examtakerautomation36984@gmail.com</t>
+  </si>
+  <si>
+    <t>36984</t>
+  </si>
+  <si>
+    <t>Examtaker60634</t>
+  </si>
+  <si>
+    <t>Automation60634</t>
+  </si>
+  <si>
+    <t>examtakerautomation60634@gmail.com</t>
+  </si>
+  <si>
+    <t>60634</t>
+  </si>
+  <si>
+    <t>Examtaker50399</t>
+  </si>
+  <si>
+    <t>Automation50399</t>
+  </si>
+  <si>
+    <t>examtakerautomation50399@gmail.com</t>
+  </si>
+  <si>
+    <t>50399</t>
+  </si>
+  <si>
+    <t>Examtaker18595</t>
+  </si>
+  <si>
+    <t>Automation18595</t>
+  </si>
+  <si>
+    <t>examtakerautomation18595@gmail.com</t>
+  </si>
+  <si>
+    <t>18595</t>
+  </si>
+  <si>
+    <t>Examtaker40716</t>
+  </si>
+  <si>
+    <t>Automation40716</t>
+  </si>
+  <si>
+    <t>examtakerautomation40716@gmail.com</t>
+  </si>
+  <si>
+    <t>40716</t>
+  </si>
+  <si>
+    <t>Examtaker07832</t>
+  </si>
+  <si>
+    <t>Automation07832</t>
+  </si>
+  <si>
+    <t>examtakerautomation07832@gmail.com</t>
+  </si>
+  <si>
+    <t>07832</t>
+  </si>
+  <si>
+    <t>Examtaker94931</t>
+  </si>
+  <si>
+    <t>Automation94931</t>
+  </si>
+  <si>
+    <t>examtakerautomation94931@gmail.com</t>
+  </si>
+  <si>
+    <t>94931</t>
+  </si>
+  <si>
+    <t>Examtaker43249</t>
+  </si>
+  <si>
+    <t>Automation43249</t>
+  </si>
+  <si>
+    <t>examtakerautomation43249@gmail.com</t>
+  </si>
+  <si>
+    <t>43249</t>
+  </si>
+  <si>
+    <t>Examtaker79828</t>
+  </si>
+  <si>
+    <t>Automation79828</t>
+  </si>
+  <si>
+    <t>examtakerautomation79828@gmail.com</t>
+  </si>
+  <si>
+    <t>79828</t>
+  </si>
+  <si>
+    <t>Examtaker42489</t>
+  </si>
+  <si>
+    <t>Automation42489</t>
+  </si>
+  <si>
+    <t>examtakerautomation42489@gmail.com</t>
+  </si>
+  <si>
+    <t>42489</t>
+  </si>
+  <si>
+    <t>Examtaker48737</t>
+  </si>
+  <si>
+    <t>Automation48737</t>
+  </si>
+  <si>
+    <t>examtakerautomation48737@gmail.com</t>
+  </si>
+  <si>
+    <t>48737</t>
+  </si>
+  <si>
+    <t>Examtaker50337</t>
+  </si>
+  <si>
+    <t>Automation50337</t>
+  </si>
+  <si>
+    <t>examtakerautomation50337@gmail.com</t>
+  </si>
+  <si>
+    <t>50337</t>
+  </si>
+  <si>
+    <t>Examtaker27141</t>
+  </si>
+  <si>
+    <t>Automation27141</t>
+  </si>
+  <si>
+    <t>examtakerautomation27141@gmail.com</t>
+  </si>
+  <si>
+    <t>27141</t>
+  </si>
+  <si>
+    <t>Examtaker23406</t>
+  </si>
+  <si>
+    <t>Automation23406</t>
+  </si>
+  <si>
+    <t>examtakerautomation23406@gmail.com</t>
+  </si>
+  <si>
+    <t>23406</t>
+  </si>
+  <si>
+    <t>Examtaker12294</t>
+  </si>
+  <si>
+    <t>Automation12294</t>
+  </si>
+  <si>
+    <t>examtakerautomation12294@gmail.com</t>
+  </si>
+  <si>
+    <t>12294</t>
+  </si>
+  <si>
+    <t>Examtaker08442</t>
+  </si>
+  <si>
+    <t>Automation08442</t>
+  </si>
+  <si>
+    <t>examtakerautomation08442@gmail.com</t>
+  </si>
+  <si>
+    <t>08442</t>
+  </si>
+  <si>
+    <t>Examtaker38799</t>
+  </si>
+  <si>
+    <t>Automation38799</t>
+  </si>
+  <si>
+    <t>examtakerautomation38799@gmail.com</t>
+  </si>
+  <si>
+    <t>38799</t>
+  </si>
+  <si>
+    <t>Examtaker82248</t>
+  </si>
+  <si>
+    <t>Automation82248</t>
+  </si>
+  <si>
+    <t>examtakerautomation82248@gmail.com</t>
+  </si>
+  <si>
+    <t>82248</t>
+  </si>
+  <si>
+    <t>Examtaker70717</t>
+  </si>
+  <si>
+    <t>Automation70717</t>
+  </si>
+  <si>
+    <t>examtakerautomation70717@gmail.com</t>
+  </si>
+  <si>
+    <t>70717</t>
+  </si>
+  <si>
+    <t>Examtaker92623</t>
+  </si>
+  <si>
+    <t>Automation92623</t>
+  </si>
+  <si>
+    <t>examtakerautomation92623@gmail.com</t>
+  </si>
+  <si>
+    <t>92623</t>
+  </si>
+  <si>
+    <t>Examtaker75392</t>
+  </si>
+  <si>
+    <t>Automation75392</t>
+  </si>
+  <si>
+    <t>examtakerautomation75392@gmail.com</t>
+  </si>
+  <si>
+    <t>75392</t>
+  </si>
+  <si>
+    <t>Examtaker34750</t>
+  </si>
+  <si>
+    <t>Automation34750</t>
+  </si>
+  <si>
+    <t>examtakerautomation34750@gmail.com</t>
+  </si>
+  <si>
+    <t>34750</t>
+  </si>
+  <si>
+    <t>Examtaker75125</t>
+  </si>
+  <si>
+    <t>Automation75125</t>
+  </si>
+  <si>
+    <t>examtakerautomation75125@gmail.com</t>
+  </si>
+  <si>
+    <t>75125</t>
+  </si>
+  <si>
+    <t>Examtaker77725</t>
+  </si>
+  <si>
+    <t>Automation77725</t>
+  </si>
+  <si>
+    <t>examtakerautomation77725@gmail.com</t>
+  </si>
+  <si>
+    <t>77725</t>
+  </si>
+  <si>
+    <t>Examtaker46831</t>
+  </si>
+  <si>
+    <t>Automation46831</t>
+  </si>
+  <si>
+    <t>examtakerautomation46831@gmail.com</t>
+  </si>
+  <si>
+    <t>46831</t>
+  </si>
+  <si>
+    <t>Examtaker92311</t>
+  </si>
+  <si>
+    <t>Automation92311</t>
+  </si>
+  <si>
+    <t>examtakerautomation92311@gmail.com</t>
+  </si>
+  <si>
+    <t>92311</t>
+  </si>
+  <si>
+    <t>Examtaker17775</t>
+  </si>
+  <si>
+    <t>Automation17775</t>
+  </si>
+  <si>
+    <t>examtakerautomation17775@gmail.com</t>
+  </si>
+  <si>
+    <t>17775</t>
+  </si>
+  <si>
+    <t>Examtaker68723</t>
+  </si>
+  <si>
+    <t>Automation68723</t>
+  </si>
+  <si>
+    <t>examtakerautomation68723@gmail.com</t>
+  </si>
+  <si>
+    <t>68723</t>
+  </si>
+  <si>
+    <t>Examtaker55075</t>
+  </si>
+  <si>
+    <t>Automation55075</t>
+  </si>
+  <si>
+    <t>examtakerautomation55075@gmail.com</t>
+  </si>
+  <si>
+    <t>55075</t>
+  </si>
+  <si>
+    <t>Examtaker06840</t>
+  </si>
+  <si>
+    <t>Automation06840</t>
+  </si>
+  <si>
+    <t>examtakerautomation06840@gmail.com</t>
+  </si>
+  <si>
+    <t>06840</t>
+  </si>
+  <si>
+    <t>Examtaker59905</t>
+  </si>
+  <si>
+    <t>Automation59905</t>
+  </si>
+  <si>
+    <t>examtakerautomation59905@gmail.com</t>
+  </si>
+  <si>
+    <t>59905</t>
+  </si>
+  <si>
+    <t>Examtaker65310</t>
+  </si>
+  <si>
+    <t>Automation65310</t>
+  </si>
+  <si>
+    <t>examtakerautomation65310@gmail.com</t>
+  </si>
+  <si>
+    <t>65310</t>
+  </si>
+  <si>
+    <t>Examtaker19636</t>
+  </si>
+  <si>
+    <t>Automation19636</t>
+  </si>
+  <si>
+    <t>examtakerautomation19636@gmail.com</t>
+  </si>
+  <si>
+    <t>19636</t>
+  </si>
+  <si>
+    <t>Examtaker61080</t>
+  </si>
+  <si>
+    <t>Automation61080</t>
+  </si>
+  <si>
+    <t>examtakerautomation61080@gmail.com</t>
+  </si>
+  <si>
+    <t>61080</t>
+  </si>
+  <si>
+    <t>Examtaker18398</t>
+  </si>
+  <si>
+    <t>Automation18398</t>
+  </si>
+  <si>
+    <t>examtakerautomation18398@gmail.com</t>
+  </si>
+  <si>
+    <t>18398</t>
+  </si>
+  <si>
+    <t>Examtaker08706</t>
+  </si>
+  <si>
+    <t>Automation08706</t>
+  </si>
+  <si>
+    <t>examtakerautomation08706@gmail.com</t>
+  </si>
+  <si>
+    <t>08706</t>
+  </si>
+  <si>
+    <t>Examtaker44768</t>
+  </si>
+  <si>
+    <t>Automation44768</t>
+  </si>
+  <si>
+    <t>examtakerautomation44768@gmail.com</t>
+  </si>
+  <si>
+    <t>44768</t>
+  </si>
+  <si>
+    <t>Examtaker24137</t>
+  </si>
+  <si>
+    <t>Automation24137</t>
+  </si>
+  <si>
+    <t>examtakerautomation24137@gmail.com</t>
+  </si>
+  <si>
+    <t>24137</t>
+  </si>
+  <si>
+    <t>Examtaker62162</t>
+  </si>
+  <si>
+    <t>Automation62162</t>
+  </si>
+  <si>
+    <t>examtakerautomation62162@gmail.com</t>
+  </si>
+  <si>
+    <t>62162</t>
+  </si>
+  <si>
+    <t>Examtaker16950</t>
+  </si>
+  <si>
+    <t>Automation16950</t>
+  </si>
+  <si>
+    <t>examtakerautomation16950@gmail.com</t>
+  </si>
+  <si>
+    <t>16950</t>
+  </si>
+  <si>
+    <t>Examtaker69304</t>
+  </si>
+  <si>
+    <t>Automation69304</t>
+  </si>
+  <si>
+    <t>examtakerautomation69304@gmail.com</t>
+  </si>
+  <si>
+    <t>69304</t>
+  </si>
+  <si>
+    <t>Examtaker50114</t>
+  </si>
+  <si>
+    <t>Automation50114</t>
+  </si>
+  <si>
+    <t>examtakerautomation50114@gmail.com</t>
+  </si>
+  <si>
+    <t>50114</t>
+  </si>
+  <si>
+    <t>Examtaker47434</t>
+  </si>
+  <si>
+    <t>Automation47434</t>
+  </si>
+  <si>
+    <t>examtakerautomation47434@gmail.com</t>
+  </si>
+  <si>
+    <t>47434</t>
+  </si>
+  <si>
+    <t>Examtaker22313</t>
+  </si>
+  <si>
+    <t>Automation22313</t>
+  </si>
+  <si>
+    <t>examtakerautomation22313@gmail.com</t>
+  </si>
+  <si>
+    <t>22313</t>
+  </si>
+  <si>
+    <t>Examtaker20207</t>
+  </si>
+  <si>
+    <t>Automation20207</t>
+  </si>
+  <si>
+    <t>examtakerautomation20207@gmail.com</t>
+  </si>
+  <si>
+    <t>20207</t>
+  </si>
+  <si>
+    <t>Examtaker87617</t>
+  </si>
+  <si>
+    <t>Automation87617</t>
+  </si>
+  <si>
+    <t>examtakerautomation87617@gmail.com</t>
+  </si>
+  <si>
+    <t>87617</t>
+  </si>
+  <si>
+    <t>Examtaker83816</t>
+  </si>
+  <si>
+    <t>Automation83816</t>
+  </si>
+  <si>
+    <t>examtakerautomation83816@gmail.com</t>
+  </si>
+  <si>
+    <t>83816</t>
+  </si>
+  <si>
+    <t>Examtaker65912</t>
+  </si>
+  <si>
+    <t>Automation65912</t>
+  </si>
+  <si>
+    <t>examtakerautomation65912@gmail.com</t>
+  </si>
+  <si>
+    <t>65912</t>
+  </si>
+  <si>
+    <t>Examtaker64897</t>
+  </si>
+  <si>
+    <t>Automation64897</t>
+  </si>
+  <si>
+    <t>examtakerautomation64897@gmail.com</t>
+  </si>
+  <si>
+    <t>64897</t>
+  </si>
+  <si>
+    <t>Examtaker64408</t>
+  </si>
+  <si>
+    <t>Automation64408</t>
+  </si>
+  <si>
+    <t>examtakerautomation64408@gmail.com</t>
+  </si>
+  <si>
+    <t>64408</t>
+  </si>
+  <si>
+    <t>Examtaker77519</t>
+  </si>
+  <si>
+    <t>Automation77519</t>
+  </si>
+  <si>
+    <t>examtakerautomation77519@gmail.com</t>
+  </si>
+  <si>
+    <t>77519</t>
+  </si>
+  <si>
+    <t>Examtaker70177</t>
+  </si>
+  <si>
+    <t>Automation70177</t>
+  </si>
+  <si>
+    <t>examtakerautomation70177@gmail.com</t>
+  </si>
+  <si>
+    <t>70177</t>
+  </si>
+  <si>
+    <t>Examtaker17487</t>
+  </si>
+  <si>
+    <t>Automation17487</t>
+  </si>
+  <si>
+    <t>examtakerautomation17487@gmail.com</t>
+  </si>
+  <si>
+    <t>17487</t>
+  </si>
+  <si>
+    <t>Examtaker04655</t>
+  </si>
+  <si>
+    <t>Automation04655</t>
+  </si>
+  <si>
+    <t>examtakerautomation04655@gmail.com</t>
+  </si>
+  <si>
+    <t>04655</t>
+  </si>
+  <si>
+    <t>Examtaker03752</t>
+  </si>
+  <si>
+    <t>Automation03752</t>
+  </si>
+  <si>
+    <t>examtakerautomation03752@gmail.com</t>
+  </si>
+  <si>
+    <t>03752</t>
+  </si>
+  <si>
+    <t>Examtaker36876</t>
+  </si>
+  <si>
+    <t>Automation36876</t>
+  </si>
+  <si>
+    <t>examtakerautomation36876@gmail.com</t>
+  </si>
+  <si>
+    <t>36876</t>
+  </si>
+  <si>
+    <t>Examtaker44711</t>
+  </si>
+  <si>
+    <t>Automation44711</t>
+  </si>
+  <si>
+    <t>examtakerautomation44711@gmail.com</t>
+  </si>
+  <si>
+    <t>44711</t>
+  </si>
+  <si>
+    <t>Examtaker07421</t>
+  </si>
+  <si>
+    <t>Automation07421</t>
+  </si>
+  <si>
+    <t>examtakerautomation07421@gmail.com</t>
+  </si>
+  <si>
+    <t>07421</t>
+  </si>
+  <si>
+    <t>Examtaker74615</t>
+  </si>
+  <si>
+    <t>Automation74615</t>
+  </si>
+  <si>
+    <t>examtakerautomation74615@gmail.com</t>
+  </si>
+  <si>
+    <t>74615</t>
+  </si>
+  <si>
+    <t>Examtaker20133</t>
+  </si>
+  <si>
+    <t>Automation20133</t>
+  </si>
+  <si>
+    <t>examtakerautomation20133@gmail.com</t>
+  </si>
+  <si>
+    <t>20133</t>
+  </si>
+  <si>
+    <t>Examtaker77937</t>
+  </si>
+  <si>
+    <t>Automation77937</t>
+  </si>
+  <si>
+    <t>examtakerautomation77937@gmail.com</t>
+  </si>
+  <si>
+    <t>77937</t>
+  </si>
+  <si>
+    <t>Examtaker80180</t>
+  </si>
+  <si>
+    <t>Automation80180</t>
+  </si>
+  <si>
+    <t>examtakerautomation80180@gmail.com</t>
+  </si>
+  <si>
+    <t>80180</t>
+  </si>
+  <si>
+    <t>Examtaker44065</t>
+  </si>
+  <si>
+    <t>Automation44065</t>
+  </si>
+  <si>
+    <t>examtakerautomation44065@gmail.com</t>
+  </si>
+  <si>
+    <t>44065</t>
+  </si>
+  <si>
+    <t>Examtaker80122</t>
+  </si>
+  <si>
+    <t>Automation80122</t>
+  </si>
+  <si>
+    <t>examtakerautomation80122@gmail.com</t>
+  </si>
+  <si>
+    <t>80122</t>
+  </si>
+  <si>
+    <t>Examtaker18065</t>
+  </si>
+  <si>
+    <t>Automation18065</t>
+  </si>
+  <si>
+    <t>examtakerautomation18065@gmail.com</t>
+  </si>
+  <si>
+    <t>18065</t>
+  </si>
+  <si>
+    <t>Examtaker73708</t>
+  </si>
+  <si>
+    <t>Automation73708</t>
+  </si>
+  <si>
+    <t>examtakerautomation73708@gmail.com</t>
+  </si>
+  <si>
+    <t>73708</t>
+  </si>
+  <si>
+    <t>Examtaker56245</t>
+  </si>
+  <si>
+    <t>Automation56245</t>
+  </si>
+  <si>
+    <t>examtakerautomation56245@gmail.com</t>
+  </si>
+  <si>
+    <t>56245</t>
+  </si>
+  <si>
+    <t>Examtaker21739</t>
+  </si>
+  <si>
+    <t>Automation21739</t>
+  </si>
+  <si>
+    <t>examtakerautomation21739@gmail.com</t>
+  </si>
+  <si>
+    <t>21739</t>
+  </si>
+  <si>
+    <t>Examtaker76453</t>
+  </si>
+  <si>
+    <t>Automation76453</t>
+  </si>
+  <si>
+    <t>examtakerautomation76453@gmail.com</t>
+  </si>
+  <si>
+    <t>76453</t>
+  </si>
+  <si>
+    <t>Examtaker64242</t>
+  </si>
+  <si>
+    <t>Automation64242</t>
+  </si>
+  <si>
+    <t>examtakerautomation64242@gmail.com</t>
+  </si>
+  <si>
+    <t>64242</t>
+  </si>
+  <si>
+    <t>Examtaker48377</t>
+  </si>
+  <si>
+    <t>Automation48377</t>
+  </si>
+  <si>
+    <t>examtakerautomation48377@gmail.com</t>
+  </si>
+  <si>
+    <t>48377</t>
+  </si>
+  <si>
+    <t>Examtaker49447</t>
+  </si>
+  <si>
+    <t>Automation49447</t>
+  </si>
+  <si>
+    <t>examtakerautomation49447@gmail.com</t>
+  </si>
+  <si>
+    <t>49447</t>
+  </si>
+  <si>
+    <t>Examtaker97522</t>
+  </si>
+  <si>
+    <t>Automation97522</t>
+  </si>
+  <si>
+    <t>examtakerautomation97522@gmail.com</t>
+  </si>
+  <si>
+    <t>97522</t>
+  </si>
+  <si>
+    <t>Examtaker03291</t>
+  </si>
+  <si>
+    <t>Automation03291</t>
+  </si>
+  <si>
+    <t>examtakerautomation03291@gmail.com</t>
+  </si>
+  <si>
+    <t>03291</t>
+  </si>
+  <si>
+    <t>Examtaker86924</t>
+  </si>
+  <si>
+    <t>Automation86924</t>
+  </si>
+  <si>
+    <t>examtakerautomation86924@gmail.com</t>
+  </si>
+  <si>
+    <t>86924</t>
+  </si>
+  <si>
+    <t>Examtaker12069</t>
+  </si>
+  <si>
+    <t>Automation12069</t>
+  </si>
+  <si>
+    <t>examtakerautomation12069@gmail.com</t>
+  </si>
+  <si>
+    <t>12069</t>
+  </si>
+  <si>
+    <t>Examtaker00793</t>
+  </si>
+  <si>
+    <t>Automation00793</t>
+  </si>
+  <si>
+    <t>examtakerautomation00793@gmail.com</t>
+  </si>
+  <si>
+    <t>00793</t>
+  </si>
+  <si>
+    <t>Examtaker67913</t>
+  </si>
+  <si>
+    <t>Automation67913</t>
+  </si>
+  <si>
+    <t>examtakerautomation67913@gmail.com</t>
+  </si>
+  <si>
+    <t>67913</t>
+  </si>
+  <si>
+    <t>Examtaker34948</t>
+  </si>
+  <si>
+    <t>Automation34948</t>
+  </si>
+  <si>
+    <t>examtakerautomation34948@gmail.com</t>
+  </si>
+  <si>
+    <t>34948</t>
+  </si>
+  <si>
+    <t>Examtaker31729</t>
+  </si>
+  <si>
+    <t>Automation31729</t>
+  </si>
+  <si>
+    <t>examtakerautomation31729@gmail.com</t>
+  </si>
+  <si>
+    <t>31729</t>
+  </si>
+  <si>
+    <t>Examtaker81220</t>
+  </si>
+  <si>
+    <t>Automation81220</t>
+  </si>
+  <si>
+    <t>examtakerautomation81220@gmail.com</t>
+  </si>
+  <si>
+    <t>81220</t>
+  </si>
+  <si>
+    <t>Examtaker73273</t>
+  </si>
+  <si>
+    <t>Automation73273</t>
+  </si>
+  <si>
+    <t>examtakerautomation73273@gmail.com</t>
+  </si>
+  <si>
+    <t>73273</t>
+  </si>
+  <si>
+    <t>Examtaker97514</t>
+  </si>
+  <si>
+    <t>Automation97514</t>
+  </si>
+  <si>
+    <t>examtakerautomation97514@gmail.com</t>
+  </si>
+  <si>
+    <t>97514</t>
+  </si>
+  <si>
+    <t>Examtaker03889</t>
+  </si>
+  <si>
+    <t>Automation03889</t>
+  </si>
+  <si>
+    <t>examtakerautomation03889@gmail.com</t>
+  </si>
+  <si>
+    <t>03889</t>
+  </si>
+  <si>
+    <t>Examtaker84911</t>
+  </si>
+  <si>
+    <t>Automation84911</t>
+  </si>
+  <si>
+    <t>examtakerautomation84911@gmail.com</t>
+  </si>
+  <si>
+    <t>84911</t>
+  </si>
+  <si>
+    <t>Examtaker64988</t>
+  </si>
+  <si>
+    <t>Automation64988</t>
+  </si>
+  <si>
+    <t>examtakerautomation64988@gmail.com</t>
+  </si>
+  <si>
+    <t>64988</t>
+  </si>
+  <si>
+    <t>Examtaker05985</t>
+  </si>
+  <si>
+    <t>Automation05985</t>
+  </si>
+  <si>
+    <t>examtakerautomation05985@gmail.com</t>
+  </si>
+  <si>
+    <t>05985</t>
+  </si>
+  <si>
+    <t>Examtaker66844</t>
+  </si>
+  <si>
+    <t>Automation66844</t>
+  </si>
+  <si>
+    <t>examtakerautomation66844@gmail.com</t>
+  </si>
+  <si>
+    <t>66844</t>
+  </si>
+  <si>
+    <t>Examtaker19275</t>
+  </si>
+  <si>
+    <t>Automation19275</t>
+  </si>
+  <si>
+    <t>examtakerautomation19275@gmail.com</t>
+  </si>
+  <si>
+    <t>19275</t>
+  </si>
+  <si>
+    <t>Examtaker23957</t>
+  </si>
+  <si>
+    <t>Automation23957</t>
+  </si>
+  <si>
+    <t>examtakerautomation23957@gmail.com</t>
+  </si>
+  <si>
+    <t>23957</t>
+  </si>
+  <si>
+    <t>Examtaker11503</t>
+  </si>
+  <si>
+    <t>Automation11503</t>
+  </si>
+  <si>
+    <t>examtakerautomation11503@gmail.com</t>
+  </si>
+  <si>
+    <t>11503</t>
+  </si>
+  <si>
+    <t>Examtaker49641</t>
+  </si>
+  <si>
+    <t>Automation49641</t>
+  </si>
+  <si>
+    <t>examtakerautomation49641@gmail.com</t>
+  </si>
+  <si>
+    <t>49641</t>
+  </si>
+  <si>
+    <t>Examtaker03740</t>
+  </si>
+  <si>
+    <t>Automation03740</t>
+  </si>
+  <si>
+    <t>examtakerautomation03740@gmail.com</t>
+  </si>
+  <si>
+    <t>03740</t>
+  </si>
+  <si>
+    <t>Examtaker30828</t>
+  </si>
+  <si>
+    <t>Automation30828</t>
+  </si>
+  <si>
+    <t>examtakerautomation30828@gmail.com</t>
+  </si>
+  <si>
+    <t>30828</t>
+  </si>
+  <si>
+    <t>Examtaker75288</t>
+  </si>
+  <si>
+    <t>Automation75288</t>
+  </si>
+  <si>
+    <t>examtakerautomation75288@gmail.com</t>
+  </si>
+  <si>
+    <t>75288</t>
+  </si>
+  <si>
+    <t>Examtaker33917</t>
+  </si>
+  <si>
+    <t>Automation33917</t>
+  </si>
+  <si>
+    <t>examtakerautomation33917@gmail.com</t>
+  </si>
+  <si>
+    <t>33917</t>
+  </si>
+  <si>
+    <t>Examtaker68711</t>
+  </si>
+  <si>
+    <t>Automation68711</t>
+  </si>
+  <si>
+    <t>examtakerautomation68711@gmail.com</t>
+  </si>
+  <si>
+    <t>68711</t>
+  </si>
+  <si>
+    <t>Examtaker36686</t>
+  </si>
+  <si>
+    <t>Automation36686</t>
+  </si>
+  <si>
+    <t>examtakerautomation36686@gmail.com</t>
+  </si>
+  <si>
+    <t>36686</t>
+  </si>
+  <si>
+    <t>Examtaker05068</t>
+  </si>
+  <si>
+    <t>Automation05068</t>
+  </si>
+  <si>
+    <t>examtakerautomation05068@gmail.com</t>
+  </si>
+  <si>
+    <t>05068</t>
+  </si>
+  <si>
+    <t>Examtaker96104</t>
+  </si>
+  <si>
+    <t>Automation96104</t>
+  </si>
+  <si>
+    <t>examtakerautomation96104@gmail.com</t>
+  </si>
+  <si>
+    <t>96104</t>
+  </si>
+  <si>
+    <t>Examtaker07835</t>
+  </si>
+  <si>
+    <t>Automation07835</t>
+  </si>
+  <si>
+    <t>examtakerautomation07835@gmail.com</t>
+  </si>
+  <si>
+    <t>07835</t>
+  </si>
+  <si>
+    <t>Examtaker43343</t>
+  </si>
+  <si>
+    <t>Automation43343</t>
+  </si>
+  <si>
+    <t>examtakerautomation43343@gmail.com</t>
+  </si>
+  <si>
+    <t>43343</t>
+  </si>
+  <si>
+    <t>Examtaker71424</t>
+  </si>
+  <si>
+    <t>Automation71424</t>
+  </si>
+  <si>
+    <t>examtakerautomation71424@gmail.com</t>
+  </si>
+  <si>
+    <t>71424</t>
+  </si>
+  <si>
+    <t>Examtaker94334</t>
+  </si>
+  <si>
+    <t>Automation94334</t>
+  </si>
+  <si>
+    <t>examtakerautomation94334@gmail.com</t>
+  </si>
+  <si>
+    <t>94334</t>
+  </si>
+  <si>
+    <t>Examtaker04297</t>
+  </si>
+  <si>
+    <t>Automation04297</t>
+  </si>
+  <si>
+    <t>examtakerautomation04297@gmail.com</t>
+  </si>
+  <si>
+    <t>04297</t>
+  </si>
+  <si>
+    <t>Examtaker50457</t>
+  </si>
+  <si>
+    <t>Automation50457</t>
+  </si>
+  <si>
+    <t>examtakerautomation50457@gmail.com</t>
+  </si>
+  <si>
+    <t>50457</t>
+  </si>
+  <si>
+    <t>Examtaker78739</t>
+  </si>
+  <si>
+    <t>Automation78739</t>
+  </si>
+  <si>
+    <t>examtakerautomation78739@gmail.com</t>
+  </si>
+  <si>
+    <t>78739</t>
+  </si>
+  <si>
+    <t>Examtaker91713</t>
+  </si>
+  <si>
+    <t>Automation91713</t>
+  </si>
+  <si>
+    <t>examtakerautomation91713@gmail.com</t>
+  </si>
+  <si>
+    <t>91713</t>
+  </si>
+  <si>
+    <t>Examtaker51092</t>
+  </si>
+  <si>
+    <t>Automation51092</t>
+  </si>
+  <si>
+    <t>examtakerautomation51092@gmail.com</t>
+  </si>
+  <si>
+    <t>51092</t>
+  </si>
+  <si>
+    <t>Examtaker92862</t>
+  </si>
+  <si>
+    <t>Automation92862</t>
+  </si>
+  <si>
+    <t>examtakerautomation92862@gmail.com</t>
+  </si>
+  <si>
+    <t>92862</t>
+  </si>
+  <si>
+    <t>Examtaker07106</t>
+  </si>
+  <si>
+    <t>Automation07106</t>
+  </si>
+  <si>
+    <t>examtakerautomation07106@gmail.com</t>
+  </si>
+  <si>
+    <t>07106</t>
+  </si>
+  <si>
+    <t>Examtaker15018</t>
+  </si>
+  <si>
+    <t>Automation15018</t>
+  </si>
+  <si>
+    <t>examtakerautomation15018@gmail.com</t>
+  </si>
+  <si>
+    <t>15018</t>
+  </si>
+  <si>
+    <t>Examtaker06815</t>
+  </si>
+  <si>
+    <t>Automation06815</t>
+  </si>
+  <si>
+    <t>examtakerautomation06815@gmail.com</t>
+  </si>
+  <si>
+    <t>06815</t>
+  </si>
+  <si>
+    <t>Examtaker89035</t>
+  </si>
+  <si>
+    <t>Automation89035</t>
+  </si>
+  <si>
+    <t>examtakerautomation89035@gmail.com</t>
+  </si>
+  <si>
+    <t>89035</t>
+  </si>
+  <si>
+    <t>Examtaker95606</t>
+  </si>
+  <si>
+    <t>Automation95606</t>
+  </si>
+  <si>
+    <t>examtakerautomation95606@gmail.com</t>
+  </si>
+  <si>
+    <t>95606</t>
+  </si>
+  <si>
+    <t>Examtaker15769</t>
+  </si>
+  <si>
+    <t>Automation15769</t>
+  </si>
+  <si>
+    <t>examtakerautomation15769@gmail.com</t>
+  </si>
+  <si>
+    <t>15769</t>
+  </si>
+  <si>
+    <t>Examtaker14765</t>
+  </si>
+  <si>
+    <t>Automation14765</t>
+  </si>
+  <si>
+    <t>examtakerautomation14765@gmail.com</t>
+  </si>
+  <si>
+    <t>14765</t>
+  </si>
+  <si>
+    <t>Examtaker97114</t>
+  </si>
+  <si>
+    <t>Automation97114</t>
+  </si>
+  <si>
+    <t>examtakerautomation97114@gmail.com</t>
+  </si>
+  <si>
+    <t>97114</t>
+  </si>
+  <si>
+    <t>Examtaker11556</t>
+  </si>
+  <si>
+    <t>Automation11556</t>
+  </si>
+  <si>
+    <t>examtakerautomation11556@gmail.com</t>
+  </si>
+  <si>
+    <t>11556</t>
+  </si>
+  <si>
+    <t>Examtaker68896</t>
+  </si>
+  <si>
+    <t>Automation68896</t>
+  </si>
+  <si>
+    <t>examtakerautomation68896@gmail.com</t>
+  </si>
+  <si>
+    <t>68896</t>
+  </si>
+  <si>
+    <t>Examtaker37821</t>
+  </si>
+  <si>
+    <t>Automation37821</t>
+  </si>
+  <si>
+    <t>examtakerautomation37821@gmail.com</t>
+  </si>
+  <si>
+    <t>37821</t>
+  </si>
+  <si>
+    <t>Examtaker01884</t>
+  </si>
+  <si>
+    <t>Automation01884</t>
+  </si>
+  <si>
+    <t>examtakerautomation01884@gmail.com</t>
+  </si>
+  <si>
+    <t>01884</t>
+  </si>
+  <si>
+    <t>Examtaker49905</t>
+  </si>
+  <si>
+    <t>Automation49905</t>
+  </si>
+  <si>
+    <t>examtakerautomation49905@gmail.com</t>
+  </si>
+  <si>
+    <t>49905</t>
+  </si>
+  <si>
+    <t>Examtaker89295</t>
+  </si>
+  <si>
+    <t>Automation89295</t>
+  </si>
+  <si>
+    <t>examtakerautomation89295@gmail.com</t>
+  </si>
+  <si>
+    <t>89295</t>
+  </si>
+  <si>
+    <t>Examtaker33001</t>
+  </si>
+  <si>
+    <t>Automation33001</t>
+  </si>
+  <si>
+    <t>examtakerautomation33001@gmail.com</t>
+  </si>
+  <si>
+    <t>33001</t>
+  </si>
+  <si>
+    <t>Examtaker34144</t>
+  </si>
+  <si>
+    <t>Automation34144</t>
+  </si>
+  <si>
+    <t>examtakerautomation34144@gmail.com</t>
+  </si>
+  <si>
+    <t>34144</t>
   </si>
 </sst>
 </file>
@@ -6511,422 +9019,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1913</v>
+        <v>2745</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1914</v>
+        <v>2746</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1915</v>
+        <v>2747</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1916</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1917</v>
+        <v>2749</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1918</v>
+        <v>2750</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1919</v>
+        <v>2751</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1920</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1921</v>
+        <v>2753</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1922</v>
+        <v>2754</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1923</v>
+        <v>2755</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1924</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1925</v>
+        <v>2757</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1926</v>
+        <v>2758</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1927</v>
+        <v>2759</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1928</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1929</v>
+        <v>2761</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1930</v>
+        <v>2762</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1931</v>
+        <v>2763</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1932</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1933</v>
+        <v>2765</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1934</v>
+        <v>2766</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1935</v>
+        <v>2767</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1936</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1937</v>
+        <v>2769</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1938</v>
+        <v>2770</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1939</v>
+        <v>2771</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1940</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1941</v>
+        <v>2773</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1942</v>
+        <v>2774</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1943</v>
+        <v>2775</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1944</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1945</v>
+        <v>2777</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1946</v>
+        <v>2778</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1947</v>
+        <v>2779</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1948</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1849</v>
+        <v>2781</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1850</v>
+        <v>2782</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1851</v>
+        <v>2783</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1852</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1949</v>
+        <v>2785</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1950</v>
+        <v>2786</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1951</v>
+        <v>2787</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1952</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1953</v>
+        <v>2789</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1954</v>
+        <v>2790</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1955</v>
+        <v>2791</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1956</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1957</v>
+        <v>2793</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1958</v>
+        <v>2794</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1959</v>
+        <v>2795</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1960</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1961</v>
+        <v>2797</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1962</v>
+        <v>2798</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1963</v>
+        <v>2799</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1964</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1965</v>
+        <v>2801</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1966</v>
+        <v>2802</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1967</v>
+        <v>2803</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1968</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1969</v>
+        <v>2805</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1970</v>
+        <v>2806</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1971</v>
+        <v>2807</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1972</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1973</v>
+        <v>2809</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1974</v>
+        <v>2810</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1975</v>
+        <v>2811</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1976</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1977</v>
+        <v>2813</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1978</v>
+        <v>2814</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1979</v>
+        <v>2815</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1980</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1981</v>
+        <v>2817</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1982</v>
+        <v>2818</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1983</v>
+        <v>2819</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1984</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1985</v>
+        <v>2821</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1986</v>
+        <v>2822</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1987</v>
+        <v>2823</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1988</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1989</v>
+        <v>2825</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1990</v>
+        <v>2826</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1991</v>
+        <v>2827</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1992</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1993</v>
+        <v>2829</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1994</v>
+        <v>2830</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1995</v>
+        <v>2831</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1996</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1997</v>
+        <v>2833</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1998</v>
+        <v>2834</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1999</v>
+        <v>2835</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>2000</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>2001</v>
+        <v>2837</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>2002</v>
+        <v>2838</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>2003</v>
+        <v>2839</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>2004</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>2005</v>
+        <v>2841</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>2006</v>
+        <v>2842</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>2007</v>
+        <v>2843</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>2008</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2009</v>
+        <v>2845</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>2010</v>
+        <v>2846</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>2011</v>
+        <v>2847</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>2012</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>2013</v>
+        <v>2849</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>2014</v>
+        <v>2850</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>2015</v>
+        <v>2851</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>2016</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>2017</v>
+        <v>2853</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>2018</v>
+        <v>2854</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>2019</v>
+        <v>2855</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>2020</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>2021</v>
+        <v>2857</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>2022</v>
+        <v>2858</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>2023</v>
+        <v>2859</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>2024</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2025</v>
+        <v>2861</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>2026</v>
+        <v>2862</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>2027</v>
+        <v>2863</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>2028</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="3101">
   <si>
     <t>FirstName</t>
   </si>
@@ -8609,6 +8609,714 @@
   </si>
   <si>
     <t>34144</t>
+  </si>
+  <si>
+    <t>Examtaker56903</t>
+  </si>
+  <si>
+    <t>Automation56903</t>
+  </si>
+  <si>
+    <t>examtakerautomation56903@gmail.com</t>
+  </si>
+  <si>
+    <t>56903</t>
+  </si>
+  <si>
+    <t>Examtaker60523</t>
+  </si>
+  <si>
+    <t>Automation60523</t>
+  </si>
+  <si>
+    <t>examtakerautomation60523@gmail.com</t>
+  </si>
+  <si>
+    <t>60523</t>
+  </si>
+  <si>
+    <t>Examtaker88072</t>
+  </si>
+  <si>
+    <t>Automation88072</t>
+  </si>
+  <si>
+    <t>examtakerautomation88072@gmail.com</t>
+  </si>
+  <si>
+    <t>88072</t>
+  </si>
+  <si>
+    <t>Examtaker89661</t>
+  </si>
+  <si>
+    <t>Automation89661</t>
+  </si>
+  <si>
+    <t>examtakerautomation89661@gmail.com</t>
+  </si>
+  <si>
+    <t>89661</t>
+  </si>
+  <si>
+    <t>Examtaker21026</t>
+  </si>
+  <si>
+    <t>Automation21026</t>
+  </si>
+  <si>
+    <t>examtakerautomation21026@gmail.com</t>
+  </si>
+  <si>
+    <t>21026</t>
+  </si>
+  <si>
+    <t>Examtaker35028</t>
+  </si>
+  <si>
+    <t>Automation35028</t>
+  </si>
+  <si>
+    <t>examtakerautomation35028@gmail.com</t>
+  </si>
+  <si>
+    <t>35028</t>
+  </si>
+  <si>
+    <t>Examtaker86107</t>
+  </si>
+  <si>
+    <t>Automation86107</t>
+  </si>
+  <si>
+    <t>examtakerautomation86107@gmail.com</t>
+  </si>
+  <si>
+    <t>86107</t>
+  </si>
+  <si>
+    <t>Examtaker52953</t>
+  </si>
+  <si>
+    <t>Automation52953</t>
+  </si>
+  <si>
+    <t>examtakerautomation52953@gmail.com</t>
+  </si>
+  <si>
+    <t>52953</t>
+  </si>
+  <si>
+    <t>Examtaker40186</t>
+  </si>
+  <si>
+    <t>Automation40186</t>
+  </si>
+  <si>
+    <t>examtakerautomation40186@gmail.com</t>
+  </si>
+  <si>
+    <t>40186</t>
+  </si>
+  <si>
+    <t>Examtaker93042</t>
+  </si>
+  <si>
+    <t>Automation93042</t>
+  </si>
+  <si>
+    <t>examtakerautomation93042@gmail.com</t>
+  </si>
+  <si>
+    <t>93042</t>
+  </si>
+  <si>
+    <t>Examtaker37577</t>
+  </si>
+  <si>
+    <t>Automation37577</t>
+  </si>
+  <si>
+    <t>examtakerautomation37577@gmail.com</t>
+  </si>
+  <si>
+    <t>37577</t>
+  </si>
+  <si>
+    <t>Examtaker75608</t>
+  </si>
+  <si>
+    <t>Automation75608</t>
+  </si>
+  <si>
+    <t>examtakerautomation75608@gmail.com</t>
+  </si>
+  <si>
+    <t>75608</t>
+  </si>
+  <si>
+    <t>Examtaker37403</t>
+  </si>
+  <si>
+    <t>Automation37403</t>
+  </si>
+  <si>
+    <t>examtakerautomation37403@gmail.com</t>
+  </si>
+  <si>
+    <t>37403</t>
+  </si>
+  <si>
+    <t>Examtaker45701</t>
+  </si>
+  <si>
+    <t>Automation45701</t>
+  </si>
+  <si>
+    <t>examtakerautomation45701@gmail.com</t>
+  </si>
+  <si>
+    <t>45701</t>
+  </si>
+  <si>
+    <t>Examtaker13840</t>
+  </si>
+  <si>
+    <t>Automation13840</t>
+  </si>
+  <si>
+    <t>examtakerautomation13840@gmail.com</t>
+  </si>
+  <si>
+    <t>13840</t>
+  </si>
+  <si>
+    <t>Examtaker97570</t>
+  </si>
+  <si>
+    <t>Automation97570</t>
+  </si>
+  <si>
+    <t>examtakerautomation97570@gmail.com</t>
+  </si>
+  <si>
+    <t>97570</t>
+  </si>
+  <si>
+    <t>Examtaker03840</t>
+  </si>
+  <si>
+    <t>Automation03840</t>
+  </si>
+  <si>
+    <t>examtakerautomation03840@gmail.com</t>
+  </si>
+  <si>
+    <t>03840</t>
+  </si>
+  <si>
+    <t>Examtaker30602</t>
+  </si>
+  <si>
+    <t>Automation30602</t>
+  </si>
+  <si>
+    <t>examtakerautomation30602@gmail.com</t>
+  </si>
+  <si>
+    <t>30602</t>
+  </si>
+  <si>
+    <t>Examtaker56577</t>
+  </si>
+  <si>
+    <t>Automation56577</t>
+  </si>
+  <si>
+    <t>examtakerautomation56577@gmail.com</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>Examtaker87151</t>
+  </si>
+  <si>
+    <t>Automation87151</t>
+  </si>
+  <si>
+    <t>examtakerautomation87151@gmail.com</t>
+  </si>
+  <si>
+    <t>87151</t>
+  </si>
+  <si>
+    <t>Examtaker84676</t>
+  </si>
+  <si>
+    <t>Automation84676</t>
+  </si>
+  <si>
+    <t>examtakerautomation84676@gmail.com</t>
+  </si>
+  <si>
+    <t>84676</t>
+  </si>
+  <si>
+    <t>Examtaker57990</t>
+  </si>
+  <si>
+    <t>Automation57990</t>
+  </si>
+  <si>
+    <t>examtakerautomation57990@gmail.com</t>
+  </si>
+  <si>
+    <t>57990</t>
+  </si>
+  <si>
+    <t>Examtaker99848</t>
+  </si>
+  <si>
+    <t>Automation99848</t>
+  </si>
+  <si>
+    <t>examtakerautomation99848@gmail.com</t>
+  </si>
+  <si>
+    <t>99848</t>
+  </si>
+  <si>
+    <t>Examtaker33579</t>
+  </si>
+  <si>
+    <t>Automation33579</t>
+  </si>
+  <si>
+    <t>examtakerautomation33579@gmail.com</t>
+  </si>
+  <si>
+    <t>33579</t>
+  </si>
+  <si>
+    <t>Examtaker63946</t>
+  </si>
+  <si>
+    <t>Automation63946</t>
+  </si>
+  <si>
+    <t>examtakerautomation63946@gmail.com</t>
+  </si>
+  <si>
+    <t>63946</t>
+  </si>
+  <si>
+    <t>Examtaker76204</t>
+  </si>
+  <si>
+    <t>Automation76204</t>
+  </si>
+  <si>
+    <t>examtakerautomation76204@gmail.com</t>
+  </si>
+  <si>
+    <t>76204</t>
+  </si>
+  <si>
+    <t>Examtaker13398</t>
+  </si>
+  <si>
+    <t>Automation13398</t>
+  </si>
+  <si>
+    <t>examtakerautomation13398@gmail.com</t>
+  </si>
+  <si>
+    <t>13398</t>
+  </si>
+  <si>
+    <t>Examtaker51416</t>
+  </si>
+  <si>
+    <t>Automation51416</t>
+  </si>
+  <si>
+    <t>examtakerautomation51416@gmail.com</t>
+  </si>
+  <si>
+    <t>51416</t>
+  </si>
+  <si>
+    <t>Examtaker60997</t>
+  </si>
+  <si>
+    <t>Automation60997</t>
+  </si>
+  <si>
+    <t>examtakerautomation60997@gmail.com</t>
+  </si>
+  <si>
+    <t>60997</t>
+  </si>
+  <si>
+    <t>Examtaker11186</t>
+  </si>
+  <si>
+    <t>Automation11186</t>
+  </si>
+  <si>
+    <t>examtakerautomation11186@gmail.com</t>
+  </si>
+  <si>
+    <t>11186</t>
+  </si>
+  <si>
+    <t>Examtaker58922</t>
+  </si>
+  <si>
+    <t>Automation58922</t>
+  </si>
+  <si>
+    <t>examtakerautomation58922@gmail.com</t>
+  </si>
+  <si>
+    <t>58922</t>
+  </si>
+  <si>
+    <t>Examtaker57959</t>
+  </si>
+  <si>
+    <t>Automation57959</t>
+  </si>
+  <si>
+    <t>examtakerautomation57959@gmail.com</t>
+  </si>
+  <si>
+    <t>57959</t>
+  </si>
+  <si>
+    <t>Examtaker35555</t>
+  </si>
+  <si>
+    <t>Automation35555</t>
+  </si>
+  <si>
+    <t>examtakerautomation35555@gmail.com</t>
+  </si>
+  <si>
+    <t>35555</t>
+  </si>
+  <si>
+    <t>Examtaker90220</t>
+  </si>
+  <si>
+    <t>Automation90220</t>
+  </si>
+  <si>
+    <t>examtakerautomation90220@gmail.com</t>
+  </si>
+  <si>
+    <t>90220</t>
+  </si>
+  <si>
+    <t>Examtaker71892</t>
+  </si>
+  <si>
+    <t>Automation71892</t>
+  </si>
+  <si>
+    <t>examtakerautomation71892@gmail.com</t>
+  </si>
+  <si>
+    <t>71892</t>
+  </si>
+  <si>
+    <t>Examtaker44075</t>
+  </si>
+  <si>
+    <t>Automation44075</t>
+  </si>
+  <si>
+    <t>examtakerautomation44075@gmail.com</t>
+  </si>
+  <si>
+    <t>44075</t>
+  </si>
+  <si>
+    <t>Examtaker05979</t>
+  </si>
+  <si>
+    <t>Automation05979</t>
+  </si>
+  <si>
+    <t>examtakerautomation05979@gmail.com</t>
+  </si>
+  <si>
+    <t>05979</t>
+  </si>
+  <si>
+    <t>Examtaker92203</t>
+  </si>
+  <si>
+    <t>Automation92203</t>
+  </si>
+  <si>
+    <t>examtakerautomation92203@gmail.com</t>
+  </si>
+  <si>
+    <t>92203</t>
+  </si>
+  <si>
+    <t>Examtaker33481</t>
+  </si>
+  <si>
+    <t>Automation33481</t>
+  </si>
+  <si>
+    <t>examtakerautomation33481@gmail.com</t>
+  </si>
+  <si>
+    <t>33481</t>
+  </si>
+  <si>
+    <t>Examtaker86321</t>
+  </si>
+  <si>
+    <t>Automation86321</t>
+  </si>
+  <si>
+    <t>examtakerautomation86321@gmail.com</t>
+  </si>
+  <si>
+    <t>86321</t>
+  </si>
+  <si>
+    <t>Examtaker65344</t>
+  </si>
+  <si>
+    <t>Automation65344</t>
+  </si>
+  <si>
+    <t>examtakerautomation65344@gmail.com</t>
+  </si>
+  <si>
+    <t>65344</t>
+  </si>
+  <si>
+    <t>Examtaker40411</t>
+  </si>
+  <si>
+    <t>Automation40411</t>
+  </si>
+  <si>
+    <t>examtakerautomation40411@gmail.com</t>
+  </si>
+  <si>
+    <t>40411</t>
+  </si>
+  <si>
+    <t>Examtaker14573</t>
+  </si>
+  <si>
+    <t>Automation14573</t>
+  </si>
+  <si>
+    <t>examtakerautomation14573@gmail.com</t>
+  </si>
+  <si>
+    <t>14573</t>
+  </si>
+  <si>
+    <t>Examtaker13883</t>
+  </si>
+  <si>
+    <t>Automation13883</t>
+  </si>
+  <si>
+    <t>examtakerautomation13883@gmail.com</t>
+  </si>
+  <si>
+    <t>13883</t>
+  </si>
+  <si>
+    <t>Examtaker49878</t>
+  </si>
+  <si>
+    <t>Automation49878</t>
+  </si>
+  <si>
+    <t>examtakerautomation49878@gmail.com</t>
+  </si>
+  <si>
+    <t>49878</t>
+  </si>
+  <si>
+    <t>Examtaker44742</t>
+  </si>
+  <si>
+    <t>Automation44742</t>
+  </si>
+  <si>
+    <t>examtakerautomation44742@gmail.com</t>
+  </si>
+  <si>
+    <t>44742</t>
+  </si>
+  <si>
+    <t>Examtaker49969</t>
+  </si>
+  <si>
+    <t>Automation49969</t>
+  </si>
+  <si>
+    <t>examtakerautomation49969@gmail.com</t>
+  </si>
+  <si>
+    <t>49969</t>
+  </si>
+  <si>
+    <t>Examtaker87549</t>
+  </si>
+  <si>
+    <t>Automation87549</t>
+  </si>
+  <si>
+    <t>examtakerautomation87549@gmail.com</t>
+  </si>
+  <si>
+    <t>87549</t>
+  </si>
+  <si>
+    <t>Examtaker64625</t>
+  </si>
+  <si>
+    <t>Automation64625</t>
+  </si>
+  <si>
+    <t>examtakerautomation64625@gmail.com</t>
+  </si>
+  <si>
+    <t>64625</t>
+  </si>
+  <si>
+    <t>Examtaker66235</t>
+  </si>
+  <si>
+    <t>Automation66235</t>
+  </si>
+  <si>
+    <t>examtakerautomation66235@gmail.com</t>
+  </si>
+  <si>
+    <t>66235</t>
+  </si>
+  <si>
+    <t>Examtaker90117</t>
+  </si>
+  <si>
+    <t>Automation90117</t>
+  </si>
+  <si>
+    <t>examtakerautomation90117@gmail.com</t>
+  </si>
+  <si>
+    <t>90117</t>
+  </si>
+  <si>
+    <t>Examtaker46627</t>
+  </si>
+  <si>
+    <t>Automation46627</t>
+  </si>
+  <si>
+    <t>examtakerautomation46627@gmail.com</t>
+  </si>
+  <si>
+    <t>46627</t>
+  </si>
+  <si>
+    <t>Examtaker88066</t>
+  </si>
+  <si>
+    <t>Automation88066</t>
+  </si>
+  <si>
+    <t>examtakerautomation88066@gmail.com</t>
+  </si>
+  <si>
+    <t>88066</t>
+  </si>
+  <si>
+    <t>Examtaker63304</t>
+  </si>
+  <si>
+    <t>Automation63304</t>
+  </si>
+  <si>
+    <t>examtakerautomation63304@gmail.com</t>
+  </si>
+  <si>
+    <t>63304</t>
+  </si>
+  <si>
+    <t>Examtaker60700</t>
+  </si>
+  <si>
+    <t>Automation60700</t>
+  </si>
+  <si>
+    <t>examtakerautomation60700@gmail.com</t>
+  </si>
+  <si>
+    <t>60700</t>
+  </si>
+  <si>
+    <t>Examtaker72135</t>
+  </si>
+  <si>
+    <t>Automation72135</t>
+  </si>
+  <si>
+    <t>examtakerautomation72135@gmail.com</t>
+  </si>
+  <si>
+    <t>72135</t>
+  </si>
+  <si>
+    <t>Examtaker67334</t>
+  </si>
+  <si>
+    <t>Automation67334</t>
+  </si>
+  <si>
+    <t>examtakerautomation67334@gmail.com</t>
+  </si>
+  <si>
+    <t>67334</t>
+  </si>
+  <si>
+    <t>Examtaker92816</t>
+  </si>
+  <si>
+    <t>Automation92816</t>
+  </si>
+  <si>
+    <t>examtakerautomation92816@gmail.com</t>
+  </si>
+  <si>
+    <t>92816</t>
+  </si>
+  <si>
+    <t>Examtaker94453</t>
+  </si>
+  <si>
+    <t>Automation94453</t>
+  </si>
+  <si>
+    <t>examtakerautomation94453@gmail.com</t>
+  </si>
+  <si>
+    <t>94453</t>
   </si>
 </sst>
 </file>
@@ -9019,422 +9727,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2745</v>
+        <v>2985</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2746</v>
+        <v>2986</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2747</v>
+        <v>2987</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>2748</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2749</v>
+        <v>2989</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2750</v>
+        <v>2990</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2751</v>
+        <v>2991</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>2752</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2753</v>
+        <v>2993</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>2754</v>
+        <v>2994</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2755</v>
+        <v>2995</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>2756</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>2757</v>
+        <v>2997</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>2758</v>
+        <v>2998</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2759</v>
+        <v>2999</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>2760</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>2761</v>
+        <v>3001</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>2762</v>
+        <v>3002</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>2763</v>
+        <v>3003</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>2764</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>2765</v>
+        <v>3005</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>2766</v>
+        <v>3006</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2767</v>
+        <v>3007</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>2768</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2769</v>
+        <v>3009</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>2770</v>
+        <v>3010</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>2771</v>
+        <v>3011</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>2772</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>2773</v>
+        <v>3013</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>2774</v>
+        <v>3014</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>2775</v>
+        <v>3015</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>2776</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>2777</v>
+        <v>2753</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>2778</v>
+        <v>2754</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>2779</v>
+        <v>2755</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>2780</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>2781</v>
+        <v>3017</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>2782</v>
+        <v>3018</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>2783</v>
+        <v>3019</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>2784</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>2785</v>
+        <v>3021</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>2786</v>
+        <v>3022</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>2787</v>
+        <v>3023</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>2788</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>2789</v>
+        <v>3025</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>2790</v>
+        <v>3026</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>2791</v>
+        <v>3027</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>2792</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>2793</v>
+        <v>3029</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>2794</v>
+        <v>3030</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>2795</v>
+        <v>3031</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>2796</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>2797</v>
+        <v>3033</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>2798</v>
+        <v>3034</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>2799</v>
+        <v>3035</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>2800</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>2801</v>
+        <v>3037</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>2802</v>
+        <v>3038</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>2803</v>
+        <v>3039</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>2804</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>2805</v>
+        <v>3041</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>2806</v>
+        <v>3042</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>2807</v>
+        <v>3043</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>2808</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>2809</v>
+        <v>3045</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>2810</v>
+        <v>3046</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>2811</v>
+        <v>3047</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>2812</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>2813</v>
+        <v>3049</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>2814</v>
+        <v>3050</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>2815</v>
+        <v>3051</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>2816</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>2817</v>
+        <v>3053</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>2818</v>
+        <v>3054</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>2819</v>
+        <v>3055</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>2820</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>2821</v>
+        <v>3057</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>2822</v>
+        <v>3058</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>2823</v>
+        <v>3059</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>2824</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>2825</v>
+        <v>3061</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>2826</v>
+        <v>3062</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>2827</v>
+        <v>3063</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>2828</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>2829</v>
+        <v>3065</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>2830</v>
+        <v>3066</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>2831</v>
+        <v>3067</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>2832</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2833</v>
+        <v>3069</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>2834</v>
+        <v>3070</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>2835</v>
+        <v>3071</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>2836</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>2837</v>
+        <v>3073</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>2838</v>
+        <v>3074</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>2839</v>
+        <v>3075</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>2840</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>2841</v>
+        <v>3077</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>2842</v>
+        <v>3078</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>2843</v>
+        <v>3079</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>2844</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2845</v>
+        <v>3081</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>2846</v>
+        <v>3082</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>2847</v>
+        <v>3083</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>2848</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>2849</v>
+        <v>3085</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>2850</v>
+        <v>3086</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>2851</v>
+        <v>3087</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>2852</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>2853</v>
+        <v>3089</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>2854</v>
+        <v>3090</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>2855</v>
+        <v>3091</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>2856</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>2857</v>
+        <v>3093</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>2858</v>
+        <v>3094</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>2859</v>
+        <v>3095</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>2860</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2861</v>
+        <v>3097</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>2862</v>
+        <v>3098</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>2863</v>
+        <v>3099</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>2864</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="3101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="3217">
   <si>
     <t>FirstName</t>
   </si>
@@ -9317,6 +9317,354 @@
   </si>
   <si>
     <t>94453</t>
+  </si>
+  <si>
+    <t>Examtaker89602</t>
+  </si>
+  <si>
+    <t>Automation89602</t>
+  </si>
+  <si>
+    <t>examtakerautomation89602@gmail.com</t>
+  </si>
+  <si>
+    <t>89602</t>
+  </si>
+  <si>
+    <t>Examtaker41890</t>
+  </si>
+  <si>
+    <t>Automation41890</t>
+  </si>
+  <si>
+    <t>examtakerautomation41890@gmail.com</t>
+  </si>
+  <si>
+    <t>41890</t>
+  </si>
+  <si>
+    <t>Examtaker20909</t>
+  </si>
+  <si>
+    <t>Automation20909</t>
+  </si>
+  <si>
+    <t>examtakerautomation20909@gmail.com</t>
+  </si>
+  <si>
+    <t>20909</t>
+  </si>
+  <si>
+    <t>Examtaker93582</t>
+  </si>
+  <si>
+    <t>Automation93582</t>
+  </si>
+  <si>
+    <t>examtakerautomation93582@gmail.com</t>
+  </si>
+  <si>
+    <t>93582</t>
+  </si>
+  <si>
+    <t>Examtaker30583</t>
+  </si>
+  <si>
+    <t>Automation30583</t>
+  </si>
+  <si>
+    <t>examtakerautomation30583@gmail.com</t>
+  </si>
+  <si>
+    <t>30583</t>
+  </si>
+  <si>
+    <t>Examtaker32075</t>
+  </si>
+  <si>
+    <t>Automation32075</t>
+  </si>
+  <si>
+    <t>examtakerautomation32075@gmail.com</t>
+  </si>
+  <si>
+    <t>32075</t>
+  </si>
+  <si>
+    <t>Examtaker16841</t>
+  </si>
+  <si>
+    <t>Automation16841</t>
+  </si>
+  <si>
+    <t>examtakerautomation16841@gmail.com</t>
+  </si>
+  <si>
+    <t>16841</t>
+  </si>
+  <si>
+    <t>Examtaker79867</t>
+  </si>
+  <si>
+    <t>Automation79867</t>
+  </si>
+  <si>
+    <t>examtakerautomation79867@gmail.com</t>
+  </si>
+  <si>
+    <t>79867</t>
+  </si>
+  <si>
+    <t>Examtaker98296</t>
+  </si>
+  <si>
+    <t>Automation98296</t>
+  </si>
+  <si>
+    <t>examtakerautomation98296@gmail.com</t>
+  </si>
+  <si>
+    <t>98296</t>
+  </si>
+  <si>
+    <t>Examtaker87762</t>
+  </si>
+  <si>
+    <t>Automation87762</t>
+  </si>
+  <si>
+    <t>examtakerautomation87762@gmail.com</t>
+  </si>
+  <si>
+    <t>87762</t>
+  </si>
+  <si>
+    <t>Examtaker57981</t>
+  </si>
+  <si>
+    <t>Automation57981</t>
+  </si>
+  <si>
+    <t>examtakerautomation57981@gmail.com</t>
+  </si>
+  <si>
+    <t>57981</t>
+  </si>
+  <si>
+    <t>Examtaker90335</t>
+  </si>
+  <si>
+    <t>Automation90335</t>
+  </si>
+  <si>
+    <t>examtakerautomation90335@gmail.com</t>
+  </si>
+  <si>
+    <t>90335</t>
+  </si>
+  <si>
+    <t>Examtaker66359</t>
+  </si>
+  <si>
+    <t>Automation66359</t>
+  </si>
+  <si>
+    <t>examtakerautomation66359@gmail.com</t>
+  </si>
+  <si>
+    <t>66359</t>
+  </si>
+  <si>
+    <t>Examtaker43451</t>
+  </si>
+  <si>
+    <t>Automation43451</t>
+  </si>
+  <si>
+    <t>examtakerautomation43451@gmail.com</t>
+  </si>
+  <si>
+    <t>43451</t>
+  </si>
+  <si>
+    <t>Examtaker96578</t>
+  </si>
+  <si>
+    <t>Automation96578</t>
+  </si>
+  <si>
+    <t>examtakerautomation96578@gmail.com</t>
+  </si>
+  <si>
+    <t>96578</t>
+  </si>
+  <si>
+    <t>Examtaker88241</t>
+  </si>
+  <si>
+    <t>Automation88241</t>
+  </si>
+  <si>
+    <t>examtakerautomation88241@gmail.com</t>
+  </si>
+  <si>
+    <t>88241</t>
+  </si>
+  <si>
+    <t>Examtaker14121</t>
+  </si>
+  <si>
+    <t>Automation14121</t>
+  </si>
+  <si>
+    <t>examtakerautomation14121@gmail.com</t>
+  </si>
+  <si>
+    <t>14121</t>
+  </si>
+  <si>
+    <t>Examtaker97446</t>
+  </si>
+  <si>
+    <t>Automation97446</t>
+  </si>
+  <si>
+    <t>examtakerautomation97446@gmail.com</t>
+  </si>
+  <si>
+    <t>97446</t>
+  </si>
+  <si>
+    <t>Examtaker24025</t>
+  </si>
+  <si>
+    <t>Automation24025</t>
+  </si>
+  <si>
+    <t>examtakerautomation24025@gmail.com</t>
+  </si>
+  <si>
+    <t>24025</t>
+  </si>
+  <si>
+    <t>Examtaker69815</t>
+  </si>
+  <si>
+    <t>Automation69815</t>
+  </si>
+  <si>
+    <t>examtakerautomation69815@gmail.com</t>
+  </si>
+  <si>
+    <t>69815</t>
+  </si>
+  <si>
+    <t>Examtaker55738</t>
+  </si>
+  <si>
+    <t>Automation55738</t>
+  </si>
+  <si>
+    <t>examtakerautomation55738@gmail.com</t>
+  </si>
+  <si>
+    <t>55738</t>
+  </si>
+  <si>
+    <t>Examtaker99122</t>
+  </si>
+  <si>
+    <t>Automation99122</t>
+  </si>
+  <si>
+    <t>examtakerautomation99122@gmail.com</t>
+  </si>
+  <si>
+    <t>99122</t>
+  </si>
+  <si>
+    <t>Examtaker38502</t>
+  </si>
+  <si>
+    <t>Automation38502</t>
+  </si>
+  <si>
+    <t>examtakerautomation38502@gmail.com</t>
+  </si>
+  <si>
+    <t>38502</t>
+  </si>
+  <si>
+    <t>Examtaker19812</t>
+  </si>
+  <si>
+    <t>Automation19812</t>
+  </si>
+  <si>
+    <t>examtakerautomation19812@gmail.com</t>
+  </si>
+  <si>
+    <t>19812</t>
+  </si>
+  <si>
+    <t>Examtaker03495</t>
+  </si>
+  <si>
+    <t>Automation03495</t>
+  </si>
+  <si>
+    <t>examtakerautomation03495@gmail.com</t>
+  </si>
+  <si>
+    <t>03495</t>
+  </si>
+  <si>
+    <t>Examtaker56491</t>
+  </si>
+  <si>
+    <t>Automation56491</t>
+  </si>
+  <si>
+    <t>examtakerautomation56491@gmail.com</t>
+  </si>
+  <si>
+    <t>56491</t>
+  </si>
+  <si>
+    <t>Examtaker62777</t>
+  </si>
+  <si>
+    <t>Automation62777</t>
+  </si>
+  <si>
+    <t>examtakerautomation62777@gmail.com</t>
+  </si>
+  <si>
+    <t>62777</t>
+  </si>
+  <si>
+    <t>Examtaker70621</t>
+  </si>
+  <si>
+    <t>Automation70621</t>
+  </si>
+  <si>
+    <t>examtakerautomation70621@gmail.com</t>
+  </si>
+  <si>
+    <t>70621</t>
+  </si>
+  <si>
+    <t>Examtaker77306</t>
+  </si>
+  <si>
+    <t>Automation77306</t>
+  </si>
+  <si>
+    <t>examtakerautomation77306@gmail.com</t>
+  </si>
+  <si>
+    <t>77306</t>
   </si>
 </sst>
 </file>
@@ -9727,422 +10075,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2985</v>
+        <v>3101</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2986</v>
+        <v>3102</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2987</v>
+        <v>3103</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>2988</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2989</v>
+        <v>3105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2990</v>
+        <v>3106</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2991</v>
+        <v>3107</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>2992</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2993</v>
+        <v>3109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>2994</v>
+        <v>3110</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2995</v>
+        <v>3111</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>2996</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>2997</v>
+        <v>3113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>2998</v>
+        <v>3114</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2999</v>
+        <v>3115</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3000</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3001</v>
+        <v>3117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3002</v>
+        <v>3118</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3003</v>
+        <v>3119</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3004</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3005</v>
+        <v>3121</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3006</v>
+        <v>3122</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3007</v>
+        <v>3123</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3008</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3009</v>
+        <v>3125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3010</v>
+        <v>3126</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3011</v>
+        <v>3127</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3012</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3013</v>
+        <v>3129</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3014</v>
+        <v>3130</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3015</v>
+        <v>3131</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3016</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>2753</v>
+        <v>974</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>2754</v>
+        <v>975</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>2755</v>
+        <v>976</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>2756</v>
+        <v>977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3017</v>
+        <v>3133</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3018</v>
+        <v>3134</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3019</v>
+        <v>3135</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3020</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3021</v>
+        <v>3137</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3022</v>
+        <v>3138</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3023</v>
+        <v>3139</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3024</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3025</v>
+        <v>3141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3026</v>
+        <v>3142</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3027</v>
+        <v>3143</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3028</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3029</v>
+        <v>3145</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3030</v>
+        <v>3146</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3031</v>
+        <v>3147</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3032</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3033</v>
+        <v>3149</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3034</v>
+        <v>3150</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3035</v>
+        <v>3151</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3036</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3037</v>
+        <v>3153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3038</v>
+        <v>3154</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3039</v>
+        <v>3155</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3040</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3041</v>
+        <v>3157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3042</v>
+        <v>3158</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3043</v>
+        <v>3159</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3044</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3045</v>
+        <v>3161</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3046</v>
+        <v>3162</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3047</v>
+        <v>3163</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3048</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3049</v>
+        <v>3165</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3050</v>
+        <v>3166</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3051</v>
+        <v>3167</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3052</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3053</v>
+        <v>3169</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3054</v>
+        <v>3170</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3055</v>
+        <v>3171</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3056</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3057</v>
+        <v>3173</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3058</v>
+        <v>3174</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3059</v>
+        <v>3175</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3060</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3061</v>
+        <v>3177</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3062</v>
+        <v>3178</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3063</v>
+        <v>3179</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3064</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3065</v>
+        <v>3181</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3066</v>
+        <v>3182</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3067</v>
+        <v>3183</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3068</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3069</v>
+        <v>3185</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3070</v>
+        <v>3186</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3071</v>
+        <v>3187</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3072</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3073</v>
+        <v>3189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3074</v>
+        <v>3190</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3075</v>
+        <v>3191</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3076</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3077</v>
+        <v>3193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3078</v>
+        <v>3194</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3079</v>
+        <v>3195</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3080</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3081</v>
+        <v>3197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3082</v>
+        <v>3198</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3083</v>
+        <v>3199</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3084</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3085</v>
+        <v>3201</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3086</v>
+        <v>3202</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3087</v>
+        <v>3203</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3088</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3089</v>
+        <v>3205</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3090</v>
+        <v>3206</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3091</v>
+        <v>3207</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3092</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3093</v>
+        <v>3209</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3094</v>
+        <v>3210</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3095</v>
+        <v>3211</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3096</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3097</v>
+        <v>3213</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3098</v>
+        <v>3214</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3099</v>
+        <v>3215</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3100</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="3217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="3453">
   <si>
     <t>FirstName</t>
   </si>
@@ -9665,6 +9665,714 @@
   </si>
   <si>
     <t>77306</t>
+  </si>
+  <si>
+    <t>Examtaker88560</t>
+  </si>
+  <si>
+    <t>Automation88560</t>
+  </si>
+  <si>
+    <t>examtakerautomation88560@gmail.com</t>
+  </si>
+  <si>
+    <t>88560</t>
+  </si>
+  <si>
+    <t>Examtaker99207</t>
+  </si>
+  <si>
+    <t>Automation99207</t>
+  </si>
+  <si>
+    <t>examtakerautomation99207@gmail.com</t>
+  </si>
+  <si>
+    <t>99207</t>
+  </si>
+  <si>
+    <t>Examtaker79406</t>
+  </si>
+  <si>
+    <t>Automation79406</t>
+  </si>
+  <si>
+    <t>examtakerautomation79406@gmail.com</t>
+  </si>
+  <si>
+    <t>79406</t>
+  </si>
+  <si>
+    <t>Examtaker63999</t>
+  </si>
+  <si>
+    <t>Automation63999</t>
+  </si>
+  <si>
+    <t>examtakerautomation63999@gmail.com</t>
+  </si>
+  <si>
+    <t>63999</t>
+  </si>
+  <si>
+    <t>Examtaker56969</t>
+  </si>
+  <si>
+    <t>Automation56969</t>
+  </si>
+  <si>
+    <t>examtakerautomation56969@gmail.com</t>
+  </si>
+  <si>
+    <t>56969</t>
+  </si>
+  <si>
+    <t>Examtaker19292</t>
+  </si>
+  <si>
+    <t>Automation19292</t>
+  </si>
+  <si>
+    <t>examtakerautomation19292@gmail.com</t>
+  </si>
+  <si>
+    <t>19292</t>
+  </si>
+  <si>
+    <t>Examtaker15477</t>
+  </si>
+  <si>
+    <t>Automation15477</t>
+  </si>
+  <si>
+    <t>examtakerautomation15477@gmail.com</t>
+  </si>
+  <si>
+    <t>15477</t>
+  </si>
+  <si>
+    <t>Examtaker59960</t>
+  </si>
+  <si>
+    <t>Automation59960</t>
+  </si>
+  <si>
+    <t>examtakerautomation59960@gmail.com</t>
+  </si>
+  <si>
+    <t>59960</t>
+  </si>
+  <si>
+    <t>Examtaker38113</t>
+  </si>
+  <si>
+    <t>Automation38113</t>
+  </si>
+  <si>
+    <t>examtakerautomation38113@gmail.com</t>
+  </si>
+  <si>
+    <t>38113</t>
+  </si>
+  <si>
+    <t>Examtaker27068</t>
+  </si>
+  <si>
+    <t>Automation27068</t>
+  </si>
+  <si>
+    <t>examtakerautomation27068@gmail.com</t>
+  </si>
+  <si>
+    <t>27068</t>
+  </si>
+  <si>
+    <t>Examtaker90792</t>
+  </si>
+  <si>
+    <t>Automation90792</t>
+  </si>
+  <si>
+    <t>examtakerautomation90792@gmail.com</t>
+  </si>
+  <si>
+    <t>90792</t>
+  </si>
+  <si>
+    <t>Examtaker25534</t>
+  </si>
+  <si>
+    <t>Automation25534</t>
+  </si>
+  <si>
+    <t>examtakerautomation25534@gmail.com</t>
+  </si>
+  <si>
+    <t>25534</t>
+  </si>
+  <si>
+    <t>Examtaker93707</t>
+  </si>
+  <si>
+    <t>Automation93707</t>
+  </si>
+  <si>
+    <t>examtakerautomation93707@gmail.com</t>
+  </si>
+  <si>
+    <t>93707</t>
+  </si>
+  <si>
+    <t>Examtaker30531</t>
+  </si>
+  <si>
+    <t>Automation30531</t>
+  </si>
+  <si>
+    <t>examtakerautomation30531@gmail.com</t>
+  </si>
+  <si>
+    <t>30531</t>
+  </si>
+  <si>
+    <t>Examtaker10022</t>
+  </si>
+  <si>
+    <t>Automation10022</t>
+  </si>
+  <si>
+    <t>examtakerautomation10022@gmail.com</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>Examtaker89821</t>
+  </si>
+  <si>
+    <t>Automation89821</t>
+  </si>
+  <si>
+    <t>examtakerautomation89821@gmail.com</t>
+  </si>
+  <si>
+    <t>89821</t>
+  </si>
+  <si>
+    <t>Examtaker89838</t>
+  </si>
+  <si>
+    <t>Automation89838</t>
+  </si>
+  <si>
+    <t>examtakerautomation89838@gmail.com</t>
+  </si>
+  <si>
+    <t>89838</t>
+  </si>
+  <si>
+    <t>Examtaker95925</t>
+  </si>
+  <si>
+    <t>Automation95925</t>
+  </si>
+  <si>
+    <t>examtakerautomation95925@gmail.com</t>
+  </si>
+  <si>
+    <t>95925</t>
+  </si>
+  <si>
+    <t>Examtaker03097</t>
+  </si>
+  <si>
+    <t>Automation03097</t>
+  </si>
+  <si>
+    <t>examtakerautomation03097@gmail.com</t>
+  </si>
+  <si>
+    <t>03097</t>
+  </si>
+  <si>
+    <t>Examtaker48510</t>
+  </si>
+  <si>
+    <t>Automation48510</t>
+  </si>
+  <si>
+    <t>examtakerautomation48510@gmail.com</t>
+  </si>
+  <si>
+    <t>48510</t>
+  </si>
+  <si>
+    <t>Examtaker62873</t>
+  </si>
+  <si>
+    <t>Automation62873</t>
+  </si>
+  <si>
+    <t>examtakerautomation62873@gmail.com</t>
+  </si>
+  <si>
+    <t>62873</t>
+  </si>
+  <si>
+    <t>Examtaker55921</t>
+  </si>
+  <si>
+    <t>Automation55921</t>
+  </si>
+  <si>
+    <t>examtakerautomation55921@gmail.com</t>
+  </si>
+  <si>
+    <t>55921</t>
+  </si>
+  <si>
+    <t>Examtaker25859</t>
+  </si>
+  <si>
+    <t>Automation25859</t>
+  </si>
+  <si>
+    <t>examtakerautomation25859@gmail.com</t>
+  </si>
+  <si>
+    <t>25859</t>
+  </si>
+  <si>
+    <t>Examtaker21746</t>
+  </si>
+  <si>
+    <t>Automation21746</t>
+  </si>
+  <si>
+    <t>examtakerautomation21746@gmail.com</t>
+  </si>
+  <si>
+    <t>21746</t>
+  </si>
+  <si>
+    <t>Examtaker37462</t>
+  </si>
+  <si>
+    <t>Automation37462</t>
+  </si>
+  <si>
+    <t>examtakerautomation37462@gmail.com</t>
+  </si>
+  <si>
+    <t>37462</t>
+  </si>
+  <si>
+    <t>Examtaker95911</t>
+  </si>
+  <si>
+    <t>Automation95911</t>
+  </si>
+  <si>
+    <t>examtakerautomation95911@gmail.com</t>
+  </si>
+  <si>
+    <t>95911</t>
+  </si>
+  <si>
+    <t>Examtaker97575</t>
+  </si>
+  <si>
+    <t>Automation97575</t>
+  </si>
+  <si>
+    <t>examtakerautomation97575@gmail.com</t>
+  </si>
+  <si>
+    <t>97575</t>
+  </si>
+  <si>
+    <t>Examtaker59006</t>
+  </si>
+  <si>
+    <t>Automation59006</t>
+  </si>
+  <si>
+    <t>examtakerautomation59006@gmail.com</t>
+  </si>
+  <si>
+    <t>59006</t>
+  </si>
+  <si>
+    <t>Examtaker65477</t>
+  </si>
+  <si>
+    <t>Automation65477</t>
+  </si>
+  <si>
+    <t>examtakerautomation65477@gmail.com</t>
+  </si>
+  <si>
+    <t>65477</t>
+  </si>
+  <si>
+    <t>Examtaker14647</t>
+  </si>
+  <si>
+    <t>Automation14647</t>
+  </si>
+  <si>
+    <t>examtakerautomation14647@gmail.com</t>
+  </si>
+  <si>
+    <t>14647</t>
+  </si>
+  <si>
+    <t>Examtaker96607</t>
+  </si>
+  <si>
+    <t>Automation96607</t>
+  </si>
+  <si>
+    <t>examtakerautomation96607@gmail.com</t>
+  </si>
+  <si>
+    <t>96607</t>
+  </si>
+  <si>
+    <t>Examtaker41353</t>
+  </si>
+  <si>
+    <t>Automation41353</t>
+  </si>
+  <si>
+    <t>examtakerautomation41353@gmail.com</t>
+  </si>
+  <si>
+    <t>41353</t>
+  </si>
+  <si>
+    <t>Examtaker08161</t>
+  </si>
+  <si>
+    <t>Automation08161</t>
+  </si>
+  <si>
+    <t>examtakerautomation08161@gmail.com</t>
+  </si>
+  <si>
+    <t>08161</t>
+  </si>
+  <si>
+    <t>Examtaker28898</t>
+  </si>
+  <si>
+    <t>Automation28898</t>
+  </si>
+  <si>
+    <t>examtakerautomation28898@gmail.com</t>
+  </si>
+  <si>
+    <t>28898</t>
+  </si>
+  <si>
+    <t>Examtaker47445</t>
+  </si>
+  <si>
+    <t>Automation47445</t>
+  </si>
+  <si>
+    <t>examtakerautomation47445@gmail.com</t>
+  </si>
+  <si>
+    <t>47445</t>
+  </si>
+  <si>
+    <t>Examtaker29544</t>
+  </si>
+  <si>
+    <t>Automation29544</t>
+  </si>
+  <si>
+    <t>examtakerautomation29544@gmail.com</t>
+  </si>
+  <si>
+    <t>29544</t>
+  </si>
+  <si>
+    <t>Examtaker52345</t>
+  </si>
+  <si>
+    <t>Automation52345</t>
+  </si>
+  <si>
+    <t>examtakerautomation52345@gmail.com</t>
+  </si>
+  <si>
+    <t>52345</t>
+  </si>
+  <si>
+    <t>Examtaker73617</t>
+  </si>
+  <si>
+    <t>Automation73617</t>
+  </si>
+  <si>
+    <t>examtakerautomation73617@gmail.com</t>
+  </si>
+  <si>
+    <t>73617</t>
+  </si>
+  <si>
+    <t>Examtaker86492</t>
+  </si>
+  <si>
+    <t>Automation86492</t>
+  </si>
+  <si>
+    <t>examtakerautomation86492@gmail.com</t>
+  </si>
+  <si>
+    <t>86492</t>
+  </si>
+  <si>
+    <t>Examtaker01989</t>
+  </si>
+  <si>
+    <t>Automation01989</t>
+  </si>
+  <si>
+    <t>examtakerautomation01989@gmail.com</t>
+  </si>
+  <si>
+    <t>01989</t>
+  </si>
+  <si>
+    <t>Examtaker85423</t>
+  </si>
+  <si>
+    <t>Automation85423</t>
+  </si>
+  <si>
+    <t>examtakerautomation85423@gmail.com</t>
+  </si>
+  <si>
+    <t>85423</t>
+  </si>
+  <si>
+    <t>Examtaker98210</t>
+  </si>
+  <si>
+    <t>Automation98210</t>
+  </si>
+  <si>
+    <t>examtakerautomation98210@gmail.com</t>
+  </si>
+  <si>
+    <t>98210</t>
+  </si>
+  <si>
+    <t>Examtaker71567</t>
+  </si>
+  <si>
+    <t>Automation71567</t>
+  </si>
+  <si>
+    <t>examtakerautomation71567@gmail.com</t>
+  </si>
+  <si>
+    <t>71567</t>
+  </si>
+  <si>
+    <t>Examtaker06740</t>
+  </si>
+  <si>
+    <t>Automation06740</t>
+  </si>
+  <si>
+    <t>examtakerautomation06740@gmail.com</t>
+  </si>
+  <si>
+    <t>06740</t>
+  </si>
+  <si>
+    <t>Examtaker03576</t>
+  </si>
+  <si>
+    <t>Automation03576</t>
+  </si>
+  <si>
+    <t>examtakerautomation03576@gmail.com</t>
+  </si>
+  <si>
+    <t>03576</t>
+  </si>
+  <si>
+    <t>Examtaker88772</t>
+  </si>
+  <si>
+    <t>Automation88772</t>
+  </si>
+  <si>
+    <t>examtakerautomation88772@gmail.com</t>
+  </si>
+  <si>
+    <t>88772</t>
+  </si>
+  <si>
+    <t>Examtaker23738</t>
+  </si>
+  <si>
+    <t>Automation23738</t>
+  </si>
+  <si>
+    <t>examtakerautomation23738@gmail.com</t>
+  </si>
+  <si>
+    <t>23738</t>
+  </si>
+  <si>
+    <t>Examtaker10179</t>
+  </si>
+  <si>
+    <t>Automation10179</t>
+  </si>
+  <si>
+    <t>examtakerautomation10179@gmail.com</t>
+  </si>
+  <si>
+    <t>10179</t>
+  </si>
+  <si>
+    <t>Examtaker68539</t>
+  </si>
+  <si>
+    <t>Automation68539</t>
+  </si>
+  <si>
+    <t>examtakerautomation68539@gmail.com</t>
+  </si>
+  <si>
+    <t>68539</t>
+  </si>
+  <si>
+    <t>Examtaker33740</t>
+  </si>
+  <si>
+    <t>Automation33740</t>
+  </si>
+  <si>
+    <t>examtakerautomation33740@gmail.com</t>
+  </si>
+  <si>
+    <t>33740</t>
+  </si>
+  <si>
+    <t>Examtaker23333</t>
+  </si>
+  <si>
+    <t>Automation23333</t>
+  </si>
+  <si>
+    <t>examtakerautomation23333@gmail.com</t>
+  </si>
+  <si>
+    <t>23333</t>
+  </si>
+  <si>
+    <t>Examtaker74872</t>
+  </si>
+  <si>
+    <t>Automation74872</t>
+  </si>
+  <si>
+    <t>examtakerautomation74872@gmail.com</t>
+  </si>
+  <si>
+    <t>74872</t>
+  </si>
+  <si>
+    <t>Examtaker87297</t>
+  </si>
+  <si>
+    <t>Automation87297</t>
+  </si>
+  <si>
+    <t>examtakerautomation87297@gmail.com</t>
+  </si>
+  <si>
+    <t>87297</t>
+  </si>
+  <si>
+    <t>Examtaker39435</t>
+  </si>
+  <si>
+    <t>Automation39435</t>
+  </si>
+  <si>
+    <t>examtakerautomation39435@gmail.com</t>
+  </si>
+  <si>
+    <t>39435</t>
+  </si>
+  <si>
+    <t>Examtaker86187</t>
+  </si>
+  <si>
+    <t>Automation86187</t>
+  </si>
+  <si>
+    <t>examtakerautomation86187@gmail.com</t>
+  </si>
+  <si>
+    <t>86187</t>
+  </si>
+  <si>
+    <t>Examtaker56883</t>
+  </si>
+  <si>
+    <t>Automation56883</t>
+  </si>
+  <si>
+    <t>examtakerautomation56883@gmail.com</t>
+  </si>
+  <si>
+    <t>56883</t>
+  </si>
+  <si>
+    <t>Examtaker47014</t>
+  </si>
+  <si>
+    <t>Automation47014</t>
+  </si>
+  <si>
+    <t>examtakerautomation47014@gmail.com</t>
+  </si>
+  <si>
+    <t>47014</t>
+  </si>
+  <si>
+    <t>Examtaker33683</t>
+  </si>
+  <si>
+    <t>Automation33683</t>
+  </si>
+  <si>
+    <t>examtakerautomation33683@gmail.com</t>
+  </si>
+  <si>
+    <t>33683</t>
+  </si>
+  <si>
+    <t>Examtaker73676</t>
+  </si>
+  <si>
+    <t>Automation73676</t>
+  </si>
+  <si>
+    <t>examtakerautomation73676@gmail.com</t>
+  </si>
+  <si>
+    <t>73676</t>
   </si>
 </sst>
 </file>
@@ -10075,422 +10783,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3101</v>
+        <v>3337</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3102</v>
+        <v>3338</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3103</v>
+        <v>3339</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3104</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3105</v>
+        <v>3341</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3106</v>
+        <v>3342</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3107</v>
+        <v>3343</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3108</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3109</v>
+        <v>3345</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3110</v>
+        <v>3346</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3111</v>
+        <v>3347</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3112</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3113</v>
+        <v>3349</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3114</v>
+        <v>3350</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3115</v>
+        <v>3351</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3116</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3117</v>
+        <v>3353</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3118</v>
+        <v>3354</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3119</v>
+        <v>3355</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3120</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3121</v>
+        <v>3357</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3122</v>
+        <v>3358</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3123</v>
+        <v>3359</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3124</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3125</v>
+        <v>3361</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3126</v>
+        <v>3362</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3127</v>
+        <v>3363</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3128</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3129</v>
+        <v>3365</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3130</v>
+        <v>3366</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3131</v>
+        <v>3367</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3132</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>974</v>
+        <v>3369</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>975</v>
+        <v>3370</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>976</v>
+        <v>3371</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>977</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3133</v>
+        <v>3373</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3134</v>
+        <v>3374</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3135</v>
+        <v>3375</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3136</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3137</v>
+        <v>3377</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3138</v>
+        <v>3378</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3139</v>
+        <v>3379</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3140</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3141</v>
+        <v>3381</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3142</v>
+        <v>3382</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3143</v>
+        <v>3383</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3144</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3145</v>
+        <v>3385</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3146</v>
+        <v>3386</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3147</v>
+        <v>3387</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3148</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3149</v>
+        <v>3389</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3150</v>
+        <v>3390</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3151</v>
+        <v>3391</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3152</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3153</v>
+        <v>3393</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3154</v>
+        <v>3394</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3155</v>
+        <v>3395</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3156</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3157</v>
+        <v>3397</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3158</v>
+        <v>3398</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3159</v>
+        <v>3399</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3160</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3161</v>
+        <v>3401</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3162</v>
+        <v>3402</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3163</v>
+        <v>3403</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3164</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3165</v>
+        <v>3405</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3166</v>
+        <v>3406</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3167</v>
+        <v>3407</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3168</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3169</v>
+        <v>3409</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3170</v>
+        <v>3410</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3171</v>
+        <v>3411</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3172</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3173</v>
+        <v>3413</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3174</v>
+        <v>3414</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3175</v>
+        <v>3415</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3176</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3177</v>
+        <v>3417</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3178</v>
+        <v>3418</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3179</v>
+        <v>3419</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3180</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3181</v>
+        <v>3421</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3182</v>
+        <v>3422</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3183</v>
+        <v>3423</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3184</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3185</v>
+        <v>3425</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3186</v>
+        <v>3426</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3187</v>
+        <v>3427</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3188</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3189</v>
+        <v>3429</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3190</v>
+        <v>3430</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3191</v>
+        <v>3431</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3192</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3193</v>
+        <v>558</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3194</v>
+        <v>559</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3195</v>
+        <v>560</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3196</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3197</v>
+        <v>3433</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3198</v>
+        <v>3434</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3199</v>
+        <v>3435</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3200</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3201</v>
+        <v>3437</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3202</v>
+        <v>3438</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3203</v>
+        <v>3439</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3204</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3205</v>
+        <v>3441</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3206</v>
+        <v>3442</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3207</v>
+        <v>3443</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3208</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3209</v>
+        <v>3445</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3210</v>
+        <v>3446</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3211</v>
+        <v>3447</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3212</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3213</v>
+        <v>3449</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3214</v>
+        <v>3450</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3215</v>
+        <v>3451</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3216</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="3453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="3573">
   <si>
     <t>FirstName</t>
   </si>
@@ -10373,6 +10373,366 @@
   </si>
   <si>
     <t>73676</t>
+  </si>
+  <si>
+    <t>Examtaker97533</t>
+  </si>
+  <si>
+    <t>Automation97533</t>
+  </si>
+  <si>
+    <t>examtakerautomation97533@gmail.com</t>
+  </si>
+  <si>
+    <t>97533</t>
+  </si>
+  <si>
+    <t>Examtaker47029</t>
+  </si>
+  <si>
+    <t>Automation47029</t>
+  </si>
+  <si>
+    <t>examtakerautomation47029@gmail.com</t>
+  </si>
+  <si>
+    <t>47029</t>
+  </si>
+  <si>
+    <t>Examtaker52389</t>
+  </si>
+  <si>
+    <t>Automation52389</t>
+  </si>
+  <si>
+    <t>examtakerautomation52389@gmail.com</t>
+  </si>
+  <si>
+    <t>52389</t>
+  </si>
+  <si>
+    <t>Examtaker91601</t>
+  </si>
+  <si>
+    <t>Automation91601</t>
+  </si>
+  <si>
+    <t>examtakerautomation91601@gmail.com</t>
+  </si>
+  <si>
+    <t>91601</t>
+  </si>
+  <si>
+    <t>Examtaker17277</t>
+  </si>
+  <si>
+    <t>Automation17277</t>
+  </si>
+  <si>
+    <t>examtakerautomation17277@gmail.com</t>
+  </si>
+  <si>
+    <t>17277</t>
+  </si>
+  <si>
+    <t>Examtaker88290</t>
+  </si>
+  <si>
+    <t>Automation88290</t>
+  </si>
+  <si>
+    <t>examtakerautomation88290@gmail.com</t>
+  </si>
+  <si>
+    <t>88290</t>
+  </si>
+  <si>
+    <t>Examtaker01752</t>
+  </si>
+  <si>
+    <t>Automation01752</t>
+  </si>
+  <si>
+    <t>examtakerautomation01752@gmail.com</t>
+  </si>
+  <si>
+    <t>01752</t>
+  </si>
+  <si>
+    <t>Examtaker96061</t>
+  </si>
+  <si>
+    <t>Automation96061</t>
+  </si>
+  <si>
+    <t>examtakerautomation96061@gmail.com</t>
+  </si>
+  <si>
+    <t>96061</t>
+  </si>
+  <si>
+    <t>Examtaker68831</t>
+  </si>
+  <si>
+    <t>Automation68831</t>
+  </si>
+  <si>
+    <t>examtakerautomation68831@gmail.com</t>
+  </si>
+  <si>
+    <t>68831</t>
+  </si>
+  <si>
+    <t>Examtaker27007</t>
+  </si>
+  <si>
+    <t>Automation27007</t>
+  </si>
+  <si>
+    <t>examtakerautomation27007@gmail.com</t>
+  </si>
+  <si>
+    <t>27007</t>
+  </si>
+  <si>
+    <t>Examtaker80536</t>
+  </si>
+  <si>
+    <t>Automation80536</t>
+  </si>
+  <si>
+    <t>examtakerautomation80536@gmail.com</t>
+  </si>
+  <si>
+    <t>80536</t>
+  </si>
+  <si>
+    <t>Examtaker12821</t>
+  </si>
+  <si>
+    <t>Automation12821</t>
+  </si>
+  <si>
+    <t>examtakerautomation12821@gmail.com</t>
+  </si>
+  <si>
+    <t>12821</t>
+  </si>
+  <si>
+    <t>Examtaker29420</t>
+  </si>
+  <si>
+    <t>Automation29420</t>
+  </si>
+  <si>
+    <t>examtakerautomation29420@gmail.com</t>
+  </si>
+  <si>
+    <t>29420</t>
+  </si>
+  <si>
+    <t>Examtaker55203</t>
+  </si>
+  <si>
+    <t>Automation55203</t>
+  </si>
+  <si>
+    <t>examtakerautomation55203@gmail.com</t>
+  </si>
+  <si>
+    <t>55203</t>
+  </si>
+  <si>
+    <t>Examtaker17231</t>
+  </si>
+  <si>
+    <t>Automation17231</t>
+  </si>
+  <si>
+    <t>examtakerautomation17231@gmail.com</t>
+  </si>
+  <si>
+    <t>17231</t>
+  </si>
+  <si>
+    <t>Examtaker89423</t>
+  </si>
+  <si>
+    <t>Automation89423</t>
+  </si>
+  <si>
+    <t>examtakerautomation89423@gmail.com</t>
+  </si>
+  <si>
+    <t>89423</t>
+  </si>
+  <si>
+    <t>Examtaker45786</t>
+  </si>
+  <si>
+    <t>Automation45786</t>
+  </si>
+  <si>
+    <t>examtakerautomation45786@gmail.com</t>
+  </si>
+  <si>
+    <t>45786</t>
+  </si>
+  <si>
+    <t>Examtaker60848</t>
+  </si>
+  <si>
+    <t>Automation60848</t>
+  </si>
+  <si>
+    <t>examtakerautomation60848@gmail.com</t>
+  </si>
+  <si>
+    <t>60848</t>
+  </si>
+  <si>
+    <t>Examtaker69952</t>
+  </si>
+  <si>
+    <t>Automation69952</t>
+  </si>
+  <si>
+    <t>examtakerautomation69952@gmail.com</t>
+  </si>
+  <si>
+    <t>69952</t>
+  </si>
+  <si>
+    <t>Examtaker87207</t>
+  </si>
+  <si>
+    <t>Automation87207</t>
+  </si>
+  <si>
+    <t>examtakerautomation87207@gmail.com</t>
+  </si>
+  <si>
+    <t>87207</t>
+  </si>
+  <si>
+    <t>Examtaker37964</t>
+  </si>
+  <si>
+    <t>Automation37964</t>
+  </si>
+  <si>
+    <t>examtakerautomation37964@gmail.com</t>
+  </si>
+  <si>
+    <t>37964</t>
+  </si>
+  <si>
+    <t>Examtaker99522</t>
+  </si>
+  <si>
+    <t>Automation99522</t>
+  </si>
+  <si>
+    <t>examtakerautomation99522@gmail.com</t>
+  </si>
+  <si>
+    <t>99522</t>
+  </si>
+  <si>
+    <t>Examtaker25060</t>
+  </si>
+  <si>
+    <t>Automation25060</t>
+  </si>
+  <si>
+    <t>examtakerautomation25060@gmail.com</t>
+  </si>
+  <si>
+    <t>25060</t>
+  </si>
+  <si>
+    <t>Examtaker48410</t>
+  </si>
+  <si>
+    <t>Automation48410</t>
+  </si>
+  <si>
+    <t>examtakerautomation48410@gmail.com</t>
+  </si>
+  <si>
+    <t>48410</t>
+  </si>
+  <si>
+    <t>Examtaker75725</t>
+  </si>
+  <si>
+    <t>Automation75725</t>
+  </si>
+  <si>
+    <t>examtakerautomation75725@gmail.com</t>
+  </si>
+  <si>
+    <t>75725</t>
+  </si>
+  <si>
+    <t>Examtaker25261</t>
+  </si>
+  <si>
+    <t>Automation25261</t>
+  </si>
+  <si>
+    <t>examtakerautomation25261@gmail.com</t>
+  </si>
+  <si>
+    <t>25261</t>
+  </si>
+  <si>
+    <t>Examtaker38395</t>
+  </si>
+  <si>
+    <t>Automation38395</t>
+  </si>
+  <si>
+    <t>examtakerautomation38395@gmail.com</t>
+  </si>
+  <si>
+    <t>38395</t>
+  </si>
+  <si>
+    <t>Examtaker41459</t>
+  </si>
+  <si>
+    <t>Automation41459</t>
+  </si>
+  <si>
+    <t>examtakerautomation41459@gmail.com</t>
+  </si>
+  <si>
+    <t>41459</t>
+  </si>
+  <si>
+    <t>Examtaker05301</t>
+  </si>
+  <si>
+    <t>Automation05301</t>
+  </si>
+  <si>
+    <t>examtakerautomation05301@gmail.com</t>
+  </si>
+  <si>
+    <t>05301</t>
+  </si>
+  <si>
+    <t>Examtaker05597</t>
+  </si>
+  <si>
+    <t>Automation05597</t>
+  </si>
+  <si>
+    <t>examtakerautomation05597@gmail.com</t>
+  </si>
+  <si>
+    <t>05597</t>
   </si>
 </sst>
 </file>
@@ -10783,422 +11143,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3337</v>
+        <v>3453</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3338</v>
+        <v>3454</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3339</v>
+        <v>3455</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3340</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3341</v>
+        <v>3457</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3342</v>
+        <v>3458</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3343</v>
+        <v>3459</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3344</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3345</v>
+        <v>3461</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3346</v>
+        <v>3462</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3347</v>
+        <v>3463</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3348</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3349</v>
+        <v>3465</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3350</v>
+        <v>3466</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3351</v>
+        <v>3467</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3352</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3353</v>
+        <v>3469</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3354</v>
+        <v>3470</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3355</v>
+        <v>3471</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3356</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3357</v>
+        <v>3473</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3358</v>
+        <v>3474</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3359</v>
+        <v>3475</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3360</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3361</v>
+        <v>3477</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3362</v>
+        <v>3478</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3363</v>
+        <v>3479</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3364</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3365</v>
+        <v>3481</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3366</v>
+        <v>3482</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3367</v>
+        <v>3483</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3368</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3369</v>
+        <v>3485</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3370</v>
+        <v>3486</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3371</v>
+        <v>3487</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3372</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3373</v>
+        <v>3489</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3374</v>
+        <v>3490</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3375</v>
+        <v>3491</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3376</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3377</v>
+        <v>3493</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3378</v>
+        <v>3494</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3379</v>
+        <v>3495</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3380</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3381</v>
+        <v>3497</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3382</v>
+        <v>3498</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3383</v>
+        <v>3499</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3384</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3385</v>
+        <v>3501</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3386</v>
+        <v>3502</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3387</v>
+        <v>3503</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3388</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3389</v>
+        <v>3505</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3390</v>
+        <v>3506</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3391</v>
+        <v>3507</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3392</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3393</v>
+        <v>3509</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3394</v>
+        <v>3510</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3395</v>
+        <v>3511</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3396</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3397</v>
+        <v>3513</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3398</v>
+        <v>3514</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3399</v>
+        <v>3515</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3400</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3401</v>
+        <v>3517</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3402</v>
+        <v>3518</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3403</v>
+        <v>3519</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3404</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3405</v>
+        <v>3521</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3406</v>
+        <v>3522</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3407</v>
+        <v>3523</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3408</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3409</v>
+        <v>3525</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3410</v>
+        <v>3526</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3411</v>
+        <v>3527</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3412</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3413</v>
+        <v>3529</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3414</v>
+        <v>3530</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3415</v>
+        <v>3531</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3416</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3417</v>
+        <v>3533</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3418</v>
+        <v>3534</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3419</v>
+        <v>3535</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3420</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3421</v>
+        <v>3537</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3422</v>
+        <v>3538</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3423</v>
+        <v>3539</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3424</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3425</v>
+        <v>3541</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3426</v>
+        <v>3542</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3427</v>
+        <v>3543</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3428</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3429</v>
+        <v>3545</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3430</v>
+        <v>3546</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3431</v>
+        <v>3547</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3432</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>558</v>
+        <v>3549</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>559</v>
+        <v>3550</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>560</v>
+        <v>3551</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>561</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3433</v>
+        <v>3553</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3434</v>
+        <v>3554</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3435</v>
+        <v>3555</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3436</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3437</v>
+        <v>3557</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3438</v>
+        <v>3558</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3439</v>
+        <v>3559</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3440</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3441</v>
+        <v>3561</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3442</v>
+        <v>3562</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3443</v>
+        <v>3563</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3444</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3445</v>
+        <v>3565</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3446</v>
+        <v>3566</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3447</v>
+        <v>3567</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3448</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3449</v>
+        <v>3569</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3450</v>
+        <v>3570</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3451</v>
+        <v>3571</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3452</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="3573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="3693">
   <si>
     <t>FirstName</t>
   </si>
@@ -10733,6 +10733,366 @@
   </si>
   <si>
     <t>05597</t>
+  </si>
+  <si>
+    <t>Examtaker65159</t>
+  </si>
+  <si>
+    <t>Automation65159</t>
+  </si>
+  <si>
+    <t>examtakerautomation65159@gmail.com</t>
+  </si>
+  <si>
+    <t>65159</t>
+  </si>
+  <si>
+    <t>Examtaker85535</t>
+  </si>
+  <si>
+    <t>Automation85535</t>
+  </si>
+  <si>
+    <t>examtakerautomation85535@gmail.com</t>
+  </si>
+  <si>
+    <t>85535</t>
+  </si>
+  <si>
+    <t>Examtaker29022</t>
+  </si>
+  <si>
+    <t>Automation29022</t>
+  </si>
+  <si>
+    <t>examtakerautomation29022@gmail.com</t>
+  </si>
+  <si>
+    <t>29022</t>
+  </si>
+  <si>
+    <t>Examtaker05004</t>
+  </si>
+  <si>
+    <t>Automation05004</t>
+  </si>
+  <si>
+    <t>examtakerautomation05004@gmail.com</t>
+  </si>
+  <si>
+    <t>05004</t>
+  </si>
+  <si>
+    <t>Examtaker00145</t>
+  </si>
+  <si>
+    <t>Automation00145</t>
+  </si>
+  <si>
+    <t>examtakerautomation00145@gmail.com</t>
+  </si>
+  <si>
+    <t>00145</t>
+  </si>
+  <si>
+    <t>Examtaker47976</t>
+  </si>
+  <si>
+    <t>Automation47976</t>
+  </si>
+  <si>
+    <t>examtakerautomation47976@gmail.com</t>
+  </si>
+  <si>
+    <t>47976</t>
+  </si>
+  <si>
+    <t>Examtaker96752</t>
+  </si>
+  <si>
+    <t>Automation96752</t>
+  </si>
+  <si>
+    <t>examtakerautomation96752@gmail.com</t>
+  </si>
+  <si>
+    <t>96752</t>
+  </si>
+  <si>
+    <t>Examtaker92257</t>
+  </si>
+  <si>
+    <t>Automation92257</t>
+  </si>
+  <si>
+    <t>examtakerautomation92257@gmail.com</t>
+  </si>
+  <si>
+    <t>92257</t>
+  </si>
+  <si>
+    <t>Examtaker85543</t>
+  </si>
+  <si>
+    <t>Automation85543</t>
+  </si>
+  <si>
+    <t>examtakerautomation85543@gmail.com</t>
+  </si>
+  <si>
+    <t>85543</t>
+  </si>
+  <si>
+    <t>Examtaker48447</t>
+  </si>
+  <si>
+    <t>Automation48447</t>
+  </si>
+  <si>
+    <t>examtakerautomation48447@gmail.com</t>
+  </si>
+  <si>
+    <t>48447</t>
+  </si>
+  <si>
+    <t>Examtaker90741</t>
+  </si>
+  <si>
+    <t>Automation90741</t>
+  </si>
+  <si>
+    <t>examtakerautomation90741@gmail.com</t>
+  </si>
+  <si>
+    <t>90741</t>
+  </si>
+  <si>
+    <t>Examtaker05783</t>
+  </si>
+  <si>
+    <t>Automation05783</t>
+  </si>
+  <si>
+    <t>examtakerautomation05783@gmail.com</t>
+  </si>
+  <si>
+    <t>05783</t>
+  </si>
+  <si>
+    <t>Examtaker97815</t>
+  </si>
+  <si>
+    <t>Automation97815</t>
+  </si>
+  <si>
+    <t>examtakerautomation97815@gmail.com</t>
+  </si>
+  <si>
+    <t>97815</t>
+  </si>
+  <si>
+    <t>Examtaker95895</t>
+  </si>
+  <si>
+    <t>Automation95895</t>
+  </si>
+  <si>
+    <t>examtakerautomation95895@gmail.com</t>
+  </si>
+  <si>
+    <t>95895</t>
+  </si>
+  <si>
+    <t>Examtaker63067</t>
+  </si>
+  <si>
+    <t>Automation63067</t>
+  </si>
+  <si>
+    <t>examtakerautomation63067@gmail.com</t>
+  </si>
+  <si>
+    <t>63067</t>
+  </si>
+  <si>
+    <t>Examtaker71891</t>
+  </si>
+  <si>
+    <t>Automation71891</t>
+  </si>
+  <si>
+    <t>examtakerautomation71891@gmail.com</t>
+  </si>
+  <si>
+    <t>71891</t>
+  </si>
+  <si>
+    <t>Examtaker07740</t>
+  </si>
+  <si>
+    <t>Automation07740</t>
+  </si>
+  <si>
+    <t>examtakerautomation07740@gmail.com</t>
+  </si>
+  <si>
+    <t>07740</t>
+  </si>
+  <si>
+    <t>Examtaker22167</t>
+  </si>
+  <si>
+    <t>Automation22167</t>
+  </si>
+  <si>
+    <t>examtakerautomation22167@gmail.com</t>
+  </si>
+  <si>
+    <t>22167</t>
+  </si>
+  <si>
+    <t>Examtaker55609</t>
+  </si>
+  <si>
+    <t>Automation55609</t>
+  </si>
+  <si>
+    <t>examtakerautomation55609@gmail.com</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>Examtaker48696</t>
+  </si>
+  <si>
+    <t>Automation48696</t>
+  </si>
+  <si>
+    <t>examtakerautomation48696@gmail.com</t>
+  </si>
+  <si>
+    <t>48696</t>
+  </si>
+  <si>
+    <t>Examtaker51817</t>
+  </si>
+  <si>
+    <t>Automation51817</t>
+  </si>
+  <si>
+    <t>examtakerautomation51817@gmail.com</t>
+  </si>
+  <si>
+    <t>51817</t>
+  </si>
+  <si>
+    <t>Examtaker87469</t>
+  </si>
+  <si>
+    <t>Automation87469</t>
+  </si>
+  <si>
+    <t>examtakerautomation87469@gmail.com</t>
+  </si>
+  <si>
+    <t>87469</t>
+  </si>
+  <si>
+    <t>Examtaker83629</t>
+  </si>
+  <si>
+    <t>Automation83629</t>
+  </si>
+  <si>
+    <t>examtakerautomation83629@gmail.com</t>
+  </si>
+  <si>
+    <t>83629</t>
+  </si>
+  <si>
+    <t>Examtaker91690</t>
+  </si>
+  <si>
+    <t>Automation91690</t>
+  </si>
+  <si>
+    <t>examtakerautomation91690@gmail.com</t>
+  </si>
+  <si>
+    <t>91690</t>
+  </si>
+  <si>
+    <t>Examtaker14738</t>
+  </si>
+  <si>
+    <t>Automation14738</t>
+  </si>
+  <si>
+    <t>examtakerautomation14738@gmail.com</t>
+  </si>
+  <si>
+    <t>14738</t>
+  </si>
+  <si>
+    <t>Examtaker95170</t>
+  </si>
+  <si>
+    <t>Automation95170</t>
+  </si>
+  <si>
+    <t>examtakerautomation95170@gmail.com</t>
+  </si>
+  <si>
+    <t>95170</t>
+  </si>
+  <si>
+    <t>Examtaker97395</t>
+  </si>
+  <si>
+    <t>Automation97395</t>
+  </si>
+  <si>
+    <t>examtakerautomation97395@gmail.com</t>
+  </si>
+  <si>
+    <t>97395</t>
+  </si>
+  <si>
+    <t>Examtaker87574</t>
+  </si>
+  <si>
+    <t>Automation87574</t>
+  </si>
+  <si>
+    <t>examtakerautomation87574@gmail.com</t>
+  </si>
+  <si>
+    <t>87574</t>
+  </si>
+  <si>
+    <t>Examtaker45284</t>
+  </si>
+  <si>
+    <t>Automation45284</t>
+  </si>
+  <si>
+    <t>examtakerautomation45284@gmail.com</t>
+  </si>
+  <si>
+    <t>45284</t>
+  </si>
+  <si>
+    <t>Examtaker09320</t>
+  </si>
+  <si>
+    <t>Automation09320</t>
+  </si>
+  <si>
+    <t>examtakerautomation09320@gmail.com</t>
+  </si>
+  <si>
+    <t>09320</t>
   </si>
 </sst>
 </file>
@@ -11143,422 +11503,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3453</v>
+        <v>3573</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3454</v>
+        <v>3574</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3455</v>
+        <v>3575</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3456</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3457</v>
+        <v>3577</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3458</v>
+        <v>3578</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3459</v>
+        <v>3579</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3460</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3461</v>
+        <v>3581</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3462</v>
+        <v>3582</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3463</v>
+        <v>3583</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3464</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3465</v>
+        <v>3585</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3466</v>
+        <v>3586</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3467</v>
+        <v>3587</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3468</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3469</v>
+        <v>3589</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3470</v>
+        <v>3590</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3471</v>
+        <v>3591</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3472</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3473</v>
+        <v>3593</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3474</v>
+        <v>3594</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3475</v>
+        <v>3595</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3476</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3477</v>
+        <v>3597</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3478</v>
+        <v>3598</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3479</v>
+        <v>3599</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3480</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3481</v>
+        <v>3601</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3482</v>
+        <v>3602</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3483</v>
+        <v>3603</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3484</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3485</v>
+        <v>3605</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3486</v>
+        <v>3606</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3487</v>
+        <v>3607</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3488</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3489</v>
+        <v>3609</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3490</v>
+        <v>3610</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3491</v>
+        <v>3611</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3492</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3493</v>
+        <v>3613</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3494</v>
+        <v>3614</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3495</v>
+        <v>3615</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3496</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3497</v>
+        <v>3617</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3498</v>
+        <v>3618</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3499</v>
+        <v>3619</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3500</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3501</v>
+        <v>3621</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3502</v>
+        <v>3622</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3503</v>
+        <v>3623</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3504</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3505</v>
+        <v>3625</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3506</v>
+        <v>3626</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3507</v>
+        <v>3627</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3508</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3509</v>
+        <v>3629</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3510</v>
+        <v>3630</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3511</v>
+        <v>3631</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3512</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3513</v>
+        <v>3633</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3514</v>
+        <v>3634</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3515</v>
+        <v>3635</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3516</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3517</v>
+        <v>3637</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3518</v>
+        <v>3638</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3519</v>
+        <v>3639</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3520</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3521</v>
+        <v>3641</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3522</v>
+        <v>3642</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3523</v>
+        <v>3643</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3524</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3525</v>
+        <v>3645</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3526</v>
+        <v>3646</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3527</v>
+        <v>3647</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3528</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3529</v>
+        <v>3649</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3530</v>
+        <v>3650</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3531</v>
+        <v>3651</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3532</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3533</v>
+        <v>3653</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3534</v>
+        <v>3654</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3535</v>
+        <v>3655</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3536</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3537</v>
+        <v>3657</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3538</v>
+        <v>3658</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3539</v>
+        <v>3659</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3540</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3541</v>
+        <v>3661</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3543</v>
+        <v>3663</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3544</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3545</v>
+        <v>3665</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3546</v>
+        <v>3666</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3547</v>
+        <v>3667</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3548</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3549</v>
+        <v>3669</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3550</v>
+        <v>3670</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3551</v>
+        <v>3671</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3552</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3553</v>
+        <v>3673</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3554</v>
+        <v>3674</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3555</v>
+        <v>3675</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3556</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3557</v>
+        <v>3677</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3558</v>
+        <v>3678</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3559</v>
+        <v>3679</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3560</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3561</v>
+        <v>3681</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3562</v>
+        <v>3682</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3563</v>
+        <v>3683</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3564</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3565</v>
+        <v>3685</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3566</v>
+        <v>3686</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3567</v>
+        <v>3687</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3568</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3569</v>
+        <v>3689</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3570</v>
+        <v>3690</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3571</v>
+        <v>3691</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3572</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="3693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="4525">
   <si>
     <t>FirstName</t>
   </si>
@@ -11093,6 +11093,2502 @@
   </si>
   <si>
     <t>09320</t>
+  </si>
+  <si>
+    <t>Examtaker32428</t>
+  </si>
+  <si>
+    <t>Automation32428</t>
+  </si>
+  <si>
+    <t>examtakerautomation32428@gmail.com</t>
+  </si>
+  <si>
+    <t>32428</t>
+  </si>
+  <si>
+    <t>Examtaker03229</t>
+  </si>
+  <si>
+    <t>Automation03229</t>
+  </si>
+  <si>
+    <t>examtakerautomation03229@gmail.com</t>
+  </si>
+  <si>
+    <t>03229</t>
+  </si>
+  <si>
+    <t>Examtaker04099</t>
+  </si>
+  <si>
+    <t>Automation04099</t>
+  </si>
+  <si>
+    <t>examtakerautomation04099@gmail.com</t>
+  </si>
+  <si>
+    <t>04099</t>
+  </si>
+  <si>
+    <t>Examtaker70117</t>
+  </si>
+  <si>
+    <t>Automation70117</t>
+  </si>
+  <si>
+    <t>examtakerautomation70117@gmail.com</t>
+  </si>
+  <si>
+    <t>70117</t>
+  </si>
+  <si>
+    <t>Examtaker93501</t>
+  </si>
+  <si>
+    <t>Automation93501</t>
+  </si>
+  <si>
+    <t>examtakerautomation93501@gmail.com</t>
+  </si>
+  <si>
+    <t>93501</t>
+  </si>
+  <si>
+    <t>Examtaker54822</t>
+  </si>
+  <si>
+    <t>Automation54822</t>
+  </si>
+  <si>
+    <t>examtakerautomation54822@gmail.com</t>
+  </si>
+  <si>
+    <t>54822</t>
+  </si>
+  <si>
+    <t>Examtaker01297</t>
+  </si>
+  <si>
+    <t>Automation01297</t>
+  </si>
+  <si>
+    <t>examtakerautomation01297@gmail.com</t>
+  </si>
+  <si>
+    <t>01297</t>
+  </si>
+  <si>
+    <t>Examtaker35092</t>
+  </si>
+  <si>
+    <t>Automation35092</t>
+  </si>
+  <si>
+    <t>examtakerautomation35092@gmail.com</t>
+  </si>
+  <si>
+    <t>35092</t>
+  </si>
+  <si>
+    <t>Examtaker08890</t>
+  </si>
+  <si>
+    <t>Automation08890</t>
+  </si>
+  <si>
+    <t>examtakerautomation08890@gmail.com</t>
+  </si>
+  <si>
+    <t>08890</t>
+  </si>
+  <si>
+    <t>Examtaker80651</t>
+  </si>
+  <si>
+    <t>Automation80651</t>
+  </si>
+  <si>
+    <t>examtakerautomation80651@gmail.com</t>
+  </si>
+  <si>
+    <t>80651</t>
+  </si>
+  <si>
+    <t>Examtaker01039</t>
+  </si>
+  <si>
+    <t>Automation01039</t>
+  </si>
+  <si>
+    <t>examtakerautomation01039@gmail.com</t>
+  </si>
+  <si>
+    <t>01039</t>
+  </si>
+  <si>
+    <t>Examtaker68026</t>
+  </si>
+  <si>
+    <t>Automation68026</t>
+  </si>
+  <si>
+    <t>examtakerautomation68026@gmail.com</t>
+  </si>
+  <si>
+    <t>68026</t>
+  </si>
+  <si>
+    <t>Examtaker29276</t>
+  </si>
+  <si>
+    <t>Automation29276</t>
+  </si>
+  <si>
+    <t>examtakerautomation29276@gmail.com</t>
+  </si>
+  <si>
+    <t>29276</t>
+  </si>
+  <si>
+    <t>Examtaker10855</t>
+  </si>
+  <si>
+    <t>Automation10855</t>
+  </si>
+  <si>
+    <t>examtakerautomation10855@gmail.com</t>
+  </si>
+  <si>
+    <t>10855</t>
+  </si>
+  <si>
+    <t>Examtaker14757</t>
+  </si>
+  <si>
+    <t>Automation14757</t>
+  </si>
+  <si>
+    <t>examtakerautomation14757@gmail.com</t>
+  </si>
+  <si>
+    <t>14757</t>
+  </si>
+  <si>
+    <t>Examtaker80913</t>
+  </si>
+  <si>
+    <t>Automation80913</t>
+  </si>
+  <si>
+    <t>examtakerautomation80913@gmail.com</t>
+  </si>
+  <si>
+    <t>80913</t>
+  </si>
+  <si>
+    <t>Examtaker06676</t>
+  </si>
+  <si>
+    <t>Automation06676</t>
+  </si>
+  <si>
+    <t>examtakerautomation06676@gmail.com</t>
+  </si>
+  <si>
+    <t>06676</t>
+  </si>
+  <si>
+    <t>Examtaker90125</t>
+  </si>
+  <si>
+    <t>Automation90125</t>
+  </si>
+  <si>
+    <t>examtakerautomation90125@gmail.com</t>
+  </si>
+  <si>
+    <t>90125</t>
+  </si>
+  <si>
+    <t>Examtaker30245</t>
+  </si>
+  <si>
+    <t>Automation30245</t>
+  </si>
+  <si>
+    <t>examtakerautomation30245@gmail.com</t>
+  </si>
+  <si>
+    <t>30245</t>
+  </si>
+  <si>
+    <t>Examtaker57806</t>
+  </si>
+  <si>
+    <t>Automation57806</t>
+  </si>
+  <si>
+    <t>examtakerautomation57806@gmail.com</t>
+  </si>
+  <si>
+    <t>57806</t>
+  </si>
+  <si>
+    <t>Examtaker07276</t>
+  </si>
+  <si>
+    <t>Automation07276</t>
+  </si>
+  <si>
+    <t>examtakerautomation07276@gmail.com</t>
+  </si>
+  <si>
+    <t>07276</t>
+  </si>
+  <si>
+    <t>Examtaker95578</t>
+  </si>
+  <si>
+    <t>Automation95578</t>
+  </si>
+  <si>
+    <t>examtakerautomation95578@gmail.com</t>
+  </si>
+  <si>
+    <t>95578</t>
+  </si>
+  <si>
+    <t>Examtaker51384</t>
+  </si>
+  <si>
+    <t>Automation51384</t>
+  </si>
+  <si>
+    <t>examtakerautomation51384@gmail.com</t>
+  </si>
+  <si>
+    <t>51384</t>
+  </si>
+  <si>
+    <t>Examtaker97353</t>
+  </si>
+  <si>
+    <t>Automation97353</t>
+  </si>
+  <si>
+    <t>examtakerautomation97353@gmail.com</t>
+  </si>
+  <si>
+    <t>97353</t>
+  </si>
+  <si>
+    <t>Examtaker07422</t>
+  </si>
+  <si>
+    <t>Automation07422</t>
+  </si>
+  <si>
+    <t>examtakerautomation07422@gmail.com</t>
+  </si>
+  <si>
+    <t>07422</t>
+  </si>
+  <si>
+    <t>Examtaker55923</t>
+  </si>
+  <si>
+    <t>Automation55923</t>
+  </si>
+  <si>
+    <t>examtakerautomation55923@gmail.com</t>
+  </si>
+  <si>
+    <t>55923</t>
+  </si>
+  <si>
+    <t>Examtaker36336</t>
+  </si>
+  <si>
+    <t>Automation36336</t>
+  </si>
+  <si>
+    <t>examtakerautomation36336@gmail.com</t>
+  </si>
+  <si>
+    <t>36336</t>
+  </si>
+  <si>
+    <t>Examtaker19879</t>
+  </si>
+  <si>
+    <t>Automation19879</t>
+  </si>
+  <si>
+    <t>examtakerautomation19879@gmail.com</t>
+  </si>
+  <si>
+    <t>19879</t>
+  </si>
+  <si>
+    <t>Examtaker03743</t>
+  </si>
+  <si>
+    <t>Automation03743</t>
+  </si>
+  <si>
+    <t>examtakerautomation03743@gmail.com</t>
+  </si>
+  <si>
+    <t>03743</t>
+  </si>
+  <si>
+    <t>Examtaker28038</t>
+  </si>
+  <si>
+    <t>Automation28038</t>
+  </si>
+  <si>
+    <t>examtakerautomation28038@gmail.com</t>
+  </si>
+  <si>
+    <t>28038</t>
+  </si>
+  <si>
+    <t>Examtaker42836</t>
+  </si>
+  <si>
+    <t>Automation42836</t>
+  </si>
+  <si>
+    <t>examtakerautomation42836@gmail.com</t>
+  </si>
+  <si>
+    <t>42836</t>
+  </si>
+  <si>
+    <t>Examtaker40554</t>
+  </si>
+  <si>
+    <t>Automation40554</t>
+  </si>
+  <si>
+    <t>examtakerautomation40554@gmail.com</t>
+  </si>
+  <si>
+    <t>40554</t>
+  </si>
+  <si>
+    <t>Examtaker15151</t>
+  </si>
+  <si>
+    <t>Automation15151</t>
+  </si>
+  <si>
+    <t>examtakerautomation15151@gmail.com</t>
+  </si>
+  <si>
+    <t>15151</t>
+  </si>
+  <si>
+    <t>Examtaker12526</t>
+  </si>
+  <si>
+    <t>Automation12526</t>
+  </si>
+  <si>
+    <t>examtakerautomation12526@gmail.com</t>
+  </si>
+  <si>
+    <t>12526</t>
+  </si>
+  <si>
+    <t>Examtaker83593</t>
+  </si>
+  <si>
+    <t>Automation83593</t>
+  </si>
+  <si>
+    <t>examtakerautomation83593@gmail.com</t>
+  </si>
+  <si>
+    <t>83593</t>
+  </si>
+  <si>
+    <t>Examtaker05183</t>
+  </si>
+  <si>
+    <t>Automation05183</t>
+  </si>
+  <si>
+    <t>examtakerautomation05183@gmail.com</t>
+  </si>
+  <si>
+    <t>05183</t>
+  </si>
+  <si>
+    <t>Examtaker42589</t>
+  </si>
+  <si>
+    <t>Automation42589</t>
+  </si>
+  <si>
+    <t>examtakerautomation42589@gmail.com</t>
+  </si>
+  <si>
+    <t>42589</t>
+  </si>
+  <si>
+    <t>Examtaker63694</t>
+  </si>
+  <si>
+    <t>Automation63694</t>
+  </si>
+  <si>
+    <t>examtakerautomation63694@gmail.com</t>
+  </si>
+  <si>
+    <t>63694</t>
+  </si>
+  <si>
+    <t>Examtaker55224</t>
+  </si>
+  <si>
+    <t>Automation55224</t>
+  </si>
+  <si>
+    <t>examtakerautomation55224@gmail.com</t>
+  </si>
+  <si>
+    <t>55224</t>
+  </si>
+  <si>
+    <t>Examtaker16292</t>
+  </si>
+  <si>
+    <t>Automation16292</t>
+  </si>
+  <si>
+    <t>examtakerautomation16292@gmail.com</t>
+  </si>
+  <si>
+    <t>16292</t>
+  </si>
+  <si>
+    <t>Examtaker39679</t>
+  </si>
+  <si>
+    <t>Automation39679</t>
+  </si>
+  <si>
+    <t>examtakerautomation39679@gmail.com</t>
+  </si>
+  <si>
+    <t>39679</t>
+  </si>
+  <si>
+    <t>Examtaker37201</t>
+  </si>
+  <si>
+    <t>Automation37201</t>
+  </si>
+  <si>
+    <t>examtakerautomation37201@gmail.com</t>
+  </si>
+  <si>
+    <t>37201</t>
+  </si>
+  <si>
+    <t>Examtaker74152</t>
+  </si>
+  <si>
+    <t>Automation74152</t>
+  </si>
+  <si>
+    <t>examtakerautomation74152@gmail.com</t>
+  </si>
+  <si>
+    <t>74152</t>
+  </si>
+  <si>
+    <t>Examtaker81886</t>
+  </si>
+  <si>
+    <t>Automation81886</t>
+  </si>
+  <si>
+    <t>examtakerautomation81886@gmail.com</t>
+  </si>
+  <si>
+    <t>81886</t>
+  </si>
+  <si>
+    <t>Examtaker28060</t>
+  </si>
+  <si>
+    <t>Automation28060</t>
+  </si>
+  <si>
+    <t>examtakerautomation28060@gmail.com</t>
+  </si>
+  <si>
+    <t>28060</t>
+  </si>
+  <si>
+    <t>Examtaker21476</t>
+  </si>
+  <si>
+    <t>Automation21476</t>
+  </si>
+  <si>
+    <t>examtakerautomation21476@gmail.com</t>
+  </si>
+  <si>
+    <t>21476</t>
+  </si>
+  <si>
+    <t>Examtaker77911</t>
+  </si>
+  <si>
+    <t>Automation77911</t>
+  </si>
+  <si>
+    <t>examtakerautomation77911@gmail.com</t>
+  </si>
+  <si>
+    <t>77911</t>
+  </si>
+  <si>
+    <t>Examtaker83422</t>
+  </si>
+  <si>
+    <t>Automation83422</t>
+  </si>
+  <si>
+    <t>examtakerautomation83422@gmail.com</t>
+  </si>
+  <si>
+    <t>83422</t>
+  </si>
+  <si>
+    <t>Examtaker64866</t>
+  </si>
+  <si>
+    <t>Automation64866</t>
+  </si>
+  <si>
+    <t>examtakerautomation64866@gmail.com</t>
+  </si>
+  <si>
+    <t>64866</t>
+  </si>
+  <si>
+    <t>Examtaker18331</t>
+  </si>
+  <si>
+    <t>Automation18331</t>
+  </si>
+  <si>
+    <t>examtakerautomation18331@gmail.com</t>
+  </si>
+  <si>
+    <t>18331</t>
+  </si>
+  <si>
+    <t>Examtaker92083</t>
+  </si>
+  <si>
+    <t>Automation92083</t>
+  </si>
+  <si>
+    <t>examtakerautomation92083@gmail.com</t>
+  </si>
+  <si>
+    <t>92083</t>
+  </si>
+  <si>
+    <t>Examtaker08292</t>
+  </si>
+  <si>
+    <t>Automation08292</t>
+  </si>
+  <si>
+    <t>examtakerautomation08292@gmail.com</t>
+  </si>
+  <si>
+    <t>08292</t>
+  </si>
+  <si>
+    <t>Examtaker92618</t>
+  </si>
+  <si>
+    <t>Automation92618</t>
+  </si>
+  <si>
+    <t>examtakerautomation92618@gmail.com</t>
+  </si>
+  <si>
+    <t>92618</t>
+  </si>
+  <si>
+    <t>Examtaker39010</t>
+  </si>
+  <si>
+    <t>Automation39010</t>
+  </si>
+  <si>
+    <t>examtakerautomation39010@gmail.com</t>
+  </si>
+  <si>
+    <t>39010</t>
+  </si>
+  <si>
+    <t>Examtaker54047</t>
+  </si>
+  <si>
+    <t>Automation54047</t>
+  </si>
+  <si>
+    <t>examtakerautomation54047@gmail.com</t>
+  </si>
+  <si>
+    <t>54047</t>
+  </si>
+  <si>
+    <t>Examtaker77724</t>
+  </si>
+  <si>
+    <t>Automation77724</t>
+  </si>
+  <si>
+    <t>examtakerautomation77724@gmail.com</t>
+  </si>
+  <si>
+    <t>77724</t>
+  </si>
+  <si>
+    <t>Examtaker71124</t>
+  </si>
+  <si>
+    <t>Automation71124</t>
+  </si>
+  <si>
+    <t>examtakerautomation71124@gmail.com</t>
+  </si>
+  <si>
+    <t>71124</t>
+  </si>
+  <si>
+    <t>Examtaker71533</t>
+  </si>
+  <si>
+    <t>Automation71533</t>
+  </si>
+  <si>
+    <t>examtakerautomation71533@gmail.com</t>
+  </si>
+  <si>
+    <t>71533</t>
+  </si>
+  <si>
+    <t>Examtaker87380</t>
+  </si>
+  <si>
+    <t>Automation87380</t>
+  </si>
+  <si>
+    <t>examtakerautomation87380@gmail.com</t>
+  </si>
+  <si>
+    <t>87380</t>
+  </si>
+  <si>
+    <t>Examtaker67856</t>
+  </si>
+  <si>
+    <t>Automation67856</t>
+  </si>
+  <si>
+    <t>examtakerautomation67856@gmail.com</t>
+  </si>
+  <si>
+    <t>67856</t>
+  </si>
+  <si>
+    <t>Examtaker14216</t>
+  </si>
+  <si>
+    <t>Automation14216</t>
+  </si>
+  <si>
+    <t>examtakerautomation14216@gmail.com</t>
+  </si>
+  <si>
+    <t>14216</t>
+  </si>
+  <si>
+    <t>Examtaker50793</t>
+  </si>
+  <si>
+    <t>Automation50793</t>
+  </si>
+  <si>
+    <t>examtakerautomation50793@gmail.com</t>
+  </si>
+  <si>
+    <t>50793</t>
+  </si>
+  <si>
+    <t>Examtaker70956</t>
+  </si>
+  <si>
+    <t>Automation70956</t>
+  </si>
+  <si>
+    <t>examtakerautomation70956@gmail.com</t>
+  </si>
+  <si>
+    <t>70956</t>
+  </si>
+  <si>
+    <t>Examtaker73523</t>
+  </si>
+  <si>
+    <t>Automation73523</t>
+  </si>
+  <si>
+    <t>examtakerautomation73523@gmail.com</t>
+  </si>
+  <si>
+    <t>73523</t>
+  </si>
+  <si>
+    <t>Examtaker97978</t>
+  </si>
+  <si>
+    <t>Automation97978</t>
+  </si>
+  <si>
+    <t>examtakerautomation97978@gmail.com</t>
+  </si>
+  <si>
+    <t>97978</t>
+  </si>
+  <si>
+    <t>Examtaker96903</t>
+  </si>
+  <si>
+    <t>Automation96903</t>
+  </si>
+  <si>
+    <t>examtakerautomation96903@gmail.com</t>
+  </si>
+  <si>
+    <t>96903</t>
+  </si>
+  <si>
+    <t>Examtaker01982</t>
+  </si>
+  <si>
+    <t>Automation01982</t>
+  </si>
+  <si>
+    <t>examtakerautomation01982@gmail.com</t>
+  </si>
+  <si>
+    <t>01982</t>
+  </si>
+  <si>
+    <t>Examtaker82899</t>
+  </si>
+  <si>
+    <t>Automation82899</t>
+  </si>
+  <si>
+    <t>examtakerautomation82899@gmail.com</t>
+  </si>
+  <si>
+    <t>82899</t>
+  </si>
+  <si>
+    <t>Examtaker15083</t>
+  </si>
+  <si>
+    <t>Automation15083</t>
+  </si>
+  <si>
+    <t>examtakerautomation15083@gmail.com</t>
+  </si>
+  <si>
+    <t>15083</t>
+  </si>
+  <si>
+    <t>Examtaker72814</t>
+  </si>
+  <si>
+    <t>Automation72814</t>
+  </si>
+  <si>
+    <t>examtakerautomation72814@gmail.com</t>
+  </si>
+  <si>
+    <t>72814</t>
+  </si>
+  <si>
+    <t>Examtaker98416</t>
+  </si>
+  <si>
+    <t>Automation98416</t>
+  </si>
+  <si>
+    <t>examtakerautomation98416@gmail.com</t>
+  </si>
+  <si>
+    <t>98416</t>
+  </si>
+  <si>
+    <t>Examtaker76748</t>
+  </si>
+  <si>
+    <t>Automation76748</t>
+  </si>
+  <si>
+    <t>examtakerautomation76748@gmail.com</t>
+  </si>
+  <si>
+    <t>76748</t>
+  </si>
+  <si>
+    <t>Examtaker45936</t>
+  </si>
+  <si>
+    <t>Automation45936</t>
+  </si>
+  <si>
+    <t>examtakerautomation45936@gmail.com</t>
+  </si>
+  <si>
+    <t>45936</t>
+  </si>
+  <si>
+    <t>Examtaker89424</t>
+  </si>
+  <si>
+    <t>Automation89424</t>
+  </si>
+  <si>
+    <t>examtakerautomation89424@gmail.com</t>
+  </si>
+  <si>
+    <t>89424</t>
+  </si>
+  <si>
+    <t>Examtaker82881</t>
+  </si>
+  <si>
+    <t>Automation82881</t>
+  </si>
+  <si>
+    <t>examtakerautomation82881@gmail.com</t>
+  </si>
+  <si>
+    <t>82881</t>
+  </si>
+  <si>
+    <t>Examtaker07127</t>
+  </si>
+  <si>
+    <t>Automation07127</t>
+  </si>
+  <si>
+    <t>examtakerautomation07127@gmail.com</t>
+  </si>
+  <si>
+    <t>07127</t>
+  </si>
+  <si>
+    <t>Examtaker96271</t>
+  </si>
+  <si>
+    <t>Automation96271</t>
+  </si>
+  <si>
+    <t>examtakerautomation96271@gmail.com</t>
+  </si>
+  <si>
+    <t>96271</t>
+  </si>
+  <si>
+    <t>Examtaker37690</t>
+  </si>
+  <si>
+    <t>Automation37690</t>
+  </si>
+  <si>
+    <t>examtakerautomation37690@gmail.com</t>
+  </si>
+  <si>
+    <t>37690</t>
+  </si>
+  <si>
+    <t>Examtaker11722</t>
+  </si>
+  <si>
+    <t>Automation11722</t>
+  </si>
+  <si>
+    <t>examtakerautomation11722@gmail.com</t>
+  </si>
+  <si>
+    <t>11722</t>
+  </si>
+  <si>
+    <t>Examtaker71165</t>
+  </si>
+  <si>
+    <t>Automation71165</t>
+  </si>
+  <si>
+    <t>examtakerautomation71165@gmail.com</t>
+  </si>
+  <si>
+    <t>71165</t>
+  </si>
+  <si>
+    <t>Examtaker20175</t>
+  </si>
+  <si>
+    <t>Automation20175</t>
+  </si>
+  <si>
+    <t>examtakerautomation20175@gmail.com</t>
+  </si>
+  <si>
+    <t>20175</t>
+  </si>
+  <si>
+    <t>Examtaker69473</t>
+  </si>
+  <si>
+    <t>Automation69473</t>
+  </si>
+  <si>
+    <t>examtakerautomation69473@gmail.com</t>
+  </si>
+  <si>
+    <t>69473</t>
+  </si>
+  <si>
+    <t>Examtaker32849</t>
+  </si>
+  <si>
+    <t>Automation32849</t>
+  </si>
+  <si>
+    <t>examtakerautomation32849@gmail.com</t>
+  </si>
+  <si>
+    <t>32849</t>
+  </si>
+  <si>
+    <t>Examtaker30528</t>
+  </si>
+  <si>
+    <t>Automation30528</t>
+  </si>
+  <si>
+    <t>examtakerautomation30528@gmail.com</t>
+  </si>
+  <si>
+    <t>30528</t>
+  </si>
+  <si>
+    <t>Examtaker24284</t>
+  </si>
+  <si>
+    <t>Automation24284</t>
+  </si>
+  <si>
+    <t>examtakerautomation24284@gmail.com</t>
+  </si>
+  <si>
+    <t>24284</t>
+  </si>
+  <si>
+    <t>Examtaker26784</t>
+  </si>
+  <si>
+    <t>Automation26784</t>
+  </si>
+  <si>
+    <t>examtakerautomation26784@gmail.com</t>
+  </si>
+  <si>
+    <t>26784</t>
+  </si>
+  <si>
+    <t>Examtaker56358</t>
+  </si>
+  <si>
+    <t>Automation56358</t>
+  </si>
+  <si>
+    <t>examtakerautomation56358@gmail.com</t>
+  </si>
+  <si>
+    <t>56358</t>
+  </si>
+  <si>
+    <t>Examtaker82968</t>
+  </si>
+  <si>
+    <t>Automation82968</t>
+  </si>
+  <si>
+    <t>examtakerautomation82968@gmail.com</t>
+  </si>
+  <si>
+    <t>82968</t>
+  </si>
+  <si>
+    <t>Examtaker08308</t>
+  </si>
+  <si>
+    <t>Automation08308</t>
+  </si>
+  <si>
+    <t>examtakerautomation08308@gmail.com</t>
+  </si>
+  <si>
+    <t>08308</t>
+  </si>
+  <si>
+    <t>Examtaker23865</t>
+  </si>
+  <si>
+    <t>Automation23865</t>
+  </si>
+  <si>
+    <t>examtakerautomation23865@gmail.com</t>
+  </si>
+  <si>
+    <t>23865</t>
+  </si>
+  <si>
+    <t>Examtaker02095</t>
+  </si>
+  <si>
+    <t>Automation02095</t>
+  </si>
+  <si>
+    <t>examtakerautomation02095@gmail.com</t>
+  </si>
+  <si>
+    <t>02095</t>
+  </si>
+  <si>
+    <t>Examtaker23407</t>
+  </si>
+  <si>
+    <t>Automation23407</t>
+  </si>
+  <si>
+    <t>examtakerautomation23407@gmail.com</t>
+  </si>
+  <si>
+    <t>23407</t>
+  </si>
+  <si>
+    <t>Examtaker44349</t>
+  </si>
+  <si>
+    <t>Automation44349</t>
+  </si>
+  <si>
+    <t>examtakerautomation44349@gmail.com</t>
+  </si>
+  <si>
+    <t>44349</t>
+  </si>
+  <si>
+    <t>Examtaker55599</t>
+  </si>
+  <si>
+    <t>Automation55599</t>
+  </si>
+  <si>
+    <t>examtakerautomation55599@gmail.com</t>
+  </si>
+  <si>
+    <t>55599</t>
+  </si>
+  <si>
+    <t>Examtaker42138</t>
+  </si>
+  <si>
+    <t>Automation42138</t>
+  </si>
+  <si>
+    <t>examtakerautomation42138@gmail.com</t>
+  </si>
+  <si>
+    <t>42138</t>
+  </si>
+  <si>
+    <t>Examtaker09647</t>
+  </si>
+  <si>
+    <t>Automation09647</t>
+  </si>
+  <si>
+    <t>examtakerautomation09647@gmail.com</t>
+  </si>
+  <si>
+    <t>09647</t>
+  </si>
+  <si>
+    <t>Examtaker34073</t>
+  </si>
+  <si>
+    <t>Automation34073</t>
+  </si>
+  <si>
+    <t>examtakerautomation34073@gmail.com</t>
+  </si>
+  <si>
+    <t>34073</t>
+  </si>
+  <si>
+    <t>Examtaker06546</t>
+  </si>
+  <si>
+    <t>Automation06546</t>
+  </si>
+  <si>
+    <t>examtakerautomation06546@gmail.com</t>
+  </si>
+  <si>
+    <t>06546</t>
+  </si>
+  <si>
+    <t>Examtaker44375</t>
+  </si>
+  <si>
+    <t>Automation44375</t>
+  </si>
+  <si>
+    <t>examtakerautomation44375@gmail.com</t>
+  </si>
+  <si>
+    <t>44375</t>
+  </si>
+  <si>
+    <t>Examtaker79331</t>
+  </si>
+  <si>
+    <t>Automation79331</t>
+  </si>
+  <si>
+    <t>examtakerautomation79331@gmail.com</t>
+  </si>
+  <si>
+    <t>79331</t>
+  </si>
+  <si>
+    <t>Examtaker22907</t>
+  </si>
+  <si>
+    <t>Automation22907</t>
+  </si>
+  <si>
+    <t>examtakerautomation22907@gmail.com</t>
+  </si>
+  <si>
+    <t>22907</t>
+  </si>
+  <si>
+    <t>Examtaker03231</t>
+  </si>
+  <si>
+    <t>Automation03231</t>
+  </si>
+  <si>
+    <t>examtakerautomation03231@gmail.com</t>
+  </si>
+  <si>
+    <t>03231</t>
+  </si>
+  <si>
+    <t>Examtaker69656</t>
+  </si>
+  <si>
+    <t>Automation69656</t>
+  </si>
+  <si>
+    <t>examtakerautomation69656@gmail.com</t>
+  </si>
+  <si>
+    <t>69656</t>
+  </si>
+  <si>
+    <t>Examtaker87374</t>
+  </si>
+  <si>
+    <t>Automation87374</t>
+  </si>
+  <si>
+    <t>examtakerautomation87374@gmail.com</t>
+  </si>
+  <si>
+    <t>87374</t>
+  </si>
+  <si>
+    <t>Examtaker02866</t>
+  </si>
+  <si>
+    <t>Automation02866</t>
+  </si>
+  <si>
+    <t>examtakerautomation02866@gmail.com</t>
+  </si>
+  <si>
+    <t>02866</t>
+  </si>
+  <si>
+    <t>Examtaker02465</t>
+  </si>
+  <si>
+    <t>Automation02465</t>
+  </si>
+  <si>
+    <t>examtakerautomation02465@gmail.com</t>
+  </si>
+  <si>
+    <t>02465</t>
+  </si>
+  <si>
+    <t>Examtaker25186</t>
+  </si>
+  <si>
+    <t>Automation25186</t>
+  </si>
+  <si>
+    <t>examtakerautomation25186@gmail.com</t>
+  </si>
+  <si>
+    <t>25186</t>
+  </si>
+  <si>
+    <t>Examtaker23696</t>
+  </si>
+  <si>
+    <t>Automation23696</t>
+  </si>
+  <si>
+    <t>examtakerautomation23696@gmail.com</t>
+  </si>
+  <si>
+    <t>23696</t>
+  </si>
+  <si>
+    <t>Examtaker83006</t>
+  </si>
+  <si>
+    <t>Automation83006</t>
+  </si>
+  <si>
+    <t>examtakerautomation83006@gmail.com</t>
+  </si>
+  <si>
+    <t>83006</t>
+  </si>
+  <si>
+    <t>Examtaker33818</t>
+  </si>
+  <si>
+    <t>Automation33818</t>
+  </si>
+  <si>
+    <t>examtakerautomation33818@gmail.com</t>
+  </si>
+  <si>
+    <t>33818</t>
+  </si>
+  <si>
+    <t>Examtaker91371</t>
+  </si>
+  <si>
+    <t>Automation91371</t>
+  </si>
+  <si>
+    <t>examtakerautomation91371@gmail.com</t>
+  </si>
+  <si>
+    <t>91371</t>
+  </si>
+  <si>
+    <t>Examtaker98567</t>
+  </si>
+  <si>
+    <t>Automation98567</t>
+  </si>
+  <si>
+    <t>examtakerautomation98567@gmail.com</t>
+  </si>
+  <si>
+    <t>98567</t>
+  </si>
+  <si>
+    <t>Examtaker50930</t>
+  </si>
+  <si>
+    <t>Automation50930</t>
+  </si>
+  <si>
+    <t>examtakerautomation50930@gmail.com</t>
+  </si>
+  <si>
+    <t>50930</t>
+  </si>
+  <si>
+    <t>Examtaker83004</t>
+  </si>
+  <si>
+    <t>Automation83004</t>
+  </si>
+  <si>
+    <t>examtakerautomation83004@gmail.com</t>
+  </si>
+  <si>
+    <t>83004</t>
+  </si>
+  <si>
+    <t>Examtaker52403</t>
+  </si>
+  <si>
+    <t>Automation52403</t>
+  </si>
+  <si>
+    <t>examtakerautomation52403@gmail.com</t>
+  </si>
+  <si>
+    <t>52403</t>
+  </si>
+  <si>
+    <t>Examtaker17085</t>
+  </si>
+  <si>
+    <t>Automation17085</t>
+  </si>
+  <si>
+    <t>examtakerautomation17085@gmail.com</t>
+  </si>
+  <si>
+    <t>17085</t>
+  </si>
+  <si>
+    <t>Examtaker07722</t>
+  </si>
+  <si>
+    <t>Automation07722</t>
+  </si>
+  <si>
+    <t>examtakerautomation07722@gmail.com</t>
+  </si>
+  <si>
+    <t>07722</t>
+  </si>
+  <si>
+    <t>Examtaker71669</t>
+  </si>
+  <si>
+    <t>Automation71669</t>
+  </si>
+  <si>
+    <t>examtakerautomation71669@gmail.com</t>
+  </si>
+  <si>
+    <t>71669</t>
+  </si>
+  <si>
+    <t>Examtaker71741</t>
+  </si>
+  <si>
+    <t>Automation71741</t>
+  </si>
+  <si>
+    <t>examtakerautomation71741@gmail.com</t>
+  </si>
+  <si>
+    <t>71741</t>
+  </si>
+  <si>
+    <t>Examtaker36146</t>
+  </si>
+  <si>
+    <t>Automation36146</t>
+  </si>
+  <si>
+    <t>examtakerautomation36146@gmail.com</t>
+  </si>
+  <si>
+    <t>36146</t>
+  </si>
+  <si>
+    <t>Examtaker50605</t>
+  </si>
+  <si>
+    <t>Automation50605</t>
+  </si>
+  <si>
+    <t>examtakerautomation50605@gmail.com</t>
+  </si>
+  <si>
+    <t>50605</t>
+  </si>
+  <si>
+    <t>Examtaker04516</t>
+  </si>
+  <si>
+    <t>Automation04516</t>
+  </si>
+  <si>
+    <t>examtakerautomation04516@gmail.com</t>
+  </si>
+  <si>
+    <t>04516</t>
+  </si>
+  <si>
+    <t>Examtaker23142</t>
+  </si>
+  <si>
+    <t>Automation23142</t>
+  </si>
+  <si>
+    <t>examtakerautomation23142@gmail.com</t>
+  </si>
+  <si>
+    <t>23142</t>
+  </si>
+  <si>
+    <t>Examtaker32301</t>
+  </si>
+  <si>
+    <t>Automation32301</t>
+  </si>
+  <si>
+    <t>examtakerautomation32301@gmail.com</t>
+  </si>
+  <si>
+    <t>32301</t>
+  </si>
+  <si>
+    <t>Examtaker74514</t>
+  </si>
+  <si>
+    <t>Automation74514</t>
+  </si>
+  <si>
+    <t>examtakerautomation74514@gmail.com</t>
+  </si>
+  <si>
+    <t>74514</t>
+  </si>
+  <si>
+    <t>Examtaker90152</t>
+  </si>
+  <si>
+    <t>Automation90152</t>
+  </si>
+  <si>
+    <t>examtakerautomation90152@gmail.com</t>
+  </si>
+  <si>
+    <t>90152</t>
+  </si>
+  <si>
+    <t>Examtaker60738</t>
+  </si>
+  <si>
+    <t>Automation60738</t>
+  </si>
+  <si>
+    <t>examtakerautomation60738@gmail.com</t>
+  </si>
+  <si>
+    <t>60738</t>
+  </si>
+  <si>
+    <t>Examtaker10856</t>
+  </si>
+  <si>
+    <t>Automation10856</t>
+  </si>
+  <si>
+    <t>examtakerautomation10856@gmail.com</t>
+  </si>
+  <si>
+    <t>10856</t>
+  </si>
+  <si>
+    <t>Examtaker91736</t>
+  </si>
+  <si>
+    <t>Automation91736</t>
+  </si>
+  <si>
+    <t>examtakerautomation91736@gmail.com</t>
+  </si>
+  <si>
+    <t>91736</t>
+  </si>
+  <si>
+    <t>Examtaker36947</t>
+  </si>
+  <si>
+    <t>Automation36947</t>
+  </si>
+  <si>
+    <t>examtakerautomation36947@gmail.com</t>
+  </si>
+  <si>
+    <t>36947</t>
+  </si>
+  <si>
+    <t>Examtaker51561</t>
+  </si>
+  <si>
+    <t>Automation51561</t>
+  </si>
+  <si>
+    <t>examtakerautomation51561@gmail.com</t>
+  </si>
+  <si>
+    <t>51561</t>
+  </si>
+  <si>
+    <t>Examtaker92515</t>
+  </si>
+  <si>
+    <t>Automation92515</t>
+  </si>
+  <si>
+    <t>examtakerautomation92515@gmail.com</t>
+  </si>
+  <si>
+    <t>92515</t>
+  </si>
+  <si>
+    <t>Examtaker88281</t>
+  </si>
+  <si>
+    <t>Automation88281</t>
+  </si>
+  <si>
+    <t>examtakerautomation88281@gmail.com</t>
+  </si>
+  <si>
+    <t>88281</t>
+  </si>
+  <si>
+    <t>Examtaker72923</t>
+  </si>
+  <si>
+    <t>Automation72923</t>
+  </si>
+  <si>
+    <t>examtakerautomation72923@gmail.com</t>
+  </si>
+  <si>
+    <t>72923</t>
+  </si>
+  <si>
+    <t>Examtaker74308</t>
+  </si>
+  <si>
+    <t>Automation74308</t>
+  </si>
+  <si>
+    <t>examtakerautomation74308@gmail.com</t>
+  </si>
+  <si>
+    <t>74308</t>
+  </si>
+  <si>
+    <t>Examtaker25779</t>
+  </si>
+  <si>
+    <t>Automation25779</t>
+  </si>
+  <si>
+    <t>examtakerautomation25779@gmail.com</t>
+  </si>
+  <si>
+    <t>25779</t>
+  </si>
+  <si>
+    <t>Examtaker70537</t>
+  </si>
+  <si>
+    <t>Automation70537</t>
+  </si>
+  <si>
+    <t>examtakerautomation70537@gmail.com</t>
+  </si>
+  <si>
+    <t>70537</t>
+  </si>
+  <si>
+    <t>Examtaker81997</t>
+  </si>
+  <si>
+    <t>Automation81997</t>
+  </si>
+  <si>
+    <t>examtakerautomation81997@gmail.com</t>
+  </si>
+  <si>
+    <t>81997</t>
+  </si>
+  <si>
+    <t>Examtaker42573</t>
+  </si>
+  <si>
+    <t>Automation42573</t>
+  </si>
+  <si>
+    <t>examtakerautomation42573@gmail.com</t>
+  </si>
+  <si>
+    <t>42573</t>
+  </si>
+  <si>
+    <t>Examtaker46293</t>
+  </si>
+  <si>
+    <t>Automation46293</t>
+  </si>
+  <si>
+    <t>examtakerautomation46293@gmail.com</t>
+  </si>
+  <si>
+    <t>46293</t>
+  </si>
+  <si>
+    <t>Examtaker90020</t>
+  </si>
+  <si>
+    <t>Automation90020</t>
+  </si>
+  <si>
+    <t>examtakerautomation90020@gmail.com</t>
+  </si>
+  <si>
+    <t>90020</t>
+  </si>
+  <si>
+    <t>Examtaker95551</t>
+  </si>
+  <si>
+    <t>Automation95551</t>
+  </si>
+  <si>
+    <t>examtakerautomation95551@gmail.com</t>
+  </si>
+  <si>
+    <t>95551</t>
+  </si>
+  <si>
+    <t>Examtaker03731</t>
+  </si>
+  <si>
+    <t>Automation03731</t>
+  </si>
+  <si>
+    <t>examtakerautomation03731@gmail.com</t>
+  </si>
+  <si>
+    <t>03731</t>
+  </si>
+  <si>
+    <t>Examtaker76112</t>
+  </si>
+  <si>
+    <t>Automation76112</t>
+  </si>
+  <si>
+    <t>examtakerautomation76112@gmail.com</t>
+  </si>
+  <si>
+    <t>76112</t>
+  </si>
+  <si>
+    <t>Examtaker77074</t>
+  </si>
+  <si>
+    <t>Automation77074</t>
+  </si>
+  <si>
+    <t>examtakerautomation77074@gmail.com</t>
+  </si>
+  <si>
+    <t>77074</t>
+  </si>
+  <si>
+    <t>Examtaker31067</t>
+  </si>
+  <si>
+    <t>Automation31067</t>
+  </si>
+  <si>
+    <t>examtakerautomation31067@gmail.com</t>
+  </si>
+  <si>
+    <t>31067</t>
+  </si>
+  <si>
+    <t>Examtaker66596</t>
+  </si>
+  <si>
+    <t>Automation66596</t>
+  </si>
+  <si>
+    <t>examtakerautomation66596@gmail.com</t>
+  </si>
+  <si>
+    <t>66596</t>
+  </si>
+  <si>
+    <t>Examtaker62547</t>
+  </si>
+  <si>
+    <t>Automation62547</t>
+  </si>
+  <si>
+    <t>examtakerautomation62547@gmail.com</t>
+  </si>
+  <si>
+    <t>62547</t>
+  </si>
+  <si>
+    <t>Examtaker24222</t>
+  </si>
+  <si>
+    <t>Automation24222</t>
+  </si>
+  <si>
+    <t>examtakerautomation24222@gmail.com</t>
+  </si>
+  <si>
+    <t>24222</t>
+  </si>
+  <si>
+    <t>Examtaker86344</t>
+  </si>
+  <si>
+    <t>Automation86344</t>
+  </si>
+  <si>
+    <t>examtakerautomation86344@gmail.com</t>
+  </si>
+  <si>
+    <t>86344</t>
+  </si>
+  <si>
+    <t>Examtaker02751</t>
+  </si>
+  <si>
+    <t>Automation02751</t>
+  </si>
+  <si>
+    <t>examtakerautomation02751@gmail.com</t>
+  </si>
+  <si>
+    <t>02751</t>
+  </si>
+  <si>
+    <t>Examtaker37291</t>
+  </si>
+  <si>
+    <t>Automation37291</t>
+  </si>
+  <si>
+    <t>examtakerautomation37291@gmail.com</t>
+  </si>
+  <si>
+    <t>37291</t>
+  </si>
+  <si>
+    <t>Examtaker97313</t>
+  </si>
+  <si>
+    <t>Automation97313</t>
+  </si>
+  <si>
+    <t>examtakerautomation97313@gmail.com</t>
+  </si>
+  <si>
+    <t>97313</t>
+  </si>
+  <si>
+    <t>Examtaker97893</t>
+  </si>
+  <si>
+    <t>Automation97893</t>
+  </si>
+  <si>
+    <t>examtakerautomation97893@gmail.com</t>
+  </si>
+  <si>
+    <t>97893</t>
+  </si>
+  <si>
+    <t>Examtaker28168</t>
+  </si>
+  <si>
+    <t>Automation28168</t>
+  </si>
+  <si>
+    <t>examtakerautomation28168@gmail.com</t>
+  </si>
+  <si>
+    <t>28168</t>
+  </si>
+  <si>
+    <t>Examtaker03812</t>
+  </si>
+  <si>
+    <t>Automation03812</t>
+  </si>
+  <si>
+    <t>examtakerautomation03812@gmail.com</t>
+  </si>
+  <si>
+    <t>03812</t>
+  </si>
+  <si>
+    <t>Examtaker76769</t>
+  </si>
+  <si>
+    <t>Automation76769</t>
+  </si>
+  <si>
+    <t>examtakerautomation76769@gmail.com</t>
+  </si>
+  <si>
+    <t>76769</t>
+  </si>
+  <si>
+    <t>Examtaker82105</t>
+  </si>
+  <si>
+    <t>Automation82105</t>
+  </si>
+  <si>
+    <t>examtakerautomation82105@gmail.com</t>
+  </si>
+  <si>
+    <t>82105</t>
+  </si>
+  <si>
+    <t>Examtaker69160</t>
+  </si>
+  <si>
+    <t>Automation69160</t>
+  </si>
+  <si>
+    <t>examtakerautomation69160@gmail.com</t>
+  </si>
+  <si>
+    <t>69160</t>
+  </si>
+  <si>
+    <t>Examtaker21766</t>
+  </si>
+  <si>
+    <t>Automation21766</t>
+  </si>
+  <si>
+    <t>examtakerautomation21766@gmail.com</t>
+  </si>
+  <si>
+    <t>21766</t>
+  </si>
+  <si>
+    <t>Examtaker85249</t>
+  </si>
+  <si>
+    <t>Automation85249</t>
+  </si>
+  <si>
+    <t>examtakerautomation85249@gmail.com</t>
+  </si>
+  <si>
+    <t>85249</t>
+  </si>
+  <si>
+    <t>Examtaker98675</t>
+  </si>
+  <si>
+    <t>Automation98675</t>
+  </si>
+  <si>
+    <t>examtakerautomation98675@gmail.com</t>
+  </si>
+  <si>
+    <t>98675</t>
+  </si>
+  <si>
+    <t>Examtaker34905</t>
+  </si>
+  <si>
+    <t>Automation34905</t>
+  </si>
+  <si>
+    <t>examtakerautomation34905@gmail.com</t>
+  </si>
+  <si>
+    <t>34905</t>
+  </si>
+  <si>
+    <t>Examtaker09676</t>
+  </si>
+  <si>
+    <t>Automation09676</t>
+  </si>
+  <si>
+    <t>examtakerautomation09676@gmail.com</t>
+  </si>
+  <si>
+    <t>09676</t>
+  </si>
+  <si>
+    <t>Examtaker04370</t>
+  </si>
+  <si>
+    <t>Automation04370</t>
+  </si>
+  <si>
+    <t>examtakerautomation04370@gmail.com</t>
+  </si>
+  <si>
+    <t>04370</t>
+  </si>
+  <si>
+    <t>Examtaker58877</t>
+  </si>
+  <si>
+    <t>Automation58877</t>
+  </si>
+  <si>
+    <t>examtakerautomation58877@gmail.com</t>
+  </si>
+  <si>
+    <t>58877</t>
+  </si>
+  <si>
+    <t>Examtaker79411</t>
+  </si>
+  <si>
+    <t>Automation79411</t>
+  </si>
+  <si>
+    <t>examtakerautomation79411@gmail.com</t>
+  </si>
+  <si>
+    <t>79411</t>
+  </si>
+  <si>
+    <t>Examtaker40363</t>
+  </si>
+  <si>
+    <t>Automation40363</t>
+  </si>
+  <si>
+    <t>examtakerautomation40363@gmail.com</t>
+  </si>
+  <si>
+    <t>40363</t>
+  </si>
+  <si>
+    <t>Examtaker60570</t>
+  </si>
+  <si>
+    <t>Automation60570</t>
+  </si>
+  <si>
+    <t>examtakerautomation60570@gmail.com</t>
+  </si>
+  <si>
+    <t>60570</t>
+  </si>
+  <si>
+    <t>Examtaker38265</t>
+  </si>
+  <si>
+    <t>Automation38265</t>
+  </si>
+  <si>
+    <t>examtakerautomation38265@gmail.com</t>
+  </si>
+  <si>
+    <t>38265</t>
+  </si>
+  <si>
+    <t>Examtaker81537</t>
+  </si>
+  <si>
+    <t>Automation81537</t>
+  </si>
+  <si>
+    <t>examtakerautomation81537@gmail.com</t>
+  </si>
+  <si>
+    <t>81537</t>
+  </si>
+  <si>
+    <t>Examtaker41609</t>
+  </si>
+  <si>
+    <t>Automation41609</t>
+  </si>
+  <si>
+    <t>examtakerautomation41609@gmail.com</t>
+  </si>
+  <si>
+    <t>41609</t>
+  </si>
+  <si>
+    <t>Examtaker12002</t>
+  </si>
+  <si>
+    <t>Automation12002</t>
+  </si>
+  <si>
+    <t>examtakerautomation12002@gmail.com</t>
+  </si>
+  <si>
+    <t>12002</t>
+  </si>
+  <si>
+    <t>Examtaker36971</t>
+  </si>
+  <si>
+    <t>Automation36971</t>
+  </si>
+  <si>
+    <t>examtakerautomation36971@gmail.com</t>
+  </si>
+  <si>
+    <t>36971</t>
+  </si>
+  <si>
+    <t>Examtaker39544</t>
+  </si>
+  <si>
+    <t>Automation39544</t>
+  </si>
+  <si>
+    <t>examtakerautomation39544@gmail.com</t>
+  </si>
+  <si>
+    <t>39544</t>
+  </si>
+  <si>
+    <t>Examtaker12794</t>
+  </si>
+  <si>
+    <t>Automation12794</t>
+  </si>
+  <si>
+    <t>examtakerautomation12794@gmail.com</t>
+  </si>
+  <si>
+    <t>12794</t>
+  </si>
+  <si>
+    <t>Examtaker03754</t>
+  </si>
+  <si>
+    <t>Automation03754</t>
+  </si>
+  <si>
+    <t>examtakerautomation03754@gmail.com</t>
+  </si>
+  <si>
+    <t>03754</t>
+  </si>
+  <si>
+    <t>Examtaker46298</t>
+  </si>
+  <si>
+    <t>Automation46298</t>
+  </si>
+  <si>
+    <t>examtakerautomation46298@gmail.com</t>
+  </si>
+  <si>
+    <t>46298</t>
+  </si>
+  <si>
+    <t>Examtaker77968</t>
+  </si>
+  <si>
+    <t>Automation77968</t>
+  </si>
+  <si>
+    <t>examtakerautomation77968@gmail.com</t>
+  </si>
+  <si>
+    <t>77968</t>
+  </si>
+  <si>
+    <t>Examtaker45874</t>
+  </si>
+  <si>
+    <t>Automation45874</t>
+  </si>
+  <si>
+    <t>examtakerautomation45874@gmail.com</t>
+  </si>
+  <si>
+    <t>45874</t>
+  </si>
+  <si>
+    <t>Examtaker78417</t>
+  </si>
+  <si>
+    <t>Automation78417</t>
+  </si>
+  <si>
+    <t>examtakerautomation78417@gmail.com</t>
+  </si>
+  <si>
+    <t>78417</t>
+  </si>
+  <si>
+    <t>Examtaker44757</t>
+  </si>
+  <si>
+    <t>Automation44757</t>
+  </si>
+  <si>
+    <t>examtakerautomation44757@gmail.com</t>
+  </si>
+  <si>
+    <t>44757</t>
+  </si>
+  <si>
+    <t>Examtaker05556</t>
+  </si>
+  <si>
+    <t>Automation05556</t>
+  </si>
+  <si>
+    <t>examtakerautomation05556@gmail.com</t>
+  </si>
+  <si>
+    <t>05556</t>
+  </si>
+  <si>
+    <t>Examtaker83851</t>
+  </si>
+  <si>
+    <t>Automation83851</t>
+  </si>
+  <si>
+    <t>examtakerautomation83851@gmail.com</t>
+  </si>
+  <si>
+    <t>83851</t>
+  </si>
+  <si>
+    <t>Examtaker20469</t>
+  </si>
+  <si>
+    <t>Automation20469</t>
+  </si>
+  <si>
+    <t>examtakerautomation20469@gmail.com</t>
+  </si>
+  <si>
+    <t>20469</t>
+  </si>
+  <si>
+    <t>Examtaker99467</t>
+  </si>
+  <si>
+    <t>Automation99467</t>
+  </si>
+  <si>
+    <t>examtakerautomation99467@gmail.com</t>
+  </si>
+  <si>
+    <t>99467</t>
+  </si>
+  <si>
+    <t>Examtaker64641</t>
+  </si>
+  <si>
+    <t>Automation64641</t>
+  </si>
+  <si>
+    <t>examtakerautomation64641@gmail.com</t>
+  </si>
+  <si>
+    <t>64641</t>
+  </si>
+  <si>
+    <t>Examtaker72609</t>
+  </si>
+  <si>
+    <t>Automation72609</t>
+  </si>
+  <si>
+    <t>examtakerautomation72609@gmail.com</t>
+  </si>
+  <si>
+    <t>72609</t>
+  </si>
+  <si>
+    <t>Examtaker32794</t>
+  </si>
+  <si>
+    <t>Automation32794</t>
+  </si>
+  <si>
+    <t>examtakerautomation32794@gmail.com</t>
+  </si>
+  <si>
+    <t>32794</t>
+  </si>
+  <si>
+    <t>Examtaker34286</t>
+  </si>
+  <si>
+    <t>Automation34286</t>
+  </si>
+  <si>
+    <t>examtakerautomation34286@gmail.com</t>
+  </si>
+  <si>
+    <t>34286</t>
+  </si>
+  <si>
+    <t>Examtaker72300</t>
+  </si>
+  <si>
+    <t>Automation72300</t>
+  </si>
+  <si>
+    <t>examtakerautomation72300@gmail.com</t>
+  </si>
+  <si>
+    <t>72300</t>
+  </si>
+  <si>
+    <t>Examtaker09022</t>
+  </si>
+  <si>
+    <t>Automation09022</t>
+  </si>
+  <si>
+    <t>examtakerautomation09022@gmail.com</t>
+  </si>
+  <si>
+    <t>09022</t>
+  </si>
+  <si>
+    <t>Examtaker81125</t>
+  </si>
+  <si>
+    <t>Automation81125</t>
+  </si>
+  <si>
+    <t>examtakerautomation81125@gmail.com</t>
+  </si>
+  <si>
+    <t>81125</t>
+  </si>
+  <si>
+    <t>Examtaker46943</t>
+  </si>
+  <si>
+    <t>Automation46943</t>
+  </si>
+  <si>
+    <t>examtakerautomation46943@gmail.com</t>
+  </si>
+  <si>
+    <t>46943</t>
+  </si>
+  <si>
+    <t>Examtaker99557</t>
+  </si>
+  <si>
+    <t>Automation99557</t>
+  </si>
+  <si>
+    <t>examtakerautomation99557@gmail.com</t>
+  </si>
+  <si>
+    <t>99557</t>
+  </si>
+  <si>
+    <t>Examtaker23192</t>
+  </si>
+  <si>
+    <t>Automation23192</t>
+  </si>
+  <si>
+    <t>examtakerautomation23192@gmail.com</t>
+  </si>
+  <si>
+    <t>23192</t>
+  </si>
+  <si>
+    <t>Examtaker73831</t>
+  </si>
+  <si>
+    <t>Automation73831</t>
+  </si>
+  <si>
+    <t>examtakerautomation73831@gmail.com</t>
+  </si>
+  <si>
+    <t>73831</t>
+  </si>
+  <si>
+    <t>Examtaker61708</t>
+  </si>
+  <si>
+    <t>Automation61708</t>
+  </si>
+  <si>
+    <t>examtakerautomation61708@gmail.com</t>
+  </si>
+  <si>
+    <t>61708</t>
+  </si>
+  <si>
+    <t>Examtaker34866</t>
+  </si>
+  <si>
+    <t>Automation34866</t>
+  </si>
+  <si>
+    <t>examtakerautomation34866@gmail.com</t>
+  </si>
+  <si>
+    <t>34866</t>
+  </si>
+  <si>
+    <t>Examtaker67772</t>
+  </si>
+  <si>
+    <t>Automation67772</t>
+  </si>
+  <si>
+    <t>examtakerautomation67772@gmail.com</t>
+  </si>
+  <si>
+    <t>67772</t>
+  </si>
+  <si>
+    <t>Examtaker49736</t>
+  </si>
+  <si>
+    <t>Automation49736</t>
+  </si>
+  <si>
+    <t>examtakerautomation49736@gmail.com</t>
+  </si>
+  <si>
+    <t>49736</t>
+  </si>
+  <si>
+    <t>Examtaker62946</t>
+  </si>
+  <si>
+    <t>Automation62946</t>
+  </si>
+  <si>
+    <t>examtakerautomation62946@gmail.com</t>
+  </si>
+  <si>
+    <t>62946</t>
+  </si>
+  <si>
+    <t>Examtaker29104</t>
+  </si>
+  <si>
+    <t>Automation29104</t>
+  </si>
+  <si>
+    <t>examtakerautomation29104@gmail.com</t>
+  </si>
+  <si>
+    <t>29104</t>
+  </si>
+  <si>
+    <t>Examtaker61620</t>
+  </si>
+  <si>
+    <t>Automation61620</t>
+  </si>
+  <si>
+    <t>examtakerautomation61620@gmail.com</t>
+  </si>
+  <si>
+    <t>61620</t>
+  </si>
+  <si>
+    <t>Examtaker39592</t>
+  </si>
+  <si>
+    <t>Automation39592</t>
+  </si>
+  <si>
+    <t>examtakerautomation39592@gmail.com</t>
+  </si>
+  <si>
+    <t>39592</t>
+  </si>
+  <si>
+    <t>Examtaker90196</t>
+  </si>
+  <si>
+    <t>Automation90196</t>
+  </si>
+  <si>
+    <t>examtakerautomation90196@gmail.com</t>
+  </si>
+  <si>
+    <t>90196</t>
+  </si>
+  <si>
+    <t>Examtaker46633</t>
+  </si>
+  <si>
+    <t>Automation46633</t>
+  </si>
+  <si>
+    <t>examtakerautomation46633@gmail.com</t>
+  </si>
+  <si>
+    <t>46633</t>
+  </si>
+  <si>
+    <t>Examtaker24126</t>
+  </si>
+  <si>
+    <t>Automation24126</t>
+  </si>
+  <si>
+    <t>examtakerautomation24126@gmail.com</t>
+  </si>
+  <si>
+    <t>24126</t>
   </si>
 </sst>
 </file>
@@ -11503,422 +13999,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3573</v>
+        <v>4405</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3574</v>
+        <v>4406</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3575</v>
+        <v>4407</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3576</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3577</v>
+        <v>4409</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3578</v>
+        <v>4410</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3579</v>
+        <v>4411</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3580</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3581</v>
+        <v>4413</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3582</v>
+        <v>4414</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3583</v>
+        <v>4415</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3584</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3585</v>
+        <v>4417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3586</v>
+        <v>4418</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3587</v>
+        <v>4419</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3588</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3589</v>
+        <v>4421</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3590</v>
+        <v>4422</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3591</v>
+        <v>4423</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3592</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3593</v>
+        <v>4425</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3594</v>
+        <v>4426</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3595</v>
+        <v>4427</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3596</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3597</v>
+        <v>4429</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3598</v>
+        <v>4430</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3599</v>
+        <v>4431</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3600</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3601</v>
+        <v>4433</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3602</v>
+        <v>4434</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3603</v>
+        <v>4435</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3604</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3605</v>
+        <v>4437</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3606</v>
+        <v>4438</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3607</v>
+        <v>4439</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3608</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3609</v>
+        <v>4441</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3610</v>
+        <v>4442</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3611</v>
+        <v>4443</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3612</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3613</v>
+        <v>4445</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3614</v>
+        <v>4446</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3615</v>
+        <v>4447</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3616</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3617</v>
+        <v>4449</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3618</v>
+        <v>4450</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3619</v>
+        <v>4451</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3620</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3621</v>
+        <v>4453</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3622</v>
+        <v>4454</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3623</v>
+        <v>4455</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3624</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3625</v>
+        <v>4457</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3626</v>
+        <v>4458</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3627</v>
+        <v>4459</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3628</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3629</v>
+        <v>4461</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3630</v>
+        <v>4462</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3631</v>
+        <v>4463</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3632</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3633</v>
+        <v>4465</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3634</v>
+        <v>4466</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3635</v>
+        <v>4467</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3636</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3637</v>
+        <v>4469</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3638</v>
+        <v>4470</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3639</v>
+        <v>4471</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3640</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3641</v>
+        <v>4473</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3642</v>
+        <v>4474</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3643</v>
+        <v>4475</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3644</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3645</v>
+        <v>4477</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3646</v>
+        <v>4478</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3647</v>
+        <v>4479</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3648</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3649</v>
+        <v>4481</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3650</v>
+        <v>4482</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3651</v>
+        <v>4483</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3652</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3653</v>
+        <v>4485</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3654</v>
+        <v>4486</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3655</v>
+        <v>4487</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3656</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3657</v>
+        <v>4489</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3658</v>
+        <v>4490</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3659</v>
+        <v>4491</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3660</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3661</v>
+        <v>4493</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3662</v>
+        <v>4494</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3663</v>
+        <v>4495</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3664</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3665</v>
+        <v>4497</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3666</v>
+        <v>4498</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3667</v>
+        <v>4499</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3668</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3669</v>
+        <v>4501</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3670</v>
+        <v>4502</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3671</v>
+        <v>4503</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3672</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3673</v>
+        <v>4505</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3674</v>
+        <v>4506</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3675</v>
+        <v>4507</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3676</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3677</v>
+        <v>4509</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3678</v>
+        <v>4510</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3679</v>
+        <v>4511</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3680</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3681</v>
+        <v>4513</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3682</v>
+        <v>4514</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3683</v>
+        <v>4515</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3684</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3685</v>
+        <v>4517</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3686</v>
+        <v>4518</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3687</v>
+        <v>4519</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3688</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3689</v>
+        <v>4521</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3690</v>
+        <v>4522</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3691</v>
+        <v>4523</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3692</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="4525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="4645">
   <si>
     <t>FirstName</t>
   </si>
@@ -13589,6 +13589,366 @@
   </si>
   <si>
     <t>24126</t>
+  </si>
+  <si>
+    <t>Examtaker98279</t>
+  </si>
+  <si>
+    <t>Automation98279</t>
+  </si>
+  <si>
+    <t>examtakerautomation98279@gmail.com</t>
+  </si>
+  <si>
+    <t>98279</t>
+  </si>
+  <si>
+    <t>Examtaker65979</t>
+  </si>
+  <si>
+    <t>Automation65979</t>
+  </si>
+  <si>
+    <t>examtakerautomation65979@gmail.com</t>
+  </si>
+  <si>
+    <t>65979</t>
+  </si>
+  <si>
+    <t>Examtaker25653</t>
+  </si>
+  <si>
+    <t>Automation25653</t>
+  </si>
+  <si>
+    <t>examtakerautomation25653@gmail.com</t>
+  </si>
+  <si>
+    <t>25653</t>
+  </si>
+  <si>
+    <t>Examtaker97031</t>
+  </si>
+  <si>
+    <t>Automation97031</t>
+  </si>
+  <si>
+    <t>examtakerautomation97031@gmail.com</t>
+  </si>
+  <si>
+    <t>97031</t>
+  </si>
+  <si>
+    <t>Examtaker47435</t>
+  </si>
+  <si>
+    <t>Automation47435</t>
+  </si>
+  <si>
+    <t>examtakerautomation47435@gmail.com</t>
+  </si>
+  <si>
+    <t>47435</t>
+  </si>
+  <si>
+    <t>Examtaker75243</t>
+  </si>
+  <si>
+    <t>Automation75243</t>
+  </si>
+  <si>
+    <t>examtakerautomation75243@gmail.com</t>
+  </si>
+  <si>
+    <t>75243</t>
+  </si>
+  <si>
+    <t>Examtaker34641</t>
+  </si>
+  <si>
+    <t>Automation34641</t>
+  </si>
+  <si>
+    <t>examtakerautomation34641@gmail.com</t>
+  </si>
+  <si>
+    <t>34641</t>
+  </si>
+  <si>
+    <t>Examtaker99010</t>
+  </si>
+  <si>
+    <t>Automation99010</t>
+  </si>
+  <si>
+    <t>examtakerautomation99010@gmail.com</t>
+  </si>
+  <si>
+    <t>99010</t>
+  </si>
+  <si>
+    <t>Examtaker25737</t>
+  </si>
+  <si>
+    <t>Automation25737</t>
+  </si>
+  <si>
+    <t>examtakerautomation25737@gmail.com</t>
+  </si>
+  <si>
+    <t>25737</t>
+  </si>
+  <si>
+    <t>Examtaker88326</t>
+  </si>
+  <si>
+    <t>Automation88326</t>
+  </si>
+  <si>
+    <t>examtakerautomation88326@gmail.com</t>
+  </si>
+  <si>
+    <t>88326</t>
+  </si>
+  <si>
+    <t>Examtaker22563</t>
+  </si>
+  <si>
+    <t>Automation22563</t>
+  </si>
+  <si>
+    <t>examtakerautomation22563@gmail.com</t>
+  </si>
+  <si>
+    <t>22563</t>
+  </si>
+  <si>
+    <t>Examtaker52291</t>
+  </si>
+  <si>
+    <t>Automation52291</t>
+  </si>
+  <si>
+    <t>examtakerautomation52291@gmail.com</t>
+  </si>
+  <si>
+    <t>52291</t>
+  </si>
+  <si>
+    <t>Examtaker37514</t>
+  </si>
+  <si>
+    <t>Automation37514</t>
+  </si>
+  <si>
+    <t>examtakerautomation37514@gmail.com</t>
+  </si>
+  <si>
+    <t>37514</t>
+  </si>
+  <si>
+    <t>Examtaker24183</t>
+  </si>
+  <si>
+    <t>Automation24183</t>
+  </si>
+  <si>
+    <t>examtakerautomation24183@gmail.com</t>
+  </si>
+  <si>
+    <t>24183</t>
+  </si>
+  <si>
+    <t>Examtaker90616</t>
+  </si>
+  <si>
+    <t>Automation90616</t>
+  </si>
+  <si>
+    <t>examtakerautomation90616@gmail.com</t>
+  </si>
+  <si>
+    <t>90616</t>
+  </si>
+  <si>
+    <t>Examtaker15541</t>
+  </si>
+  <si>
+    <t>Automation15541</t>
+  </si>
+  <si>
+    <t>examtakerautomation15541@gmail.com</t>
+  </si>
+  <si>
+    <t>15541</t>
+  </si>
+  <si>
+    <t>Examtaker81186</t>
+  </si>
+  <si>
+    <t>Automation81186</t>
+  </si>
+  <si>
+    <t>examtakerautomation81186@gmail.com</t>
+  </si>
+  <si>
+    <t>81186</t>
+  </si>
+  <si>
+    <t>Examtaker32606</t>
+  </si>
+  <si>
+    <t>Automation32606</t>
+  </si>
+  <si>
+    <t>examtakerautomation32606@gmail.com</t>
+  </si>
+  <si>
+    <t>32606</t>
+  </si>
+  <si>
+    <t>Examtaker58123</t>
+  </si>
+  <si>
+    <t>Automation58123</t>
+  </si>
+  <si>
+    <t>examtakerautomation58123@gmail.com</t>
+  </si>
+  <si>
+    <t>58123</t>
+  </si>
+  <si>
+    <t>Examtaker63465</t>
+  </si>
+  <si>
+    <t>Automation63465</t>
+  </si>
+  <si>
+    <t>examtakerautomation63465@gmail.com</t>
+  </si>
+  <si>
+    <t>63465</t>
+  </si>
+  <si>
+    <t>Examtaker07332</t>
+  </si>
+  <si>
+    <t>Automation07332</t>
+  </si>
+  <si>
+    <t>examtakerautomation07332@gmail.com</t>
+  </si>
+  <si>
+    <t>07332</t>
+  </si>
+  <si>
+    <t>Examtaker98804</t>
+  </si>
+  <si>
+    <t>Automation98804</t>
+  </si>
+  <si>
+    <t>examtakerautomation98804@gmail.com</t>
+  </si>
+  <si>
+    <t>98804</t>
+  </si>
+  <si>
+    <t>Examtaker48231</t>
+  </si>
+  <si>
+    <t>Automation48231</t>
+  </si>
+  <si>
+    <t>examtakerautomation48231@gmail.com</t>
+  </si>
+  <si>
+    <t>48231</t>
+  </si>
+  <si>
+    <t>Examtaker38319</t>
+  </si>
+  <si>
+    <t>Automation38319</t>
+  </si>
+  <si>
+    <t>examtakerautomation38319@gmail.com</t>
+  </si>
+  <si>
+    <t>38319</t>
+  </si>
+  <si>
+    <t>Examtaker70270</t>
+  </si>
+  <si>
+    <t>Automation70270</t>
+  </si>
+  <si>
+    <t>examtakerautomation70270@gmail.com</t>
+  </si>
+  <si>
+    <t>70270</t>
+  </si>
+  <si>
+    <t>Examtaker52074</t>
+  </si>
+  <si>
+    <t>Automation52074</t>
+  </si>
+  <si>
+    <t>examtakerautomation52074@gmail.com</t>
+  </si>
+  <si>
+    <t>52074</t>
+  </si>
+  <si>
+    <t>Examtaker16763</t>
+  </si>
+  <si>
+    <t>Automation16763</t>
+  </si>
+  <si>
+    <t>examtakerautomation16763@gmail.com</t>
+  </si>
+  <si>
+    <t>16763</t>
+  </si>
+  <si>
+    <t>Examtaker25147</t>
+  </si>
+  <si>
+    <t>Automation25147</t>
+  </si>
+  <si>
+    <t>examtakerautomation25147@gmail.com</t>
+  </si>
+  <si>
+    <t>25147</t>
+  </si>
+  <si>
+    <t>Examtaker01238</t>
+  </si>
+  <si>
+    <t>Automation01238</t>
+  </si>
+  <si>
+    <t>examtakerautomation01238@gmail.com</t>
+  </si>
+  <si>
+    <t>01238</t>
+  </si>
+  <si>
+    <t>Examtaker66322</t>
+  </si>
+  <si>
+    <t>Automation66322</t>
+  </si>
+  <si>
+    <t>examtakerautomation66322@gmail.com</t>
+  </si>
+  <si>
+    <t>66322</t>
   </si>
 </sst>
 </file>
@@ -13999,422 +14359,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4405</v>
+        <v>4525</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4406</v>
+        <v>4526</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4407</v>
+        <v>4527</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4408</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4409</v>
+        <v>4529</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4410</v>
+        <v>4530</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4411</v>
+        <v>4531</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4412</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4413</v>
+        <v>4533</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4414</v>
+        <v>4534</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4415</v>
+        <v>4535</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4416</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4417</v>
+        <v>4537</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4418</v>
+        <v>4538</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4419</v>
+        <v>4539</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4420</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4421</v>
+        <v>4541</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4422</v>
+        <v>4542</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4423</v>
+        <v>4543</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4424</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4425</v>
+        <v>4545</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4426</v>
+        <v>4546</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4427</v>
+        <v>4547</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4428</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4429</v>
+        <v>4549</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4430</v>
+        <v>4550</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4431</v>
+        <v>4551</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4432</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4433</v>
+        <v>4553</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4434</v>
+        <v>4554</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4435</v>
+        <v>4555</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>4436</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4437</v>
+        <v>4557</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4438</v>
+        <v>4558</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4439</v>
+        <v>4559</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4440</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4441</v>
+        <v>4561</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4442</v>
+        <v>4562</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4443</v>
+        <v>4563</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4444</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4445</v>
+        <v>4565</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4446</v>
+        <v>4566</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4447</v>
+        <v>4567</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4448</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4449</v>
+        <v>4569</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4450</v>
+        <v>4570</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4451</v>
+        <v>4571</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4452</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4453</v>
+        <v>4573</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4454</v>
+        <v>4574</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4455</v>
+        <v>4575</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4456</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4457</v>
+        <v>4577</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4458</v>
+        <v>4578</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4459</v>
+        <v>4579</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4460</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4461</v>
+        <v>4581</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4462</v>
+        <v>4582</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4463</v>
+        <v>4583</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4464</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4465</v>
+        <v>4585</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4466</v>
+        <v>4586</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4467</v>
+        <v>4587</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4468</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4470</v>
+        <v>4590</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4471</v>
+        <v>4591</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4472</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4473</v>
+        <v>4593</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4474</v>
+        <v>4594</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4475</v>
+        <v>4595</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4476</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4477</v>
+        <v>4597</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4478</v>
+        <v>4598</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4479</v>
+        <v>4599</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4480</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4481</v>
+        <v>4601</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4482</v>
+        <v>4602</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4483</v>
+        <v>4603</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4484</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4485</v>
+        <v>4605</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4486</v>
+        <v>4606</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4487</v>
+        <v>4607</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4488</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4489</v>
+        <v>4609</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4490</v>
+        <v>4610</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4491</v>
+        <v>4611</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4492</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4493</v>
+        <v>4613</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4494</v>
+        <v>4614</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>4495</v>
+        <v>4615</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4496</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4497</v>
+        <v>4617</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>4498</v>
+        <v>4618</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4499</v>
+        <v>4619</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4500</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4501</v>
+        <v>4621</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>4502</v>
+        <v>4622</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>4503</v>
+        <v>4623</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>4504</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4505</v>
+        <v>4625</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>4506</v>
+        <v>4626</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>4507</v>
+        <v>4627</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>4508</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4509</v>
+        <v>4629</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>4510</v>
+        <v>4630</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>4511</v>
+        <v>4631</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>4512</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4513</v>
+        <v>4633</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>4514</v>
+        <v>4634</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>4515</v>
+        <v>4635</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>4516</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4517</v>
+        <v>4637</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>4518</v>
+        <v>4638</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>4519</v>
+        <v>4639</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>4520</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>4521</v>
+        <v>4641</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>4522</v>
+        <v>4642</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>4523</v>
+        <v>4643</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>4524</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="4645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="5005">
   <si>
     <t>FirstName</t>
   </si>
@@ -13949,6 +13949,1086 @@
   </si>
   <si>
     <t>66322</t>
+  </si>
+  <si>
+    <t>Examtaker85711</t>
+  </si>
+  <si>
+    <t>Automation85711</t>
+  </si>
+  <si>
+    <t>examtakerautomation85711@gmail.com</t>
+  </si>
+  <si>
+    <t>85711</t>
+  </si>
+  <si>
+    <t>Examtaker09953</t>
+  </si>
+  <si>
+    <t>Automation09953</t>
+  </si>
+  <si>
+    <t>examtakerautomation09953@gmail.com</t>
+  </si>
+  <si>
+    <t>09953</t>
+  </si>
+  <si>
+    <t>Examtaker57655</t>
+  </si>
+  <si>
+    <t>Automation57655</t>
+  </si>
+  <si>
+    <t>examtakerautomation57655@gmail.com</t>
+  </si>
+  <si>
+    <t>57655</t>
+  </si>
+  <si>
+    <t>Examtaker07097</t>
+  </si>
+  <si>
+    <t>Automation07097</t>
+  </si>
+  <si>
+    <t>examtakerautomation07097@gmail.com</t>
+  </si>
+  <si>
+    <t>07097</t>
+  </si>
+  <si>
+    <t>Examtaker55854</t>
+  </si>
+  <si>
+    <t>Automation55854</t>
+  </si>
+  <si>
+    <t>examtakerautomation55854@gmail.com</t>
+  </si>
+  <si>
+    <t>55854</t>
+  </si>
+  <si>
+    <t>Examtaker19784</t>
+  </si>
+  <si>
+    <t>Automation19784</t>
+  </si>
+  <si>
+    <t>examtakerautomation19784@gmail.com</t>
+  </si>
+  <si>
+    <t>19784</t>
+  </si>
+  <si>
+    <t>Examtaker50445</t>
+  </si>
+  <si>
+    <t>Automation50445</t>
+  </si>
+  <si>
+    <t>examtakerautomation50445@gmail.com</t>
+  </si>
+  <si>
+    <t>50445</t>
+  </si>
+  <si>
+    <t>Examtaker07145</t>
+  </si>
+  <si>
+    <t>Automation07145</t>
+  </si>
+  <si>
+    <t>examtakerautomation07145@gmail.com</t>
+  </si>
+  <si>
+    <t>07145</t>
+  </si>
+  <si>
+    <t>Examtaker56671</t>
+  </si>
+  <si>
+    <t>Automation56671</t>
+  </si>
+  <si>
+    <t>examtakerautomation56671@gmail.com</t>
+  </si>
+  <si>
+    <t>56671</t>
+  </si>
+  <si>
+    <t>Examtaker38902</t>
+  </si>
+  <si>
+    <t>Automation38902</t>
+  </si>
+  <si>
+    <t>examtakerautomation38902@gmail.com</t>
+  </si>
+  <si>
+    <t>38902</t>
+  </si>
+  <si>
+    <t>Examtaker55149</t>
+  </si>
+  <si>
+    <t>Automation55149</t>
+  </si>
+  <si>
+    <t>examtakerautomation55149@gmail.com</t>
+  </si>
+  <si>
+    <t>55149</t>
+  </si>
+  <si>
+    <t>Examtaker63306</t>
+  </si>
+  <si>
+    <t>Automation63306</t>
+  </si>
+  <si>
+    <t>examtakerautomation63306@gmail.com</t>
+  </si>
+  <si>
+    <t>63306</t>
+  </si>
+  <si>
+    <t>Examtaker45424</t>
+  </si>
+  <si>
+    <t>Automation45424</t>
+  </si>
+  <si>
+    <t>examtakerautomation45424@gmail.com</t>
+  </si>
+  <si>
+    <t>45424</t>
+  </si>
+  <si>
+    <t>Examtaker79796</t>
+  </si>
+  <si>
+    <t>Automation79796</t>
+  </si>
+  <si>
+    <t>examtakerautomation79796@gmail.com</t>
+  </si>
+  <si>
+    <t>79796</t>
+  </si>
+  <si>
+    <t>Examtaker48531</t>
+  </si>
+  <si>
+    <t>Automation48531</t>
+  </si>
+  <si>
+    <t>examtakerautomation48531@gmail.com</t>
+  </si>
+  <si>
+    <t>48531</t>
+  </si>
+  <si>
+    <t>Examtaker37216</t>
+  </si>
+  <si>
+    <t>Automation37216</t>
+  </si>
+  <si>
+    <t>examtakerautomation37216@gmail.com</t>
+  </si>
+  <si>
+    <t>37216</t>
+  </si>
+  <si>
+    <t>Examtaker66510</t>
+  </si>
+  <si>
+    <t>Automation66510</t>
+  </si>
+  <si>
+    <t>examtakerautomation66510@gmail.com</t>
+  </si>
+  <si>
+    <t>66510</t>
+  </si>
+  <si>
+    <t>Examtaker11415</t>
+  </si>
+  <si>
+    <t>Automation11415</t>
+  </si>
+  <si>
+    <t>examtakerautomation11415@gmail.com</t>
+  </si>
+  <si>
+    <t>11415</t>
+  </si>
+  <si>
+    <t>Examtaker18276</t>
+  </si>
+  <si>
+    <t>Automation18276</t>
+  </si>
+  <si>
+    <t>examtakerautomation18276@gmail.com</t>
+  </si>
+  <si>
+    <t>18276</t>
+  </si>
+  <si>
+    <t>Examtaker35891</t>
+  </si>
+  <si>
+    <t>Automation35891</t>
+  </si>
+  <si>
+    <t>examtakerautomation35891@gmail.com</t>
+  </si>
+  <si>
+    <t>35891</t>
+  </si>
+  <si>
+    <t>Examtaker48699</t>
+  </si>
+  <si>
+    <t>Automation48699</t>
+  </si>
+  <si>
+    <t>examtakerautomation48699@gmail.com</t>
+  </si>
+  <si>
+    <t>48699</t>
+  </si>
+  <si>
+    <t>Examtaker32267</t>
+  </si>
+  <si>
+    <t>Automation32267</t>
+  </si>
+  <si>
+    <t>examtakerautomation32267@gmail.com</t>
+  </si>
+  <si>
+    <t>32267</t>
+  </si>
+  <si>
+    <t>Examtaker20667</t>
+  </si>
+  <si>
+    <t>Automation20667</t>
+  </si>
+  <si>
+    <t>examtakerautomation20667@gmail.com</t>
+  </si>
+  <si>
+    <t>20667</t>
+  </si>
+  <si>
+    <t>Examtaker85229</t>
+  </si>
+  <si>
+    <t>Automation85229</t>
+  </si>
+  <si>
+    <t>examtakerautomation85229@gmail.com</t>
+  </si>
+  <si>
+    <t>85229</t>
+  </si>
+  <si>
+    <t>Examtaker21752</t>
+  </si>
+  <si>
+    <t>Automation21752</t>
+  </si>
+  <si>
+    <t>examtakerautomation21752@gmail.com</t>
+  </si>
+  <si>
+    <t>21752</t>
+  </si>
+  <si>
+    <t>Examtaker09851</t>
+  </si>
+  <si>
+    <t>Automation09851</t>
+  </si>
+  <si>
+    <t>examtakerautomation09851@gmail.com</t>
+  </si>
+  <si>
+    <t>09851</t>
+  </si>
+  <si>
+    <t>Examtaker66706</t>
+  </si>
+  <si>
+    <t>Automation66706</t>
+  </si>
+  <si>
+    <t>examtakerautomation66706@gmail.com</t>
+  </si>
+  <si>
+    <t>66706</t>
+  </si>
+  <si>
+    <t>Examtaker63961</t>
+  </si>
+  <si>
+    <t>Automation63961</t>
+  </si>
+  <si>
+    <t>examtakerautomation63961@gmail.com</t>
+  </si>
+  <si>
+    <t>63961</t>
+  </si>
+  <si>
+    <t>Examtaker38401</t>
+  </si>
+  <si>
+    <t>Automation38401</t>
+  </si>
+  <si>
+    <t>examtakerautomation38401@gmail.com</t>
+  </si>
+  <si>
+    <t>38401</t>
+  </si>
+  <si>
+    <t>Examtaker58327</t>
+  </si>
+  <si>
+    <t>Automation58327</t>
+  </si>
+  <si>
+    <t>examtakerautomation58327@gmail.com</t>
+  </si>
+  <si>
+    <t>58327</t>
+  </si>
+  <si>
+    <t>Examtaker01742</t>
+  </si>
+  <si>
+    <t>Automation01742</t>
+  </si>
+  <si>
+    <t>examtakerautomation01742@gmail.com</t>
+  </si>
+  <si>
+    <t>01742</t>
+  </si>
+  <si>
+    <t>Examtaker61161</t>
+  </si>
+  <si>
+    <t>Automation61161</t>
+  </si>
+  <si>
+    <t>examtakerautomation61161@gmail.com</t>
+  </si>
+  <si>
+    <t>61161</t>
+  </si>
+  <si>
+    <t>Examtaker71092</t>
+  </si>
+  <si>
+    <t>Automation71092</t>
+  </si>
+  <si>
+    <t>examtakerautomation71092@gmail.com</t>
+  </si>
+  <si>
+    <t>71092</t>
+  </si>
+  <si>
+    <t>Examtaker03115</t>
+  </si>
+  <si>
+    <t>Automation03115</t>
+  </si>
+  <si>
+    <t>examtakerautomation03115@gmail.com</t>
+  </si>
+  <si>
+    <t>03115</t>
+  </si>
+  <si>
+    <t>Examtaker48562</t>
+  </si>
+  <si>
+    <t>Automation48562</t>
+  </si>
+  <si>
+    <t>examtakerautomation48562@gmail.com</t>
+  </si>
+  <si>
+    <t>48562</t>
+  </si>
+  <si>
+    <t>Examtaker06005</t>
+  </si>
+  <si>
+    <t>Automation06005</t>
+  </si>
+  <si>
+    <t>examtakerautomation06005@gmail.com</t>
+  </si>
+  <si>
+    <t>06005</t>
+  </si>
+  <si>
+    <t>Examtaker54459</t>
+  </si>
+  <si>
+    <t>Automation54459</t>
+  </si>
+  <si>
+    <t>examtakerautomation54459@gmail.com</t>
+  </si>
+  <si>
+    <t>54459</t>
+  </si>
+  <si>
+    <t>Examtaker86878</t>
+  </si>
+  <si>
+    <t>Automation86878</t>
+  </si>
+  <si>
+    <t>examtakerautomation86878@gmail.com</t>
+  </si>
+  <si>
+    <t>86878</t>
+  </si>
+  <si>
+    <t>Examtaker86115</t>
+  </si>
+  <si>
+    <t>Automation86115</t>
+  </si>
+  <si>
+    <t>examtakerautomation86115@gmail.com</t>
+  </si>
+  <si>
+    <t>86115</t>
+  </si>
+  <si>
+    <t>Examtaker04837</t>
+  </si>
+  <si>
+    <t>Automation04837</t>
+  </si>
+  <si>
+    <t>examtakerautomation04837@gmail.com</t>
+  </si>
+  <si>
+    <t>04837</t>
+  </si>
+  <si>
+    <t>Examtaker58309</t>
+  </si>
+  <si>
+    <t>Automation58309</t>
+  </si>
+  <si>
+    <t>examtakerautomation58309@gmail.com</t>
+  </si>
+  <si>
+    <t>58309</t>
+  </si>
+  <si>
+    <t>Examtaker71867</t>
+  </si>
+  <si>
+    <t>Automation71867</t>
+  </si>
+  <si>
+    <t>examtakerautomation71867@gmail.com</t>
+  </si>
+  <si>
+    <t>71867</t>
+  </si>
+  <si>
+    <t>Examtaker58671</t>
+  </si>
+  <si>
+    <t>Automation58671</t>
+  </si>
+  <si>
+    <t>examtakerautomation58671@gmail.com</t>
+  </si>
+  <si>
+    <t>58671</t>
+  </si>
+  <si>
+    <t>Examtaker83146</t>
+  </si>
+  <si>
+    <t>Automation83146</t>
+  </si>
+  <si>
+    <t>examtakerautomation83146@gmail.com</t>
+  </si>
+  <si>
+    <t>83146</t>
+  </si>
+  <si>
+    <t>Examtaker44562</t>
+  </si>
+  <si>
+    <t>Automation44562</t>
+  </si>
+  <si>
+    <t>examtakerautomation44562@gmail.com</t>
+  </si>
+  <si>
+    <t>44562</t>
+  </si>
+  <si>
+    <t>Examtaker12734</t>
+  </si>
+  <si>
+    <t>Automation12734</t>
+  </si>
+  <si>
+    <t>examtakerautomation12734@gmail.com</t>
+  </si>
+  <si>
+    <t>12734</t>
+  </si>
+  <si>
+    <t>Examtaker41167</t>
+  </si>
+  <si>
+    <t>Automation41167</t>
+  </si>
+  <si>
+    <t>examtakerautomation41167@gmail.com</t>
+  </si>
+  <si>
+    <t>41167</t>
+  </si>
+  <si>
+    <t>Examtaker04330</t>
+  </si>
+  <si>
+    <t>Automation04330</t>
+  </si>
+  <si>
+    <t>examtakerautomation04330@gmail.com</t>
+  </si>
+  <si>
+    <t>04330</t>
+  </si>
+  <si>
+    <t>Examtaker60433</t>
+  </si>
+  <si>
+    <t>Automation60433</t>
+  </si>
+  <si>
+    <t>examtakerautomation60433@gmail.com</t>
+  </si>
+  <si>
+    <t>60433</t>
+  </si>
+  <si>
+    <t>Examtaker67343</t>
+  </si>
+  <si>
+    <t>Automation67343</t>
+  </si>
+  <si>
+    <t>examtakerautomation67343@gmail.com</t>
+  </si>
+  <si>
+    <t>67343</t>
+  </si>
+  <si>
+    <t>Examtaker54652</t>
+  </si>
+  <si>
+    <t>Automation54652</t>
+  </si>
+  <si>
+    <t>examtakerautomation54652@gmail.com</t>
+  </si>
+  <si>
+    <t>54652</t>
+  </si>
+  <si>
+    <t>Examtaker22165</t>
+  </si>
+  <si>
+    <t>Automation22165</t>
+  </si>
+  <si>
+    <t>examtakerautomation22165@gmail.com</t>
+  </si>
+  <si>
+    <t>22165</t>
+  </si>
+  <si>
+    <t>Examtaker24785</t>
+  </si>
+  <si>
+    <t>Automation24785</t>
+  </si>
+  <si>
+    <t>examtakerautomation24785@gmail.com</t>
+  </si>
+  <si>
+    <t>24785</t>
+  </si>
+  <si>
+    <t>Examtaker17599</t>
+  </si>
+  <si>
+    <t>Automation17599</t>
+  </si>
+  <si>
+    <t>examtakerautomation17599@gmail.com</t>
+  </si>
+  <si>
+    <t>17599</t>
+  </si>
+  <si>
+    <t>Examtaker17131</t>
+  </si>
+  <si>
+    <t>Automation17131</t>
+  </si>
+  <si>
+    <t>examtakerautomation17131@gmail.com</t>
+  </si>
+  <si>
+    <t>17131</t>
+  </si>
+  <si>
+    <t>Examtaker91773</t>
+  </si>
+  <si>
+    <t>Automation91773</t>
+  </si>
+  <si>
+    <t>examtakerautomation91773@gmail.com</t>
+  </si>
+  <si>
+    <t>91773</t>
+  </si>
+  <si>
+    <t>Examtaker05654</t>
+  </si>
+  <si>
+    <t>Automation05654</t>
+  </si>
+  <si>
+    <t>examtakerautomation05654@gmail.com</t>
+  </si>
+  <si>
+    <t>05654</t>
+  </si>
+  <si>
+    <t>Examtaker07402</t>
+  </si>
+  <si>
+    <t>Automation07402</t>
+  </si>
+  <si>
+    <t>examtakerautomation07402@gmail.com</t>
+  </si>
+  <si>
+    <t>07402</t>
+  </si>
+  <si>
+    <t>Examtaker47139</t>
+  </si>
+  <si>
+    <t>Automation47139</t>
+  </si>
+  <si>
+    <t>examtakerautomation47139@gmail.com</t>
+  </si>
+  <si>
+    <t>47139</t>
+  </si>
+  <si>
+    <t>Examtaker53899</t>
+  </si>
+  <si>
+    <t>Automation53899</t>
+  </si>
+  <si>
+    <t>examtakerautomation53899@gmail.com</t>
+  </si>
+  <si>
+    <t>53899</t>
+  </si>
+  <si>
+    <t>Examtaker16949</t>
+  </si>
+  <si>
+    <t>Automation16949</t>
+  </si>
+  <si>
+    <t>examtakerautomation16949@gmail.com</t>
+  </si>
+  <si>
+    <t>16949</t>
+  </si>
+  <si>
+    <t>Examtaker54318</t>
+  </si>
+  <si>
+    <t>Automation54318</t>
+  </si>
+  <si>
+    <t>examtakerautomation54318@gmail.com</t>
+  </si>
+  <si>
+    <t>54318</t>
+  </si>
+  <si>
+    <t>Examtaker49578</t>
+  </si>
+  <si>
+    <t>Automation49578</t>
+  </si>
+  <si>
+    <t>examtakerautomation49578@gmail.com</t>
+  </si>
+  <si>
+    <t>49578</t>
+  </si>
+  <si>
+    <t>Examtaker73763</t>
+  </si>
+  <si>
+    <t>Automation73763</t>
+  </si>
+  <si>
+    <t>examtakerautomation73763@gmail.com</t>
+  </si>
+  <si>
+    <t>73763</t>
+  </si>
+  <si>
+    <t>Examtaker37943</t>
+  </si>
+  <si>
+    <t>Automation37943</t>
+  </si>
+  <si>
+    <t>examtakerautomation37943@gmail.com</t>
+  </si>
+  <si>
+    <t>37943</t>
+  </si>
+  <si>
+    <t>Examtaker30796</t>
+  </si>
+  <si>
+    <t>Automation30796</t>
+  </si>
+  <si>
+    <t>examtakerautomation30796@gmail.com</t>
+  </si>
+  <si>
+    <t>30796</t>
+  </si>
+  <si>
+    <t>Examtaker28494</t>
+  </si>
+  <si>
+    <t>Automation28494</t>
+  </si>
+  <si>
+    <t>examtakerautomation28494@gmail.com</t>
+  </si>
+  <si>
+    <t>28494</t>
+  </si>
+  <si>
+    <t>Examtaker67851</t>
+  </si>
+  <si>
+    <t>Automation67851</t>
+  </si>
+  <si>
+    <t>examtakerautomation67851@gmail.com</t>
+  </si>
+  <si>
+    <t>67851</t>
+  </si>
+  <si>
+    <t>Examtaker92694</t>
+  </si>
+  <si>
+    <t>Automation92694</t>
+  </si>
+  <si>
+    <t>examtakerautomation92694@gmail.com</t>
+  </si>
+  <si>
+    <t>92694</t>
+  </si>
+  <si>
+    <t>Examtaker43584</t>
+  </si>
+  <si>
+    <t>Automation43584</t>
+  </si>
+  <si>
+    <t>examtakerautomation43584@gmail.com</t>
+  </si>
+  <si>
+    <t>43584</t>
+  </si>
+  <si>
+    <t>Examtaker84945</t>
+  </si>
+  <si>
+    <t>Automation84945</t>
+  </si>
+  <si>
+    <t>examtakerautomation84945@gmail.com</t>
+  </si>
+  <si>
+    <t>84945</t>
+  </si>
+  <si>
+    <t>Examtaker48764</t>
+  </si>
+  <si>
+    <t>Automation48764</t>
+  </si>
+  <si>
+    <t>examtakerautomation48764@gmail.com</t>
+  </si>
+  <si>
+    <t>48764</t>
+  </si>
+  <si>
+    <t>Examtaker52475</t>
+  </si>
+  <si>
+    <t>Automation52475</t>
+  </si>
+  <si>
+    <t>examtakerautomation52475@gmail.com</t>
+  </si>
+  <si>
+    <t>52475</t>
+  </si>
+  <si>
+    <t>Examtaker05212</t>
+  </si>
+  <si>
+    <t>Automation05212</t>
+  </si>
+  <si>
+    <t>examtakerautomation05212@gmail.com</t>
+  </si>
+  <si>
+    <t>05212</t>
+  </si>
+  <si>
+    <t>Examtaker87033</t>
+  </si>
+  <si>
+    <t>Automation87033</t>
+  </si>
+  <si>
+    <t>examtakerautomation87033@gmail.com</t>
+  </si>
+  <si>
+    <t>87033</t>
+  </si>
+  <si>
+    <t>Examtaker81389</t>
+  </si>
+  <si>
+    <t>Automation81389</t>
+  </si>
+  <si>
+    <t>examtakerautomation81389@gmail.com</t>
+  </si>
+  <si>
+    <t>81389</t>
+  </si>
+  <si>
+    <t>Examtaker51118</t>
+  </si>
+  <si>
+    <t>Automation51118</t>
+  </si>
+  <si>
+    <t>examtakerautomation51118@gmail.com</t>
+  </si>
+  <si>
+    <t>51118</t>
+  </si>
+  <si>
+    <t>Examtaker07648</t>
+  </si>
+  <si>
+    <t>Automation07648</t>
+  </si>
+  <si>
+    <t>examtakerautomation07648@gmail.com</t>
+  </si>
+  <si>
+    <t>07648</t>
+  </si>
+  <si>
+    <t>Examtaker11747</t>
+  </si>
+  <si>
+    <t>Automation11747</t>
+  </si>
+  <si>
+    <t>examtakerautomation11747@gmail.com</t>
+  </si>
+  <si>
+    <t>11747</t>
+  </si>
+  <si>
+    <t>Examtaker56537</t>
+  </si>
+  <si>
+    <t>Automation56537</t>
+  </si>
+  <si>
+    <t>examtakerautomation56537@gmail.com</t>
+  </si>
+  <si>
+    <t>56537</t>
+  </si>
+  <si>
+    <t>Examtaker78894</t>
+  </si>
+  <si>
+    <t>Automation78894</t>
+  </si>
+  <si>
+    <t>examtakerautomation78894@gmail.com</t>
+  </si>
+  <si>
+    <t>78894</t>
+  </si>
+  <si>
+    <t>Examtaker32676</t>
+  </si>
+  <si>
+    <t>Automation32676</t>
+  </si>
+  <si>
+    <t>examtakerautomation32676@gmail.com</t>
+  </si>
+  <si>
+    <t>32676</t>
+  </si>
+  <si>
+    <t>Examtaker02717</t>
+  </si>
+  <si>
+    <t>Automation02717</t>
+  </si>
+  <si>
+    <t>examtakerautomation02717@gmail.com</t>
+  </si>
+  <si>
+    <t>02717</t>
+  </si>
+  <si>
+    <t>Examtaker07064</t>
+  </si>
+  <si>
+    <t>Automation07064</t>
+  </si>
+  <si>
+    <t>examtakerautomation07064@gmail.com</t>
+  </si>
+  <si>
+    <t>07064</t>
+  </si>
+  <si>
+    <t>Examtaker84076</t>
+  </si>
+  <si>
+    <t>Automation84076</t>
+  </si>
+  <si>
+    <t>examtakerautomation84076@gmail.com</t>
+  </si>
+  <si>
+    <t>84076</t>
+  </si>
+  <si>
+    <t>Examtaker56678</t>
+  </si>
+  <si>
+    <t>Automation56678</t>
+  </si>
+  <si>
+    <t>examtakerautomation56678@gmail.com</t>
+  </si>
+  <si>
+    <t>56678</t>
+  </si>
+  <si>
+    <t>Examtaker58847</t>
+  </si>
+  <si>
+    <t>Automation58847</t>
+  </si>
+  <si>
+    <t>examtakerautomation58847@gmail.com</t>
+  </si>
+  <si>
+    <t>58847</t>
+  </si>
+  <si>
+    <t>Examtaker51791</t>
+  </si>
+  <si>
+    <t>Automation51791</t>
+  </si>
+  <si>
+    <t>examtakerautomation51791@gmail.com</t>
+  </si>
+  <si>
+    <t>51791</t>
+  </si>
+  <si>
+    <t>Examtaker16243</t>
+  </si>
+  <si>
+    <t>Automation16243</t>
+  </si>
+  <si>
+    <t>examtakerautomation16243@gmail.com</t>
+  </si>
+  <si>
+    <t>16243</t>
+  </si>
+  <si>
+    <t>Examtaker19043</t>
+  </si>
+  <si>
+    <t>Automation19043</t>
+  </si>
+  <si>
+    <t>examtakerautomation19043@gmail.com</t>
+  </si>
+  <si>
+    <t>19043</t>
   </si>
 </sst>
 </file>
@@ -14359,422 +15439,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4525</v>
+        <v>4885</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4526</v>
+        <v>4886</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4527</v>
+        <v>4887</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4528</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4529</v>
+        <v>4889</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4530</v>
+        <v>4890</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4531</v>
+        <v>4891</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4532</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4533</v>
+        <v>4893</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4534</v>
+        <v>4894</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4535</v>
+        <v>4895</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4536</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4537</v>
+        <v>4897</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4538</v>
+        <v>4898</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4539</v>
+        <v>4899</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4540</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4541</v>
+        <v>4901</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4542</v>
+        <v>4902</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4543</v>
+        <v>4903</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4544</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4545</v>
+        <v>4905</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4546</v>
+        <v>4906</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4547</v>
+        <v>4907</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4548</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4549</v>
+        <v>4909</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4550</v>
+        <v>4910</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4551</v>
+        <v>4911</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4552</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4553</v>
+        <v>4913</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4554</v>
+        <v>4914</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4555</v>
+        <v>4915</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>4556</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4557</v>
+        <v>4917</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4558</v>
+        <v>4918</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4559</v>
+        <v>4919</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4560</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4561</v>
+        <v>4921</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4562</v>
+        <v>4922</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4563</v>
+        <v>4923</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4564</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4565</v>
+        <v>4925</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4566</v>
+        <v>4926</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4567</v>
+        <v>4927</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4568</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4569</v>
+        <v>4929</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4570</v>
+        <v>4930</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4571</v>
+        <v>4931</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4572</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4573</v>
+        <v>4933</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4574</v>
+        <v>4934</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4575</v>
+        <v>4935</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4576</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4577</v>
+        <v>4937</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4578</v>
+        <v>4938</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4579</v>
+        <v>4939</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4580</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4581</v>
+        <v>4941</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4582</v>
+        <v>4942</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4583</v>
+        <v>4943</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4584</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4585</v>
+        <v>4945</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4586</v>
+        <v>4946</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4587</v>
+        <v>4947</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4588</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4589</v>
+        <v>4949</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4590</v>
+        <v>4950</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4591</v>
+        <v>4951</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4592</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4593</v>
+        <v>4953</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4594</v>
+        <v>4954</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4595</v>
+        <v>4955</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4596</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4597</v>
+        <v>4957</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4598</v>
+        <v>4958</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4599</v>
+        <v>4959</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4600</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4601</v>
+        <v>4961</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4602</v>
+        <v>4962</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4603</v>
+        <v>4963</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4604</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4605</v>
+        <v>4965</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4606</v>
+        <v>4966</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4607</v>
+        <v>4967</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4608</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4609</v>
+        <v>4969</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4610</v>
+        <v>4970</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4611</v>
+        <v>4971</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4612</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4613</v>
+        <v>4973</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4614</v>
+        <v>4974</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>4615</v>
+        <v>4975</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4616</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4617</v>
+        <v>4977</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>4618</v>
+        <v>4978</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4619</v>
+        <v>4979</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4620</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4621</v>
+        <v>4981</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>4622</v>
+        <v>4982</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>4623</v>
+        <v>4983</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>4624</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4625</v>
+        <v>4985</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>4626</v>
+        <v>4986</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>4627</v>
+        <v>4987</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>4628</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4629</v>
+        <v>4989</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>4630</v>
+        <v>4990</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>4631</v>
+        <v>4991</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>4632</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4633</v>
+        <v>4993</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>4634</v>
+        <v>4994</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>4635</v>
+        <v>4995</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>4636</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4637</v>
+        <v>4997</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>4638</v>
+        <v>4998</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>4639</v>
+        <v>4999</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>4640</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>4641</v>
+        <v>5001</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>4642</v>
+        <v>5002</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>4643</v>
+        <v>5003</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>4644</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="5005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="5125">
   <si>
     <t>FirstName</t>
   </si>
@@ -15029,6 +15029,366 @@
   </si>
   <si>
     <t>19043</t>
+  </si>
+  <si>
+    <t>Examtaker42276</t>
+  </si>
+  <si>
+    <t>Automation42276</t>
+  </si>
+  <si>
+    <t>examtakerautomation42276@gmail.com</t>
+  </si>
+  <si>
+    <t>42276</t>
+  </si>
+  <si>
+    <t>Examtaker25213</t>
+  </si>
+  <si>
+    <t>Automation25213</t>
+  </si>
+  <si>
+    <t>examtakerautomation25213@gmail.com</t>
+  </si>
+  <si>
+    <t>25213</t>
+  </si>
+  <si>
+    <t>Examtaker34152</t>
+  </si>
+  <si>
+    <t>Automation34152</t>
+  </si>
+  <si>
+    <t>examtakerautomation34152@gmail.com</t>
+  </si>
+  <si>
+    <t>34152</t>
+  </si>
+  <si>
+    <t>Examtaker58043</t>
+  </si>
+  <si>
+    <t>Automation58043</t>
+  </si>
+  <si>
+    <t>examtakerautomation58043@gmail.com</t>
+  </si>
+  <si>
+    <t>58043</t>
+  </si>
+  <si>
+    <t>Examtaker16009</t>
+  </si>
+  <si>
+    <t>Automation16009</t>
+  </si>
+  <si>
+    <t>examtakerautomation16009@gmail.com</t>
+  </si>
+  <si>
+    <t>16009</t>
+  </si>
+  <si>
+    <t>Examtaker89714</t>
+  </si>
+  <si>
+    <t>Automation89714</t>
+  </si>
+  <si>
+    <t>examtakerautomation89714@gmail.com</t>
+  </si>
+  <si>
+    <t>89714</t>
+  </si>
+  <si>
+    <t>Examtaker53506</t>
+  </si>
+  <si>
+    <t>Automation53506</t>
+  </si>
+  <si>
+    <t>examtakerautomation53506@gmail.com</t>
+  </si>
+  <si>
+    <t>53506</t>
+  </si>
+  <si>
+    <t>Examtaker30412</t>
+  </si>
+  <si>
+    <t>Automation30412</t>
+  </si>
+  <si>
+    <t>examtakerautomation30412@gmail.com</t>
+  </si>
+  <si>
+    <t>30412</t>
+  </si>
+  <si>
+    <t>Examtaker21414</t>
+  </si>
+  <si>
+    <t>Automation21414</t>
+  </si>
+  <si>
+    <t>examtakerautomation21414@gmail.com</t>
+  </si>
+  <si>
+    <t>21414</t>
+  </si>
+  <si>
+    <t>Examtaker72256</t>
+  </si>
+  <si>
+    <t>Automation72256</t>
+  </si>
+  <si>
+    <t>examtakerautomation72256@gmail.com</t>
+  </si>
+  <si>
+    <t>72256</t>
+  </si>
+  <si>
+    <t>Examtaker78165</t>
+  </si>
+  <si>
+    <t>Automation78165</t>
+  </si>
+  <si>
+    <t>examtakerautomation78165@gmail.com</t>
+  </si>
+  <si>
+    <t>78165</t>
+  </si>
+  <si>
+    <t>Examtaker77090</t>
+  </si>
+  <si>
+    <t>Automation77090</t>
+  </si>
+  <si>
+    <t>examtakerautomation77090@gmail.com</t>
+  </si>
+  <si>
+    <t>77090</t>
+  </si>
+  <si>
+    <t>Examtaker41552</t>
+  </si>
+  <si>
+    <t>Automation41552</t>
+  </si>
+  <si>
+    <t>examtakerautomation41552@gmail.com</t>
+  </si>
+  <si>
+    <t>41552</t>
+  </si>
+  <si>
+    <t>Examtaker73759</t>
+  </si>
+  <si>
+    <t>Automation73759</t>
+  </si>
+  <si>
+    <t>examtakerautomation73759@gmail.com</t>
+  </si>
+  <si>
+    <t>73759</t>
+  </si>
+  <si>
+    <t>Examtaker81655</t>
+  </si>
+  <si>
+    <t>Automation81655</t>
+  </si>
+  <si>
+    <t>examtakerautomation81655@gmail.com</t>
+  </si>
+  <si>
+    <t>81655</t>
+  </si>
+  <si>
+    <t>Examtaker05997</t>
+  </si>
+  <si>
+    <t>Automation05997</t>
+  </si>
+  <si>
+    <t>examtakerautomation05997@gmail.com</t>
+  </si>
+  <si>
+    <t>05997</t>
+  </si>
+  <si>
+    <t>Examtaker52492</t>
+  </si>
+  <si>
+    <t>Automation52492</t>
+  </si>
+  <si>
+    <t>examtakerautomation52492@gmail.com</t>
+  </si>
+  <si>
+    <t>52492</t>
+  </si>
+  <si>
+    <t>Examtaker72373</t>
+  </si>
+  <si>
+    <t>Automation72373</t>
+  </si>
+  <si>
+    <t>examtakerautomation72373@gmail.com</t>
+  </si>
+  <si>
+    <t>72373</t>
+  </si>
+  <si>
+    <t>Examtaker68417</t>
+  </si>
+  <si>
+    <t>Automation68417</t>
+  </si>
+  <si>
+    <t>examtakerautomation68417@gmail.com</t>
+  </si>
+  <si>
+    <t>68417</t>
+  </si>
+  <si>
+    <t>Examtaker46605</t>
+  </si>
+  <si>
+    <t>Automation46605</t>
+  </si>
+  <si>
+    <t>examtakerautomation46605@gmail.com</t>
+  </si>
+  <si>
+    <t>46605</t>
+  </si>
+  <si>
+    <t>Examtaker25272</t>
+  </si>
+  <si>
+    <t>Automation25272</t>
+  </si>
+  <si>
+    <t>examtakerautomation25272@gmail.com</t>
+  </si>
+  <si>
+    <t>25272</t>
+  </si>
+  <si>
+    <t>Examtaker19611</t>
+  </si>
+  <si>
+    <t>Automation19611</t>
+  </si>
+  <si>
+    <t>examtakerautomation19611@gmail.com</t>
+  </si>
+  <si>
+    <t>19611</t>
+  </si>
+  <si>
+    <t>Examtaker59754</t>
+  </si>
+  <si>
+    <t>Automation59754</t>
+  </si>
+  <si>
+    <t>examtakerautomation59754@gmail.com</t>
+  </si>
+  <si>
+    <t>59754</t>
+  </si>
+  <si>
+    <t>Examtaker43968</t>
+  </si>
+  <si>
+    <t>Automation43968</t>
+  </si>
+  <si>
+    <t>examtakerautomation43968@gmail.com</t>
+  </si>
+  <si>
+    <t>43968</t>
+  </si>
+  <si>
+    <t>Examtaker07054</t>
+  </si>
+  <si>
+    <t>Automation07054</t>
+  </si>
+  <si>
+    <t>examtakerautomation07054@gmail.com</t>
+  </si>
+  <si>
+    <t>07054</t>
+  </si>
+  <si>
+    <t>Examtaker92122</t>
+  </si>
+  <si>
+    <t>Automation92122</t>
+  </si>
+  <si>
+    <t>examtakerautomation92122@gmail.com</t>
+  </si>
+  <si>
+    <t>92122</t>
+  </si>
+  <si>
+    <t>Examtaker80371</t>
+  </si>
+  <si>
+    <t>Automation80371</t>
+  </si>
+  <si>
+    <t>examtakerautomation80371@gmail.com</t>
+  </si>
+  <si>
+    <t>80371</t>
+  </si>
+  <si>
+    <t>Examtaker96876</t>
+  </si>
+  <si>
+    <t>Automation96876</t>
+  </si>
+  <si>
+    <t>examtakerautomation96876@gmail.com</t>
+  </si>
+  <si>
+    <t>96876</t>
+  </si>
+  <si>
+    <t>Examtaker13906</t>
+  </si>
+  <si>
+    <t>Automation13906</t>
+  </si>
+  <si>
+    <t>examtakerautomation13906@gmail.com</t>
+  </si>
+  <si>
+    <t>13906</t>
+  </si>
+  <si>
+    <t>Examtaker92035</t>
+  </si>
+  <si>
+    <t>Automation92035</t>
+  </si>
+  <si>
+    <t>examtakerautomation92035@gmail.com</t>
+  </si>
+  <si>
+    <t>92035</t>
   </si>
 </sst>
 </file>
@@ -15439,422 +15799,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4885</v>
+        <v>5005</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4886</v>
+        <v>5006</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4887</v>
+        <v>5007</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4888</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4889</v>
+        <v>5009</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4890</v>
+        <v>5010</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4891</v>
+        <v>5011</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4892</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4893</v>
+        <v>5013</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4894</v>
+        <v>5014</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4895</v>
+        <v>5015</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4896</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4897</v>
+        <v>5017</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4898</v>
+        <v>5018</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4899</v>
+        <v>5019</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4900</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4901</v>
+        <v>5021</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4902</v>
+        <v>5022</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4903</v>
+        <v>5023</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4904</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4905</v>
+        <v>5025</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4906</v>
+        <v>5026</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4907</v>
+        <v>5027</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4908</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4909</v>
+        <v>5029</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4910</v>
+        <v>5030</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4911</v>
+        <v>5031</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4912</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4913</v>
+        <v>5033</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4914</v>
+        <v>5034</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4915</v>
+        <v>5035</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>4916</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4917</v>
+        <v>5037</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4918</v>
+        <v>5038</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4919</v>
+        <v>5039</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4920</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4921</v>
+        <v>5041</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4922</v>
+        <v>5042</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4923</v>
+        <v>5043</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4924</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4925</v>
+        <v>5045</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4926</v>
+        <v>5046</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4927</v>
+        <v>5047</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4928</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4929</v>
+        <v>5049</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4930</v>
+        <v>5050</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4931</v>
+        <v>5051</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4932</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4933</v>
+        <v>5053</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4934</v>
+        <v>5054</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4935</v>
+        <v>5055</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4936</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4937</v>
+        <v>5057</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4938</v>
+        <v>5058</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4939</v>
+        <v>5059</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4940</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4941</v>
+        <v>5061</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4942</v>
+        <v>5062</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4943</v>
+        <v>5063</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4944</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4945</v>
+        <v>5065</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4946</v>
+        <v>5066</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4947</v>
+        <v>5067</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4948</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4949</v>
+        <v>5069</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4950</v>
+        <v>5070</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4951</v>
+        <v>5071</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4952</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4953</v>
+        <v>5073</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4954</v>
+        <v>5074</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4955</v>
+        <v>5075</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4956</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4957</v>
+        <v>5077</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4958</v>
+        <v>5078</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4959</v>
+        <v>5079</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4960</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4961</v>
+        <v>5081</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4962</v>
+        <v>5082</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4963</v>
+        <v>5083</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4964</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4965</v>
+        <v>5085</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4966</v>
+        <v>5086</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4967</v>
+        <v>5087</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4968</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4969</v>
+        <v>5089</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4970</v>
+        <v>5090</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4971</v>
+        <v>5091</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4972</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4973</v>
+        <v>5093</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4974</v>
+        <v>5094</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>4975</v>
+        <v>5095</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4976</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4977</v>
+        <v>5097</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>4978</v>
+        <v>5098</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4979</v>
+        <v>5099</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4980</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4981</v>
+        <v>5101</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>4982</v>
+        <v>5102</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>4983</v>
+        <v>5103</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>4984</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4985</v>
+        <v>5105</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>4986</v>
+        <v>5106</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>4987</v>
+        <v>5107</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>4988</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4989</v>
+        <v>5109</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>4990</v>
+        <v>5110</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>4991</v>
+        <v>5111</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>4992</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4993</v>
+        <v>5113</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>4994</v>
+        <v>5114</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>4995</v>
+        <v>5115</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>4996</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4997</v>
+        <v>5117</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>4998</v>
+        <v>5118</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>4999</v>
+        <v>5119</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>5000</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5001</v>
+        <v>5121</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>5002</v>
+        <v>5122</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>5003</v>
+        <v>5123</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>5004</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Exam Takers Template.xlsx
+++ b/src/test/resources/Files/Exam Takers Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="5125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="5717">
   <si>
     <t>FirstName</t>
   </si>
@@ -15389,6 +15389,1782 @@
   </si>
   <si>
     <t>92035</t>
+  </si>
+  <si>
+    <t>Examtaker00037</t>
+  </si>
+  <si>
+    <t>Automation00037</t>
+  </si>
+  <si>
+    <t>examtakerautomation00037@gmail.com</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>Examtaker69013</t>
+  </si>
+  <si>
+    <t>Automation69013</t>
+  </si>
+  <si>
+    <t>examtakerautomation69013@gmail.com</t>
+  </si>
+  <si>
+    <t>69013</t>
+  </si>
+  <si>
+    <t>Examtaker27755</t>
+  </si>
+  <si>
+    <t>Automation27755</t>
+  </si>
+  <si>
+    <t>examtakerautomation27755@gmail.com</t>
+  </si>
+  <si>
+    <t>27755</t>
+  </si>
+  <si>
+    <t>Examtaker10402</t>
+  </si>
+  <si>
+    <t>Automation10402</t>
+  </si>
+  <si>
+    <t>examtakerautomation10402@gmail.com</t>
+  </si>
+  <si>
+    <t>10402</t>
+  </si>
+  <si>
+    <t>Examtaker04328</t>
+  </si>
+  <si>
+    <t>Automation04328</t>
+  </si>
+  <si>
+    <t>examtakerautomation04328@gmail.com</t>
+  </si>
+  <si>
+    <t>04328</t>
+  </si>
+  <si>
+    <t>Examtaker01802</t>
+  </si>
+  <si>
+    <t>Automation01802</t>
+  </si>
+  <si>
+    <t>examtakerautomation01802@gmail.com</t>
+  </si>
+  <si>
+    <t>01802</t>
+  </si>
+  <si>
+    <t>Examtaker30807</t>
+  </si>
+  <si>
+    <t>Automation30807</t>
+  </si>
+  <si>
+    <t>examtakerautomation30807@gmail.com</t>
+  </si>
+  <si>
+    <t>30807</t>
+  </si>
+  <si>
+    <t>Examtaker65730</t>
+  </si>
+  <si>
+    <t>Automation65730</t>
+  </si>
+  <si>
+    <t>examtakerautomation65730@gmail.com</t>
+  </si>
+  <si>
+    <t>65730</t>
+  </si>
+  <si>
+    <t>Examtaker85115</t>
+  </si>
+  <si>
+    <t>Automation85115</t>
+  </si>
+  <si>
+    <t>examtakerautomation85115@gmail.com</t>
+  </si>
+  <si>
+    <t>85115</t>
+  </si>
+  <si>
+    <t>Examtaker90472</t>
+  </si>
+  <si>
+    <t>Automation90472</t>
+  </si>
+  <si>
+    <t>examtakerautomation90472@gmail.com</t>
+  </si>
+  <si>
+    <t>90472</t>
+  </si>
+  <si>
+    <t>Examtaker57012</t>
+  </si>
+  <si>
+    <t>Automation57012</t>
+  </si>
+  <si>
+    <t>examtakerautomation57012@gmail.com</t>
+  </si>
+  <si>
+    <t>57012</t>
+  </si>
+  <si>
+    <t>Examtaker13912</t>
+  </si>
+  <si>
+    <t>Automation13912</t>
+  </si>
+  <si>
+    <t>examtakerautomation13912@gmail.com</t>
+  </si>
+  <si>
+    <t>13912</t>
+  </si>
+  <si>
+    <t>Examtaker22226</t>
+  </si>
+  <si>
+    <t>Automation22226</t>
+  </si>
+  <si>
+    <t>examtakerautomation22226@gmail.com</t>
+  </si>
+  <si>
+    <t>22226</t>
+  </si>
+  <si>
+    <t>Examtaker26032</t>
+  </si>
+  <si>
+    <t>Automation26032</t>
+  </si>
+  <si>
+    <t>examtakerautomation26032@gmail.com</t>
+  </si>
+  <si>
+    <t>26032</t>
+  </si>
+  <si>
+    <t>Examtaker68576</t>
+  </si>
+  <si>
+    <t>Automation68576</t>
+  </si>
+  <si>
+    <t>examtakerautomation68576@gmail.com</t>
+  </si>
+  <si>
+    <t>68576</t>
+  </si>
+  <si>
+    <t>Examtaker67116</t>
+  </si>
+  <si>
+    <t>Automation67116</t>
+  </si>
+  <si>
+    <t>examtakerautomation67116@gmail.com</t>
+  </si>
+  <si>
+    <t>67116</t>
+  </si>
+  <si>
+    <t>Examtaker12653</t>
+  </si>
+  <si>
+    <t>Automation12653</t>
+  </si>
+  <si>
+    <t>examtakerautomation12653@gmail.com</t>
+  </si>
+  <si>
+    <t>12653</t>
+  </si>
+  <si>
+    <t>Examtaker74394</t>
+  </si>
+  <si>
+    <t>Automation74394</t>
+  </si>
+  <si>
+    <t>examtakerautomation74394@gmail.com</t>
+  </si>
+  <si>
+    <t>74394</t>
+  </si>
+  <si>
+    <t>Examtaker35698</t>
+  </si>
+  <si>
+    <t>Automation35698</t>
+  </si>
+  <si>
+    <t>examtakerautomation35698@gmail.com</t>
+  </si>
+  <si>
+    <t>35698</t>
+  </si>
+  <si>
+    <t>Examtaker01814</t>
+  </si>
+  <si>
+    <t>Automation01814</t>
+  </si>
+  <si>
+    <t>examtakerautomation01814@gmail.com</t>
+  </si>
+  <si>
+    <t>01814</t>
+  </si>
+  <si>
+    <t>Examtaker77953</t>
+  </si>
+  <si>
+    <t>Automation77953</t>
+  </si>
+  <si>
+    <t>examtakerautomation77953@gmail.com</t>
+  </si>
+  <si>
+    <t>77953</t>
+  </si>
+  <si>
+    <t>Examtaker08264</t>
+  </si>
+  <si>
+    <t>Automation08264</t>
+  </si>
+  <si>
+    <t>examtakerautomation08264@gmail.com</t>
+  </si>
+  <si>
+    <t>08264</t>
+  </si>
+  <si>
+    <t>Examtaker89429</t>
+  </si>
+  <si>
+    <t>Automation89429</t>
+  </si>
+  <si>
+    <t>examtakerautomation89429@gmail.com</t>
+  </si>
+  <si>
+    <t>89429</t>
+  </si>
+  <si>
+    <t>Examtaker97882</t>
+  </si>
+  <si>
+    <t>Automation97882</t>
+  </si>
+  <si>
+    <t>examtakerautomation97882@gmail.com</t>
+  </si>
+  <si>
+    <t>97882</t>
+  </si>
+  <si>
+    <t>Examtaker10543</t>
+  </si>
+  <si>
+    <t>Automation10543</t>
+  </si>
+  <si>
+    <t>examtakerautomation10543@gmail.com</t>
+  </si>
+  <si>
+    <t>10543</t>
+  </si>
+  <si>
+    <t>Examtaker25661</t>
+  </si>
+  <si>
+    <t>Automation25661</t>
+  </si>
+  <si>
+    <t>examtakerautomation25661@gmail.com</t>
+  </si>
+  <si>
+    <t>25661</t>
+  </si>
+  <si>
+    <t>Examtaker75554</t>
+  </si>
+  <si>
+    <t>Automation75554</t>
+  </si>
+  <si>
+    <t>examtakerautomation75554@gmail.com</t>
+  </si>
+  <si>
+    <t>75554</t>
+  </si>
+  <si>
+    <t>Examtaker25472</t>
+  </si>
+  <si>
+    <t>Automation25472</t>
+  </si>
+  <si>
+    <t>examtakerautomation25472@gmail.com</t>
+  </si>
+  <si>
+    <t>25472</t>
+  </si>
+  <si>
+    <t>Examtaker82908</t>
+  </si>
+  <si>
+    <t>Automation82908</t>
+  </si>
+  <si>
+    <t>examtakerautomation82908@gmail.com</t>
+  </si>
+  <si>
+    <t>82908</t>
+  </si>
+  <si>
+    <t>Examtaker26716</t>
+  </si>
+  <si>
+    <t>Automation26716</t>
+  </si>
+  <si>
+    <t>examtakerautomation26716@gmail.com</t>
+  </si>
+  <si>
+    <t>26716</t>
+  </si>
+  <si>
+    <t>Examtaker85491</t>
+  </si>
+  <si>
+    <t>Automation85491</t>
+  </si>
+  <si>
+    <t>examtakerautomation85491@gmail.com</t>
+  </si>
+  <si>
+    <t>85491</t>
+  </si>
+  <si>
+    <t>Examtaker64228</t>
+  </si>
+  <si>
+    <t>Automation64228</t>
+  </si>
+  <si>
+    <t>examtakerautomation64228@gmail.com</t>
+  </si>
+  <si>
+    <t>64228</t>
+  </si>
+  <si>
+    <t>Examtaker71750</t>
+  </si>
+  <si>
+    <t>Automation71750</t>
+  </si>
+  <si>
+    <t>examtakerautomation71750@gmail.com</t>
+  </si>
+  <si>
+    <t>71750</t>
+  </si>
+  <si>
+    <t>Examtaker75046</t>
+  </si>
+  <si>
+    <t>Automation75046</t>
+  </si>
+  <si>
+    <t>examtakerautomation75046@gmail.com</t>
+  </si>
+  <si>
+    <t>75046</t>
+  </si>
+  <si>
+    <t>Examtaker70646</t>
+  </si>
+  <si>
+    <t>Automation70646</t>
+  </si>
+  <si>
+    <t>examtakerautomation70646@gmail.com</t>
+  </si>
+  <si>
+    <t>70646</t>
+  </si>
+  <si>
+    <t>Examtaker89958</t>
+  </si>
+  <si>
+    <t>Automation89958</t>
+  </si>
+  <si>
+    <t>examtakerautomation89958@gmail.com</t>
+  </si>
+  <si>
+    <t>89958</t>
+  </si>
+  <si>
+    <t>Examtaker82586</t>
+  </si>
+  <si>
+    <t>Automation82586</t>
+  </si>
+  <si>
+    <t>examtakerautomation82586@gmail.com</t>
+  </si>
+  <si>
+    <t>82586</t>
+  </si>
+  <si>
+    <t>Examtaker89832</t>
+  </si>
+  <si>
+    <t>Automation89832</t>
+  </si>
+  <si>
+    <t>examtakerautomation89832@gmail.com</t>
+  </si>
+  <si>
+    <t>89832</t>
+  </si>
+  <si>
+    <t>Examtaker23447</t>
+  </si>
+  <si>
+    <t>Automation23447</t>
+  </si>
+  <si>
+    <t>examtakerautomation23447@gmail.com</t>
+  </si>
+  <si>
+    <t>23447</t>
+  </si>
+  <si>
+    <t>Examtaker21690</t>
+  </si>
+  <si>
+    <t>Automation21690</t>
+  </si>
+  <si>
+    <t>examtakerautomation21690@gmail.com</t>
+  </si>
+  <si>
+    <t>21690</t>
+  </si>
+  <si>
+    <t>Examtaker30616</t>
+  </si>
+  <si>
+    <t>Automation30616</t>
+  </si>
+  <si>
+    <t>examtakerautomation30616@gmail.com</t>
+  </si>
+  <si>
+    <t>30616</t>
+  </si>
+  <si>
+    <t>Examtaker68611</t>
+  </si>
+  <si>
+    <t>Automation68611</t>
+  </si>
+  <si>
+    <t>examtakerautomation68611@gmail.com</t>
+  </si>
+  <si>
+    <t>68611</t>
+  </si>
+  <si>
+    <t>Examtaker08749</t>
+  </si>
+  <si>
+    <t>Automation08749</t>
+  </si>
+  <si>
+    <t>examtakerautomation08749@gmail.com</t>
+  </si>
+  <si>
+    <t>08749</t>
+  </si>
+  <si>
+    <t>Examtaker20300</t>
+  </si>
+  <si>
+    <t>Automation20300</t>
+  </si>
+  <si>
+    <t>examtakerautomation20300@gmail.com</t>
+  </si>
+  <si>
+    <t>20300</t>
+  </si>
+  <si>
+    <t>Examtaker20428</t>
+  </si>
+  <si>
+    <t>Automation20428</t>
+  </si>
+  <si>
+    <t>examtakerautomation20428@gmail.com</t>
+  </si>
+  <si>
+    <t>20428</t>
+  </si>
+  <si>
+    <t>Examtaker90092</t>
+  </si>
+  <si>
+    <t>Automation90092</t>
+  </si>
+  <si>
+    <t>examtakerautomation90092@gmail.com</t>
+  </si>
+  <si>
+    <t>90092</t>
+  </si>
+  <si>
+    <t>Examtaker34199</t>
+  </si>
+  <si>
+    <t>Automation34199</t>
+  </si>
+  <si>
+    <t>examtakerautomation34199@gmail.com</t>
+  </si>
+  <si>
+    <t>34199</t>
+  </si>
+  <si>
+    <t>Examtaker40828</t>
+  </si>
+  <si>
+    <t>Automation40828</t>
+  </si>
+  <si>
+    <t>examtakerautomation40828@gmail.com</t>
+  </si>
+  <si>
+    <t>40828</t>
+  </si>
+  <si>
+    <t>Examtaker53444</t>
+  </si>
+  <si>
+    <t>Automation53444</t>
+  </si>
+  <si>
+    <t>examtakerautomation53444@gmail.com</t>
+  </si>
+  <si>
+    <t>53444</t>
+  </si>
+  <si>
+    <t>Examtaker32615</t>
+  </si>
+  <si>
+    <t>Automation32615</t>
+  </si>
+  <si>
+    <t>examtakerautomation32615@gmail.com</t>
+  </si>
+  <si>
+    <t>32615</t>
+  </si>
+  <si>
+    <t>Examtaker29210</t>
+  </si>
+  <si>
+    <t>Automation29210</t>
+  </si>
+  <si>
+    <t>examtakerautomation29210@gmail.com</t>
+  </si>
+  <si>
+    <t>29210</t>
+  </si>
+  <si>
+    <t>Examtaker98393</t>
+  </si>
+  <si>
+    <t>Automation98393</t>
+  </si>
+  <si>
+    <t>examtakerautomation98393@gmail.com</t>
+  </si>
+  <si>
+    <t>98393</t>
+  </si>
+  <si>
+    <t>Examtaker70946</t>
+  </si>
+  <si>
+    <t>Automation70946</t>
+  </si>
+  <si>
+    <t>examtakerautomation70946@gmail.com</t>
+  </si>
+  <si>
+    <t>70946</t>
+  </si>
+  <si>
+    <t>Examtaker09054</t>
+  </si>
+  <si>
+    <t>Automation09054</t>
+  </si>
+  <si>
+    <t>examtakerautomation09054@gmail.com</t>
+  </si>
+  <si>
+    <t>09054</t>
+  </si>
+  <si>
+    <t>Examtaker96292</t>
+  </si>
+  <si>
+    <t>Automation96292</t>
+  </si>
+  <si>
+    <t>examtakerautomation96292@gmail.com</t>
+  </si>
+  <si>
+    <t>96292</t>
+  </si>
+  <si>
+    <t>Examtaker54221</t>
+  </si>
+  <si>
+    <t>Automation54221</t>
+  </si>
+  <si>
+    <t>examtakerautomation54221@gmail.com</t>
+  </si>
+  <si>
+    <t>54221</t>
+  </si>
+  <si>
+    <t>Examtaker22596</t>
+  </si>
+  <si>
+    <t>Automation22596</t>
+  </si>
+  <si>
+    <t>examtakerautomation22596@gmail.com</t>
+  </si>
+  <si>
+    <t>22596</t>
+  </si>
+  <si>
+    <t>Examtaker93475</t>
+  </si>
+  <si>
+    <t>Automation93475</t>
+  </si>
+  <si>
+    <t>examtakerautomation93475@gmail.com</t>
+  </si>
+  <si>
+    <t>93475</t>
+  </si>
+  <si>
+    <t>Examtaker09019</t>
+  </si>
+  <si>
+    <t>Automation09019</t>
+  </si>
+  <si>
+    <t>examtakerautomation09019@gmail.com</t>
+  </si>
+  <si>
+    <t>09019</t>
+  </si>
+  <si>
+    <t>Examtaker96704</t>
+  </si>
+  <si>
+    <t>Automation96704</t>
+  </si>
+  <si>
+    <t>examtakerautomation96704@gmail.com</t>
+  </si>
+  <si>
+    <t>96704</t>
+  </si>
+  <si>
+    <t>Examtaker96904</t>
+  </si>
+  <si>
+    <t>Automation96904</t>
+  </si>
+  <si>
+    <t>examtakerautomation96904@gmail.com</t>
+  </si>
+  <si>
+    <t>96904</t>
+  </si>
+  <si>
+    <t>Examtaker35761</t>
+  </si>
+  <si>
+    <t>Automation35761</t>
+  </si>
+  <si>
+    <t>examtakerautomation35761@gmail.com</t>
+  </si>
+  <si>
+    <t>35761</t>
+  </si>
+  <si>
+    <t>Examtaker52419</t>
+  </si>
+  <si>
+    <t>Automation52419</t>
+  </si>
+  <si>
+    <t>examtakerautomation52419@gmail.com</t>
+  </si>
+  <si>
+    <t>52419</t>
+  </si>
+  <si>
+    <t>Examtaker07400</t>
+  </si>
+  <si>
+    <t>Automation07400</t>
+  </si>
+  <si>
+    <t>examtakerautomation07400@gmail.com</t>
+  </si>
+  <si>
+    <t>07400</t>
+  </si>
+  <si>
+    <t>Examtaker83405</t>
+  </si>
+  <si>
+    <t>Automation83405</t>
+  </si>
+  <si>
+    <t>examtakerautomation83405@gmail.com</t>
+  </si>
+  <si>
+    <t>83405</t>
+  </si>
+  <si>
+    <t>Examtaker82998</t>
+  </si>
+  <si>
+    <t>Automation82998</t>
+  </si>
+  <si>
+    <t>examtakerautomation82998@gmail.com</t>
+  </si>
+  <si>
+    <t>82998</t>
+  </si>
+  <si>
+    <t>Examtaker63779</t>
+  </si>
+  <si>
+    <t>Automation63779</t>
+  </si>
+  <si>
+    <t>examtakerautomation63779@gmail.com</t>
+  </si>
+  <si>
+    <t>63779</t>
+  </si>
+  <si>
+    <t>Examtaker30899</t>
+  </si>
+  <si>
+    <t>Automation30899</t>
+  </si>
+  <si>
+    <t>examtakerautomation30899@gmail.com</t>
+  </si>
+  <si>
+    <t>30899</t>
+  </si>
+  <si>
+    <t>Examtaker49247</t>
+  </si>
+  <si>
+    <t>Automation49247</t>
+  </si>
+  <si>
+    <t>examtakerautomation49247@gmail.com</t>
+  </si>
+  <si>
+    <t>49247</t>
+  </si>
+  <si>
+    <t>Examtaker32094</t>
+  </si>
+  <si>
+    <t>Automation32094</t>
+  </si>
+  <si>
+    <t>examtakerautomation32094@gmail.com</t>
+  </si>
+  <si>
+    <t>32094</t>
+  </si>
+  <si>
+    <t>Examtaker74847</t>
+  </si>
+  <si>
+    <t>Automation74847</t>
+  </si>
+  <si>
+    <t>examtakerautomation74847@gmail.com</t>
+  </si>
+  <si>
+    <t>74847</t>
+  </si>
+  <si>
+    <t>Examtaker90590</t>
+  </si>
+  <si>
+    <t>Automation90590</t>
+  </si>
+  <si>
+    <t>examtakerautomation90590@gmail.com</t>
+  </si>
+  <si>
+    <t>90590</t>
+  </si>
+  <si>
+    <t>Examtaker11508</t>
+  </si>
+  <si>
+    <t>Automation11508</t>
+  </si>
+  <si>
+    <t>examtakerautomation11508@gmail.com</t>
+  </si>
+  <si>
+    <t>11508</t>
+  </si>
+  <si>
+    <t>Examtaker44443</t>
+  </si>
+  <si>
+    <t>Automation44443</t>
+  </si>
+  <si>
+    <t>examtakerautomation44443@gmail.com</t>
+  </si>
+  <si>
+    <t>44443</t>
+  </si>
+  <si>
+    <t>Examtaker53334</t>
+  </si>
+  <si>
+    <t>Automation53334</t>
+  </si>
+  <si>
+    <t>examtakerautomation53334@gmail.com</t>
+  </si>
+  <si>
+    <t>53334</t>
+  </si>
+  <si>
+    <t>Examtaker27909</t>
+  </si>
+  <si>
+    <t>Automation27909</t>
+  </si>
+  <si>
+    <t>examtakerautomation27909@gmail.com</t>
+  </si>
+  <si>
+    <t>27909</t>
+  </si>
+  <si>
+    <t>Examtaker96318</t>
+  </si>
+  <si>
+    <t>Automation96318</t>
+  </si>
+  <si>
+    <t>examtakerautomation96318@gmail.com</t>
+  </si>
+  <si>
+    <t>96318</t>
+  </si>
+  <si>
+    <t>Examtaker79738</t>
+  </si>
+  <si>
+    <t>Automation79738</t>
+  </si>
+  <si>
+    <t>examtakerautomation79738@gmail.com</t>
+  </si>
+  <si>
+    <t>79738</t>
+  </si>
+  <si>
+    <t>Examtaker63086</t>
+  </si>
+  <si>
+    <t>Automation63086</t>
+  </si>
+  <si>
+    <t>examtakerautomation63086@gmail.com</t>
+  </si>
+  <si>
+    <t>63086</t>
+  </si>
+  <si>
+    <t>Examtaker85683</t>
+  </si>
+  <si>
+    <t>Automation85683</t>
+  </si>
+  <si>
+    <t>examtakerautomation85683@gmail.com</t>
+  </si>
+  <si>
+    <t>85683</t>
+  </si>
+  <si>
+    <t>Examtaker40628</t>
+  </si>
+  <si>
+    <t>Automation40628</t>
+  </si>
+  <si>
+    <t>examtakerautomation40628@gmail.com</t>
+  </si>
+  <si>
+    <t>40628</t>
+  </si>
+  <si>
+    <t>Examtaker58928</t>
+  </si>
+  <si>
+    <t>Automation58928</t>
+  </si>
+  <si>
+    <t>examtakerautomation58928@gmail.com</t>
+  </si>
+  <si>
+    <t>58928</t>
+  </si>
+  <si>
+    <t>Examtaker17780</t>
+  </si>
+  <si>
+    <t>Automation17780</t>
+  </si>
+  <si>
+    <t>examtakerautomation17780@gmail.com</t>
+  </si>
+  <si>
+    <t>17780</t>
+  </si>
+  <si>
+    <t>Examtaker84294</t>
+  </si>
+  <si>
+    <t>Automation84294</t>
+  </si>
+  <si>
+    <t>examtakerautomation84294@gmail.com</t>
+  </si>
+  <si>
+    <t>84294</t>
+  </si>
+  <si>
+    <t>Examtaker99304</t>
+  </si>
+  <si>
+    <t>Automation99304</t>
+  </si>
+  <si>
+    <t>examtakerautomation99304@gmail.com</t>
+  </si>
+  <si>
+    <t>99304</t>
+  </si>
+  <si>
+    <t>Examtaker41139</t>
+  </si>
+  <si>
+    <t>Automation41139</t>
+  </si>
+  <si>
+    <t>examtakerautomation41139@gmail.com</t>
+  </si>
+  <si>
+    <t>41139</t>
+  </si>
+  <si>
+    <t>Examtaker99993</t>
+  </si>
+  <si>
+    <t>Automation99993</t>
+  </si>
+  <si>
+    <t>examtakerautomation99993@gmail.com</t>
+  </si>
+  <si>
+    <t>99993</t>
+  </si>
+  <si>
+    <t>Examtaker92053</t>
+  </si>
+  <si>
+    <t>Automation92053</t>
+  </si>
+  <si>
+    <t>examtakerautomation92053@gmail.com</t>
+  </si>
+  <si>
+    <t>92053</t>
+  </si>
+  <si>
+    <t>Examtaker97092</t>
+  </si>
+  <si>
+    <t>Automation97092</t>
+  </si>
+  <si>
+    <t>examtakerautomation97092@gmail.com</t>
+  </si>
+  <si>
+    <t>97092</t>
+  </si>
+  <si>
+    <t>Examtaker60346</t>
+  </si>
+  <si>
+    <t>Automation60346</t>
+  </si>
+  <si>
+    <t>examtakerautomation60346@gmail.com</t>
+  </si>
+  <si>
+    <t>60346</t>
+  </si>
+  <si>
+    <t>Examtaker79820</t>
+  </si>
+  <si>
+    <t>Automation79820</t>
+  </si>
+  <si>
+    <t>examtakerautomation79820@gmail.com</t>
+  </si>
+  <si>
+    <t>79820</t>
+  </si>
+  <si>
+    <t>Examtaker64302</t>
+  </si>
+  <si>
+    <t>Automation64302</t>
+  </si>
+  <si>
+    <t>examtakerautomation64302@gmail.com</t>
+  </si>
+  <si>
+    <t>64302</t>
+  </si>
+  <si>
+    <t>Examtaker68051</t>
+  </si>
+  <si>
+    <t>Automation68051</t>
+  </si>
+  <si>
+    <t>examtakerautomation68051@gmail.com</t>
+  </si>
+  <si>
+    <t>68051</t>
+  </si>
+  <si>
+    <t>Examtaker05166</t>
+  </si>
+  <si>
+    <t>Automation05166</t>
+  </si>
+  <si>
+    <t>examtakerautomation05166@gmail.com</t>
+  </si>
+  <si>
+    <t>05166</t>
+  </si>
+  <si>
+    <t>Examtaker74803</t>
+  </si>
+  <si>
+    <t>Automation74803</t>
+  </si>
+  <si>
+    <t>examtakerautomation74803@gmail.com</t>
+  </si>
+  <si>
+    <t>74803</t>
+  </si>
+  <si>
+    <t>Examtaker87654</t>
+  </si>
+  <si>
+    <t>Automation87654</t>
+  </si>
+  <si>
+    <t>examtakerautomation87654@gmail.com</t>
+  </si>
+  <si>
+    <t>87654</t>
+  </si>
+  <si>
+    <t>Examtaker21279</t>
+  </si>
+  <si>
+    <t>Automation21279</t>
+  </si>
+  <si>
+    <t>examtakerautomation21279@gmail.com</t>
+  </si>
+  <si>
+    <t>21279</t>
+  </si>
+  <si>
+    <t>Examtaker59383</t>
+  </si>
+  <si>
+    <t>Automation59383</t>
+  </si>
+  <si>
+    <t>examtakerautomation59383@gmail.com</t>
+  </si>
+  <si>
+    <t>59383</t>
+  </si>
+  <si>
+    <t>Examtaker79376</t>
+  </si>
+  <si>
+    <t>Automation79376</t>
+  </si>
+  <si>
+    <t>examtakerautomation79376@gmail.com</t>
+  </si>
+  <si>
+    <t>79376</t>
+  </si>
+  <si>
+    <t>Examtaker28957</t>
+  </si>
+  <si>
+    <t>Automation28957</t>
+  </si>
+  <si>
+    <t>examtakerautomation28957@gmail.com</t>
+  </si>
+  <si>
+    <t>28957</t>
+  </si>
+  <si>
+    <t>Examtaker37433</t>
+  </si>
+  <si>
+    <t>Automation37433</t>
+  </si>
+  <si>
+    <t>examtakerautomation37433@gmail.com</t>
+  </si>
+  <si>
+    <t>37433</t>
+  </si>
+  <si>
+    <t>Examtaker40954</t>
+  </si>
+  <si>
+    <t>Automation40954</t>
+  </si>
+  <si>
+    <t>examtakerautomation40954@gmail.com</t>
+  </si>
+  <si>
+    <t>40954</t>
+  </si>
+  <si>
+    <t>Examtaker45893</t>
+  </si>
+  <si>
+    <t>Automation45893</t>
+  </si>
+  <si>
+    <t>examtakerautomation45893@gmail.com</t>
+  </si>
+  <si>
+    <t>45893</t>
+  </si>
+  <si>
+    <t>Examtaker56751</t>
+  </si>
+  <si>
+    <t>Automation56751</t>
+  </si>
+  <si>
+    <t>examtakerautomation56751@gmail.com</t>
+  </si>
+  <si>
+    <t>56751</t>
+  </si>
+  <si>
+    <t>Examtaker27895</t>
+  </si>
+  <si>
+    <t>Automation27895</t>
+  </si>
+  <si>
+    <t>examtakerautomation27895@gmail.com</t>
+  </si>
+  <si>
+    <t>27895</t>
+  </si>
+  <si>
+    <t>Examtaker11062</t>
+  </si>
+  <si>
+    <t>Automation11062</t>
+  </si>
+  <si>
+    <t>examtakerautomation11062@gmail.com</t>
+  </si>
+  <si>
+    <t>11062</t>
+  </si>
+  <si>
+    <t>Examtaker41872</t>
+  </si>
+  <si>
+    <t>Automation41872</t>
+  </si>
+  <si>
+    <t>examtakerautomation41872@gmail.com</t>
+  </si>
+  <si>
+    <t>41872</t>
+  </si>
+  <si>
+    <t>Examtaker07900</t>
+  </si>
+  <si>
+    <t>Automation07900</t>
+  </si>
+  <si>
+    <t>examtakerautomation07900@gmail.com</t>
+  </si>
+  <si>
+    <t>07900</t>
+  </si>
+  <si>
+    <t>Examtaker12950</t>
+  </si>
+  <si>
+    <t>Automation12950</t>
+  </si>
+  <si>
+    <t>examtakerautomation12950@gmail.com</t>
+  </si>
+  <si>
+    <t>12950</t>
+  </si>
+  <si>
+    <t>Examtaker79115</t>
+  </si>
+  <si>
+    <t>Automation79115</t>
+  </si>
+  <si>
+    <t>examtakerautomation79115@gmail.com</t>
+  </si>
+  <si>
+    <t>79115</t>
+  </si>
+  <si>
+    <t>Examtaker07177</t>
+  </si>
+  <si>
+    <t>Automation07177</t>
+  </si>
+  <si>
+    <t>examtakerautomation07177@gmail.com</t>
+  </si>
+  <si>
+    <t>07177</t>
+  </si>
+  <si>
+    <t>Examtaker83378</t>
+  </si>
+  <si>
+    <t>Automation83378</t>
+  </si>
+  <si>
+    <t>examtakerautomation83378@gmail.com</t>
+  </si>
+  <si>
+    <t>83378</t>
+  </si>
+  <si>
+    <t>Examtaker95490</t>
+  </si>
+  <si>
+    <t>Automation95490</t>
+  </si>
+  <si>
+    <t>examtakerautomation95490@gmail.com</t>
+  </si>
+  <si>
+    <t>95490</t>
+  </si>
+  <si>
+    <t>Examtaker10456</t>
+  </si>
+  <si>
+    <t>Automation10456</t>
+  </si>
+  <si>
+    <t>examtakerautomation10456@gmail.com</t>
+  </si>
+  <si>
+    <t>10456</t>
+  </si>
+  <si>
+    <t>Examtaker08902</t>
+  </si>
+  <si>
+    <t>Automation08902</t>
+  </si>
+  <si>
+    <t>examtakerautomation08902@gmail.com</t>
+  </si>
+  <si>
+    <t>08902</t>
+  </si>
+  <si>
+    <t>Examtaker91073</t>
+  </si>
+  <si>
+    <t>Automation91073</t>
+  </si>
+  <si>
+    <t>examtakerautomation91073@gmail.com</t>
+  </si>
+  <si>
+    <t>91073</t>
+  </si>
+  <si>
+    <t>Examtaker13954</t>
+  </si>
+  <si>
+    <t>Automation13954</t>
+  </si>
+  <si>
+    <t>examtakerautomation13954@gmail.com</t>
+  </si>
+  <si>
+    <t>13954</t>
+  </si>
+  <si>
+    <t>Examtaker49375</t>
+  </si>
+  <si>
+    <t>Automation49375</t>
+  </si>
+  <si>
+    <t>examtakerautomation49375@gmail.com</t>
+  </si>
+  <si>
+    <t>49375</t>
+  </si>
+  <si>
+    <t>Examtaker70386</t>
+  </si>
+  <si>
+    <t>Automation70386</t>
+  </si>
+  <si>
+    <t>examtakerautomation70386@gmail.com</t>
+  </si>
+  <si>
+    <t>70386</t>
+  </si>
+  <si>
+    <t>Examtaker34465</t>
+  </si>
+  <si>
+    <t>Automation34465</t>
+  </si>
+  <si>
+    <t>examtakerautomation34465@gmail.com</t>
+  </si>
+  <si>
+    <t>34465</t>
+  </si>
+  <si>
+    <t>Examtaker57445</t>
+  </si>
+  <si>
+    <t>Automation57445</t>
+  </si>
+  <si>
+    <t>examtakerautomation57445@gmail.com</t>
+  </si>
+  <si>
+    <t>57445</t>
+  </si>
+  <si>
+    <t>Examtaker25518</t>
+  </si>
+  <si>
+    <t>Automation25518</t>
+  </si>
+  <si>
+    <t>examtakerautomation25518@gmail.com</t>
+  </si>
+  <si>
+    <t>25518</t>
+  </si>
+  <si>
+    <t>Examtaker13551</t>
+  </si>
+  <si>
+    <t>Automation13551</t>
+  </si>
+  <si>
+    <t>examtakerautomation13551@gmail.com</t>
+  </si>
+  <si>
+    <t>13551</t>
+  </si>
+  <si>
+    <t>Examtaker30525</t>
+  </si>
+  <si>
+    <t>Automation30525</t>
+  </si>
+  <si>
+    <t>examtakerautomation30525@gmail.com</t>
+  </si>
+  <si>
+    <t>30525</t>
+  </si>
+  <si>
+    <t>Examtaker08077</t>
+  </si>
+  <si>
+    <t>Automation08077</t>
+  </si>
+  <si>
+    <t>examtakerautomation08077@gmail.com</t>
+  </si>
+  <si>
+    <t>08077</t>
+  </si>
+  <si>
+    <t>Examtaker07361</t>
+  </si>
+  <si>
+    <t>Automation07361</t>
+  </si>
+  <si>
+    <t>examtakerautomation07361@gmail.com</t>
+  </si>
+  <si>
+    <t>07361</t>
+  </si>
+  <si>
+    <t>Examtaker66211</t>
+  </si>
+  <si>
+    <t>Automation66211</t>
+  </si>
+  <si>
+    <t>examtakerautomation66211@gmail.com</t>
+  </si>
+  <si>
+    <t>66211</t>
+  </si>
+  <si>
+    <t>Examtaker16183</t>
+  </si>
+  <si>
+    <t>Automation16183</t>
+  </si>
+  <si>
+    <t>examtakerautomation16183@gmail.com</t>
+  </si>
+  <si>
+    <t>16183</t>
+  </si>
+  <si>
+    <t>Examtaker30319</t>
+  </si>
+  <si>
+    <t>Automation30319</t>
+  </si>
+  <si>
+    <t>examtakerautomation30319@gmail.com</t>
+  </si>
+  <si>
+    <t>30319</t>
+  </si>
+  <si>
+    <t>Examtaker18900</t>
+  </si>
+  <si>
+    <t>Automation18900</t>
+  </si>
+  <si>
+    <t>examtakerautomation18900@gmail.com</t>
+  </si>
+  <si>
+    <t>18900</t>
+  </si>
+  <si>
+    <t>Examtaker20508</t>
+  </si>
+  <si>
+    <t>Automation20508</t>
+  </si>
+  <si>
+    <t>examtakerautomation20508@gmail.com</t>
+  </si>
+  <si>
+    <t>20508</t>
+  </si>
+  <si>
+    <t>Examtaker09725</t>
+  </si>
+  <si>
+    <t>Automation09725</t>
+  </si>
+  <si>
+    <t>examtakerautomation09725@gmail.com</t>
+  </si>
+  <si>
+    <t>09725</t>
+  </si>
+  <si>
+    <t>Examtaker69989</t>
+  </si>
+  <si>
+    <t>Automation69989</t>
+  </si>
+  <si>
+    <t>examtakerautomation69989@gmail.com</t>
+  </si>
+  <si>
+    <t>69989</t>
+  </si>
+  <si>
+    <t>Examtaker27046</t>
+  </si>
+  <si>
+    <t>Automation27046</t>
+  </si>
+  <si>
+    <t>examtakerautomation27046@gmail.com</t>
+  </si>
+  <si>
+    <t>27046</t>
+  </si>
+  <si>
+    <t>Examtaker02248</t>
+  </si>
+  <si>
+    <t>Automation02248</t>
+  </si>
+  <si>
+    <t>examtakerautomation02248@gmail.com</t>
+  </si>
+  <si>
+    <t>02248</t>
+  </si>
+  <si>
+    <t>Examtaker44262</t>
+  </si>
+  <si>
+    <t>Automation44262</t>
+  </si>
+  <si>
+    <t>examtakerautomation44262@gmail.com</t>
+  </si>
+  <si>
+    <t>44262</t>
+  </si>
+  <si>
+    <t>Examtaker40129</t>
+  </si>
+  <si>
+    <t>Automation40129</t>
+  </si>
+  <si>
+    <t>examtakerautomation40129@gmail.com</t>
+  </si>
+  <si>
+    <t>40129</t>
+  </si>
+  <si>
+    <t>Examtaker71747</t>
+  </si>
+  <si>
+    <t>Automation71747</t>
+  </si>
+  <si>
+    <t>examtakerautomation71747@gmail.com</t>
+  </si>
+  <si>
+    <t>71747</t>
+  </si>
+  <si>
+    <t>Examtaker86791</t>
+  </si>
+  <si>
+    <t>Automation86791</t>
+  </si>
+  <si>
+    <t>examtakerautomation86791@gmail.com</t>
+  </si>
+  <si>
+    <t>86791</t>
+  </si>
+  <si>
+    <t>Examtaker59686</t>
+  </si>
+  <si>
+    <t>Automation59686</t>
+  </si>
+  <si>
+    <t>examtakerautomation59686@gmail.com</t>
+  </si>
+  <si>
+    <t>59686</t>
+  </si>
+  <si>
+    <t>Examtaker22129</t>
+  </si>
+  <si>
+    <t>Automation22129</t>
+  </si>
+  <si>
+    <t>examtakerautomation22129@gmail.com</t>
+  </si>
+  <si>
+    <t>22129</t>
+  </si>
+  <si>
+    <t>Examtaker31911</t>
+  </si>
+  <si>
+    <t>Automation31911</t>
+  </si>
+  <si>
+    <t>examtakerautomation31911@gmail.com</t>
+  </si>
+  <si>
+    <t>31911</t>
+  </si>
+  <si>
+    <t>Examtaker43677</t>
+  </si>
+  <si>
+    <t>Automation43677</t>
+  </si>
+  <si>
+    <t>examtakerautomation43677@gmail.com</t>
+  </si>
+  <si>
+    <t>43677</t>
+  </si>
+  <si>
+    <t>Examtaker50786</t>
+  </si>
+  <si>
+    <t>Automation50786</t>
+  </si>
+  <si>
+    <t>examtakerautomation50786@gmail.com</t>
+  </si>
+  <si>
+    <t>50786</t>
+  </si>
+  <si>
+    <t>Examtaker44512</t>
+  </si>
+  <si>
+    <t>Automation44512</t>
+  </si>
+  <si>
+    <t>examtakerautomation44512@gmail.com</t>
+  </si>
+  <si>
+    <t>44512</t>
+  </si>
+  <si>
+    <t>Examtaker62790</t>
+  </si>
+  <si>
+    <t>Automation62790</t>
+  </si>
+  <si>
+    <t>examtakerautomation62790@gmail.com</t>
+  </si>
+  <si>
+    <t>62790</t>
+  </si>
+  <si>
+    <t>Examtaker74274</t>
+  </si>
+  <si>
+    <t>Automation74274</t>
+  </si>
+  <si>
+    <t>examtakerautomation74274@gmail.com</t>
+  </si>
+  <si>
+    <t>74274</t>
+  </si>
+  <si>
+    <t>Examtaker13232</t>
+  </si>
+  <si>
+    <t>Automation13232</t>
+  </si>
+  <si>
+    <t>examtakerautomation13232@gmail.com</t>
+  </si>
+  <si>
+    <t>13232</t>
   </si>
 </sst>
 </file>
@@ -15799,422 +17575,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5005</v>
+        <v>5597</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5006</v>
+        <v>5598</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5007</v>
+        <v>5599</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>5008</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5009</v>
+        <v>5601</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5010</v>
+        <v>5602</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5011</v>
+        <v>5603</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>5012</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5013</v>
+        <v>5605</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5014</v>
+        <v>5606</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5015</v>
+        <v>5607</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>5016</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5017</v>
+        <v>5609</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5018</v>
+        <v>5610</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5019</v>
+        <v>5611</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>5020</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5021</v>
+        <v>5613</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5022</v>
+        <v>5614</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>5023</v>
+        <v>5615</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>5024</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5025</v>
+        <v>5617</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5026</v>
+        <v>5618</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>5027</v>
+        <v>5619</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>5028</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5029</v>
+        <v>5621</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>5030</v>
+        <v>5622</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>5031</v>
+        <v>5623</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>5032</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5033</v>
+        <v>5625</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5034</v>
+        <v>5626</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>5035</v>
+        <v>5627</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>5036</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5037</v>
+        <v>5629</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5038</v>
+        <v>5630</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>5039</v>
+        <v>5631</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>5040</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5041</v>
+        <v>5633</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5042</v>
+        <v>5634</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>5043</v>
+        <v>5635</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>5044</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5045</v>
+        <v>5637</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5046</v>
+        <v>5638</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>5047</v>
+        <v>5639</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>5048</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>5049</v>
+        <v>5641</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>5050</v>
+        <v>5642</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>5051</v>
+        <v>5643</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>5052</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>5053</v>
+        <v>5645</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5054</v>
+        <v>5646</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>5055</v>
+        <v>5647</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>5056</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>5057</v>
+        <v>5649</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>5058</v>
+        <v>5650</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>5059</v>
+        <v>5651</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>5060</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>5061</v>
+        <v>5653</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>5062</v>
+        <v>5654</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>5063</v>
+        <v>5655</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>5064</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>5065</v>
+        <v>5657</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>5066</v>
+        <v>5658</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>5067</v>
+        <v>5659</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>5068</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>5069</v>
+        <v>5661</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>5070</v>
+        <v>5662</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>5071</v>
+        <v>5663</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>5072</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>5073</v>
+        <v>5665</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>5074</v>
+        <v>5666</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>5075</v>
+        <v>5667</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>5076</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>5077</v>
+        <v>5669</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>5078</v>
+        <v>5670</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>5079</v>
+        <v>5671</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>5080</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>5081</v>
+        <v>5673</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>5082</v>
+        <v>5674</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>5083</v>
+        <v>5675</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>5084</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>5085</v>
+        <v>5677</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>5086</v>
+        <v>5678</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>5087</v>
+        <v>5679</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>5088</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>5089</v>
+        <v>5681</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>5090</v>
+        <v>5682</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>5091</v>
+        <v>5683</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>5092</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5093</v>
+        <v>5685</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>5094</v>
+        <v>5686</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>5095</v>
+        <v>5687</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>5096</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>5097</v>
+        <v>5689</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5098</v>
+        <v>5690</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>5099</v>
+        <v>5691</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>5100</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>5101</v>
+        <v>5693</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5102</v>
+        <v>5694</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>5103</v>
+        <v>5695</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>5104</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>5105</v>
+        <v>5697</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5106</v>
+        <v>5698</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>5107</v>
+        <v>5699</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>5108</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>5109</v>
+        <v>5701</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>5110</v>
+        <v>5702</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>5111</v>
+        <v>5703</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>5112</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>5113</v>
+        <v>5705</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>5114</v>
+        <v>5706</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>5115</v>
+        <v>5707</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>5116</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>5117</v>
+        <v>5709</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>5118</v>
+        <v>5710</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>5119</v>
+        <v>5711</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>5120</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5121</v>
+        <v>5713</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>5122</v>
+        <v>5714</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>5123</v>
+        <v>5715</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>5124</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="32"/>
